--- a/banco_raca_genero_fgv.xlsx
+++ b/banco_raca_genero_fgv.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre G\Documents\Pesquisa\Scripts Webscraping\Agregador de pesquisas (Streamlit)\modelo_raca_genero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AEED9A-7419-452A-B8FF-3B7CCEDE25EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750D8D58-8F30-4004-B1CB-E07CBB77CDA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11850" yWindow="1320" windowWidth="19245" windowHeight="8325" xr2:uid="{31563B56-3A1D-4132-8093-857FD13750A5}"/>
+    <workbookView xWindow="19125" yWindow="0" windowWidth="19245" windowHeight="8325" xr2:uid="{31563B56-3A1D-4132-8093-857FD13750A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$CZ$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$DJ$87</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="370">
   <si>
     <t>nome_instituto</t>
   </si>
@@ -812,9 +812,6 @@
     <t>https://exame-membercenter-static.s3.us-east-2.amazonaws.com/EXAME+IDEIA+24+FEVEREIRO+2022+EDITORIAL.pdf</t>
   </si>
   <si>
-    <t>https://ipespe.org.br/wp-content/uploads/2022/03/PESQUISA-IPESPE-FEV-2.pdf</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://static.poder360.com.br/2020/04/PoderData-relatorio-Brasil-1mar22.pdf </t>
   </si>
   <si>
@@ -839,9 +836,6 @@
     <t>https://classic.exame.com/wp-content/uploads/2022/03/EXAME-IDEIA-24-DE-MARCO_ESPECIAL-ELEICOES-2022-EDITORIAL.pdf</t>
   </si>
   <si>
-    <t>https://ipespe.org.br/wp-content/uploads/2022/03/RELATORIO-PESQUISA-IPESPE-MAR-2022-SEGUNDA-QUINZENA_compressed.pdf</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://static.poder360.com.br/2020/04/PoderData-relatorio-Brasil-29mar22.pdf </t>
   </si>
   <si>
@@ -1074,6 +1068,84 @@
   </si>
   <si>
     <t xml:space="preserve">https://classic.exame.com/wp-content/uploads/2022/05/EXAME-IDEIA-19-DE-MAIO_-ELEICOES-2022-editorial.pdf </t>
+  </si>
+  <si>
+    <t>bra_nulo_h_1t</t>
+  </si>
+  <si>
+    <t>bra_nulo_m_1t</t>
+  </si>
+  <si>
+    <t>bra_nulo_ger_2t</t>
+  </si>
+  <si>
+    <t>ns_nr_ger_2t</t>
+  </si>
+  <si>
+    <t>bra_nulo_ger_1t</t>
+  </si>
+  <si>
+    <t>ns_nr_ger_1t</t>
+  </si>
+  <si>
+    <t>bra_nulo_h_2t</t>
+  </si>
+  <si>
+    <t>bra_nulo_m_2t</t>
+  </si>
+  <si>
+    <t>bra_nul_ns_nr_ger_2t</t>
+  </si>
+  <si>
+    <t>bra_nul_ns_nr_ger_1t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ipespe.org.br/wp-content/uploads/2022/03/RELATORIO-PESQUISA-IPESPE-MAR-2022-SEGUNDA-QUINZENA_compressed.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ipespe.org.br/wp-content/uploads/2022/03/PESQUISA-IPESPE-FEV-2.pdf </t>
+  </si>
+  <si>
+    <t>jun/22_poderdata_2</t>
+  </si>
+  <si>
+    <t>BR-07003/2022</t>
+  </si>
+  <si>
+    <t>https://static.poder360.com.br/2022/06/PoderData-relatorio-Brasil-21jun22.pdf</t>
+  </si>
+  <si>
+    <t>não divulgou dados de rejeição</t>
+  </si>
+  <si>
+    <t>jun/22_idea</t>
+  </si>
+  <si>
+    <t>BR-02845-2022</t>
+  </si>
+  <si>
+    <t>https://classic.exame.com/wp-content/uploads/2022/06/EXAME-IDEIA_-23-DE-JUNHO_ELEICOES-2022-editorial.pdf</t>
+  </si>
+  <si>
+    <t>jun/22_datafolha</t>
+  </si>
+  <si>
+    <t>BR-09088/2022</t>
+  </si>
+  <si>
+    <t>http://media.folha.uol.com.br/datafolha/2022/06/24/intencaoxe390nf8enow85ndvoo-junsrwv222.pdf</t>
+  </si>
+  <si>
+    <t>http://media.folha.uol.com.br/datafolha/2022/06/24/av46092af784lia4325ca5t32o-p562365re7473sidente-x97jun-22sj1rw.pdf</t>
+  </si>
+  <si>
+    <t>BR-05022/2022</t>
+  </si>
+  <si>
+    <t>https://static.poder360.com.br/2022/06/pesquisa-btg-fsb-27jun2022.pdf</t>
+  </si>
+  <si>
+    <t>jun/22_fsb_2</t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1197,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1192,6 +1264,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1206,7 +1290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1317,6 +1401,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1637,10 +1736,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6156B78F-4178-4430-929C-85D622A7BD0A}">
-  <dimension ref="A1:CZ99"/>
+  <dimension ref="A1:DJ99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AU21" sqref="AU21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="6" topLeftCell="H81" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1656,28 +1758,30 @@
     <col min="11" max="11" width="10.42578125" style="11" customWidth="1"/>
     <col min="12" max="25" width="9.140625" style="11"/>
     <col min="26" max="28" width="10.140625" style="11" customWidth="1"/>
-    <col min="29" max="29" width="11.7109375" style="11" customWidth="1"/>
-    <col min="30" max="30" width="10.85546875" style="11" customWidth="1"/>
-    <col min="31" max="32" width="11" style="11" customWidth="1"/>
-    <col min="33" max="33" width="12.42578125" style="11" customWidth="1"/>
-    <col min="34" max="38" width="11" style="11" customWidth="1"/>
-    <col min="39" max="39" width="11.85546875" style="11" customWidth="1"/>
-    <col min="40" max="44" width="11" style="11" customWidth="1"/>
-    <col min="45" max="45" width="12.5703125" style="11" customWidth="1"/>
-    <col min="46" max="47" width="11" style="11" customWidth="1"/>
-    <col min="48" max="51" width="9.140625" style="11"/>
-    <col min="52" max="66" width="11.7109375" style="11" customWidth="1"/>
-    <col min="67" max="67" width="12.85546875" style="11" customWidth="1"/>
-    <col min="68" max="68" width="13" style="11" customWidth="1"/>
-    <col min="69" max="71" width="12.85546875" style="11" customWidth="1"/>
-    <col min="72" max="89" width="14.140625" style="11" customWidth="1"/>
-    <col min="90" max="100" width="9.140625" style="11"/>
-    <col min="101" max="101" width="12.5703125" style="11" customWidth="1"/>
-    <col min="102" max="102" width="8.7109375" style="23" customWidth="1"/>
-    <col min="103" max="16384" width="9.140625" style="11"/>
+    <col min="29" max="31" width="11.7109375" style="11" customWidth="1"/>
+    <col min="32" max="32" width="13.7109375" style="11" customWidth="1"/>
+    <col min="33" max="34" width="12.85546875" style="11" customWidth="1"/>
+    <col min="35" max="35" width="10.85546875" style="11" customWidth="1"/>
+    <col min="36" max="37" width="11" style="11" customWidth="1"/>
+    <col min="38" max="38" width="12.42578125" style="11" customWidth="1"/>
+    <col min="39" max="43" width="11" style="11" customWidth="1"/>
+    <col min="44" max="44" width="11.85546875" style="11" customWidth="1"/>
+    <col min="45" max="49" width="11" style="11" customWidth="1"/>
+    <col min="50" max="50" width="12.5703125" style="11" customWidth="1"/>
+    <col min="51" max="52" width="11" style="11" customWidth="1"/>
+    <col min="53" max="58" width="9.140625" style="11"/>
+    <col min="59" max="76" width="11.7109375" style="11" customWidth="1"/>
+    <col min="77" max="77" width="12.85546875" style="11" customWidth="1"/>
+    <col min="78" max="78" width="13" style="11" customWidth="1"/>
+    <col min="79" max="81" width="12.85546875" style="11" customWidth="1"/>
+    <col min="82" max="99" width="14.140625" style="11" customWidth="1"/>
+    <col min="100" max="110" width="9.140625" style="11"/>
+    <col min="111" max="111" width="12.5703125" style="11" customWidth="1"/>
+    <col min="112" max="112" width="8.7109375" style="23" customWidth="1"/>
+    <col min="113" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:104" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:114" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -1745,7 +1849,7 @@
         <v>39</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>40</v>
@@ -1765,238 +1869,268 @@
       <c r="AC1" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="39" t="s">
+        <v>344</v>
+      </c>
+      <c r="AE1" s="39" t="s">
+        <v>345</v>
+      </c>
+      <c r="AF1" s="40" t="s">
+        <v>348</v>
+      </c>
+      <c r="AG1" s="40" t="s">
+        <v>349</v>
+      </c>
+      <c r="AH1" s="40" t="s">
+        <v>353</v>
+      </c>
+      <c r="AI1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="BC1" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE1" s="41" t="s">
+        <v>350</v>
+      </c>
+      <c r="BF1" s="41" t="s">
+        <v>351</v>
+      </c>
+      <c r="BG1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="BH1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="BI1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BL1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="BM1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="BN1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="BO1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="BP1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="BQ1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="BR1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="BS1" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="BT1" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="BU1" s="38" t="s">
+        <v>346</v>
+      </c>
+      <c r="BV1" s="38" t="s">
+        <v>347</v>
+      </c>
+      <c r="BW1" s="38" t="s">
+        <v>352</v>
+      </c>
+      <c r="BX1" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="BY1" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="BZ1" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="CA1" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="CB1" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="CC1" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="CD1" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="CE1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="CF1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="CG1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="CH1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="CI1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="CJ1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="CK1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="CL1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="CM1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="CN1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="CO1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="CP1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="CQ1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="CR1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="CS1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="CT1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="CU1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="CV1" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="CW1" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="CX1" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="CY1" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="CZ1" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="AY1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AZ1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="BA1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="BB1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="BC1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="BD1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="BE1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="BF1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="BG1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="BH1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="BI1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="BJ1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="BL1" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="BM1" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="BN1" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="BO1" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="BP1" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="BQ1" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="BR1" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="BS1" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="BT1" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="BU1" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV1" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="BW1" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="BX1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY1" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="BZ1" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="CA1" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="CB1" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC1" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD1" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="CE1" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="CF1" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="CG1" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="CH1" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="CI1" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ1" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="CK1" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="CL1" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="CM1" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="CN1" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="CO1" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="CP1" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="CQ1" s="13" t="s">
+      <c r="DA1" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="CR1" s="13" t="s">
+      <c r="DB1" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="CS1" s="13" t="s">
+      <c r="DC1" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="CT1" s="13" t="s">
+      <c r="DD1" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="CU1" s="13" t="s">
+      <c r="DE1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="CV1" s="13" t="s">
+      <c r="DF1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="CW1" s="13" t="s">
+      <c r="DG1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="CX1" s="19" t="s">
+      <c r="DH1" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="CY1" s="12" t="s">
+      <c r="DI1" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="CZ1" s="11" t="s">
-        <v>303</v>
+      <c r="DJ1" s="11" t="s">
+        <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>106</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C2" s="35">
         <v>44247</v>
@@ -2049,7 +2183,7 @@
       <c r="AE2"/>
       <c r="AF2"/>
       <c r="AG2"/>
-      <c r="AH2"/>
+      <c r="AH2" s="8"/>
       <c r="AI2"/>
       <c r="AJ2"/>
       <c r="AK2"/>
@@ -2116,16 +2250,26 @@
       <c r="CT2"/>
       <c r="CU2"/>
       <c r="CV2"/>
-      <c r="CW2">
-        <v>35.5</v>
-      </c>
-      <c r="CX2" s="37" t="s">
-        <v>343</v>
-      </c>
+      <c r="CW2"/>
+      <c r="CX2"/>
       <c r="CY2"/>
       <c r="CZ2"/>
+      <c r="DA2"/>
+      <c r="DB2"/>
+      <c r="DC2"/>
+      <c r="DD2"/>
+      <c r="DE2"/>
+      <c r="DF2"/>
+      <c r="DG2">
+        <v>35.5</v>
+      </c>
+      <c r="DH2" s="37" t="s">
+        <v>341</v>
+      </c>
+      <c r="DI2"/>
+      <c r="DJ2"/>
     </row>
-    <row r="3" spans="1:104" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:114" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>89</v>
       </c>
@@ -2201,98 +2345,98 @@
       <c r="AC3" s="8">
         <v>8</v>
       </c>
-      <c r="AE3" s="8">
+      <c r="AJ3" s="8">
         <v>26</v>
       </c>
-      <c r="AF3" s="8">
+      <c r="AK3" s="8">
         <v>37</v>
       </c>
-      <c r="AI3" s="8">
+      <c r="AN3" s="8">
         <v>44</v>
       </c>
-      <c r="AK3" s="8">
+      <c r="AP3" s="8">
         <v>28</v>
       </c>
-      <c r="AL3" s="8">
+      <c r="AQ3" s="8">
         <v>24</v>
       </c>
-      <c r="AO3" s="8">
+      <c r="AT3" s="8">
         <v>26</v>
       </c>
-      <c r="AQ3" s="8">
+      <c r="AV3" s="8">
         <v>9</v>
       </c>
-      <c r="AR3" s="8">
+      <c r="AW3" s="8">
         <v>8</v>
       </c>
-      <c r="AU3" s="8">
+      <c r="AZ3" s="8">
         <v>4</v>
       </c>
-      <c r="BN3" s="8">
+      <c r="BX3" s="8">
         <v>48</v>
       </c>
-      <c r="BO3" s="8">
+      <c r="BY3" s="8">
         <v>41</v>
       </c>
-      <c r="BP3" s="8">
+      <c r="BZ3" s="8">
         <v>51</v>
       </c>
-      <c r="BQ3" s="8">
+      <c r="CA3" s="8">
         <v>61</v>
       </c>
-      <c r="BR3" s="8">
+      <c r="CB3" s="8">
         <v>56</v>
       </c>
-      <c r="BS3" s="8">
+      <c r="CC3" s="8">
         <v>50</v>
       </c>
-      <c r="BU3" s="8">
+      <c r="CE3" s="8">
         <v>53</v>
       </c>
-      <c r="BV3" s="8">
+      <c r="CF3" s="8">
         <v>41</v>
       </c>
-      <c r="BY3" s="8">
+      <c r="CI3" s="8">
         <v>36</v>
       </c>
-      <c r="CA3" s="8">
+      <c r="CK3" s="8">
         <v>54</v>
       </c>
-      <c r="CB3" s="8">
+      <c r="CL3" s="8">
         <v>58</v>
       </c>
-      <c r="CE3" s="8">
+      <c r="CO3" s="8">
         <v>48</v>
       </c>
-      <c r="CG3" s="8">
+      <c r="CQ3" s="8">
         <v>56</v>
       </c>
-      <c r="CH3" s="8">
+      <c r="CR3" s="8">
         <v>51</v>
       </c>
-      <c r="CK3" s="8">
+      <c r="CU3" s="8">
         <v>53</v>
       </c>
-      <c r="CL3" s="8">
+      <c r="CV3" s="8">
         <v>44</v>
       </c>
-      <c r="CM3" s="8">
+      <c r="CW3" s="8">
         <v>56</v>
       </c>
-      <c r="CN3" s="8">
+      <c r="CX3" s="8">
         <v>53</v>
       </c>
-      <c r="CW3" s="8">
+      <c r="DG3" s="8">
         <v>39</v>
       </c>
-      <c r="CX3" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="CZ3" s="29" t="s">
-        <v>316</v>
+      <c r="DH3" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="DJ3" s="29" t="s">
+        <v>314</v>
       </c>
     </row>
-    <row r="4" spans="1:104" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:114" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>92</v>
       </c>
@@ -2362,65 +2506,97 @@
       <c r="AC4" s="8">
         <v>5</v>
       </c>
-      <c r="AV4" s="8">
+      <c r="AD4" s="8">
+        <v>7</v>
+      </c>
+      <c r="AE4" s="8">
+        <v>12</v>
+      </c>
+      <c r="AF4" s="8">
+        <v>10</v>
+      </c>
+      <c r="AG4" s="8">
+        <v>3</v>
+      </c>
+      <c r="AH4" s="8">
+        <f t="shared" ref="AH4:AH64" si="0">AF4+AG4</f>
+        <v>13</v>
+      </c>
+      <c r="BA4" s="8">
         <v>38</v>
       </c>
-      <c r="AW4" s="8">
+      <c r="BB4" s="8">
         <v>43</v>
       </c>
-      <c r="AX4" s="8">
+      <c r="BC4" s="8">
         <v>43</v>
       </c>
-      <c r="AY4" s="8">
+      <c r="BD4" s="8">
         <v>30</v>
       </c>
-      <c r="BL4" s="8">
+      <c r="BE4" s="8">
+        <v>14</v>
+      </c>
+      <c r="BF4" s="8">
+        <v>21</v>
+      </c>
+      <c r="BS4" s="8">
         <v>41</v>
       </c>
-      <c r="BM4" s="8">
+      <c r="BT4" s="8">
         <v>36</v>
       </c>
-      <c r="BN4" s="8">
+      <c r="BU4" s="8">
+        <v>18</v>
+      </c>
+      <c r="BV4" s="8">
+        <v>5</v>
+      </c>
+      <c r="BW4" s="8">
+        <f>BU4+BV4</f>
+        <v>23</v>
+      </c>
+      <c r="BX4" s="8">
         <v>41</v>
       </c>
-      <c r="BO4" s="8">
+      <c r="BY4" s="8">
         <v>40</v>
       </c>
-      <c r="BP4" s="8">
+      <c r="BZ4" s="8">
         <v>49</v>
       </c>
-      <c r="BQ4" s="8">
+      <c r="CA4" s="8">
         <v>56</v>
       </c>
-      <c r="BR4" s="8">
+      <c r="CB4" s="8">
         <v>55</v>
       </c>
-      <c r="BS4" s="8">
+      <c r="CC4" s="8">
         <v>57</v>
       </c>
-      <c r="CL4" s="8">
+      <c r="CV4" s="8">
         <v>40</v>
       </c>
-      <c r="CM4" s="8">
+      <c r="CW4" s="8">
         <v>53</v>
       </c>
-      <c r="CN4" s="8">
+      <c r="CX4" s="8">
         <v>56</v>
       </c>
-      <c r="CO4" s="8">
+      <c r="CY4" s="8">
         <v>51</v>
       </c>
-      <c r="CP4" s="8">
+      <c r="CZ4" s="8">
         <v>52</v>
       </c>
-      <c r="CW4" s="8">
+      <c r="DG4" s="8">
         <v>52</v>
       </c>
-      <c r="CX4" s="25" t="s">
+      <c r="DH4" s="25" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:104" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:114" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>92</v>
       </c>
@@ -2505,80 +2681,112 @@
       <c r="AC5" s="8">
         <v>6</v>
       </c>
-      <c r="AV5" s="8">
+      <c r="AD5" s="8">
+        <v>6</v>
+      </c>
+      <c r="AE5" s="8">
+        <v>8</v>
+      </c>
+      <c r="AF5" s="8">
+        <v>7</v>
+      </c>
+      <c r="AG5" s="8">
+        <v>2</v>
+      </c>
+      <c r="AH5" s="8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="BA5" s="8">
         <v>41</v>
       </c>
-      <c r="AW5" s="8">
+      <c r="BB5" s="8">
         <v>61</v>
       </c>
-      <c r="AX5" s="8">
+      <c r="BC5" s="8">
         <v>47</v>
       </c>
-      <c r="AY5" s="8">
+      <c r="BD5" s="8">
         <v>23</v>
       </c>
-      <c r="BL5" s="8">
+      <c r="BE5" s="8">
+        <v>10</v>
+      </c>
+      <c r="BF5" s="8">
+        <v>15</v>
+      </c>
+      <c r="BS5" s="8">
         <v>52</v>
       </c>
-      <c r="BM5" s="8">
+      <c r="BT5" s="8">
         <v>34</v>
       </c>
-      <c r="BN5" s="8">
+      <c r="BU5" s="8">
+        <v>13</v>
+      </c>
+      <c r="BV5" s="8">
+        <v>1</v>
+      </c>
+      <c r="BW5" s="8">
+        <f t="shared" ref="BW5:BW21" si="1">BU5+BV5</f>
+        <v>14</v>
+      </c>
+      <c r="BX5" s="8">
         <v>46</v>
       </c>
-      <c r="BO5" s="8">
+      <c r="BY5" s="8">
         <v>36</v>
       </c>
-      <c r="BP5" s="8">
+      <c r="BZ5" s="8">
         <v>48</v>
       </c>
-      <c r="BQ5" s="8">
+      <c r="CA5" s="8">
         <v>52</v>
       </c>
-      <c r="BR5" s="8">
+      <c r="CB5" s="8">
         <v>59</v>
       </c>
-      <c r="BS5" s="8">
+      <c r="CC5" s="8">
         <v>55</v>
       </c>
-      <c r="CL5" s="8">
+      <c r="CV5" s="8">
         <v>41</v>
       </c>
-      <c r="CM5" s="8">
+      <c r="CW5" s="8">
         <v>50</v>
       </c>
-      <c r="CN5" s="8">
+      <c r="CX5" s="8">
         <v>57</v>
       </c>
-      <c r="CO5" s="8">
+      <c r="CY5" s="8">
         <v>51</v>
       </c>
-      <c r="CP5" s="8">
+      <c r="CZ5" s="8">
         <v>57</v>
       </c>
-      <c r="CQ5" s="8">
+      <c r="DA5" s="8">
         <v>43</v>
       </c>
-      <c r="CR5" s="8">
+      <c r="DB5" s="8">
         <v>37</v>
       </c>
-      <c r="CS5" s="8">
+      <c r="DC5" s="8">
         <v>16</v>
       </c>
-      <c r="CT5" s="8">
+      <c r="DD5" s="8">
         <v>0</v>
       </c>
-      <c r="CU5" s="8">
+      <c r="DE5" s="8">
         <v>1</v>
       </c>
-      <c r="CW5" s="8">
+      <c r="DG5" s="8">
         <v>55</v>
       </c>
-      <c r="CX5" s="25" t="s">
-        <v>339</v>
+      <c r="DH5" s="25" t="s">
+        <v>337</v>
       </c>
     </row>
-    <row r="6" spans="1:104" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:114" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>95</v>
       </c>
@@ -2642,59 +2850,91 @@
       <c r="AC6" s="8">
         <v>6.2</v>
       </c>
-      <c r="AV6" s="8">
+      <c r="AD6" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="AE6" s="8">
+        <v>10</v>
+      </c>
+      <c r="AF6" s="8">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AG6" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="AH6" s="8">
+        <f t="shared" si="0"/>
+        <v>12.600000000000001</v>
+      </c>
+      <c r="BA6" s="8">
         <v>36.200000000000003</v>
       </c>
-      <c r="AW6" s="8">
+      <c r="BB6" s="8">
         <v>43</v>
       </c>
-      <c r="AX6" s="8">
+      <c r="BC6" s="8">
         <v>47.6</v>
       </c>
-      <c r="AY6" s="8">
+      <c r="BD6" s="8">
         <v>37.9</v>
       </c>
-      <c r="BL6" s="8">
+      <c r="BE6" s="8">
+        <v>11.7</v>
+      </c>
+      <c r="BF6" s="8">
+        <v>15.1</v>
+      </c>
+      <c r="BS6" s="8">
         <v>42.5</v>
       </c>
-      <c r="BM6" s="8">
+      <c r="BT6" s="8">
         <v>39.799999999999997</v>
       </c>
-      <c r="BN6" s="8">
+      <c r="BU6" s="8">
+        <v>13.5</v>
+      </c>
+      <c r="BV6" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="BW6" s="8">
+        <f t="shared" si="1"/>
+        <v>17.7</v>
+      </c>
+      <c r="BX6" s="8">
         <v>50.3</v>
       </c>
-      <c r="BO6" s="8">
+      <c r="BY6" s="8">
         <v>44.3</v>
       </c>
-      <c r="BP6" s="8">
+      <c r="BZ6" s="8">
         <v>42.5</v>
       </c>
-      <c r="BQ6" s="8">
+      <c r="CA6" s="8">
         <v>53.1</v>
       </c>
-      <c r="BR6" s="8">
+      <c r="CB6" s="8">
         <v>54.2</v>
       </c>
-      <c r="BS6" s="8">
+      <c r="CC6" s="8">
         <v>45.1</v>
       </c>
-      <c r="CL6" s="8">
+      <c r="CV6" s="8">
         <v>47</v>
       </c>
-      <c r="CM6" s="8">
+      <c r="CW6" s="8">
         <v>48.1</v>
       </c>
-      <c r="CN6" s="8">
+      <c r="CX6" s="8">
         <v>49.4</v>
       </c>
-      <c r="CW6" s="8">
+      <c r="DG6" s="8">
         <v>43.1</v>
       </c>
-      <c r="CX6" s="25" t="s">
+      <c r="DH6" s="25" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:104" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:114" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>92</v>
       </c>
@@ -2764,65 +3004,97 @@
       <c r="AC7" s="8">
         <v>6</v>
       </c>
-      <c r="AV7" s="8">
+      <c r="AD7" s="8">
+        <v>5</v>
+      </c>
+      <c r="AE7" s="8">
+        <v>10</v>
+      </c>
+      <c r="AF7" s="8">
+        <v>8</v>
+      </c>
+      <c r="AG7" s="8">
+        <v>2</v>
+      </c>
+      <c r="AH7" s="8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="BA7" s="8">
         <v>42</v>
       </c>
-      <c r="AW7" s="8">
+      <c r="BB7" s="8">
         <v>57</v>
       </c>
-      <c r="AX7" s="8">
+      <c r="BC7" s="8">
         <v>46</v>
       </c>
-      <c r="AY7" s="8">
+      <c r="BD7" s="8">
         <v>25</v>
       </c>
-      <c r="BL7" s="8">
+      <c r="BE7" s="8">
+        <v>10</v>
+      </c>
+      <c r="BF7" s="8">
+        <v>16</v>
+      </c>
+      <c r="BS7" s="8">
         <v>50</v>
       </c>
-      <c r="BM7" s="8">
+      <c r="BT7" s="8">
         <v>35</v>
       </c>
-      <c r="BN7" s="8">
+      <c r="BU7" s="8">
+        <v>13</v>
+      </c>
+      <c r="BV7" s="8">
+        <v>2</v>
+      </c>
+      <c r="BW7" s="8">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="BX7" s="8">
         <v>59</v>
       </c>
-      <c r="BO7" s="8">
+      <c r="BY7" s="8">
         <v>42</v>
       </c>
-      <c r="BP7" s="8">
+      <c r="BZ7" s="8">
         <v>42</v>
       </c>
-      <c r="BQ7" s="8">
+      <c r="CA7" s="8">
         <v>55</v>
       </c>
-      <c r="BR7" s="8">
+      <c r="CB7" s="8">
         <v>59</v>
       </c>
-      <c r="BS7" s="8">
+      <c r="CC7" s="8">
         <v>58</v>
       </c>
-      <c r="CL7" s="8">
+      <c r="CV7" s="8">
         <v>50</v>
       </c>
-      <c r="CM7" s="8">
+      <c r="CW7" s="8">
         <v>49</v>
       </c>
-      <c r="CN7" s="8">
+      <c r="CX7" s="8">
         <v>58</v>
       </c>
-      <c r="CO7" s="8">
+      <c r="CY7" s="8">
         <v>41</v>
       </c>
-      <c r="CP7" s="8">
+      <c r="CZ7" s="8">
         <v>61</v>
       </c>
-      <c r="CW7" s="8">
+      <c r="DG7" s="8">
         <v>51</v>
       </c>
-      <c r="CX7" s="25" t="s">
+      <c r="DH7" s="25" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:104" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:114" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>98</v>
       </c>
@@ -2908,154 +3180,186 @@
         <v>6</v>
       </c>
       <c r="AD8" s="8">
+        <v>7</v>
+      </c>
+      <c r="AE8" s="8">
+        <v>11</v>
+      </c>
+      <c r="AF8" s="8">
+        <v>9</v>
+      </c>
+      <c r="AG8" s="8">
+        <v>4</v>
+      </c>
+      <c r="AH8" s="8">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AI8" s="8">
         <v>40</v>
       </c>
-      <c r="AE8" s="8">
+      <c r="AJ8" s="8">
         <v>32</v>
       </c>
-      <c r="AF8" s="8">
+      <c r="AK8" s="8">
         <v>53</v>
       </c>
-      <c r="AJ8" s="8">
+      <c r="AO8" s="8">
         <v>25</v>
       </c>
-      <c r="AK8" s="8">
+      <c r="AP8" s="8">
         <v>27</v>
       </c>
-      <c r="AL8" s="8">
+      <c r="AQ8" s="8">
         <v>14</v>
       </c>
-      <c r="AP8" s="8">
+      <c r="AU8" s="8">
         <v>5</v>
       </c>
-      <c r="AQ8" s="8">
+      <c r="AV8" s="8">
         <v>7</v>
       </c>
-      <c r="AR8" s="8">
+      <c r="AW8" s="8">
         <v>4</v>
       </c>
-      <c r="AV8" s="8">
+      <c r="BA8" s="8">
         <v>53</v>
       </c>
-      <c r="AW8" s="8">
+      <c r="BB8" s="8">
         <v>57</v>
       </c>
-      <c r="AX8" s="8">
+      <c r="BC8" s="8">
         <v>37</v>
       </c>
-      <c r="AY8" s="8">
+      <c r="BD8" s="8">
         <v>28</v>
       </c>
-      <c r="AZ8" s="8">
+      <c r="BE8" s="8">
+        <v>9</v>
+      </c>
+      <c r="BF8" s="8">
+        <v>13</v>
+      </c>
+      <c r="BG8" s="8">
         <v>54</v>
       </c>
-      <c r="BA8" s="8">
+      <c r="BH8" s="8">
         <v>49</v>
       </c>
-      <c r="BB8" s="8">
+      <c r="BI8" s="8">
         <v>65</v>
       </c>
-      <c r="BF8" s="8">
+      <c r="BM8" s="8">
         <v>34</v>
       </c>
-      <c r="BG8" s="8">
+      <c r="BN8" s="8">
         <v>37</v>
       </c>
-      <c r="BH8" s="8">
+      <c r="BO8" s="8">
         <v>23</v>
       </c>
-      <c r="BL8" s="8">
+      <c r="BS8" s="8">
         <v>55</v>
       </c>
-      <c r="BM8" s="8">
+      <c r="BT8" s="8">
         <v>32</v>
       </c>
-      <c r="BN8" s="8">
+      <c r="BU8" s="8">
+        <v>11</v>
+      </c>
+      <c r="BV8" s="8">
+        <v>2</v>
+      </c>
+      <c r="BW8" s="8">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="BX8" s="8">
         <v>36</v>
       </c>
-      <c r="BO8" s="8">
+      <c r="BY8" s="8">
         <v>35</v>
       </c>
-      <c r="BP8" s="8">
+      <c r="BZ8" s="8">
         <v>48</v>
       </c>
-      <c r="BQ8" s="8">
+      <c r="CA8" s="8">
         <v>59</v>
       </c>
-      <c r="BR8" s="8">
+      <c r="CB8" s="8">
         <v>29</v>
       </c>
-      <c r="BS8" s="8">
+      <c r="CC8" s="8">
         <v>20</v>
       </c>
-      <c r="BT8" s="8">
+      <c r="CD8" s="8">
         <v>35</v>
       </c>
-      <c r="BU8" s="8">
+      <c r="CE8" s="8">
         <v>45</v>
       </c>
-      <c r="BV8" s="8">
+      <c r="CF8" s="8">
         <v>26</v>
       </c>
-      <c r="BZ8" s="8">
+      <c r="CJ8" s="8">
         <v>54</v>
       </c>
-      <c r="CA8" s="8">
+      <c r="CK8" s="8">
         <v>50</v>
       </c>
-      <c r="CB8" s="8">
+      <c r="CL8" s="8">
         <v>62</v>
       </c>
-      <c r="CF8" s="8">
+      <c r="CP8" s="8">
         <v>24</v>
       </c>
-      <c r="CG8" s="8">
+      <c r="CQ8" s="8">
         <v>26</v>
       </c>
-      <c r="CH8" s="8">
+      <c r="CR8" s="8">
         <v>23</v>
       </c>
-      <c r="CL8" s="8">
+      <c r="CV8" s="8">
         <v>36</v>
       </c>
-      <c r="CM8" s="8">
+      <c r="CW8" s="8">
         <v>54</v>
       </c>
-      <c r="CN8" s="8">
+      <c r="CX8" s="8">
         <v>24</v>
       </c>
-      <c r="CO8" s="8">
+      <c r="CY8" s="8">
         <v>42</v>
       </c>
-      <c r="CP8" s="8">
+      <c r="CZ8" s="8">
         <v>58</v>
       </c>
-      <c r="CQ8" s="8">
+      <c r="DA8" s="8">
         <v>38</v>
       </c>
-      <c r="CR8" s="8">
+      <c r="DB8" s="8">
         <v>35</v>
       </c>
-      <c r="CS8" s="8">
+      <c r="DC8" s="8">
         <v>18</v>
       </c>
-      <c r="CT8" s="8">
+      <c r="DD8" s="8">
         <v>2</v>
       </c>
-      <c r="CU8" s="8">
+      <c r="DE8" s="8">
         <v>2</v>
       </c>
-      <c r="CV8" s="8">
+      <c r="DF8" s="8">
         <v>5</v>
       </c>
-      <c r="CW8" s="8">
+      <c r="DG8" s="8">
         <v>42</v>
       </c>
-      <c r="CX8" s="25" t="s">
+      <c r="DH8" s="25" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:104" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:114" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>101</v>
       </c>
@@ -3117,61 +3421,93 @@
         <v>5</v>
       </c>
       <c r="AD9" s="8">
+        <v>8</v>
+      </c>
+      <c r="AE9" s="8">
+        <v>11</v>
+      </c>
+      <c r="AF9" s="8">
+        <v>9</v>
+      </c>
+      <c r="AG9" s="8">
+        <v>5</v>
+      </c>
+      <c r="AH9" s="8">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="AI9" s="8">
         <v>48</v>
       </c>
-      <c r="AE9" s="8">
+      <c r="AJ9" s="8">
         <v>33</v>
       </c>
-      <c r="AF9" s="8">
+      <c r="AK9" s="8">
         <v>51</v>
       </c>
-      <c r="AI9" s="8">
+      <c r="AN9" s="8">
         <v>36</v>
       </c>
-      <c r="AJ9" s="8">
+      <c r="AO9" s="8">
         <v>23</v>
       </c>
-      <c r="AK9" s="8">
+      <c r="AP9" s="8">
         <v>29</v>
       </c>
-      <c r="AL9" s="8">
+      <c r="AQ9" s="8">
         <v>17</v>
       </c>
-      <c r="AO9" s="8">
+      <c r="AT9" s="8">
         <v>25</v>
       </c>
-      <c r="AP9" s="8">
+      <c r="AU9" s="8">
         <v>4</v>
       </c>
-      <c r="AQ9" s="8">
+      <c r="AV9" s="8">
         <v>6</v>
       </c>
-      <c r="AR9" s="8">
+      <c r="AW9" s="8">
         <v>6</v>
       </c>
-      <c r="AU9" s="8">
+      <c r="AZ9" s="8">
         <v>14</v>
       </c>
-      <c r="BL9" s="8">
+      <c r="BE9" s="8">
+        <v>11</v>
+      </c>
+      <c r="BF9" s="8">
+        <v>17</v>
+      </c>
+      <c r="BS9" s="8">
         <v>55</v>
       </c>
-      <c r="BM9" s="8">
+      <c r="BT9" s="8">
         <v>28</v>
       </c>
-      <c r="CL9" s="8">
+      <c r="BU9" s="8">
+        <v>14</v>
+      </c>
+      <c r="BV9" s="8">
+        <v>3</v>
+      </c>
+      <c r="BW9" s="8">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="CV9" s="8">
         <v>39</v>
       </c>
-      <c r="CM9" s="8">
+      <c r="CW9" s="8">
         <v>64</v>
       </c>
-      <c r="CN9" s="8">
+      <c r="CX9" s="8">
         <v>49</v>
       </c>
-      <c r="CX9" s="25" t="s">
+      <c r="DH9" s="25" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:104" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:114" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>92</v>
       </c>
@@ -3241,65 +3577,97 @@
       <c r="AC10" s="8">
         <v>10</v>
       </c>
-      <c r="AV10" s="8">
+      <c r="AD10" s="8">
+        <v>6</v>
+      </c>
+      <c r="AE10" s="8">
+        <v>7</v>
+      </c>
+      <c r="AF10" s="8">
+        <v>7</v>
+      </c>
+      <c r="AG10" s="8">
+        <v>5</v>
+      </c>
+      <c r="AH10" s="8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="BA10" s="8">
         <v>41</v>
       </c>
-      <c r="AW10" s="8">
+      <c r="BB10" s="8">
         <v>55</v>
       </c>
-      <c r="AX10" s="8">
+      <c r="BC10" s="8">
         <v>47</v>
       </c>
-      <c r="AY10" s="8">
+      <c r="BD10" s="8">
         <v>28</v>
       </c>
-      <c r="BL10" s="8">
+      <c r="BE10" s="8">
+        <v>11</v>
+      </c>
+      <c r="BF10" s="8">
+        <v>15</v>
+      </c>
+      <c r="BS10" s="8">
         <v>48</v>
       </c>
-      <c r="BM10" s="8">
+      <c r="BT10" s="8">
         <v>37</v>
       </c>
-      <c r="BN10" s="8">
+      <c r="BU10" s="8">
+        <v>13</v>
+      </c>
+      <c r="BV10" s="8">
+        <v>2</v>
+      </c>
+      <c r="BW10" s="8">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="BX10" s="8">
         <v>56</v>
       </c>
-      <c r="BO10" s="8">
+      <c r="BY10" s="8">
         <v>41</v>
       </c>
-      <c r="BP10" s="8">
+      <c r="BZ10" s="8">
         <v>41</v>
       </c>
-      <c r="BQ10" s="8">
+      <c r="CA10" s="8">
         <v>58</v>
       </c>
-      <c r="BR10" s="8">
+      <c r="CB10" s="8">
         <v>49</v>
       </c>
-      <c r="BS10" s="8">
+      <c r="CC10" s="8">
         <v>44</v>
       </c>
-      <c r="CL10" s="8">
+      <c r="CV10" s="8">
         <v>48</v>
       </c>
-      <c r="CM10" s="8">
+      <c r="CW10" s="8">
         <v>50</v>
       </c>
-      <c r="CN10" s="8">
+      <c r="CX10" s="8">
         <v>46</v>
       </c>
-      <c r="CO10" s="8">
+      <c r="CY10" s="8">
         <v>42</v>
       </c>
-      <c r="CP10" s="8">
+      <c r="CZ10" s="8">
         <v>61</v>
       </c>
-      <c r="CW10" s="8">
+      <c r="DG10" s="8">
         <v>52</v>
       </c>
-      <c r="CX10" s="25" t="s">
+      <c r="DH10" s="25" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="11" spans="1:104" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:114" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>95</v>
       </c>
@@ -3363,59 +3731,91 @@
       <c r="AC11" s="8">
         <v>6.2</v>
       </c>
-      <c r="AV11" s="8">
+      <c r="AD11" s="8">
+        <v>7.1</v>
+      </c>
+      <c r="AE11" s="8">
+        <v>9.9</v>
+      </c>
+      <c r="AF11" s="8">
+        <v>8.6</v>
+      </c>
+      <c r="AG11" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="AH11" s="8">
+        <f t="shared" si="0"/>
+        <v>12.2</v>
+      </c>
+      <c r="BA11" s="8">
         <v>35.700000000000003</v>
       </c>
-      <c r="AW11" s="8">
+      <c r="BB11" s="8">
         <v>44.3</v>
       </c>
-      <c r="AX11" s="8">
+      <c r="BC11" s="8">
         <v>48.4</v>
       </c>
-      <c r="AY11" s="8">
+      <c r="BD11" s="8">
         <v>32.5</v>
       </c>
-      <c r="BL11" s="8">
+      <c r="BE11" s="8">
+        <v>12.7</v>
+      </c>
+      <c r="BF11" s="8">
+        <v>17.8</v>
+      </c>
+      <c r="BS11" s="8">
         <v>40.200000000000003</v>
       </c>
-      <c r="BM11" s="8">
+      <c r="BT11" s="8">
         <v>40</v>
       </c>
-      <c r="BN11" s="8">
+      <c r="BU11" s="8">
+        <v>15.3</v>
+      </c>
+      <c r="BV11" s="8">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="BW11" s="8">
+        <f t="shared" si="1"/>
+        <v>19.700000000000003</v>
+      </c>
+      <c r="BX11" s="8">
         <v>55.7</v>
       </c>
-      <c r="BO11" s="8">
+      <c r="BY11" s="8">
         <v>44.3</v>
       </c>
-      <c r="BP11" s="8">
+      <c r="BZ11" s="8">
         <v>41.1</v>
       </c>
-      <c r="BQ11" s="8">
+      <c r="CA11" s="8">
         <v>58.7</v>
       </c>
-      <c r="BR11" s="8">
+      <c r="CB11" s="8">
         <v>56.2</v>
       </c>
-      <c r="BS11" s="8">
+      <c r="CC11" s="8">
         <v>46.1</v>
       </c>
-      <c r="CL11" s="8">
+      <c r="CV11" s="8">
         <v>49.7</v>
       </c>
-      <c r="CM11" s="8">
+      <c r="CW11" s="8">
         <v>50.4</v>
       </c>
-      <c r="CN11" s="8">
+      <c r="CX11" s="8">
         <v>50.9</v>
       </c>
-      <c r="CW11" s="8">
+      <c r="DG11" s="8">
         <v>45.6</v>
       </c>
-      <c r="CX11" s="25" t="s">
+      <c r="DH11" s="25" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:104" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:114" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>89</v>
       </c>
@@ -3497,98 +3897,114 @@
       <c r="AC12" s="8">
         <v>7</v>
       </c>
+      <c r="AD12" s="8">
+        <v>7</v>
+      </c>
       <c r="AE12" s="8">
+        <v>12</v>
+      </c>
+      <c r="AF12" s="8">
+        <v>10</v>
+      </c>
+      <c r="AG12" s="8">
+        <v>3</v>
+      </c>
+      <c r="AH12" s="8">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AJ12" s="8">
         <v>40</v>
       </c>
-      <c r="AF12" s="8">
+      <c r="AK12" s="8">
         <v>54</v>
       </c>
-      <c r="AI12" s="8">
+      <c r="AN12" s="8">
         <v>48</v>
       </c>
-      <c r="AK12" s="8">
+      <c r="AP12" s="8">
         <v>29</v>
       </c>
-      <c r="AL12" s="8">
+      <c r="AQ12" s="8">
         <v>21</v>
       </c>
-      <c r="AO12" s="8">
+      <c r="AT12" s="8">
         <v>16</v>
       </c>
-      <c r="AQ12" s="8">
+      <c r="AV12" s="8">
         <v>8</v>
       </c>
-      <c r="AR12" s="8">
+      <c r="AW12" s="8">
         <v>7</v>
       </c>
-      <c r="AU12" s="8">
+      <c r="AZ12" s="8">
         <v>10</v>
       </c>
-      <c r="BN12" s="8">
+      <c r="BX12" s="8">
         <v>39</v>
       </c>
-      <c r="BO12" s="8">
+      <c r="BY12" s="8">
         <v>32</v>
       </c>
-      <c r="BP12" s="8">
+      <c r="BZ12" s="8">
         <v>57</v>
       </c>
-      <c r="BQ12" s="8">
+      <c r="CA12" s="8">
         <v>67</v>
       </c>
-      <c r="BR12" s="8">
+      <c r="CB12" s="8">
         <v>51</v>
       </c>
-      <c r="BS12" s="8">
+      <c r="CC12" s="8">
         <v>47</v>
       </c>
-      <c r="BU12" s="8">
+      <c r="CE12" s="8">
         <v>33</v>
       </c>
-      <c r="BV12" s="8">
+      <c r="CF12" s="8">
         <v>41</v>
       </c>
-      <c r="BY12" s="8">
+      <c r="CI12" s="8">
         <v>34</v>
       </c>
-      <c r="CA12" s="8">
+      <c r="CK12" s="8">
         <v>56</v>
       </c>
-      <c r="CB12" s="8">
+      <c r="CL12" s="8">
         <v>66</v>
       </c>
-      <c r="CE12" s="8">
+      <c r="CO12" s="8">
         <v>67</v>
       </c>
-      <c r="CG12" s="8">
+      <c r="CQ12" s="8">
         <v>50</v>
       </c>
-      <c r="CH12" s="8">
+      <c r="CR12" s="8">
         <v>48</v>
       </c>
-      <c r="CK12" s="8">
+      <c r="CU12" s="8">
         <v>52</v>
       </c>
-      <c r="CL12" s="8">
+      <c r="CV12" s="8">
         <v>36</v>
       </c>
-      <c r="CM12" s="8">
+      <c r="CW12" s="8">
         <v>62</v>
       </c>
-      <c r="CN12" s="8">
+      <c r="CX12" s="8">
         <v>49</v>
       </c>
-      <c r="CW12" s="8">
+      <c r="DG12" s="8">
         <v>49</v>
       </c>
-      <c r="CX12" s="22" t="s">
-        <v>311</v>
-      </c>
-      <c r="CZ12" s="26" t="s">
-        <v>315</v>
+      <c r="DH12" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="DJ12" s="26" t="s">
+        <v>313</v>
       </c>
     </row>
-    <row r="13" spans="1:104" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:114" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>106</v>
       </c>
@@ -3634,29 +4050,49 @@
       <c r="AC13" s="8">
         <v>6</v>
       </c>
-      <c r="BL13" s="8">
+      <c r="AF13" s="8">
+        <v>8.6</v>
+      </c>
+      <c r="AG13" s="8">
+        <v>7.8</v>
+      </c>
+      <c r="AH13" s="8">
+        <f t="shared" si="0"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="BS13" s="8">
         <v>52.6</v>
       </c>
-      <c r="BM13" s="8">
+      <c r="BT13" s="8">
         <v>33.299999999999997</v>
       </c>
-      <c r="CL13" s="8">
+      <c r="BU13" s="8">
+        <v>11.5</v>
+      </c>
+      <c r="BV13" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="BW13" s="8">
+        <f t="shared" si="1"/>
+        <v>14.1</v>
+      </c>
+      <c r="CV13" s="8">
         <v>44.5</v>
       </c>
-      <c r="CM13" s="8">
+      <c r="CW13" s="8">
         <v>61.8</v>
       </c>
-      <c r="CN13" s="8">
+      <c r="CX13" s="8">
         <v>54.4</v>
       </c>
-      <c r="CW13" s="8">
+      <c r="DG13" s="8">
         <v>48</v>
       </c>
-      <c r="CX13" s="27" t="s">
+      <c r="DH13" s="27" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="14" spans="1:104" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:114" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>108</v>
       </c>
@@ -3723,26 +4159,46 @@
       <c r="AC14" s="8">
         <v>10</v>
       </c>
-      <c r="BL14" s="8">
+      <c r="AF14" s="8">
+        <v>3</v>
+      </c>
+      <c r="AG14" s="8">
+        <v>8</v>
+      </c>
+      <c r="AH14" s="8">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="BS14" s="8">
         <v>54</v>
       </c>
-      <c r="BM14" s="8">
+      <c r="BT14" s="8">
         <v>33</v>
       </c>
-      <c r="CL14" s="8">
+      <c r="BU14" s="8">
+        <v>11</v>
+      </c>
+      <c r="BV14" s="8">
+        <v>2</v>
+      </c>
+      <c r="BW14" s="8">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="CV14" s="8">
         <v>42</v>
       </c>
-      <c r="CM14" s="8">
+      <c r="CW14" s="8">
         <v>61</v>
       </c>
-      <c r="CN14" s="8">
+      <c r="CX14" s="8">
         <v>58</v>
       </c>
-      <c r="CX14" s="26" t="s">
-        <v>341</v>
+      <c r="DH14" s="26" t="s">
+        <v>339</v>
       </c>
     </row>
-    <row r="15" spans="1:104" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:114" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>92</v>
       </c>
@@ -3812,65 +4268,97 @@
       <c r="AC15" s="8">
         <v>10</v>
       </c>
-      <c r="AV15" s="8">
+      <c r="AD15" s="8">
+        <v>10</v>
+      </c>
+      <c r="AE15" s="8">
+        <v>9</v>
+      </c>
+      <c r="AF15" s="8">
+        <v>9</v>
+      </c>
+      <c r="AG15" s="8">
+        <v>4</v>
+      </c>
+      <c r="AH15" s="8">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="BA15" s="8">
         <v>44</v>
       </c>
-      <c r="AW15" s="8">
+      <c r="BB15" s="8">
         <v>65</v>
       </c>
-      <c r="AX15" s="8">
+      <c r="BC15" s="8">
         <v>40</v>
       </c>
-      <c r="AY15" s="8">
+      <c r="BD15" s="8">
         <v>25</v>
       </c>
-      <c r="BL15" s="8">
+      <c r="BE15" s="8">
+        <v>15</v>
+      </c>
+      <c r="BF15" s="8">
+        <v>9</v>
+      </c>
+      <c r="BS15" s="8">
         <v>55</v>
       </c>
-      <c r="BM15" s="8">
+      <c r="BT15" s="8">
         <v>32</v>
       </c>
-      <c r="BN15" s="8">
+      <c r="BU15" s="8">
+        <v>12</v>
+      </c>
+      <c r="BV15" s="8">
+        <v>1</v>
+      </c>
+      <c r="BW15" s="8">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="BX15" s="8">
         <v>50</v>
       </c>
-      <c r="BO15" s="8">
+      <c r="BY15" s="8">
         <v>25</v>
       </c>
-      <c r="BP15" s="8">
+      <c r="BZ15" s="8">
         <v>47</v>
       </c>
-      <c r="BQ15" s="8">
+      <c r="CA15" s="8">
         <v>64</v>
       </c>
-      <c r="BR15" s="8">
+      <c r="CB15" s="8">
         <v>57</v>
       </c>
-      <c r="BS15" s="8">
+      <c r="CC15" s="8">
         <v>47</v>
       </c>
-      <c r="CL15" s="8">
+      <c r="CV15" s="8">
         <v>36</v>
       </c>
-      <c r="CM15" s="8">
+      <c r="CW15" s="8">
         <v>56</v>
       </c>
-      <c r="CN15" s="8">
+      <c r="CX15" s="8">
         <v>52</v>
       </c>
-      <c r="CO15" s="8">
+      <c r="CY15" s="8">
         <v>50</v>
       </c>
-      <c r="CP15" s="8">
+      <c r="CZ15" s="8">
         <v>59</v>
       </c>
-      <c r="CW15" s="8">
+      <c r="DG15" s="8">
         <v>55</v>
       </c>
-      <c r="CX15" s="25" t="s">
-        <v>338</v>
+      <c r="DH15" s="25" t="s">
+        <v>336</v>
       </c>
     </row>
-    <row r="16" spans="1:104" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:114" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>95</v>
       </c>
@@ -3934,59 +4422,91 @@
       <c r="AC16" s="8">
         <v>6.9</v>
       </c>
-      <c r="AV16" s="8">
+      <c r="AD16" s="8">
+        <v>6.8</v>
+      </c>
+      <c r="AE16" s="8">
+        <v>11.6</v>
+      </c>
+      <c r="AF16" s="8">
+        <v>9.4</v>
+      </c>
+      <c r="AG16" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="AH16" s="8">
+        <f t="shared" si="0"/>
+        <v>12.7</v>
+      </c>
+      <c r="BA16" s="8">
         <v>38.799999999999997</v>
       </c>
-      <c r="AW16" s="8">
+      <c r="BB16" s="8">
         <v>47.4</v>
       </c>
-      <c r="AX16" s="8">
+      <c r="BC16" s="8">
         <v>45.3</v>
       </c>
-      <c r="AY16" s="8">
+      <c r="BD16" s="8">
         <v>31.9</v>
       </c>
-      <c r="BL16" s="8">
+      <c r="BE16" s="8">
+        <v>12.9</v>
+      </c>
+      <c r="BF16" s="8">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="BS16" s="8">
         <v>43.3</v>
       </c>
-      <c r="BM16" s="8">
+      <c r="BT16" s="8">
         <v>38.200000000000003</v>
       </c>
-      <c r="BN16" s="8">
+      <c r="BU16" s="8">
+        <v>15</v>
+      </c>
+      <c r="BV16" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="BW16" s="8">
+        <f t="shared" si="1"/>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="BX16" s="8">
         <v>51.5</v>
       </c>
-      <c r="BO16" s="8">
+      <c r="BY16" s="8">
         <v>42.3</v>
       </c>
-      <c r="BP16" s="8">
+      <c r="BZ16" s="8">
         <v>45.9</v>
       </c>
-      <c r="BQ16" s="8">
+      <c r="CA16" s="8">
         <v>60</v>
       </c>
-      <c r="BR16" s="8">
+      <c r="CB16" s="8">
         <v>56.5</v>
       </c>
-      <c r="BS16" s="8">
+      <c r="CC16" s="8">
         <v>47.2</v>
       </c>
-      <c r="CL16" s="8">
+      <c r="CV16" s="8">
         <v>46.7</v>
       </c>
-      <c r="CM16" s="8">
+      <c r="CW16" s="8">
         <v>53.3</v>
       </c>
-      <c r="CN16" s="8">
+      <c r="CX16" s="8">
         <v>51.6</v>
       </c>
-      <c r="CW16" s="8">
+      <c r="DG16" s="8">
         <v>47.5</v>
       </c>
-      <c r="CX16" s="25" t="s">
+      <c r="DH16" s="25" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="17" spans="1:104" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:114" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>92</v>
       </c>
@@ -4056,65 +4576,97 @@
       <c r="AC17" s="8">
         <v>8</v>
       </c>
-      <c r="AV17" s="8">
+      <c r="AD17" s="8">
+        <v>2</v>
+      </c>
+      <c r="AE17" s="8">
+        <v>10</v>
+      </c>
+      <c r="AF17" s="8">
+        <v>5</v>
+      </c>
+      <c r="AG17" s="8">
+        <v>5</v>
+      </c>
+      <c r="AH17" s="8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="BA17" s="8">
         <v>56</v>
       </c>
-      <c r="AW17" s="8">
+      <c r="BB17" s="8">
         <v>49</v>
       </c>
-      <c r="AX17" s="8">
+      <c r="BC17" s="8">
         <v>32</v>
       </c>
-      <c r="AY17" s="8">
+      <c r="BD17" s="8">
         <v>32</v>
       </c>
-      <c r="BL17" s="8">
+      <c r="BE17" s="8">
+        <v>10</v>
+      </c>
+      <c r="BF17" s="8">
+        <v>13</v>
+      </c>
+      <c r="BS17" s="8">
         <v>52</v>
       </c>
-      <c r="BM17" s="8">
+      <c r="BT17" s="8">
         <v>32</v>
       </c>
-      <c r="BN17" s="8">
+      <c r="BU17" s="8">
+        <v>12</v>
+      </c>
+      <c r="BV17" s="8">
+        <v>4</v>
+      </c>
+      <c r="BW17" s="8">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="BX17" s="8">
         <v>33</v>
       </c>
-      <c r="BO17" s="8">
+      <c r="BY17" s="8">
         <v>34</v>
       </c>
-      <c r="BP17" s="8">
+      <c r="BZ17" s="8">
         <v>61</v>
       </c>
-      <c r="BQ17" s="8">
+      <c r="CA17" s="8">
         <v>61</v>
       </c>
-      <c r="BR17" s="8">
+      <c r="CB17" s="8">
         <v>47</v>
       </c>
-      <c r="BS17" s="8">
+      <c r="CC17" s="8">
         <v>54</v>
       </c>
-      <c r="CL17" s="8">
+      <c r="CV17" s="8">
         <v>34</v>
       </c>
-      <c r="CM17" s="8">
+      <c r="CW17" s="8">
         <v>61</v>
       </c>
-      <c r="CN17" s="8">
+      <c r="CX17" s="8">
         <v>51</v>
       </c>
-      <c r="CO17" s="8">
+      <c r="CY17" s="8">
         <v>54</v>
       </c>
-      <c r="CP17" s="8">
+      <c r="CZ17" s="8">
         <v>52</v>
       </c>
-      <c r="CW17" s="8">
+      <c r="DG17" s="8">
         <v>55</v>
       </c>
-      <c r="CX17" s="25" t="s">
+      <c r="DH17" s="25" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="18" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>113</v>
       </c>
@@ -4160,26 +4712,46 @@
       <c r="AC18" s="11">
         <v>4.5999999999999996</v>
       </c>
-      <c r="BL18" s="11">
+      <c r="AF18" s="11">
+        <v>4.7</v>
+      </c>
+      <c r="AG18" s="11">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AH18" s="8">
+        <f t="shared" si="0"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="BS18" s="11">
         <v>46.9</v>
       </c>
-      <c r="BM18" s="11">
+      <c r="BT18" s="11">
         <v>38.799999999999997</v>
       </c>
-      <c r="CL18" s="8">
+      <c r="BU18" s="11">
+        <v>13.5</v>
+      </c>
+      <c r="BV18" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="BW18" s="8">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="CV18" s="8">
         <v>38.299999999999997</v>
       </c>
-      <c r="CM18" s="8">
+      <c r="CW18" s="8">
         <v>45.3</v>
       </c>
-      <c r="CN18" s="8">
+      <c r="CX18" s="8">
         <v>13</v>
       </c>
-      <c r="CX18" s="22" t="s">
+      <c r="DH18" s="22" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="19" spans="1:104" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:114" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>108</v>
       </c>
@@ -4246,26 +4818,46 @@
       <c r="AC19" s="8">
         <v>8</v>
       </c>
-      <c r="BL19" s="8">
+      <c r="AF19" s="8">
+        <v>7</v>
+      </c>
+      <c r="AG19" s="8">
+        <v>5</v>
+      </c>
+      <c r="AH19" s="8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="BS19" s="8">
         <v>55</v>
       </c>
-      <c r="BM19" s="8">
+      <c r="BT19" s="8">
         <v>30</v>
       </c>
-      <c r="CL19" s="8">
+      <c r="BU19" s="8">
+        <v>11</v>
+      </c>
+      <c r="BV19" s="8">
+        <v>2</v>
+      </c>
+      <c r="BW19" s="8">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="CV19" s="8">
         <v>40</v>
       </c>
-      <c r="CM19" s="8">
+      <c r="CW19" s="8">
         <v>62</v>
       </c>
-      <c r="CN19" s="8">
+      <c r="CX19" s="8">
         <v>53</v>
       </c>
-      <c r="CX19" s="25" t="s">
+      <c r="DH19" s="25" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="20" spans="1:104" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:114" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>92</v>
       </c>
@@ -4335,65 +4927,97 @@
       <c r="AC20" s="8">
         <v>8</v>
       </c>
-      <c r="AV20" s="8">
+      <c r="AD20" s="8">
+        <v>2</v>
+      </c>
+      <c r="AE20" s="8">
+        <v>13</v>
+      </c>
+      <c r="AF20" s="8">
+        <v>8</v>
+      </c>
+      <c r="AG20" s="8">
+        <v>3</v>
+      </c>
+      <c r="AH20" s="8">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="BA20" s="8">
         <v>59</v>
       </c>
-      <c r="AW20" s="8">
+      <c r="BB20" s="8">
         <v>52</v>
       </c>
-      <c r="AX20" s="8">
+      <c r="BC20" s="8">
         <v>29</v>
       </c>
-      <c r="AY20" s="8">
+      <c r="BD20" s="8">
         <v>30</v>
       </c>
-      <c r="BL20" s="8">
+      <c r="BE20" s="8">
+        <v>8</v>
+      </c>
+      <c r="BF20" s="8">
+        <v>12</v>
+      </c>
+      <c r="BS20" s="8">
         <v>55</v>
       </c>
-      <c r="BM20" s="8">
+      <c r="BT20" s="8">
         <v>30</v>
       </c>
-      <c r="BN20" s="8">
+      <c r="BU20" s="8">
+        <v>10</v>
+      </c>
+      <c r="BV20" s="8">
+        <v>5</v>
+      </c>
+      <c r="BW20" s="8">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="BX20" s="8">
         <v>41</v>
       </c>
-      <c r="BO20" s="8">
+      <c r="BY20" s="8">
         <v>37</v>
       </c>
-      <c r="BP20" s="8">
+      <c r="BZ20" s="8">
         <v>60</v>
       </c>
-      <c r="BQ20" s="8">
+      <c r="CA20" s="8">
         <v>59</v>
       </c>
-      <c r="BR20" s="8">
+      <c r="CB20" s="8">
         <v>45</v>
       </c>
-      <c r="BS20" s="8">
+      <c r="CC20" s="8">
         <v>42</v>
       </c>
-      <c r="CL20" s="8">
+      <c r="CV20" s="8">
         <v>39</v>
       </c>
-      <c r="CM20" s="8">
+      <c r="CW20" s="8">
         <v>60</v>
       </c>
-      <c r="CN20" s="8">
+      <c r="CX20" s="8">
         <v>43</v>
       </c>
-      <c r="CO20" s="8">
+      <c r="CY20" s="8">
         <v>59</v>
       </c>
-      <c r="CP20" s="8">
+      <c r="CZ20" s="8">
         <v>52</v>
       </c>
-      <c r="CW20" s="8">
+      <c r="DG20" s="8">
         <v>55</v>
       </c>
-      <c r="CX20" s="25" t="s">
+      <c r="DH20" s="25" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="21" spans="1:104" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:114" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>98</v>
       </c>
@@ -4479,160 +5103,192 @@
         <v>9</v>
       </c>
       <c r="AD21" s="8">
+        <v>10</v>
+      </c>
+      <c r="AE21" s="8">
+        <v>12</v>
+      </c>
+      <c r="AF21" s="8">
+        <v>11</v>
+      </c>
+      <c r="AG21" s="8">
+        <v>2</v>
+      </c>
+      <c r="AH21" s="8">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AI21" s="8">
         <v>46</v>
       </c>
-      <c r="AE21" s="8">
+      <c r="AJ21" s="8">
         <v>34</v>
       </c>
-      <c r="AF21" s="8">
+      <c r="AK21" s="8">
         <v>57</v>
       </c>
-      <c r="AG21" s="8">
+      <c r="AL21" s="8">
         <v>52</v>
       </c>
-      <c r="AI21" s="8">
+      <c r="AN21" s="8">
         <v>52</v>
       </c>
-      <c r="AJ21" s="8">
+      <c r="AO21" s="8">
         <v>25</v>
       </c>
-      <c r="AK21" s="8">
+      <c r="AP21" s="8">
         <v>31</v>
       </c>
-      <c r="AL21" s="8">
+      <c r="AQ21" s="8">
         <v>20</v>
       </c>
-      <c r="AM21" s="8">
+      <c r="AR21" s="8">
         <v>22</v>
       </c>
-      <c r="AO21" s="8">
+      <c r="AT21" s="8">
         <v>22</v>
       </c>
-      <c r="AP21" s="8">
+      <c r="AU21" s="8">
         <v>9</v>
       </c>
-      <c r="AQ21" s="8">
+      <c r="AV21" s="8">
         <v>11</v>
       </c>
-      <c r="AR21" s="8">
+      <c r="AW21" s="8">
         <v>8</v>
       </c>
-      <c r="AS21" s="8">
+      <c r="AX21" s="8">
         <v>6</v>
       </c>
-      <c r="AU21" s="8">
+      <c r="AZ21" s="8">
         <v>6</v>
       </c>
-      <c r="AV21" s="8">
+      <c r="BA21" s="8">
         <v>51</v>
       </c>
-      <c r="AW21" s="8">
+      <c r="BB21" s="8">
         <v>59</v>
       </c>
-      <c r="AX21" s="8">
+      <c r="BC21" s="8">
         <v>36</v>
       </c>
-      <c r="AY21" s="8">
+      <c r="BD21" s="8">
         <v>26</v>
       </c>
-      <c r="AZ21" s="8">
+      <c r="BE21" s="8">
+        <v>12</v>
+      </c>
+      <c r="BF21" s="8">
+        <v>13</v>
+      </c>
+      <c r="BG21" s="8">
         <v>59</v>
       </c>
-      <c r="BA21" s="8">
+      <c r="BH21" s="8">
         <v>47</v>
       </c>
-      <c r="BB21" s="8">
+      <c r="BI21" s="8">
         <v>68</v>
       </c>
-      <c r="BC21" s="8">
+      <c r="BJ21" s="8">
         <v>58</v>
-      </c>
-      <c r="BF21" s="8">
-        <v>31</v>
-      </c>
-      <c r="BG21" s="8">
-        <v>37</v>
-      </c>
-      <c r="BH21" s="8">
-        <v>21</v>
-      </c>
-      <c r="BI21" s="8">
-        <v>28</v>
-      </c>
-      <c r="BL21" s="8">
-        <v>56</v>
       </c>
       <c r="BM21" s="8">
         <v>31</v>
       </c>
       <c r="BN21" s="8">
+        <v>37</v>
+      </c>
+      <c r="BO21" s="8">
+        <v>21</v>
+      </c>
+      <c r="BP21" s="8">
+        <v>28</v>
+      </c>
+      <c r="BS21" s="8">
+        <v>56</v>
+      </c>
+      <c r="BT21" s="8">
+        <v>31</v>
+      </c>
+      <c r="BU21" s="8">
+        <v>13</v>
+      </c>
+      <c r="BV21" s="8">
+        <v>1</v>
+      </c>
+      <c r="BW21" s="8">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="BX21" s="8">
         <v>41</v>
       </c>
-      <c r="BO21" s="8">
+      <c r="BY21" s="8">
         <v>35</v>
       </c>
-      <c r="BP21" s="8">
+      <c r="BZ21" s="8">
         <v>54</v>
       </c>
-      <c r="BQ21" s="8">
+      <c r="CA21" s="8">
         <v>64</v>
       </c>
-      <c r="BR21" s="8">
+      <c r="CB21" s="8">
         <v>32</v>
       </c>
-      <c r="BS21" s="8">
+      <c r="CC21" s="8">
         <v>28</v>
       </c>
-      <c r="BT21" s="8">
+      <c r="CD21" s="8">
         <v>37</v>
       </c>
-      <c r="BU21" s="8">
+      <c r="CE21" s="8">
         <v>45</v>
       </c>
-      <c r="BV21" s="8">
+      <c r="CF21" s="8">
         <v>29</v>
       </c>
-      <c r="BW21" s="8">
+      <c r="CG21" s="8">
         <v>32</v>
       </c>
-      <c r="BZ21" s="8">
+      <c r="CJ21" s="8">
         <v>60</v>
       </c>
-      <c r="CA21" s="8">
+      <c r="CK21" s="8">
         <v>54</v>
       </c>
-      <c r="CB21" s="8">
+      <c r="CL21" s="8">
         <v>67</v>
       </c>
-      <c r="CC21" s="8">
+      <c r="CM21" s="8">
         <v>63</v>
       </c>
-      <c r="CF21" s="8">
+      <c r="CP21" s="8">
         <v>32</v>
       </c>
-      <c r="CG21" s="8">
+      <c r="CQ21" s="8">
         <v>29</v>
       </c>
-      <c r="CH21" s="8">
+      <c r="CR21" s="8">
         <v>31</v>
       </c>
-      <c r="CI21" s="8">
+      <c r="CS21" s="8">
         <v>33</v>
       </c>
-      <c r="CL21" s="8">
+      <c r="CV21" s="8">
         <v>38</v>
       </c>
-      <c r="CM21" s="8">
+      <c r="CW21" s="8">
         <v>59</v>
       </c>
-      <c r="CN21" s="8">
+      <c r="CX21" s="8">
         <v>30</v>
       </c>
-      <c r="CX21" s="25" t="s">
+      <c r="DH21" s="25" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="22" spans="1:104" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:114" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>89</v>
       </c>
@@ -4714,59 +5370,75 @@
       <c r="AC22" s="8">
         <v>6</v>
       </c>
+      <c r="AD22" s="8">
+        <v>8</v>
+      </c>
       <c r="AE22" s="8">
+        <v>9</v>
+      </c>
+      <c r="AF22" s="8">
+        <v>9</v>
+      </c>
+      <c r="AG22" s="8">
+        <v>5</v>
+      </c>
+      <c r="AH22" s="8">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="AJ22" s="8">
         <v>39</v>
       </c>
-      <c r="AF22" s="8">
+      <c r="AK22" s="8">
         <v>50</v>
       </c>
-      <c r="AI22" s="8">
+      <c r="AN22" s="8">
         <v>50</v>
       </c>
-      <c r="AK22" s="8">
+      <c r="AP22" s="8">
         <v>27</v>
       </c>
-      <c r="AL22" s="8">
+      <c r="AQ22" s="8">
         <v>19</v>
       </c>
-      <c r="AO22" s="8">
+      <c r="AT22" s="8">
         <v>21</v>
       </c>
-      <c r="AQ22" s="8">
+      <c r="AV22" s="8">
         <v>6</v>
       </c>
-      <c r="AR22" s="8">
+      <c r="AW22" s="8">
         <v>6</v>
       </c>
-      <c r="AU22" s="8">
+      <c r="AZ22" s="8">
         <v>5</v>
       </c>
-      <c r="CO22" s="8">
+      <c r="CY22" s="8">
         <v>49</v>
       </c>
-      <c r="CP22" s="8">
+      <c r="CZ22" s="8">
         <v>58</v>
       </c>
-      <c r="CR22" s="8">
+      <c r="DB22" s="8">
         <v>50</v>
       </c>
-      <c r="CS22" s="8">
+      <c r="DC22" s="8">
         <v>56</v>
       </c>
-      <c r="CV22" s="8">
+      <c r="DF22" s="8">
         <v>57</v>
       </c>
-      <c r="CW22" s="8">
+      <c r="DG22" s="8">
         <v>53</v>
       </c>
-      <c r="CX22" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="CZ22" s="29" t="s">
-        <v>314</v>
+      <c r="DH22" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="DJ22" s="29" t="s">
+        <v>312</v>
       </c>
     </row>
-    <row r="23" spans="1:104" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:114" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>92</v>
       </c>
@@ -4836,65 +5508,97 @@
       <c r="AC23" s="8">
         <v>5</v>
       </c>
-      <c r="AV23" s="8">
+      <c r="AD23" s="8">
+        <v>6</v>
+      </c>
+      <c r="AE23" s="8">
+        <v>12</v>
+      </c>
+      <c r="AF23" s="8">
+        <v>9</v>
+      </c>
+      <c r="AG23" s="8">
+        <v>2</v>
+      </c>
+      <c r="AH23" s="8">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="BA23" s="8">
         <v>48</v>
       </c>
-      <c r="AW23" s="8">
+      <c r="BB23" s="8">
         <v>62</v>
       </c>
-      <c r="AX23" s="8">
+      <c r="BC23" s="8">
         <v>44</v>
       </c>
-      <c r="AY23" s="8">
+      <c r="BD23" s="8">
         <v>24</v>
       </c>
-      <c r="BL23" s="8">
+      <c r="BE23" s="8">
+        <v>7</v>
+      </c>
+      <c r="BF23" s="8">
+        <v>13</v>
+      </c>
+      <c r="BS23" s="8">
         <v>56</v>
       </c>
-      <c r="BM23" s="8">
+      <c r="BT23" s="8">
         <v>33</v>
       </c>
-      <c r="BN23" s="8">
+      <c r="BU23" s="8">
+        <v>10</v>
+      </c>
+      <c r="BV23" s="8">
+        <v>1</v>
+      </c>
+      <c r="BW23" s="8">
+        <f t="shared" ref="BW23:BW68" si="2">BU23+BV23</f>
+        <v>11</v>
+      </c>
+      <c r="BX23" s="8">
         <v>50</v>
       </c>
-      <c r="BO23" s="8">
+      <c r="BY23" s="8">
         <v>62</v>
       </c>
-      <c r="BP23" s="8">
+      <c r="BZ23" s="8">
         <v>47</v>
       </c>
-      <c r="BQ23" s="8">
+      <c r="CA23" s="8">
         <v>29</v>
       </c>
-      <c r="BR23" s="8">
+      <c r="CB23" s="8">
         <v>49</v>
       </c>
-      <c r="BS23" s="8">
+      <c r="CC23" s="8">
         <v>51</v>
       </c>
-      <c r="CL23" s="8">
+      <c r="CV23" s="8">
         <v>38</v>
       </c>
-      <c r="CM23" s="8">
+      <c r="CW23" s="8">
         <v>56</v>
       </c>
-      <c r="CN23" s="8">
+      <c r="CX23" s="8">
         <v>50</v>
       </c>
-      <c r="CO23" s="8">
+      <c r="CY23" s="8">
         <v>53</v>
       </c>
-      <c r="CP23" s="8">
+      <c r="CZ23" s="8">
         <v>63</v>
       </c>
-      <c r="CW23" s="8">
+      <c r="DG23" s="8">
         <v>58</v>
       </c>
-      <c r="CX23" s="25" t="s">
+      <c r="DH23" s="25" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="24" spans="1:104" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:114" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>108</v>
       </c>
@@ -4961,26 +5665,46 @@
       <c r="AC24" s="8">
         <v>9</v>
       </c>
-      <c r="BL24" s="8">
+      <c r="AF24" s="8">
+        <v>9</v>
+      </c>
+      <c r="AG24" s="8">
+        <v>3</v>
+      </c>
+      <c r="AH24" s="8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="BS24" s="8">
         <v>53</v>
       </c>
-      <c r="BM24" s="8">
+      <c r="BT24" s="8">
         <v>29</v>
       </c>
-      <c r="CL24" s="8">
+      <c r="BU24" s="8">
+        <v>15</v>
+      </c>
+      <c r="BV24" s="8">
+        <v>3</v>
+      </c>
+      <c r="BW24" s="8">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="CV24" s="8">
         <v>43</v>
       </c>
-      <c r="CM24" s="8">
+      <c r="CW24" s="8">
         <v>65</v>
       </c>
-      <c r="CN24" s="8">
+      <c r="CX24" s="8">
         <v>56</v>
       </c>
-      <c r="CX24" s="25" t="s">
+      <c r="DH24" s="25" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="25" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
         <v>113</v>
       </c>
@@ -5044,56 +5768,88 @@
       <c r="AC25" s="11">
         <v>9.6999999999999993</v>
       </c>
-      <c r="AV25" s="11">
+      <c r="AD25" s="11">
+        <v>20.2</v>
+      </c>
+      <c r="AE25" s="11">
+        <v>26.1</v>
+      </c>
+      <c r="AF25" s="11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AG25" s="11">
+        <v>23.1</v>
+      </c>
+      <c r="AH25" s="8">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="BA25" s="11">
         <v>45</v>
       </c>
-      <c r="AW25" s="11">
+      <c r="BB25" s="11">
         <v>52.9</v>
       </c>
-      <c r="AX25" s="11">
+      <c r="BC25" s="11">
         <v>44</v>
       </c>
-      <c r="AY25" s="11">
+      <c r="BD25" s="11">
         <v>31.6</v>
       </c>
-      <c r="BL25" s="11">
+      <c r="BE25" s="11">
+        <v>10.6</v>
+      </c>
+      <c r="BF25" s="11">
+        <v>13.9</v>
+      </c>
+      <c r="BS25" s="11">
         <v>49.2</v>
       </c>
-      <c r="BM25" s="11">
+      <c r="BT25" s="11">
         <v>37.4</v>
       </c>
-      <c r="BN25" s="11">
+      <c r="BU25" s="11">
+        <v>12.4</v>
+      </c>
+      <c r="BV25" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BW25" s="8">
+        <f t="shared" si="2"/>
+        <v>13.5</v>
+      </c>
+      <c r="BX25" s="11">
         <v>46.3</v>
       </c>
-      <c r="BO25" s="11">
+      <c r="BY25" s="11">
         <v>34.1</v>
       </c>
-      <c r="BP25" s="11">
+      <c r="BZ25" s="11">
         <v>44.9</v>
       </c>
-      <c r="BQ25" s="11">
+      <c r="CA25" s="11">
         <v>53.2</v>
       </c>
-      <c r="BR25" s="11">
+      <c r="CB25" s="11">
         <v>21.6</v>
       </c>
-      <c r="BS25" s="11">
+      <c r="CC25" s="11">
         <v>12.2</v>
       </c>
-      <c r="CL25" s="11">
+      <c r="CV25" s="11">
         <v>39.799999999999997</v>
       </c>
-      <c r="CM25" s="11">
+      <c r="CW25" s="11">
         <v>49.3</v>
       </c>
-      <c r="CN25" s="11">
+      <c r="CX25" s="11">
         <v>16.600000000000001</v>
       </c>
-      <c r="CX25" s="22" t="s">
-        <v>307</v>
+      <c r="DH25" s="25" t="s">
+        <v>305</v>
       </c>
     </row>
-    <row r="26" spans="1:104" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:114" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>92</v>
       </c>
@@ -5163,65 +5919,97 @@
       <c r="AC26" s="8">
         <v>5</v>
       </c>
-      <c r="AV26" s="8">
+      <c r="AD26" s="8">
+        <v>4</v>
+      </c>
+      <c r="AE26" s="8">
+        <v>9</v>
+      </c>
+      <c r="AF26" s="8">
+        <v>7</v>
+      </c>
+      <c r="AG26" s="8">
+        <v>2</v>
+      </c>
+      <c r="AH26" s="8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="BA26" s="8">
         <v>46</v>
       </c>
-      <c r="AW26" s="8">
+      <c r="BB26" s="8">
         <v>57</v>
       </c>
-      <c r="AX26" s="8">
+      <c r="BC26" s="8">
         <v>44</v>
       </c>
-      <c r="AY26" s="8">
+      <c r="BD26" s="8">
         <v>32</v>
       </c>
-      <c r="BL26" s="8">
+      <c r="BE26" s="8">
+        <v>9</v>
+      </c>
+      <c r="BF26" s="8">
+        <v>10</v>
+      </c>
+      <c r="BS26" s="8">
         <v>52</v>
       </c>
-      <c r="BM26" s="8">
+      <c r="BT26" s="8">
         <v>37</v>
       </c>
-      <c r="BN26" s="8">
+      <c r="BU26" s="8">
+        <v>10</v>
+      </c>
+      <c r="BV26" s="8">
+        <v>1</v>
+      </c>
+      <c r="BW26" s="8">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="BX26" s="8">
         <v>45</v>
       </c>
-      <c r="BO26" s="8">
+      <c r="BY26" s="8">
         <v>36</v>
       </c>
-      <c r="BP26" s="8">
+      <c r="BZ26" s="8">
         <v>58</v>
       </c>
-      <c r="BQ26" s="8">
+      <c r="CA26" s="8">
         <v>61</v>
       </c>
-      <c r="BR26" s="8">
+      <c r="CB26" s="8">
         <v>57</v>
       </c>
-      <c r="BS26" s="8">
+      <c r="CC26" s="8">
         <v>54</v>
       </c>
-      <c r="CL26" s="8">
+      <c r="CV26" s="8">
         <v>40</v>
       </c>
-      <c r="CM26" s="8">
+      <c r="CW26" s="8">
         <v>59</v>
       </c>
-      <c r="CN26" s="8">
+      <c r="CX26" s="8">
         <v>56</v>
       </c>
-      <c r="CO26" s="8">
+      <c r="CY26" s="8">
         <v>54</v>
       </c>
-      <c r="CP26" s="8">
+      <c r="CZ26" s="8">
         <v>55</v>
       </c>
-      <c r="CW26" s="8">
+      <c r="DG26" s="8">
         <v>56</v>
       </c>
-      <c r="CX26" s="25" t="s">
+      <c r="DH26" s="25" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="27" spans="1:104" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:114" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>101</v>
       </c>
@@ -5283,61 +6071,87 @@
         <v>4</v>
       </c>
       <c r="AD27" s="8">
+        <v>11</v>
+      </c>
+      <c r="AE27" s="8">
+        <v>10</v>
+      </c>
+      <c r="AF27" s="8">
+        <v>10</v>
+      </c>
+      <c r="AG27" s="8">
+        <v>12</v>
+      </c>
+      <c r="AH27" s="8">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="AI27" s="8">
         <v>45</v>
       </c>
-      <c r="AE27" s="8">
+      <c r="AJ27" s="8">
         <v>36</v>
       </c>
-      <c r="AF27" s="8">
+      <c r="AK27" s="8">
         <v>55</v>
       </c>
-      <c r="AI27" s="8">
+      <c r="AN27" s="8">
         <v>40</v>
       </c>
-      <c r="AJ27" s="8">
+      <c r="AO27" s="8">
         <v>21</v>
       </c>
-      <c r="AK27" s="8">
+      <c r="AP27" s="8">
         <v>28</v>
       </c>
-      <c r="AL27" s="8">
+      <c r="AQ27" s="8">
         <v>13</v>
       </c>
-      <c r="AO27" s="8">
+      <c r="AT27" s="8">
         <v>17</v>
       </c>
-      <c r="AP27" s="8">
+      <c r="AU27" s="8">
         <v>4</v>
       </c>
-      <c r="AQ27" s="8">
+      <c r="AV27" s="8">
         <v>4</v>
       </c>
-      <c r="AR27" s="8">
+      <c r="AW27" s="8">
         <v>4</v>
       </c>
-      <c r="AU27" s="8">
+      <c r="AZ27" s="8">
         <v>10</v>
       </c>
-      <c r="BL27" s="8">
+      <c r="BS27" s="8">
         <v>52</v>
       </c>
-      <c r="BM27" s="8">
+      <c r="BT27" s="8">
         <v>24</v>
       </c>
-      <c r="CL27" s="8">
+      <c r="BU27" s="8">
+        <v>14</v>
+      </c>
+      <c r="BV27" s="8">
+        <v>10</v>
+      </c>
+      <c r="BW27" s="8">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="CV27" s="8">
         <v>33</v>
       </c>
-      <c r="CM27" s="8">
+      <c r="CW27" s="8">
         <v>60</v>
       </c>
-      <c r="CN27" s="8">
+      <c r="CX27" s="8">
         <v>45</v>
       </c>
-      <c r="CX27" s="25" t="s">
+      <c r="DH27" s="25" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="28" spans="1:104" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:114" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>108</v>
       </c>
@@ -5401,26 +6215,46 @@
       <c r="AC28" s="8">
         <v>6</v>
       </c>
-      <c r="BL28" s="8">
+      <c r="AF28" s="8">
+        <v>10</v>
+      </c>
+      <c r="AG28" s="8">
+        <v>4</v>
+      </c>
+      <c r="AH28" s="8">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="BS28" s="8">
         <v>57</v>
       </c>
-      <c r="BM28" s="8">
+      <c r="BT28" s="8">
         <v>27</v>
       </c>
-      <c r="CL28" s="8">
+      <c r="BU28" s="8">
+        <v>13</v>
+      </c>
+      <c r="BV28" s="8">
+        <v>2</v>
+      </c>
+      <c r="BW28" s="8">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="CV28" s="8">
         <v>39</v>
       </c>
-      <c r="CM28" s="8">
+      <c r="CW28" s="8">
         <v>67</v>
       </c>
-      <c r="CN28" s="8">
+      <c r="CX28" s="8">
         <v>53</v>
       </c>
-      <c r="CX28" s="25" t="s">
+      <c r="DH28" s="25" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="29" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
         <v>113</v>
       </c>
@@ -5466,26 +6300,48 @@
       <c r="AC29" s="8">
         <v>6.2</v>
       </c>
-      <c r="BL29" s="11">
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="AG29" s="8">
+        <v>4</v>
+      </c>
+      <c r="AH29" s="8">
+        <f t="shared" si="0"/>
+        <v>7.6</v>
+      </c>
+      <c r="BS29" s="11">
         <v>51</v>
       </c>
-      <c r="BM29" s="11">
+      <c r="BT29" s="11">
         <v>38</v>
       </c>
-      <c r="CL29" s="11">
+      <c r="BU29" s="11">
+        <v>9.9</v>
+      </c>
+      <c r="BV29" s="11">
+        <v>2</v>
+      </c>
+      <c r="BW29" s="8">
+        <f t="shared" si="2"/>
+        <v>11.9</v>
+      </c>
+      <c r="CV29" s="11">
         <v>39.9</v>
       </c>
-      <c r="CM29" s="11">
+      <c r="CW29" s="11">
         <v>47.4</v>
       </c>
-      <c r="CN29" s="11">
+      <c r="CX29" s="11">
         <v>17.100000000000001</v>
       </c>
-      <c r="CX29" s="22" t="s">
-        <v>306</v>
+      <c r="DH29" s="22" t="s">
+        <v>304</v>
       </c>
     </row>
-    <row r="30" spans="1:104" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:114" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>92</v>
       </c>
@@ -5555,65 +6411,97 @@
       <c r="AC30" s="8">
         <v>7</v>
       </c>
-      <c r="AV30" s="8">
+      <c r="AD30" s="8">
+        <v>4</v>
+      </c>
+      <c r="AE30" s="8">
+        <v>7</v>
+      </c>
+      <c r="AF30" s="8">
+        <v>6</v>
+      </c>
+      <c r="AG30" s="8">
+        <v>3</v>
+      </c>
+      <c r="AH30" s="8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="BA30" s="8">
         <v>52</v>
       </c>
-      <c r="AW30" s="8">
+      <c r="BB30" s="8">
         <v>55</v>
       </c>
-      <c r="AX30" s="8">
+      <c r="BC30" s="8">
         <v>37</v>
       </c>
-      <c r="AY30" s="8">
+      <c r="BD30" s="8">
         <v>25</v>
       </c>
-      <c r="BL30" s="8">
+      <c r="BE30" s="8">
+        <v>10</v>
+      </c>
+      <c r="BF30" s="8">
+        <v>18</v>
+      </c>
+      <c r="BS30" s="8">
         <v>54</v>
       </c>
-      <c r="BM30" s="8">
+      <c r="BT30" s="8">
         <v>31</v>
       </c>
-      <c r="BN30" s="8">
+      <c r="BU30" s="8">
+        <v>14</v>
+      </c>
+      <c r="BV30" s="8">
+        <v>1</v>
+      </c>
+      <c r="BW30" s="8">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="BX30" s="8">
         <v>45</v>
       </c>
-      <c r="BO30" s="8">
+      <c r="BY30" s="8">
         <v>39</v>
       </c>
-      <c r="BP30" s="8">
+      <c r="BZ30" s="8">
         <v>52</v>
       </c>
-      <c r="BQ30" s="8">
+      <c r="CA30" s="8">
         <v>62</v>
       </c>
-      <c r="BR30" s="8">
+      <c r="CB30" s="8">
         <v>55</v>
       </c>
-      <c r="BS30" s="8">
+      <c r="CC30" s="8">
         <v>59</v>
       </c>
-      <c r="CL30" s="8">
+      <c r="CV30" s="8">
         <v>42</v>
-      </c>
-      <c r="CM30" s="8">
-        <v>57</v>
-      </c>
-      <c r="CN30" s="8">
-        <v>57</v>
-      </c>
-      <c r="CO30" s="8">
-        <v>55</v>
-      </c>
-      <c r="CP30" s="8">
-        <v>59</v>
       </c>
       <c r="CW30" s="8">
         <v>57</v>
       </c>
-      <c r="CX30" s="25" t="s">
+      <c r="CX30" s="8">
+        <v>57</v>
+      </c>
+      <c r="CY30" s="8">
+        <v>55</v>
+      </c>
+      <c r="CZ30" s="8">
+        <v>59</v>
+      </c>
+      <c r="DG30" s="8">
+        <v>57</v>
+      </c>
+      <c r="DH30" s="25" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="31" spans="1:104" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:114" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>106</v>
       </c>
@@ -5659,29 +6547,49 @@
       <c r="AC31" s="8">
         <v>5</v>
       </c>
-      <c r="BL31" s="8">
+      <c r="AF31" s="8">
+        <v>7.6</v>
+      </c>
+      <c r="AG31" s="8">
+        <v>7.7</v>
+      </c>
+      <c r="AH31" s="8">
+        <f t="shared" si="0"/>
+        <v>15.3</v>
+      </c>
+      <c r="BS31" s="8">
         <v>52.7</v>
       </c>
-      <c r="BM31" s="8">
+      <c r="BT31" s="8">
         <v>31.4</v>
       </c>
-      <c r="CL31" s="8">
+      <c r="BU31" s="8">
+        <v>11.4</v>
+      </c>
+      <c r="BV31" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="BW31" s="8">
+        <f t="shared" si="2"/>
+        <v>15.9</v>
+      </c>
+      <c r="CV31" s="8">
         <v>40.5</v>
       </c>
-      <c r="CM31" s="8">
+      <c r="CW31" s="8">
         <v>59.2</v>
       </c>
-      <c r="CN31" s="8">
+      <c r="CX31" s="8">
         <v>51.4</v>
       </c>
-      <c r="CW31" s="8">
+      <c r="DG31" s="8">
         <v>48</v>
       </c>
-      <c r="CX31" s="27" t="s">
+      <c r="DH31" s="27" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="32" spans="1:104" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:114" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
         <v>108</v>
       </c>
@@ -5745,26 +6653,46 @@
       <c r="AC32" s="8">
         <v>7</v>
       </c>
-      <c r="BL32" s="8">
+      <c r="AF32" s="8">
+        <v>7</v>
+      </c>
+      <c r="AG32" s="8">
+        <v>4</v>
+      </c>
+      <c r="AH32" s="8">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="BS32" s="8">
         <v>55</v>
       </c>
-      <c r="BM32" s="8">
+      <c r="BT32" s="8">
         <v>31</v>
       </c>
-      <c r="CL32" s="8">
+      <c r="BU32" s="8">
+        <v>11</v>
+      </c>
+      <c r="BV32" s="8">
+        <v>3</v>
+      </c>
+      <c r="BW32" s="8">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="CV32" s="8">
         <v>43</v>
       </c>
-      <c r="CM32" s="8">
+      <c r="CW32" s="8">
         <v>64</v>
       </c>
-      <c r="CN32" s="8">
+      <c r="CX32" s="8">
         <v>55</v>
       </c>
-      <c r="CX32" s="25" t="s">
+      <c r="DH32" s="25" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="33" spans="1:104" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:114" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
         <v>89</v>
       </c>
@@ -5846,113 +6774,129 @@
       <c r="AC33" s="8">
         <v>5</v>
       </c>
+      <c r="AD33" s="8">
+        <v>12</v>
+      </c>
       <c r="AE33" s="8">
+        <v>13</v>
+      </c>
+      <c r="AF33" s="8">
+        <v>9</v>
+      </c>
+      <c r="AG33" s="8">
+        <v>5</v>
+      </c>
+      <c r="AH33" s="8">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="AJ33" s="8">
         <v>42</v>
       </c>
-      <c r="AF33" s="8">
+      <c r="AK33" s="8">
         <v>52</v>
       </c>
-      <c r="AI33" s="8">
+      <c r="AN33" s="8">
         <v>51</v>
       </c>
-      <c r="AK33" s="8">
+      <c r="AP33" s="8">
         <v>25</v>
       </c>
-      <c r="AL33" s="8">
+      <c r="AQ33" s="8">
         <v>18</v>
       </c>
-      <c r="AO33" s="8">
+      <c r="AT33" s="8">
         <v>11</v>
       </c>
-      <c r="AQ33" s="8">
+      <c r="AV33" s="8">
         <v>6</v>
       </c>
-      <c r="AR33" s="8">
+      <c r="AW33" s="8">
         <v>6</v>
       </c>
-      <c r="AU33" s="8">
+      <c r="AZ33" s="8">
         <v>5</v>
       </c>
-      <c r="BN33" s="8">
+      <c r="BX33" s="8">
         <v>30</v>
       </c>
-      <c r="BO33" s="8">
+      <c r="BY33" s="8">
         <v>27</v>
       </c>
-      <c r="BP33" s="8">
+      <c r="BZ33" s="8">
         <v>51</v>
       </c>
-      <c r="BQ33" s="8">
+      <c r="CA33" s="8">
         <v>58</v>
       </c>
-      <c r="BR33" s="8">
+      <c r="CB33" s="8">
         <v>17</v>
       </c>
-      <c r="BS33" s="8">
+      <c r="CC33" s="8">
         <v>14</v>
       </c>
-      <c r="BU33" s="8">
+      <c r="CE33" s="8">
         <v>35</v>
       </c>
-      <c r="BV33" s="8">
+      <c r="CF33" s="8">
         <v>24</v>
       </c>
-      <c r="BY33" s="8">
+      <c r="CI33" s="8">
         <v>23</v>
       </c>
-      <c r="CA33" s="8">
+      <c r="CK33" s="8">
         <v>49</v>
       </c>
-      <c r="CB33" s="8">
+      <c r="CL33" s="8">
         <v>58</v>
       </c>
-      <c r="CE33" s="8">
+      <c r="CO33" s="8">
         <v>57</v>
       </c>
-      <c r="CG33" s="8">
+      <c r="CQ33" s="8">
         <v>15</v>
       </c>
-      <c r="CH33" s="8">
+      <c r="CR33" s="8">
         <v>16</v>
       </c>
-      <c r="CK33" s="8">
+      <c r="CU33" s="8">
         <v>0</v>
       </c>
-      <c r="CL33" s="8">
+      <c r="CV33" s="8">
         <v>28</v>
       </c>
-      <c r="CM33" s="8">
+      <c r="CW33" s="8">
         <v>55</v>
       </c>
-      <c r="CN33" s="8">
+      <c r="CX33" s="8">
         <v>15</v>
       </c>
-      <c r="CO33" s="8">
+      <c r="CY33" s="8">
         <v>52</v>
       </c>
-      <c r="CP33" s="8">
+      <c r="CZ33" s="8">
         <v>57</v>
       </c>
-      <c r="CR33" s="8">
+      <c r="DB33" s="8">
         <v>51</v>
       </c>
-      <c r="CS33" s="8">
+      <c r="DC33" s="8">
         <v>57</v>
       </c>
-      <c r="CV33" s="8">
+      <c r="DF33" s="8">
         <v>6</v>
       </c>
-      <c r="CW33" s="8">
+      <c r="DG33" s="8">
         <v>51</v>
       </c>
-      <c r="CX33" s="25" t="s">
+      <c r="DH33" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="CZ33" s="29" t="s">
-        <v>313</v>
+      <c r="DJ33" s="29" t="s">
+        <v>311</v>
       </c>
     </row>
-    <row r="34" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
         <v>113</v>
       </c>
@@ -6016,56 +6960,88 @@
       <c r="AC34" s="11">
         <v>6</v>
       </c>
-      <c r="AV34" s="11">
+      <c r="AD34" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AE34" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="AF34" s="11">
+        <v>3.7</v>
+      </c>
+      <c r="AG34" s="11">
+        <v>4.8</v>
+      </c>
+      <c r="AH34" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+      <c r="BA34" s="11">
         <v>45.8</v>
       </c>
-      <c r="AW34" s="11">
+      <c r="BB34" s="11">
         <v>55.1</v>
       </c>
-      <c r="AX34" s="11">
+      <c r="BC34" s="11">
         <v>46.1</v>
       </c>
-      <c r="AY34" s="11">
+      <c r="BD34" s="11">
         <v>29.1</v>
       </c>
-      <c r="BL34" s="11">
+      <c r="BE34" s="11">
+        <v>7.5</v>
+      </c>
+      <c r="BF34" s="11">
+        <v>12.7</v>
+      </c>
+      <c r="BS34" s="11">
         <v>50.8</v>
       </c>
-      <c r="BM34" s="11">
+      <c r="BT34" s="11">
         <v>37</v>
       </c>
-      <c r="BN34" s="11">
+      <c r="BU34" s="11">
+        <v>10.3</v>
+      </c>
+      <c r="BV34" s="11">
+        <v>1.9</v>
+      </c>
+      <c r="BW34" s="8">
+        <f t="shared" si="2"/>
+        <v>12.200000000000001</v>
+      </c>
+      <c r="BX34" s="11">
         <v>45.8</v>
       </c>
-      <c r="BO34" s="11">
+      <c r="BY34" s="11">
         <v>29.8</v>
       </c>
-      <c r="BP34" s="11">
+      <c r="BZ34" s="11">
         <v>43.8</v>
       </c>
-      <c r="BQ34" s="11">
+      <c r="CA34" s="11">
         <v>54.3</v>
       </c>
-      <c r="BR34" s="11">
+      <c r="CB34" s="11">
         <v>22.2</v>
       </c>
-      <c r="BS34" s="11">
+      <c r="CC34" s="11">
         <v>14.1</v>
       </c>
-      <c r="CL34" s="11">
+      <c r="CV34" s="11">
         <v>37.200000000000003</v>
       </c>
-      <c r="CM34" s="11">
+      <c r="CW34" s="11">
         <v>49.5</v>
       </c>
-      <c r="CN34" s="11">
+      <c r="CX34" s="11">
         <v>17.899999999999999</v>
       </c>
-      <c r="CX34" s="25" t="s">
-        <v>344</v>
+      <c r="DH34" s="25" t="s">
+        <v>342</v>
       </c>
     </row>
-    <row r="35" spans="1:104" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:114" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
         <v>92</v>
       </c>
@@ -6135,65 +7111,97 @@
       <c r="AC35" s="8">
         <v>4</v>
       </c>
-      <c r="AV35" s="8">
+      <c r="AD35" s="8">
+        <v>2</v>
+      </c>
+      <c r="AE35" s="8">
+        <v>7</v>
+      </c>
+      <c r="AF35" s="8">
+        <v>5</v>
+      </c>
+      <c r="AG35" s="8">
+        <v>6</v>
+      </c>
+      <c r="AH35" s="8">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="BA35" s="8">
         <v>46</v>
       </c>
-      <c r="AW35" s="8">
+      <c r="BB35" s="8">
         <v>61</v>
       </c>
-      <c r="AX35" s="8">
+      <c r="BC35" s="8">
         <v>42</v>
       </c>
-      <c r="AY35" s="8">
+      <c r="BD35" s="8">
         <v>27</v>
       </c>
-      <c r="BL35" s="8">
+      <c r="BE35" s="8">
+        <v>9</v>
+      </c>
+      <c r="BF35" s="8">
+        <v>8</v>
+      </c>
+      <c r="BS35" s="8">
         <v>54</v>
       </c>
-      <c r="BM35" s="8">
+      <c r="BT35" s="8">
         <v>34</v>
       </c>
-      <c r="BN35" s="8">
+      <c r="BU35" s="8">
+        <v>8</v>
+      </c>
+      <c r="BV35" s="8">
+        <v>3</v>
+      </c>
+      <c r="BW35" s="8">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="BX35" s="8">
         <v>43</v>
       </c>
-      <c r="BO35" s="8">
+      <c r="BY35" s="8">
         <v>35</v>
       </c>
-      <c r="BP35" s="8">
+      <c r="BZ35" s="8">
         <v>53</v>
       </c>
-      <c r="BQ35" s="8">
+      <c r="CA35" s="8">
         <v>66</v>
       </c>
-      <c r="BR35" s="8">
+      <c r="CB35" s="8">
         <v>58</v>
       </c>
-      <c r="BS35" s="8">
+      <c r="CC35" s="8">
         <v>49</v>
       </c>
-      <c r="CL35" s="8">
+      <c r="CV35" s="8">
         <v>39</v>
       </c>
-      <c r="CM35" s="8">
+      <c r="CW35" s="8">
         <v>60</v>
       </c>
-      <c r="CN35" s="8">
+      <c r="CX35" s="8">
         <v>53</v>
       </c>
-      <c r="CO35" s="8">
+      <c r="CY35" s="8">
         <v>51</v>
       </c>
-      <c r="CP35" s="8">
+      <c r="CZ35" s="8">
         <v>62</v>
       </c>
-      <c r="CW35" s="8">
+      <c r="DG35" s="8">
         <v>57</v>
       </c>
-      <c r="CX35" s="25" t="s">
+      <c r="DH35" s="25" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="36" spans="1:104" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:114" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
         <v>108</v>
       </c>
@@ -6257,26 +7265,46 @@
       <c r="AC36" s="8">
         <v>5</v>
       </c>
-      <c r="BL36" s="8">
+      <c r="AF36" s="8">
+        <v>8</v>
+      </c>
+      <c r="AG36" s="8">
+        <v>4</v>
+      </c>
+      <c r="AH36" s="8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="BS36" s="8">
         <v>54</v>
       </c>
-      <c r="BM36" s="8">
+      <c r="BT36" s="8">
         <v>30</v>
       </c>
-      <c r="CL36" s="8">
+      <c r="BU36" s="8">
+        <v>13</v>
+      </c>
+      <c r="BV36" s="8">
+        <v>3</v>
+      </c>
+      <c r="BW36" s="8">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="CV36" s="8">
         <v>43</v>
       </c>
-      <c r="CM36" s="8">
+      <c r="CW36" s="8">
         <v>66</v>
       </c>
-      <c r="CN36" s="8">
+      <c r="CX36" s="8">
         <v>58</v>
       </c>
-      <c r="CX36" s="25" t="s">
+      <c r="DH36" s="25" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="37" spans="1:104" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:114" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
         <v>134</v>
       </c>
@@ -6293,7 +7321,7 @@
         <v>2022</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G37" s="8">
         <v>1000</v>
@@ -6340,29 +7368,44 @@
       <c r="AC37" s="8">
         <v>7</v>
       </c>
-      <c r="BL37" s="8">
+      <c r="AD37" s="8">
+        <v>5</v>
+      </c>
+      <c r="AE37" s="8">
+        <v>6</v>
+      </c>
+      <c r="AF37" s="8">
+        <v>6</v>
+      </c>
+      <c r="AG37" s="8">
+        <v>7</v>
+      </c>
+      <c r="AH37" s="8">
+        <v>12</v>
+      </c>
+      <c r="BS37" s="8">
         <v>56</v>
       </c>
-      <c r="BM37" s="8">
+      <c r="BT37" s="8">
         <v>31</v>
       </c>
-      <c r="CL37" s="8">
+      <c r="CV37" s="8">
         <v>44</v>
       </c>
-      <c r="CM37" s="8">
+      <c r="CW37" s="8">
         <v>64</v>
       </c>
-      <c r="CN37" s="8">
+      <c r="CX37" s="8">
         <v>43</v>
       </c>
-      <c r="CW37" s="8">
+      <c r="DG37" s="8">
         <v>54</v>
       </c>
-      <c r="CX37" s="25" t="s">
-        <v>335</v>
+      <c r="DH37" s="25" t="s">
+        <v>333</v>
       </c>
     </row>
-    <row r="38" spans="1:104" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:114" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
         <v>92</v>
       </c>
@@ -6432,65 +7475,97 @@
       <c r="AC38" s="8">
         <v>3</v>
       </c>
-      <c r="AV38" s="8">
+      <c r="AD38" s="8">
+        <v>5</v>
+      </c>
+      <c r="AE38" s="8">
+        <v>6</v>
+      </c>
+      <c r="AF38" s="8">
+        <v>6</v>
+      </c>
+      <c r="AG38" s="8">
+        <v>6</v>
+      </c>
+      <c r="AH38" s="8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="BA38" s="8">
         <v>43</v>
       </c>
-      <c r="AW38" s="8">
+      <c r="BB38" s="8">
         <v>63</v>
       </c>
-      <c r="AX38" s="8">
+      <c r="BC38" s="8">
         <v>45</v>
       </c>
-      <c r="AY38" s="8">
+      <c r="BD38" s="8">
         <v>21</v>
       </c>
-      <c r="BL38" s="8">
+      <c r="BE38" s="8">
+        <v>11</v>
+      </c>
+      <c r="BF38" s="8">
+        <v>12</v>
+      </c>
+      <c r="BS38" s="8">
         <v>54</v>
       </c>
-      <c r="BM38" s="8">
+      <c r="BT38" s="8">
         <v>32</v>
       </c>
-      <c r="BN38" s="8">
+      <c r="BU38" s="8">
+        <v>11</v>
+      </c>
+      <c r="BV38" s="8">
+        <v>3</v>
+      </c>
+      <c r="BW38" s="8">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="BX38" s="8">
         <v>47</v>
       </c>
-      <c r="BO38" s="8">
+      <c r="BY38" s="8">
         <v>30</v>
       </c>
-      <c r="BP38" s="8">
+      <c r="BZ38" s="8">
         <v>48</v>
       </c>
-      <c r="BQ38" s="8">
+      <c r="CA38" s="8">
         <v>63</v>
       </c>
-      <c r="BR38" s="8">
+      <c r="CB38" s="8">
         <v>68</v>
       </c>
-      <c r="BS38" s="8">
+      <c r="CC38" s="8">
         <v>51</v>
       </c>
-      <c r="CL38" s="8">
+      <c r="CV38" s="8">
         <v>38</v>
       </c>
-      <c r="CM38" s="8">
+      <c r="CW38" s="8">
         <v>56</v>
       </c>
-      <c r="CN38" s="8">
+      <c r="CX38" s="8">
         <v>59</v>
       </c>
-      <c r="CO38" s="8">
+      <c r="CY38" s="8">
         <v>48</v>
       </c>
-      <c r="CP38" s="8">
+      <c r="CZ38" s="8">
         <v>58</v>
       </c>
-      <c r="CW38" s="8">
+      <c r="DG38" s="8">
         <v>53</v>
       </c>
-      <c r="CX38" s="25" t="s">
+      <c r="DH38" s="25" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="39" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
         <v>113</v>
       </c>
@@ -6557,63 +7632,95 @@
       <c r="AC39" s="11">
         <v>5.6</v>
       </c>
-      <c r="AV39" s="11">
+      <c r="AD39" s="11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AE39" s="11">
+        <v>8.5</v>
+      </c>
+      <c r="AF39" s="11">
+        <v>5.6</v>
+      </c>
+      <c r="AG39" s="11">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AH39" s="8">
+        <f t="shared" si="0"/>
+        <v>10.7</v>
+      </c>
+      <c r="BA39" s="11">
         <v>45.7</v>
       </c>
-      <c r="AW39" s="11">
+      <c r="BB39" s="11">
         <v>54.6</v>
       </c>
-      <c r="AX39" s="11">
+      <c r="BC39" s="11">
         <v>46.1</v>
       </c>
-      <c r="AY39" s="11">
+      <c r="BD39" s="11">
         <v>30.5</v>
       </c>
-      <c r="AZ39"/>
-      <c r="BA39"/>
-      <c r="BB39"/>
-      <c r="BC39"/>
-      <c r="BL39" s="11">
+      <c r="BE39" s="11">
+        <v>7.8</v>
+      </c>
+      <c r="BF39" s="11">
+        <v>11.7</v>
+      </c>
+      <c r="BG39"/>
+      <c r="BH39"/>
+      <c r="BI39"/>
+      <c r="BJ39"/>
+      <c r="BS39" s="11">
         <v>50.4</v>
       </c>
-      <c r="BM39" s="11">
+      <c r="BT39" s="11">
         <v>37.799999999999997</v>
       </c>
-      <c r="BN39" s="11">
+      <c r="BU39" s="11">
+        <v>9.9</v>
+      </c>
+      <c r="BV39" s="11">
+        <v>1.9</v>
+      </c>
+      <c r="BW39" s="8">
+        <f t="shared" si="2"/>
+        <v>11.8</v>
+      </c>
+      <c r="BX39" s="11">
         <v>44.1</v>
       </c>
-      <c r="BO39" s="11">
+      <c r="BY39" s="11">
         <v>30.9</v>
       </c>
-      <c r="BP39" s="11">
+      <c r="BZ39" s="11">
         <v>41.5</v>
       </c>
-      <c r="BQ39" s="11">
+      <c r="CA39" s="11">
         <v>52.4</v>
       </c>
-      <c r="BR39" s="11">
+      <c r="CB39" s="11">
         <v>21.5</v>
       </c>
-      <c r="BS39" s="11">
+      <c r="CC39" s="11">
         <v>12.1</v>
       </c>
-      <c r="CL39" s="11">
+      <c r="CV39" s="11">
         <v>37.1</v>
       </c>
-      <c r="CM39" s="11">
+      <c r="CW39" s="11">
         <v>47.3</v>
       </c>
-      <c r="CN39" s="11">
+      <c r="CX39" s="11">
         <v>16.5</v>
       </c>
-      <c r="CX39" s="25" t="s">
-        <v>305</v>
-      </c>
-      <c r="CZ39" s="23" t="s">
-        <v>302</v>
+      <c r="DH39" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="DJ39" s="23" t="s">
+        <v>300</v>
       </c>
     </row>
-    <row r="40" spans="1:104" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:114" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
         <v>134</v>
       </c>
@@ -6630,7 +7737,7 @@
         <v>2022</v>
       </c>
       <c r="F40" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G40" s="8">
         <v>1000</v>
@@ -6677,29 +7784,44 @@
       <c r="AC40" s="8">
         <v>8</v>
       </c>
-      <c r="BL40" s="8">
+      <c r="AD40" s="8">
+        <v>7</v>
+      </c>
+      <c r="AE40" s="8">
+        <v>9</v>
+      </c>
+      <c r="AF40" s="8">
+        <v>8</v>
+      </c>
+      <c r="AG40" s="8">
+        <v>4</v>
+      </c>
+      <c r="AH40" s="8">
+        <v>12</v>
+      </c>
+      <c r="BS40" s="8">
         <v>54</v>
       </c>
-      <c r="BM40" s="8">
+      <c r="BT40" s="8">
         <v>30</v>
       </c>
-      <c r="CL40" s="8">
+      <c r="CV40" s="8">
         <v>43</v>
       </c>
-      <c r="CM40" s="8">
+      <c r="CW40" s="8">
         <v>64</v>
       </c>
-      <c r="CN40" s="8">
+      <c r="CX40" s="8">
         <v>42</v>
       </c>
-      <c r="CW40" s="8">
+      <c r="DG40" s="8">
         <v>55</v>
       </c>
-      <c r="CX40" s="25" t="s">
+      <c r="DH40" s="25" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="41" spans="1:104" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:114" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
         <v>92</v>
       </c>
@@ -6769,38 +7891,70 @@
       <c r="AC41" s="8">
         <v>7</v>
       </c>
-      <c r="AV41" s="8">
+      <c r="AD41" s="8">
+        <v>2</v>
+      </c>
+      <c r="AE41" s="8">
+        <v>8</v>
+      </c>
+      <c r="AF41" s="8">
+        <v>5</v>
+      </c>
+      <c r="AG41" s="8">
+        <v>3</v>
+      </c>
+      <c r="AH41" s="8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="BA41" s="8">
         <v>49</v>
       </c>
-      <c r="AW41" s="8">
+      <c r="BB41" s="8">
         <v>58</v>
       </c>
-      <c r="AX41" s="8">
+      <c r="BC41" s="8">
         <v>43</v>
       </c>
-      <c r="AY41" s="8">
+      <c r="BD41" s="8">
         <v>31</v>
       </c>
-      <c r="BL41" s="8">
+      <c r="BE41" s="8">
+        <v>7</v>
+      </c>
+      <c r="BF41" s="8">
+        <v>10</v>
+      </c>
+      <c r="BS41" s="8">
         <v>54</v>
       </c>
-      <c r="BM41" s="8">
+      <c r="BT41" s="8">
         <v>37</v>
       </c>
-      <c r="CO41" s="8">
+      <c r="BU41" s="8">
+        <v>8</v>
+      </c>
+      <c r="BV41" s="8">
+        <v>1</v>
+      </c>
+      <c r="BW41" s="8">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="CY41" s="8">
         <v>49</v>
       </c>
-      <c r="CP41" s="8">
+      <c r="CZ41" s="8">
         <v>59</v>
       </c>
-      <c r="CW41" s="8">
+      <c r="DG41" s="8">
         <v>53</v>
       </c>
-      <c r="CX41" s="25" t="s">
+      <c r="DH41" s="25" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="42" spans="1:104" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:114" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
         <v>95</v>
       </c>
@@ -6864,29 +8018,55 @@
       <c r="AC42" s="8">
         <v>5.6</v>
       </c>
-      <c r="BL42" s="8">
+      <c r="AD42" s="8">
+        <v>6.1</v>
+      </c>
+      <c r="AE42" s="8">
+        <v>8.4</v>
+      </c>
+      <c r="AF42" s="8">
+        <v>7.3</v>
+      </c>
+      <c r="AG42" s="8">
+        <v>3</v>
+      </c>
+      <c r="AH42" s="8">
+        <f t="shared" si="0"/>
+        <v>10.3</v>
+      </c>
+      <c r="BS42" s="8">
         <v>49</v>
       </c>
-      <c r="BM42" s="8">
+      <c r="BT42" s="8">
         <v>34</v>
       </c>
-      <c r="CL42" s="8">
+      <c r="BU42" s="8">
+        <v>13.5</v>
+      </c>
+      <c r="BV42" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="BW42" s="8">
+        <f t="shared" si="2"/>
+        <v>16.899999999999999</v>
+      </c>
+      <c r="CV42" s="8">
         <v>45.8</v>
       </c>
-      <c r="CM42" s="8">
+      <c r="CW42" s="8">
         <v>56.3</v>
       </c>
-      <c r="CN42" s="8">
+      <c r="CX42" s="8">
         <v>54.3</v>
       </c>
-      <c r="CW42" s="8">
+      <c r="DG42" s="8">
         <v>50.2</v>
       </c>
-      <c r="CX42" s="25" t="s">
+      <c r="DH42" s="25" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="43" spans="1:104" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:114" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
         <v>108</v>
       </c>
@@ -6951,26 +8131,46 @@
       <c r="AC43" s="8">
         <v>7</v>
       </c>
-      <c r="BL43" s="8">
+      <c r="AF43" s="8">
+        <v>8</v>
+      </c>
+      <c r="AG43" s="8">
+        <v>5</v>
+      </c>
+      <c r="AH43" s="8">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="BS43" s="8">
         <v>54</v>
       </c>
-      <c r="BM43" s="8">
+      <c r="BT43" s="8">
         <v>30</v>
       </c>
-      <c r="CL43" s="8">
+      <c r="BU43" s="8">
+        <v>13</v>
+      </c>
+      <c r="BV43" s="8">
+        <v>3</v>
+      </c>
+      <c r="BW43" s="8">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="CV43" s="8">
         <v>43</v>
       </c>
-      <c r="CM43" s="8">
+      <c r="CW43" s="8">
         <v>66</v>
       </c>
-      <c r="CN43" s="8">
+      <c r="CX43" s="8">
         <v>54</v>
       </c>
-      <c r="CX43" s="25" t="s">
+      <c r="DH43" s="25" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="44" spans="1:104" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:114" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
         <v>134</v>
       </c>
@@ -6987,7 +8187,7 @@
         <v>2022</v>
       </c>
       <c r="F44" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G44" s="8">
         <v>1000</v>
@@ -7034,29 +8234,44 @@
       <c r="AC44" s="8">
         <v>8</v>
       </c>
-      <c r="BL44" s="8">
+      <c r="AD44" s="8">
+        <v>10</v>
+      </c>
+      <c r="AE44" s="8">
+        <v>9</v>
+      </c>
+      <c r="AF44" s="8">
+        <v>3</v>
+      </c>
+      <c r="AG44" s="8">
+        <v>9</v>
+      </c>
+      <c r="AH44" s="8">
+        <v>12</v>
+      </c>
+      <c r="BS44" s="8">
         <v>54</v>
       </c>
-      <c r="BM44" s="8">
+      <c r="BT44" s="8">
         <v>31</v>
       </c>
-      <c r="CL44" s="8">
+      <c r="CV44" s="8">
         <v>43</v>
       </c>
-      <c r="CM44" s="8">
+      <c r="CW44" s="8">
         <v>62</v>
       </c>
-      <c r="CN44" s="8">
+      <c r="CX44" s="8">
         <v>45</v>
       </c>
-      <c r="CW44" s="8">
+      <c r="DG44" s="8">
         <v>54</v>
       </c>
-      <c r="CX44" s="25" t="s">
+      <c r="DH44" s="25" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="45" spans="1:104" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:114" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
         <v>92</v>
       </c>
@@ -7126,65 +8341,97 @@
       <c r="AC45" s="8">
         <v>9</v>
       </c>
-      <c r="AV45" s="8">
+      <c r="AD45" s="8">
+        <v>5</v>
+      </c>
+      <c r="AE45" s="8">
+        <v>5</v>
+      </c>
+      <c r="AF45" s="8">
+        <v>5</v>
+      </c>
+      <c r="AG45" s="8">
+        <v>3</v>
+      </c>
+      <c r="AH45" s="8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="BA45" s="8">
         <v>47</v>
       </c>
-      <c r="AW45" s="8">
+      <c r="BB45" s="8">
         <v>54</v>
       </c>
-      <c r="AX45" s="8">
+      <c r="BC45" s="8">
         <v>43</v>
       </c>
-      <c r="AY45" s="8">
+      <c r="BD45" s="8">
         <v>27</v>
       </c>
-      <c r="BL45" s="8">
+      <c r="BE45" s="8">
+        <v>9</v>
+      </c>
+      <c r="BF45" s="8">
+        <v>16</v>
+      </c>
+      <c r="BS45" s="8">
         <v>50</v>
       </c>
-      <c r="BM45" s="8">
+      <c r="BT45" s="8">
         <v>35</v>
       </c>
-      <c r="BN45" s="8">
+      <c r="BU45" s="8">
+        <v>13</v>
+      </c>
+      <c r="BV45" s="8">
+        <v>2</v>
+      </c>
+      <c r="BW45" s="8">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="BX45" s="8">
         <v>46</v>
       </c>
-      <c r="BO45" s="8">
+      <c r="BY45" s="8">
         <v>41</v>
       </c>
-      <c r="BP45" s="8">
+      <c r="BZ45" s="8">
         <v>49</v>
       </c>
-      <c r="BQ45" s="8">
+      <c r="CA45" s="8">
         <v>59</v>
       </c>
-      <c r="BR45" s="8">
+      <c r="CB45" s="8">
         <v>56</v>
       </c>
-      <c r="BS45" s="8">
+      <c r="CC45" s="8">
         <v>56</v>
       </c>
-      <c r="CL45" s="8">
+      <c r="CV45" s="8">
         <v>43</v>
       </c>
-      <c r="CM45" s="8">
+      <c r="CW45" s="8">
         <v>54</v>
       </c>
-      <c r="CN45" s="8">
+      <c r="CX45" s="8">
         <v>56</v>
       </c>
-      <c r="CO45" s="8">
+      <c r="CY45" s="8">
         <v>50</v>
       </c>
-      <c r="CP45" s="8">
+      <c r="CZ45" s="8">
         <v>61</v>
       </c>
-      <c r="CW45" s="8">
+      <c r="DG45" s="8">
         <v>56</v>
       </c>
-      <c r="CX45" s="25" t="s">
+      <c r="DH45" s="25" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="46" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" s="23" t="s">
         <v>113</v>
       </c>
@@ -7251,62 +8498,94 @@
       <c r="AC46" s="11">
         <v>6</v>
       </c>
-      <c r="AV46" s="11">
+      <c r="AD46" s="11">
+        <v>3.1</v>
+      </c>
+      <c r="AE46" s="11">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AF46" s="11">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG46" s="11">
+        <v>6.1</v>
+      </c>
+      <c r="AH46" s="8">
+        <f t="shared" si="0"/>
+        <v>10.5</v>
+      </c>
+      <c r="BA46" s="11">
         <v>41.8</v>
       </c>
-      <c r="AW46" s="11">
+      <c r="BB46" s="11">
         <v>53.6</v>
       </c>
-      <c r="AX46" s="11">
+      <c r="BC46" s="11">
         <v>50.7</v>
       </c>
-      <c r="AY46" s="11">
+      <c r="BD46" s="11">
         <v>30.5</v>
       </c>
-      <c r="BL46" s="11">
+      <c r="BE46" s="11">
+        <v>6.6</v>
+      </c>
+      <c r="BF46" s="11">
+        <v>13.6</v>
+      </c>
+      <c r="BS46" s="11">
         <v>48</v>
       </c>
-      <c r="BM46" s="11">
+      <c r="BT46" s="11">
         <v>40</v>
       </c>
-      <c r="BN46" s="11">
+      <c r="BU46" s="11">
+        <v>10.3</v>
+      </c>
+      <c r="BV46" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="BW46" s="8">
+        <f t="shared" si="2"/>
+        <v>11.9</v>
+      </c>
+      <c r="BX46" s="11">
         <v>46.6</v>
       </c>
-      <c r="BO46" s="11">
+      <c r="BY46" s="11">
         <v>34.700000000000003</v>
       </c>
-      <c r="BP46" s="11">
+      <c r="BZ46" s="11">
         <v>38.799999999999997</v>
       </c>
-      <c r="BQ46" s="11">
+      <c r="CA46" s="11">
         <v>53.6</v>
       </c>
-      <c r="BR46" s="11">
+      <c r="CB46" s="11">
         <v>22.1</v>
       </c>
-      <c r="BS46" s="11">
+      <c r="CC46" s="11">
         <v>18.899999999999999</v>
       </c>
-      <c r="CL46" s="11">
+      <c r="CV46" s="11">
         <v>41.3</v>
       </c>
-      <c r="CM46" s="11">
+      <c r="CW46" s="11">
         <v>46.6</v>
       </c>
-      <c r="CN46" s="11">
+      <c r="CX46" s="11">
         <v>20.399999999999999</v>
       </c>
-      <c r="CW46" s="11">
+      <c r="DG46" s="11">
         <v>38</v>
       </c>
-      <c r="CX46" s="22" t="s">
-        <v>299</v>
-      </c>
-      <c r="CY46" s="23" t="s">
-        <v>298</v>
+      <c r="DH46" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="DI46" s="23" t="s">
+        <v>296</v>
       </c>
     </row>
-    <row r="47" spans="1:104" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:114" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
         <v>106</v>
       </c>
@@ -7349,29 +8628,49 @@
       <c r="AC47" s="8">
         <v>7</v>
       </c>
-      <c r="BL47" s="8">
+      <c r="AF47" s="8">
+        <v>6.2</v>
+      </c>
+      <c r="AG47" s="8">
+        <v>6</v>
+      </c>
+      <c r="AH47" s="8">
+        <f t="shared" si="0"/>
+        <v>12.2</v>
+      </c>
+      <c r="BS47" s="8">
         <v>53.2</v>
       </c>
-      <c r="BM47" s="8">
+      <c r="BT47" s="8">
         <v>35.299999999999997</v>
       </c>
-      <c r="CL47" s="8">
+      <c r="BU47" s="8">
+        <v>9.4</v>
+      </c>
+      <c r="BV47" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="BW47" s="8">
+        <f t="shared" si="2"/>
+        <v>11.5</v>
+      </c>
+      <c r="CV47" s="8">
         <v>40.5</v>
       </c>
-      <c r="CM47" s="8">
+      <c r="CW47" s="8">
         <v>55.4</v>
       </c>
-      <c r="CN47" s="8">
+      <c r="CX47" s="8">
         <v>48.4</v>
       </c>
-      <c r="CW47" s="8">
+      <c r="DG47" s="8">
         <v>43</v>
       </c>
-      <c r="CX47" s="27" t="s">
+      <c r="DH47" s="27" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="48" spans="1:104" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:114" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
         <v>153</v>
       </c>
@@ -7417,29 +8716,39 @@
       <c r="AC48" s="8">
         <v>8</v>
       </c>
-      <c r="BL48" s="8">
+      <c r="BS48" s="8">
         <v>49</v>
       </c>
-      <c r="BM48" s="8">
+      <c r="BT48" s="8">
         <v>35</v>
       </c>
-      <c r="CL48" s="8">
+      <c r="BU48" s="8">
+        <v>12</v>
+      </c>
+      <c r="BV48" s="8">
+        <v>4</v>
+      </c>
+      <c r="BW48" s="8">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="CV48" s="8">
         <v>37</v>
       </c>
-      <c r="CM48" s="8">
+      <c r="CW48" s="8">
         <v>47</v>
       </c>
-      <c r="CN48" s="8">
+      <c r="CX48" s="8">
         <v>20</v>
       </c>
-      <c r="CW48" s="8">
+      <c r="DG48" s="8">
         <v>40</v>
       </c>
-      <c r="CX48" s="27" t="s">
+      <c r="DH48" s="25" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="49" spans="1:103" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:113" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
         <v>134</v>
       </c>
@@ -7456,7 +8765,7 @@
         <v>2022</v>
       </c>
       <c r="F49" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G49" s="8">
         <v>1000</v>
@@ -7503,30 +8812,45 @@
       <c r="AC49" s="8">
         <v>7</v>
       </c>
-      <c r="BL49" s="8">
+      <c r="AD49" s="8">
+        <v>6</v>
+      </c>
+      <c r="AE49" s="8">
+        <v>8</v>
+      </c>
+      <c r="AF49" s="8">
+        <v>7</v>
+      </c>
+      <c r="AG49" s="8">
+        <v>2</v>
+      </c>
+      <c r="AH49" s="8">
+        <v>9</v>
+      </c>
+      <c r="BS49" s="8">
         <v>54</v>
       </c>
-      <c r="BM49" s="8">
+      <c r="BT49" s="8">
         <v>32</v>
       </c>
-      <c r="CL49" s="8">
+      <c r="CV49" s="8">
         <v>43</v>
       </c>
-      <c r="CM49" s="8">
+      <c r="CW49" s="8">
         <v>61</v>
       </c>
-      <c r="CN49" s="8">
+      <c r="CX49" s="8">
         <v>44</v>
       </c>
-      <c r="CT49" s="24"/>
-      <c r="CW49" s="8">
+      <c r="DD49" s="24"/>
+      <c r="DG49" s="8">
         <v>53</v>
       </c>
-      <c r="CX49" s="26" t="s">
-        <v>258</v>
+      <c r="DH49" s="25" t="s">
+        <v>355</v>
       </c>
     </row>
-    <row r="50" spans="1:103" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:113" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
         <v>92</v>
       </c>
@@ -7596,38 +8920,70 @@
       <c r="AC50" s="8">
         <v>7</v>
       </c>
-      <c r="AV50" s="8">
+      <c r="AD50" s="8">
+        <v>3</v>
+      </c>
+      <c r="AE50" s="8">
+        <v>7</v>
+      </c>
+      <c r="AF50" s="8">
+        <v>5</v>
+      </c>
+      <c r="AG50" s="8">
+        <v>3</v>
+      </c>
+      <c r="AH50" s="8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="BA50" s="8">
         <v>48</v>
       </c>
-      <c r="AW50" s="8">
+      <c r="BB50" s="8">
         <v>54</v>
       </c>
-      <c r="AX50" s="8">
+      <c r="BC50" s="8">
         <v>42</v>
       </c>
-      <c r="AY50" s="8">
+      <c r="BD50" s="8">
         <v>33</v>
       </c>
-      <c r="BL50" s="8">
+      <c r="BE50" s="8">
+        <v>9</v>
+      </c>
+      <c r="BF50" s="8">
+        <v>12</v>
+      </c>
+      <c r="BS50" s="8">
         <v>51</v>
       </c>
-      <c r="BM50" s="8">
+      <c r="BT50" s="8">
         <v>37</v>
       </c>
-      <c r="CO50" s="8">
+      <c r="BU50" s="8">
+        <v>10</v>
+      </c>
+      <c r="BV50" s="8">
+        <v>1</v>
+      </c>
+      <c r="BW50" s="8">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="CY50" s="8">
         <v>48</v>
       </c>
-      <c r="CP50" s="8">
+      <c r="CZ50" s="8">
         <v>56</v>
       </c>
-      <c r="CW50" s="8">
+      <c r="DG50" s="8">
         <v>52</v>
       </c>
-      <c r="CX50" s="25" t="s">
-        <v>259</v>
+      <c r="DH50" s="25" t="s">
+        <v>258</v>
       </c>
     </row>
-    <row r="51" spans="1:103" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:113" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="29" t="s">
         <v>95</v>
       </c>
@@ -7691,41 +9047,73 @@
       <c r="AC51" s="8">
         <v>6.8</v>
       </c>
-      <c r="AV51" s="8">
+      <c r="AD51" s="8">
+        <v>6.1</v>
+      </c>
+      <c r="AE51" s="8">
+        <v>8.9</v>
+      </c>
+      <c r="AF51" s="8">
+        <v>7.6</v>
+      </c>
+      <c r="AG51" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="AH51" s="8">
+        <f t="shared" si="0"/>
+        <v>11.2</v>
+      </c>
+      <c r="BA51" s="8">
         <v>42</v>
       </c>
-      <c r="AW51" s="8">
+      <c r="BB51" s="8">
         <v>49.7</v>
       </c>
-      <c r="AX51" s="8">
+      <c r="BC51" s="8">
         <v>43.8</v>
       </c>
-      <c r="AY51" s="8">
+      <c r="BD51" s="8">
         <v>31.5</v>
       </c>
-      <c r="BL51" s="8">
+      <c r="BE51" s="8">
+        <v>11</v>
+      </c>
+      <c r="BF51" s="8">
+        <v>15.2</v>
+      </c>
+      <c r="BS51" s="8">
         <v>46</v>
       </c>
-      <c r="BM51" s="8">
+      <c r="BT51" s="8">
         <v>35</v>
       </c>
-      <c r="CL51" s="8">
+      <c r="BU51" s="8">
+        <v>13.2</v>
+      </c>
+      <c r="BV51" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="BW51" s="8">
+        <f t="shared" si="2"/>
+        <v>16.7</v>
+      </c>
+      <c r="CV51" s="8">
         <v>46.5</v>
       </c>
-      <c r="CM51" s="8">
+      <c r="CW51" s="8">
         <v>54.1</v>
       </c>
-      <c r="CN51" s="8">
+      <c r="CX51" s="8">
         <v>49.8</v>
       </c>
-      <c r="CW51" s="8">
+      <c r="DG51" s="8">
         <v>47</v>
       </c>
-      <c r="CX51" s="25" t="s">
-        <v>260</v>
+      <c r="DH51" s="25" t="s">
+        <v>259</v>
       </c>
     </row>
-    <row r="52" spans="1:103" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:113" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
         <v>134</v>
       </c>
@@ -7742,7 +9130,7 @@
         <v>2022</v>
       </c>
       <c r="F52" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G52" s="8">
         <v>1000</v>
@@ -7789,29 +9177,44 @@
       <c r="AC52" s="8">
         <v>8</v>
       </c>
-      <c r="BL52" s="8">
+      <c r="AD52" s="8">
+        <v>5</v>
+      </c>
+      <c r="AE52" s="8">
+        <v>8</v>
+      </c>
+      <c r="AF52" s="8">
+        <v>7</v>
+      </c>
+      <c r="AG52" s="8">
+        <v>2</v>
+      </c>
+      <c r="AH52" s="8">
+        <v>9</v>
+      </c>
+      <c r="BS52" s="8">
         <v>53</v>
       </c>
-      <c r="BM52" s="8">
+      <c r="BT52" s="8">
         <v>33</v>
       </c>
-      <c r="CL52" s="8">
+      <c r="CV52" s="8">
         <v>42</v>
       </c>
-      <c r="CM52" s="8">
+      <c r="CW52" s="8">
         <v>61</v>
       </c>
-      <c r="CN52" s="8">
+      <c r="CX52" s="8">
         <v>43</v>
       </c>
-      <c r="CW52" s="8">
+      <c r="DG52" s="8">
         <v>52</v>
       </c>
-      <c r="CX52" s="25" t="s">
-        <v>330</v>
+      <c r="DH52" s="25" t="s">
+        <v>328</v>
       </c>
     </row>
-    <row r="53" spans="1:103" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:113" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="29" t="s">
         <v>108</v>
       </c>
@@ -7893,26 +9296,52 @@
       <c r="AC53" s="8">
         <v>7</v>
       </c>
-      <c r="BL53" s="8">
+      <c r="AD53" s="8">
+        <v>6</v>
+      </c>
+      <c r="AE53" s="8">
+        <v>7</v>
+      </c>
+      <c r="AF53" s="8">
+        <v>6</v>
+      </c>
+      <c r="AG53" s="8">
+        <v>5</v>
+      </c>
+      <c r="AH53" s="8">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="BS53" s="8">
         <v>54</v>
       </c>
-      <c r="BM53" s="8">
+      <c r="BT53" s="8">
         <v>32</v>
       </c>
-      <c r="CL53" s="8">
+      <c r="BU53" s="8">
+        <v>10</v>
+      </c>
+      <c r="BV53" s="8">
+        <v>3</v>
+      </c>
+      <c r="BW53" s="8">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="CV53" s="8">
         <v>42</v>
       </c>
-      <c r="CM53" s="8">
+      <c r="CW53" s="8">
         <v>63</v>
       </c>
-      <c r="CN53" s="8">
+      <c r="CX53" s="8">
         <v>55</v>
       </c>
-      <c r="CX53" s="25" t="s">
-        <v>261</v>
+      <c r="DH53" s="25" t="s">
+        <v>260</v>
       </c>
     </row>
-    <row r="54" spans="1:103" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:113" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="29" t="s">
         <v>92</v>
       </c>
@@ -7982,65 +9411,97 @@
       <c r="AC54" s="8">
         <v>7</v>
       </c>
-      <c r="AV54" s="8">
+      <c r="AD54" s="8">
+        <v>4</v>
+      </c>
+      <c r="AE54" s="8">
+        <v>6</v>
+      </c>
+      <c r="AF54" s="8">
+        <v>5</v>
+      </c>
+      <c r="AG54" s="8">
+        <v>3</v>
+      </c>
+      <c r="AH54" s="8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="BA54" s="8">
         <v>45</v>
       </c>
-      <c r="AW54" s="8">
+      <c r="BB54" s="8">
         <v>54</v>
       </c>
-      <c r="AX54" s="8">
+      <c r="BC54" s="8">
         <v>44</v>
       </c>
-      <c r="AY54" s="8">
+      <c r="BD54" s="8">
         <v>30</v>
       </c>
-      <c r="BL54" s="8">
+      <c r="BE54" s="8">
+        <v>10</v>
+      </c>
+      <c r="BF54" s="8">
+        <v>15</v>
+      </c>
+      <c r="BS54" s="8">
         <v>50</v>
       </c>
-      <c r="BM54" s="8">
+      <c r="BT54" s="8">
         <v>36</v>
       </c>
-      <c r="BN54" s="8">
+      <c r="BU54" s="8">
+        <v>12</v>
+      </c>
+      <c r="BV54" s="8">
+        <v>2</v>
+      </c>
+      <c r="BW54" s="8">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="BX54" s="8">
         <v>50</v>
       </c>
-      <c r="BO54" s="8">
+      <c r="BY54" s="8">
         <v>38</v>
       </c>
-      <c r="BP54" s="8">
+      <c r="BZ54" s="8">
         <v>47</v>
       </c>
-      <c r="BQ54" s="8">
+      <c r="CA54" s="8">
         <v>56</v>
       </c>
-      <c r="BR54" s="8">
+      <c r="CB54" s="8">
         <v>50</v>
       </c>
-      <c r="BS54" s="8">
+      <c r="CC54" s="8">
         <v>55</v>
       </c>
-      <c r="CL54" s="8">
+      <c r="CV54" s="8">
         <v>44</v>
       </c>
-      <c r="CM54" s="8">
+      <c r="CW54" s="8">
         <v>51</v>
       </c>
-      <c r="CN54" s="8">
+      <c r="CX54" s="8">
         <v>52</v>
       </c>
-      <c r="CO54" s="8">
+      <c r="CY54" s="8">
         <v>43</v>
       </c>
-      <c r="CP54" s="8">
+      <c r="CZ54" s="8">
         <v>59</v>
       </c>
-      <c r="CW54" s="8">
+      <c r="DG54" s="8">
         <v>52</v>
       </c>
-      <c r="CX54" s="25" t="s">
-        <v>262</v>
+      <c r="DH54" s="25" t="s">
+        <v>261</v>
       </c>
     </row>
-    <row r="55" spans="1:103" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:113" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="29" t="s">
         <v>166</v>
       </c>
@@ -8104,38 +9565,64 @@
       <c r="AC55" s="8">
         <v>9</v>
       </c>
-      <c r="BL55" s="8">
+      <c r="AD55" s="8">
+        <v>2</v>
+      </c>
+      <c r="AE55" s="8">
+        <v>6</v>
+      </c>
+      <c r="AF55" s="8">
+        <v>4</v>
+      </c>
+      <c r="AG55" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH55" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="BS55" s="8">
         <v>54</v>
       </c>
-      <c r="BM55" s="8">
+      <c r="BT55" s="8">
         <v>35</v>
       </c>
-      <c r="CL55" s="8">
+      <c r="BU55" s="8">
+        <v>9</v>
+      </c>
+      <c r="BV55" s="8">
+        <v>2</v>
+      </c>
+      <c r="BW55" s="8">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="CV55" s="8">
         <v>41</v>
       </c>
-      <c r="CM55" s="8">
+      <c r="CW55" s="8">
         <v>59</v>
       </c>
-      <c r="CN55" s="8">
+      <c r="CX55" s="8">
         <v>41</v>
       </c>
-      <c r="CO55" s="8">
+      <c r="CY55" s="8">
         <v>50</v>
       </c>
-      <c r="CP55" s="8">
+      <c r="CZ55" s="8">
         <v>56</v>
       </c>
-      <c r="CW55" s="8">
+      <c r="DG55" s="8">
         <v>53</v>
       </c>
-      <c r="CX55" s="25" t="s">
+      <c r="DH55" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="DI55" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="CY55" s="8" t="s">
-        <v>264</v>
-      </c>
     </row>
-    <row r="56" spans="1:103" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:113" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="29" t="s">
         <v>98</v>
       </c>
@@ -8221,127 +9708,159 @@
         <v>6</v>
       </c>
       <c r="AD56" s="8">
+        <v>6</v>
+      </c>
+      <c r="AE56" s="8">
+        <v>7</v>
+      </c>
+      <c r="AF56" s="8">
+        <v>6</v>
+      </c>
+      <c r="AG56" s="8">
+        <v>2</v>
+      </c>
+      <c r="AH56" s="8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AI56" s="8">
         <v>44</v>
       </c>
-      <c r="AE56" s="8">
+      <c r="AJ56" s="8">
         <v>37</v>
       </c>
-      <c r="AF56" s="8">
+      <c r="AK56" s="8">
         <v>52</v>
       </c>
-      <c r="AJ56" s="8">
+      <c r="AO56" s="8">
         <v>26</v>
       </c>
-      <c r="AK56" s="8">
+      <c r="AP56" s="8">
         <v>31</v>
       </c>
-      <c r="AL56" s="8">
+      <c r="AQ56" s="8">
         <v>18</v>
       </c>
-      <c r="AP56" s="8">
+      <c r="AU56" s="8">
         <v>7</v>
       </c>
-      <c r="AQ56" s="8">
+      <c r="AV56" s="8">
         <v>7</v>
       </c>
-      <c r="AR56" s="8">
+      <c r="AW56" s="8">
         <v>6</v>
       </c>
-      <c r="AV56" s="8">
+      <c r="BA56" s="8">
         <v>50</v>
       </c>
-      <c r="AW56" s="8">
+      <c r="BB56" s="8">
         <v>60</v>
       </c>
-      <c r="AX56" s="8">
+      <c r="BC56" s="8">
         <v>39</v>
       </c>
-      <c r="AY56" s="8">
+      <c r="BD56" s="8">
         <v>29</v>
       </c>
-      <c r="AZ56" s="8">
+      <c r="BE56" s="8">
+        <v>9</v>
+      </c>
+      <c r="BF56" s="8">
+        <v>10</v>
+      </c>
+      <c r="BG56" s="8">
         <v>55</v>
       </c>
-      <c r="BA56" s="8">
+      <c r="BH56" s="8">
         <v>49</v>
       </c>
-      <c r="BB56" s="8">
+      <c r="BI56" s="8">
         <v>66</v>
-      </c>
-      <c r="BF56" s="8">
-        <v>34</v>
-      </c>
-      <c r="BG56" s="8">
-        <v>39</v>
-      </c>
-      <c r="BH56" s="8">
-        <v>24</v>
-      </c>
-      <c r="BL56" s="8">
-        <v>55</v>
       </c>
       <c r="BM56" s="8">
         <v>34</v>
       </c>
       <c r="BN56" s="8">
+        <v>39</v>
+      </c>
+      <c r="BO56" s="8">
+        <v>24</v>
+      </c>
+      <c r="BS56" s="8">
+        <v>55</v>
+      </c>
+      <c r="BT56" s="8">
+        <v>34</v>
+      </c>
+      <c r="BU56" s="8">
+        <v>10</v>
+      </c>
+      <c r="BV56" s="8">
+        <v>1</v>
+      </c>
+      <c r="BW56" s="8">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="BX56" s="8">
         <v>42</v>
       </c>
-      <c r="BO56" s="8">
+      <c r="BY56" s="8">
         <v>33</v>
       </c>
-      <c r="BP56" s="8">
+      <c r="BZ56" s="8">
         <v>49</v>
       </c>
-      <c r="BQ56" s="8">
+      <c r="CA56" s="8">
         <v>60</v>
       </c>
-      <c r="BR56" s="8">
+      <c r="CB56" s="8">
         <v>24</v>
       </c>
-      <c r="BS56" s="8">
+      <c r="CC56" s="8">
         <v>22</v>
       </c>
-      <c r="BT56" s="8">
+      <c r="CD56" s="8">
         <v>37</v>
       </c>
-      <c r="BU56" s="8">
+      <c r="CE56" s="8">
         <v>45</v>
       </c>
-      <c r="BV56" s="8">
+      <c r="CF56" s="8">
         <v>27</v>
       </c>
-      <c r="BZ56" s="8">
+      <c r="CJ56" s="8">
         <v>55</v>
       </c>
-      <c r="CA56" s="8">
+      <c r="CK56" s="8">
         <v>51</v>
       </c>
-      <c r="CB56" s="8">
+      <c r="CL56" s="8">
         <v>61</v>
       </c>
-      <c r="CF56" s="8">
+      <c r="CP56" s="8">
         <v>22</v>
       </c>
-      <c r="CG56" s="8">
+      <c r="CQ56" s="8">
         <v>25</v>
       </c>
-      <c r="CH56" s="8">
+      <c r="CR56" s="8">
         <v>19</v>
       </c>
-      <c r="CL56" s="8">
+      <c r="CV56" s="8">
         <v>37</v>
       </c>
-      <c r="CM56" s="8">
+      <c r="CW56" s="8">
         <v>55</v>
       </c>
-      <c r="CN56" s="8">
+      <c r="CX56" s="8">
         <v>23</v>
       </c>
-      <c r="CX56" s="25" t="s">
-        <v>265</v>
+      <c r="DH56" s="25" t="s">
+        <v>264</v>
       </c>
     </row>
-    <row r="57" spans="1:103" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:113" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="29" t="s">
         <v>153</v>
       </c>
@@ -8387,29 +9906,39 @@
       <c r="AC57" s="8">
         <v>9</v>
       </c>
-      <c r="BL57" s="8">
+      <c r="BS57" s="8">
         <v>50</v>
       </c>
-      <c r="BM57" s="8">
+      <c r="BT57" s="8">
         <v>37</v>
       </c>
-      <c r="CL57" s="8">
+      <c r="BU57" s="8">
+        <v>9</v>
+      </c>
+      <c r="BV57" s="8">
+        <v>4</v>
+      </c>
+      <c r="BW57" s="8">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="CV57" s="8">
         <v>47</v>
       </c>
-      <c r="CM57" s="8">
+      <c r="CW57" s="8">
         <v>35</v>
       </c>
-      <c r="CN57" s="8">
+      <c r="CX57" s="8">
         <v>14</v>
       </c>
-      <c r="CW57" s="8">
+      <c r="DG57" s="8">
         <v>45</v>
       </c>
-      <c r="CX57" s="25" t="s">
-        <v>266</v>
+      <c r="DH57" s="25" t="s">
+        <v>265</v>
       </c>
     </row>
-    <row r="58" spans="1:103" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:113" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="29" t="s">
         <v>134</v>
       </c>
@@ -8426,7 +9955,7 @@
         <v>2022</v>
       </c>
       <c r="F58" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G58" s="8">
         <v>1000</v>
@@ -8473,29 +10002,44 @@
       <c r="AC58" s="8">
         <v>7</v>
       </c>
-      <c r="BL58" s="8">
+      <c r="AD58" s="8">
+        <v>5</v>
+      </c>
+      <c r="AE58" s="8">
+        <v>9</v>
+      </c>
+      <c r="AF58" s="8">
+        <v>7</v>
+      </c>
+      <c r="AG58" s="8">
+        <v>2</v>
+      </c>
+      <c r="AH58" s="8">
+        <v>9</v>
+      </c>
+      <c r="BS58" s="8">
         <v>54</v>
       </c>
-      <c r="BM58" s="8">
+      <c r="BT58" s="8">
         <v>31</v>
       </c>
-      <c r="CL58" s="8">
+      <c r="CV58" s="8">
         <v>42</v>
       </c>
-      <c r="CM58" s="8">
+      <c r="CW58" s="8">
         <v>63</v>
       </c>
-      <c r="CN58" s="8">
+      <c r="CX58" s="8">
         <v>45</v>
       </c>
-      <c r="CW58" s="8">
+      <c r="DG58" s="8">
         <v>54</v>
       </c>
-      <c r="CX58" s="26" t="s">
-        <v>267</v>
+      <c r="DH58" s="25" t="s">
+        <v>354</v>
       </c>
     </row>
-    <row r="59" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A59" s="23" t="s">
         <v>113</v>
       </c>
@@ -8562,63 +10106,95 @@
       <c r="AC59" s="11">
         <v>5</v>
       </c>
-      <c r="AV59" s="11">
+      <c r="AD59" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="AE59" s="11">
+        <v>6.6</v>
+      </c>
+      <c r="AF59" s="11">
+        <v>4.2</v>
+      </c>
+      <c r="AG59" s="11">
+        <v>5.2</v>
+      </c>
+      <c r="AH59" s="8">
+        <f t="shared" si="0"/>
+        <v>9.4</v>
+      </c>
+      <c r="BA59" s="11">
         <v>44.2</v>
       </c>
-      <c r="AW59" s="11">
+      <c r="BB59" s="11">
         <v>52.4</v>
       </c>
-      <c r="AX59" s="11">
+      <c r="BC59" s="11">
         <v>48.3</v>
       </c>
-      <c r="AY59" s="11">
+      <c r="BD59" s="11">
         <v>35.700000000000003</v>
       </c>
-      <c r="BL59" s="11">
+      <c r="BE59" s="11">
+        <v>6.6</v>
+      </c>
+      <c r="BF59" s="11">
+        <v>9.1</v>
+      </c>
+      <c r="BS59" s="11">
         <v>48.6</v>
       </c>
-      <c r="BM59" s="11">
+      <c r="BT59" s="11">
         <v>41.6</v>
       </c>
-      <c r="BN59" s="11">
+      <c r="BU59" s="11">
+        <v>8</v>
+      </c>
+      <c r="BV59" s="11">
+        <v>1.8</v>
+      </c>
+      <c r="BW59" s="8">
+        <f t="shared" si="2"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="BX59" s="11">
         <v>46.5</v>
       </c>
-      <c r="BO59" s="11">
+      <c r="BY59" s="11">
         <v>36.4</v>
       </c>
-      <c r="BP59" s="11">
+      <c r="BZ59" s="11">
         <v>41.3</v>
       </c>
-      <c r="BQ59" s="11">
+      <c r="CA59" s="11">
         <v>49.5</v>
       </c>
-      <c r="BR59" s="11">
+      <c r="CB59" s="11">
         <v>21.8</v>
       </c>
-      <c r="BS59" s="11">
+      <c r="CC59" s="11">
         <v>16.8</v>
       </c>
-      <c r="BT59" s="24"/>
-      <c r="CL59" s="8">
+      <c r="CD59" s="24"/>
+      <c r="CV59" s="8">
         <v>41.1</v>
       </c>
-      <c r="CM59" s="8">
+      <c r="CW59" s="8">
         <v>45.6</v>
       </c>
-      <c r="CN59" s="8">
+      <c r="CX59" s="8">
         <v>22.5</v>
       </c>
-      <c r="CW59" s="11">
+      <c r="DG59" s="11">
         <v>39.299999999999997</v>
       </c>
-      <c r="CX59" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="CY59" s="23" t="s">
-        <v>298</v>
+      <c r="DH59" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="DI59" s="23" t="s">
+        <v>296</v>
       </c>
     </row>
-    <row r="60" spans="1:103" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:113" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="29" t="s">
         <v>92</v>
       </c>
@@ -8688,38 +10264,70 @@
       <c r="AC60" s="8">
         <v>7</v>
       </c>
-      <c r="AV60" s="8">
+      <c r="AD60" s="8">
+        <v>4</v>
+      </c>
+      <c r="AE60" s="8">
+        <v>6</v>
+      </c>
+      <c r="AF60" s="8">
+        <v>5</v>
+      </c>
+      <c r="AG60" s="8">
+        <v>2</v>
+      </c>
+      <c r="AH60" s="8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="BA60" s="8">
         <v>46</v>
       </c>
-      <c r="AW60" s="8">
+      <c r="BB60" s="8">
         <v>53</v>
       </c>
-      <c r="AX60" s="8">
+      <c r="BC60" s="8">
         <v>43</v>
       </c>
-      <c r="AY60" s="8">
+      <c r="BD60" s="8">
         <v>34</v>
       </c>
-      <c r="BL60" s="8">
+      <c r="BE60" s="8">
+        <v>8</v>
+      </c>
+      <c r="BF60" s="8">
+        <v>9</v>
+      </c>
+      <c r="BS60" s="8">
         <v>50</v>
       </c>
-      <c r="BM60" s="8">
+      <c r="BT60" s="8">
         <v>38</v>
       </c>
-      <c r="CO60" s="8">
+      <c r="BU60" s="8">
+        <v>9</v>
+      </c>
+      <c r="BV60" s="8">
+        <v>3</v>
+      </c>
+      <c r="BW60" s="8">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="CY60" s="8">
         <v>49</v>
       </c>
-      <c r="CP60" s="8">
+      <c r="CZ60" s="8">
         <v>51</v>
       </c>
-      <c r="CW60" s="8">
+      <c r="DG60" s="8">
         <v>50</v>
       </c>
-      <c r="CX60" s="25" t="s">
-        <v>268</v>
+      <c r="DH60" s="25" t="s">
+        <v>266</v>
       </c>
     </row>
-    <row r="61" spans="1:103" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:113" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="29" t="s">
         <v>108</v>
       </c>
@@ -8801,26 +10409,52 @@
       <c r="AC61" s="8">
         <v>5</v>
       </c>
-      <c r="BL61" s="8">
+      <c r="AD61" s="8">
+        <v>4</v>
+      </c>
+      <c r="AE61" s="8">
+        <v>7</v>
+      </c>
+      <c r="AF61" s="8">
+        <v>6</v>
+      </c>
+      <c r="AG61" s="8">
+        <v>6</v>
+      </c>
+      <c r="AH61" s="8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="BS61" s="8">
         <v>54</v>
       </c>
-      <c r="BM61" s="8">
+      <c r="BT61" s="8">
         <v>34</v>
       </c>
-      <c r="CL61" s="8">
+      <c r="BU61" s="8">
+        <v>8</v>
+      </c>
+      <c r="BV61" s="8">
+        <v>3</v>
+      </c>
+      <c r="BW61" s="8">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="CV61" s="8">
         <v>42</v>
       </c>
-      <c r="CM61" s="8">
+      <c r="CW61" s="8">
         <v>61</v>
       </c>
-      <c r="CN61" s="8">
+      <c r="CX61" s="8">
         <v>58</v>
       </c>
-      <c r="CX61" s="25" t="s">
-        <v>269</v>
+      <c r="DH61" s="25" t="s">
+        <v>267</v>
       </c>
     </row>
-    <row r="62" spans="1:103" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:113" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="29" t="s">
         <v>134</v>
       </c>
@@ -8837,7 +10471,7 @@
         <v>2022</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G62" s="8">
         <v>1000</v>
@@ -8884,29 +10518,44 @@
       <c r="AC62" s="8">
         <v>9</v>
       </c>
-      <c r="BL62" s="8">
+      <c r="AD62" s="8">
+        <v>9</v>
+      </c>
+      <c r="AE62" s="8">
+        <v>9</v>
+      </c>
+      <c r="AF62" s="8">
+        <v>9</v>
+      </c>
+      <c r="AG62" s="8">
+        <v>3</v>
+      </c>
+      <c r="AH62" s="8">
+        <v>12</v>
+      </c>
+      <c r="BS62" s="8">
         <v>53</v>
       </c>
-      <c r="BM62" s="8">
+      <c r="BT62" s="8">
         <v>33</v>
       </c>
-      <c r="CL62" s="8">
+      <c r="CV62" s="8">
         <v>43</v>
       </c>
-      <c r="CM62" s="8">
+      <c r="CW62" s="8">
         <v>61</v>
       </c>
-      <c r="CN62" s="8">
+      <c r="CX62" s="8">
         <v>43</v>
       </c>
-      <c r="CW62" s="8">
+      <c r="DG62" s="8">
         <v>54</v>
       </c>
-      <c r="CX62" s="25" t="s">
-        <v>327</v>
+      <c r="DH62" s="25" t="s">
+        <v>325</v>
       </c>
     </row>
-    <row r="63" spans="1:103" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:113" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="29" t="s">
         <v>92</v>
       </c>
@@ -8976,65 +10625,97 @@
       <c r="AC63" s="8">
         <v>5</v>
       </c>
-      <c r="AV63" s="8">
+      <c r="AD63" s="8">
+        <v>7</v>
+      </c>
+      <c r="AE63" s="8">
+        <v>7</v>
+      </c>
+      <c r="AF63" s="8">
+        <v>7</v>
+      </c>
+      <c r="AG63" s="8">
+        <v>4</v>
+      </c>
+      <c r="AH63" s="8">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="BA63" s="8">
         <v>47</v>
       </c>
-      <c r="AW63" s="8">
+      <c r="BB63" s="8">
         <v>46</v>
       </c>
-      <c r="AX63" s="8">
+      <c r="BC63" s="8">
         <v>41</v>
       </c>
-      <c r="AY63" s="8">
+      <c r="BD63" s="8">
         <v>35</v>
       </c>
-      <c r="BL63" s="8">
+      <c r="BE63" s="8">
+        <v>10</v>
+      </c>
+      <c r="BF63" s="8">
+        <v>12</v>
+      </c>
+      <c r="BS63" s="8">
         <v>47</v>
       </c>
-      <c r="BM63" s="8">
+      <c r="BT63" s="8">
         <v>38</v>
       </c>
-      <c r="BN63" s="8">
+      <c r="BU63" s="8">
+        <v>11</v>
+      </c>
+      <c r="BV63" s="8">
+        <v>4</v>
+      </c>
+      <c r="BW63" s="8">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="BX63" s="8">
         <v>42</v>
       </c>
-      <c r="BO63" s="8">
+      <c r="BY63" s="8">
         <v>35</v>
       </c>
-      <c r="BP63" s="8">
+      <c r="BZ63" s="8">
         <v>50</v>
       </c>
-      <c r="BQ63" s="8">
+      <c r="CA63" s="8">
         <v>52</v>
       </c>
-      <c r="BR63" s="8">
+      <c r="CB63" s="8">
         <v>54</v>
       </c>
-      <c r="BS63" s="8">
+      <c r="CC63" s="8">
         <v>33</v>
       </c>
-      <c r="CL63" s="8">
+      <c r="CV63" s="8">
         <v>38</v>
       </c>
-      <c r="CM63" s="8">
+      <c r="CW63" s="8">
         <v>51</v>
       </c>
-      <c r="CN63" s="11">
+      <c r="CX63" s="11">
         <v>49</v>
       </c>
-      <c r="CO63" s="8">
+      <c r="CY63" s="8">
         <v>52</v>
       </c>
-      <c r="CP63" s="8">
+      <c r="CZ63" s="8">
         <v>53</v>
       </c>
-      <c r="CW63" s="8">
+      <c r="DG63" s="8">
         <v>53</v>
       </c>
-      <c r="CX63" s="25" t="s">
-        <v>270</v>
+      <c r="DH63" s="25" t="s">
+        <v>268</v>
       </c>
     </row>
-    <row r="64" spans="1:103" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:113" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="29" t="s">
         <v>95</v>
       </c>
@@ -9098,41 +10779,73 @@
       <c r="AC64" s="8">
         <v>5.4</v>
       </c>
-      <c r="AV64" s="8">
+      <c r="AD64" s="8">
+        <v>6.6</v>
+      </c>
+      <c r="AE64" s="8">
+        <v>7.1</v>
+      </c>
+      <c r="AF64" s="8">
+        <v>6.9</v>
+      </c>
+      <c r="AG64" s="8">
+        <v>3.7</v>
+      </c>
+      <c r="AH64" s="8">
+        <f t="shared" si="0"/>
+        <v>10.600000000000001</v>
+      </c>
+      <c r="BA64" s="8">
         <v>43.2</v>
       </c>
-      <c r="AW64" s="8">
+      <c r="BB64" s="8">
         <v>50.7</v>
       </c>
-      <c r="AX64" s="8">
+      <c r="BC64" s="8">
         <v>43.4</v>
       </c>
-      <c r="AY64" s="8">
+      <c r="BD64" s="8">
         <v>34.1</v>
       </c>
-      <c r="BL64" s="8">
+      <c r="BE64" s="8">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="BF64" s="8">
+        <v>11</v>
+      </c>
+      <c r="BS64" s="8">
         <v>47</v>
       </c>
-      <c r="BM64" s="8">
+      <c r="BT64" s="8">
         <v>38.5</v>
       </c>
-      <c r="CL64" s="8">
+      <c r="BU64" s="8">
+        <v>10.4</v>
+      </c>
+      <c r="BV64" s="8">
+        <v>4</v>
+      </c>
+      <c r="BW64" s="8">
+        <f t="shared" si="2"/>
+        <v>14.4</v>
+      </c>
+      <c r="CV64" s="8">
         <v>46.3</v>
       </c>
-      <c r="CM64" s="8">
+      <c r="CW64" s="8">
         <v>52.4</v>
       </c>
-      <c r="CN64" s="8">
+      <c r="CX64" s="8">
         <v>51.6</v>
       </c>
-      <c r="CW64" s="8">
+      <c r="DG64" s="8">
         <v>45.7</v>
       </c>
-      <c r="CX64" s="25" t="s">
-        <v>271</v>
+      <c r="DH64" s="25" t="s">
+        <v>269</v>
       </c>
     </row>
-    <row r="65" spans="1:102" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:112" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="29" t="s">
         <v>134</v>
       </c>
@@ -9149,7 +10862,7 @@
         <v>2022</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G65" s="8">
         <v>1000</v>
@@ -9196,29 +10909,44 @@
       <c r="AC65" s="8">
         <v>8</v>
       </c>
-      <c r="BL65" s="8">
+      <c r="AD65" s="8">
+        <v>5</v>
+      </c>
+      <c r="AE65" s="8">
+        <v>9</v>
+      </c>
+      <c r="AF65" s="8">
+        <v>7</v>
+      </c>
+      <c r="AG65" s="8">
+        <v>2</v>
+      </c>
+      <c r="AH65" s="8">
+        <v>10</v>
+      </c>
+      <c r="BS65" s="8">
         <v>54</v>
       </c>
-      <c r="BM65" s="8">
+      <c r="BT65" s="8">
         <v>34</v>
       </c>
-      <c r="CL65" s="8">
+      <c r="CV65" s="8">
         <v>42</v>
       </c>
-      <c r="CM65" s="8">
+      <c r="CW65" s="8">
         <v>61</v>
       </c>
-      <c r="CN65" s="8">
+      <c r="CX65" s="8">
         <v>44</v>
       </c>
-      <c r="CW65" s="8">
+      <c r="DG65" s="8">
         <v>52</v>
       </c>
-      <c r="CX65" s="25" t="s">
-        <v>325</v>
+      <c r="DH65" s="25" t="s">
+        <v>323</v>
       </c>
     </row>
-    <row r="66" spans="1:102" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:112" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="29" t="s">
         <v>153</v>
       </c>
@@ -9258,29 +10986,39 @@
       <c r="AC66" s="8">
         <v>10</v>
       </c>
-      <c r="BL66" s="8">
+      <c r="BS66" s="8">
         <v>48</v>
       </c>
-      <c r="BM66" s="8">
+      <c r="BT66" s="8">
         <v>39</v>
       </c>
-      <c r="CL66" s="8">
+      <c r="BU66" s="8">
+        <v>9</v>
+      </c>
+      <c r="BV66" s="8">
+        <v>4</v>
+      </c>
+      <c r="BW66" s="8">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="CV66" s="8">
         <v>39</v>
       </c>
-      <c r="CM66" s="8">
+      <c r="CW66" s="8">
         <v>45</v>
       </c>
-      <c r="CN66" s="8">
+      <c r="CX66" s="8">
         <v>18</v>
       </c>
-      <c r="CW66" s="8">
+      <c r="DG66" s="8">
         <v>44</v>
       </c>
-      <c r="CX66" s="25" t="s">
-        <v>272</v>
+      <c r="DH66" s="25" t="s">
+        <v>270</v>
       </c>
     </row>
-    <row r="67" spans="1:102" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:112" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="29" t="s">
         <v>92</v>
       </c>
@@ -9350,38 +11088,70 @@
       <c r="AC67" s="8">
         <v>6</v>
       </c>
-      <c r="AV67" s="8">
+      <c r="AD67" s="8">
+        <v>2</v>
+      </c>
+      <c r="AE67" s="8">
+        <v>7</v>
+      </c>
+      <c r="AF67" s="8">
+        <v>4</v>
+      </c>
+      <c r="AG67" s="8">
+        <v>3</v>
+      </c>
+      <c r="AH67" s="8">
+        <f t="shared" ref="AH67:AH69" si="3">AF67+AG67</f>
+        <v>7</v>
+      </c>
+      <c r="BA67" s="8">
         <v>45</v>
       </c>
-      <c r="AW67" s="8">
+      <c r="BB67" s="8">
         <v>50</v>
       </c>
-      <c r="AX67" s="8">
+      <c r="BC67" s="8">
         <v>44</v>
       </c>
-      <c r="AY67" s="8">
+      <c r="BD67" s="8">
         <v>35</v>
       </c>
-      <c r="BL67" s="8">
+      <c r="BE67" s="8">
+        <v>9</v>
+      </c>
+      <c r="BF67" s="8">
+        <v>11</v>
+      </c>
+      <c r="BS67" s="8">
         <v>48</v>
       </c>
-      <c r="BM67" s="8">
+      <c r="BT67" s="8">
         <v>39</v>
       </c>
-      <c r="CO67" s="8">
+      <c r="BU67" s="8">
+        <v>10</v>
+      </c>
+      <c r="BV67" s="8">
+        <v>3</v>
+      </c>
+      <c r="BW67" s="8">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="CY67" s="8">
         <v>52</v>
       </c>
-      <c r="CP67" s="8">
+      <c r="CZ67" s="8">
         <v>48</v>
       </c>
-      <c r="CW67" s="8">
+      <c r="DG67" s="8">
         <v>50</v>
       </c>
-      <c r="CX67" s="25" t="s">
-        <v>273</v>
+      <c r="DH67" s="25" t="s">
+        <v>271</v>
       </c>
     </row>
-    <row r="68" spans="1:102" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:112" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="29" t="s">
         <v>166</v>
       </c>
@@ -9445,35 +11215,61 @@
       <c r="AC68" s="8">
         <v>9</v>
       </c>
-      <c r="BL68" s="8">
+      <c r="AD68" s="8">
+        <v>7</v>
+      </c>
+      <c r="AE68" s="8">
+        <v>9</v>
+      </c>
+      <c r="AF68" s="8">
+        <v>8</v>
+      </c>
+      <c r="AG68" s="8">
+        <v>2</v>
+      </c>
+      <c r="AH68" s="8">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="BS68" s="8">
         <v>52</v>
       </c>
-      <c r="BM68" s="8">
+      <c r="BT68" s="8">
         <v>37</v>
       </c>
-      <c r="CL68" s="8">
+      <c r="BU68" s="8">
+        <v>9</v>
+      </c>
+      <c r="BV68" s="8">
+        <v>1</v>
+      </c>
+      <c r="BW68" s="8">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="CV68" s="8">
         <v>45</v>
       </c>
-      <c r="CM68" s="8">
+      <c r="CW68" s="8">
         <v>57</v>
       </c>
-      <c r="CN68" s="8">
+      <c r="CX68" s="8">
         <v>49</v>
       </c>
-      <c r="CO68" s="8">
+      <c r="CY68" s="8">
         <v>54</v>
       </c>
-      <c r="CP68" s="8">
+      <c r="CZ68" s="8">
         <v>66</v>
       </c>
-      <c r="CW68" s="8">
+      <c r="DG68" s="8">
         <v>51</v>
       </c>
-      <c r="CX68" s="25" t="s">
-        <v>274</v>
+      <c r="DH68" s="25" t="s">
+        <v>272</v>
       </c>
     </row>
-    <row r="69" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A69" s="23" t="s">
         <v>113</v>
       </c>
@@ -9522,20 +11318,40 @@
       <c r="AC69" s="11">
         <v>7</v>
       </c>
-      <c r="CL69" s="11">
+      <c r="AF69" s="11">
+        <v>4.2</v>
+      </c>
+      <c r="AG69" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="AH69" s="8">
+        <f t="shared" si="3"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="BU69" s="11">
+        <v>8.1</v>
+      </c>
+      <c r="BV69" s="11">
+        <v>1.9</v>
+      </c>
+      <c r="BW69" s="8">
+        <f t="shared" ref="BW69:BW89" si="4">BU69+BV69</f>
+        <v>10</v>
+      </c>
+      <c r="CV69" s="11">
         <v>37.4</v>
       </c>
-      <c r="CM69" s="11">
+      <c r="CW69" s="11">
         <v>47.2</v>
       </c>
-      <c r="CN69" s="11">
+      <c r="CX69" s="11">
         <v>19.2</v>
       </c>
-      <c r="CX69" s="9" t="s">
-        <v>300</v>
+      <c r="DH69" s="9" t="s">
+        <v>298</v>
       </c>
     </row>
-    <row r="70" spans="1:102" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:112" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="29" t="s">
         <v>134</v>
       </c>
@@ -9552,7 +11368,7 @@
         <v>2022</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G70" s="8">
         <v>1000</v>
@@ -9599,29 +11415,44 @@
       <c r="AC70" s="8">
         <v>8</v>
       </c>
-      <c r="BL70" s="8">
+      <c r="AD70" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE70" s="8">
+        <v>3</v>
+      </c>
+      <c r="AF70" s="8">
+        <v>8</v>
+      </c>
+      <c r="AG70" s="8">
+        <v>2</v>
+      </c>
+      <c r="AH70" s="8">
+        <v>10</v>
+      </c>
+      <c r="BS70" s="8">
         <v>54</v>
       </c>
-      <c r="BM70" s="8">
+      <c r="BT70" s="8">
         <v>34</v>
       </c>
-      <c r="CL70" s="8">
+      <c r="CV70" s="8">
         <v>43</v>
       </c>
-      <c r="CM70" s="8">
+      <c r="CW70" s="8">
         <v>60</v>
       </c>
-      <c r="CN70" s="8">
+      <c r="CX70" s="8">
         <v>43</v>
       </c>
-      <c r="CW70" s="8">
+      <c r="DG70" s="8">
         <v>52</v>
       </c>
-      <c r="CX70" s="25" t="s">
-        <v>323</v>
+      <c r="DH70" s="25" t="s">
+        <v>321</v>
       </c>
     </row>
-    <row r="71" spans="1:102" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:112" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="29" t="s">
         <v>95</v>
       </c>
@@ -9638,7 +11469,7 @@
         <v>2022</v>
       </c>
       <c r="F71" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G71" s="8">
         <v>2020</v>
@@ -9685,41 +11516,73 @@
       <c r="AC71" s="8">
         <v>7.4</v>
       </c>
-      <c r="AV71" s="8">
+      <c r="AD71" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="AE71" s="8">
+        <v>8.6</v>
+      </c>
+      <c r="AF71" s="8">
+        <v>7.2</v>
+      </c>
+      <c r="AG71" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="AH71" s="8">
+        <f t="shared" ref="AH71:AH74" si="5">AF71+AG71</f>
+        <v>10.7</v>
+      </c>
+      <c r="BA71" s="8">
         <v>41.6</v>
       </c>
-      <c r="AW71" s="8">
+      <c r="BB71" s="8">
         <v>50.7</v>
       </c>
-      <c r="AX71" s="8">
+      <c r="BC71" s="8">
         <v>46.2</v>
       </c>
-      <c r="AY71" s="8">
+      <c r="BD71" s="8">
         <v>31.9</v>
       </c>
-      <c r="BL71" s="8">
+      <c r="BE71" s="8">
+        <v>7.7</v>
+      </c>
+      <c r="BF71" s="8">
+        <v>12.4</v>
+      </c>
+      <c r="BS71" s="8">
         <v>46.4</v>
       </c>
-      <c r="BM71" s="8">
+      <c r="BT71" s="8">
         <v>38.700000000000003</v>
       </c>
-      <c r="CL71" s="8">
+      <c r="BU71" s="8">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="BV71" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="BW71" s="8">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="CV71" s="8">
         <v>46.1</v>
       </c>
-      <c r="CM71" s="8">
+      <c r="CW71" s="8">
         <v>50.9</v>
       </c>
-      <c r="CN71" s="8">
+      <c r="CX71" s="8">
         <v>46.9</v>
       </c>
-      <c r="CW71" s="8">
+      <c r="DG71" s="8">
         <v>45.4</v>
       </c>
-      <c r="CX71" s="25" t="s">
-        <v>275</v>
+      <c r="DH71" s="25" t="s">
+        <v>273</v>
       </c>
     </row>
-    <row r="72" spans="1:102" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:112" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="29" t="s">
         <v>106</v>
       </c>
@@ -9783,29 +11646,49 @@
       <c r="AC72" s="8">
         <v>7.1</v>
       </c>
-      <c r="BL72" s="8">
+      <c r="AF72" s="8">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AG72" s="8">
+        <v>7</v>
+      </c>
+      <c r="AH72" s="8">
+        <f t="shared" si="5"/>
+        <v>12.1</v>
+      </c>
+      <c r="BS72" s="8">
         <v>50.8</v>
       </c>
-      <c r="BM72" s="8">
+      <c r="BT72" s="8">
         <v>36.799999999999997</v>
       </c>
-      <c r="CL72" s="8">
+      <c r="BU72" s="8">
+        <v>9</v>
+      </c>
+      <c r="BV72" s="8">
+        <v>3</v>
+      </c>
+      <c r="BW72" s="8">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="CV72" s="8">
         <v>44</v>
       </c>
-      <c r="CM72" s="8">
+      <c r="CW72" s="8">
         <v>54</v>
       </c>
-      <c r="CN72" s="8">
+      <c r="CX72" s="8">
         <v>48</v>
       </c>
-      <c r="CW72" s="8">
+      <c r="DG72" s="8">
         <v>44</v>
       </c>
-      <c r="CX72" s="25" t="s">
-        <v>276</v>
+      <c r="DH72" s="25" t="s">
+        <v>274</v>
       </c>
     </row>
-    <row r="73" spans="1:102" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:112" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="29" t="s">
         <v>108</v>
       </c>
@@ -9887,26 +11770,52 @@
       <c r="AC73" s="8">
         <v>7</v>
       </c>
-      <c r="BL73" s="8">
+      <c r="AD73" s="8">
+        <v>5</v>
+      </c>
+      <c r="AE73" s="8">
+        <v>8</v>
+      </c>
+      <c r="AF73" s="8">
+        <v>6</v>
+      </c>
+      <c r="AG73" s="8">
+        <v>3</v>
+      </c>
+      <c r="AH73" s="8">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="BS73" s="8">
         <v>54</v>
       </c>
-      <c r="BM73" s="8">
+      <c r="BT73" s="8">
         <v>34</v>
       </c>
-      <c r="CL73" s="8">
+      <c r="BU73" s="8">
+        <v>9</v>
+      </c>
+      <c r="BV73" s="8">
+        <v>2</v>
+      </c>
+      <c r="BW73" s="8">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="CV73" s="8">
         <v>43</v>
       </c>
-      <c r="CM73" s="8">
+      <c r="CW73" s="8">
         <v>59</v>
       </c>
-      <c r="CN73" s="8">
+      <c r="CX73" s="8">
         <v>55</v>
       </c>
-      <c r="CX73" s="25" t="s">
-        <v>277</v>
+      <c r="DH73" s="25" t="s">
+        <v>275</v>
       </c>
     </row>
-    <row r="74" spans="1:102" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:112" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="29" t="s">
         <v>92</v>
       </c>
@@ -9976,65 +11885,97 @@
       <c r="AC74" s="8">
         <v>5</v>
       </c>
-      <c r="AV74" s="8">
+      <c r="AD74" s="8">
+        <v>4</v>
+      </c>
+      <c r="AE74" s="8">
+        <v>6</v>
+      </c>
+      <c r="AF74" s="8">
+        <v>5</v>
+      </c>
+      <c r="AG74" s="8">
+        <v>4</v>
+      </c>
+      <c r="AH74" s="8">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="BA74" s="8">
         <v>49</v>
       </c>
-      <c r="AW74" s="8">
+      <c r="BB74" s="8">
         <v>48</v>
       </c>
-      <c r="AX74" s="8">
+      <c r="BC74" s="8">
         <v>41</v>
       </c>
-      <c r="AY74" s="8">
+      <c r="BD74" s="8">
         <v>35</v>
       </c>
-      <c r="BL74" s="8">
+      <c r="BE74" s="8">
+        <v>7</v>
+      </c>
+      <c r="BF74" s="8">
+        <v>10</v>
+      </c>
+      <c r="BS74" s="8">
         <v>49</v>
       </c>
-      <c r="BM74" s="8">
+      <c r="BT74" s="8">
         <v>38</v>
       </c>
-      <c r="BN74" s="8">
+      <c r="BU74" s="8">
+        <v>9</v>
+      </c>
+      <c r="BV74" s="8">
+        <v>4</v>
+      </c>
+      <c r="BW74" s="8">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="BX74" s="8">
         <v>40</v>
       </c>
-      <c r="BO74" s="8">
+      <c r="BY74" s="8">
         <v>35</v>
       </c>
-      <c r="BP74" s="8">
+      <c r="BZ74" s="8">
         <v>48</v>
       </c>
-      <c r="BQ74" s="8">
+      <c r="CA74" s="8">
         <v>52</v>
       </c>
-      <c r="BR74" s="8">
+      <c r="CB74" s="8">
         <v>53</v>
       </c>
-      <c r="BS74" s="8">
+      <c r="CC74" s="8">
         <v>42</v>
       </c>
-      <c r="CL74" s="8">
+      <c r="CV74" s="8">
         <v>37</v>
       </c>
-      <c r="CM74" s="8">
+      <c r="CW74" s="8">
         <v>50</v>
       </c>
-      <c r="CN74" s="8">
+      <c r="CX74" s="8">
         <v>48</v>
       </c>
-      <c r="CO74" s="8">
+      <c r="CY74" s="8">
         <v>53</v>
       </c>
-      <c r="CP74" s="8">
+      <c r="CZ74" s="8">
         <v>54</v>
       </c>
-      <c r="CW74" s="8">
+      <c r="DG74" s="8">
         <v>53</v>
       </c>
-      <c r="CX74" s="25" t="s">
-        <v>278</v>
+      <c r="DH74" s="25" t="s">
+        <v>276</v>
       </c>
     </row>
-    <row r="75" spans="1:102" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:112" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="29" t="s">
         <v>134</v>
       </c>
@@ -10051,7 +11992,7 @@
         <v>2022</v>
       </c>
       <c r="F75" s="30" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G75" s="8">
         <v>1000</v>
@@ -10098,29 +12039,44 @@
       <c r="AC75" s="8">
         <v>8</v>
       </c>
-      <c r="BL75" s="8">
+      <c r="AD75" s="8">
+        <v>6</v>
+      </c>
+      <c r="AE75" s="8">
+        <v>8</v>
+      </c>
+      <c r="AF75" s="8">
+        <v>7</v>
+      </c>
+      <c r="AG75" s="8">
+        <v>3</v>
+      </c>
+      <c r="AH75" s="8">
+        <v>10</v>
+      </c>
+      <c r="BS75" s="8">
         <v>54</v>
       </c>
-      <c r="BM75" s="8">
+      <c r="BT75" s="8">
         <v>35</v>
       </c>
-      <c r="CL75" s="8">
+      <c r="CV75" s="8">
         <v>43</v>
       </c>
-      <c r="CM75" s="8">
+      <c r="CW75" s="8">
         <v>59</v>
       </c>
-      <c r="CN75" s="8">
+      <c r="CX75" s="8">
         <v>42</v>
       </c>
-      <c r="CW75" s="8">
+      <c r="DG75" s="8">
         <v>51</v>
       </c>
-      <c r="CX75" s="25" t="s">
-        <v>321</v>
+      <c r="DH75" s="25" t="s">
+        <v>319</v>
       </c>
     </row>
-    <row r="76" spans="1:102" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:112" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="29" t="s">
         <v>134</v>
       </c>
@@ -10137,7 +12093,7 @@
         <v>2022</v>
       </c>
       <c r="F76" s="29" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G76" s="8">
         <v>1000</v>
@@ -10184,29 +12140,44 @@
       <c r="AC76" s="8">
         <v>8</v>
       </c>
-      <c r="BL76" s="8">
+      <c r="AD76" s="8">
+        <v>5</v>
+      </c>
+      <c r="AE76" s="8">
+        <v>8</v>
+      </c>
+      <c r="AF76" s="8">
+        <v>6</v>
+      </c>
+      <c r="AG76" s="8">
+        <v>2</v>
+      </c>
+      <c r="AH76" s="8">
+        <v>8</v>
+      </c>
+      <c r="BS76" s="8">
         <v>53</v>
       </c>
-      <c r="BM76" s="8">
+      <c r="BT76" s="8">
         <v>34</v>
       </c>
-      <c r="CL76" s="8">
+      <c r="CV76" s="8">
         <v>43</v>
       </c>
-      <c r="CM76" s="8">
+      <c r="CW76" s="8">
         <v>59</v>
       </c>
-      <c r="CN76" s="8">
+      <c r="CX76" s="8">
         <v>42</v>
       </c>
-      <c r="CW76" s="8">
+      <c r="DG76" s="8">
         <v>52</v>
       </c>
-      <c r="CX76" s="25" t="s">
-        <v>319</v>
+      <c r="DH76" s="25" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="77" spans="1:102" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:112" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="29" t="s">
         <v>153</v>
       </c>
@@ -10246,29 +12217,39 @@
       <c r="AC77" s="8">
         <v>9</v>
       </c>
-      <c r="BL77" s="8">
+      <c r="BS77" s="8">
         <v>46</v>
       </c>
-      <c r="BM77" s="8">
+      <c r="BT77" s="8">
         <v>39</v>
       </c>
-      <c r="CL77" s="8">
+      <c r="BU77" s="8">
+        <v>9</v>
+      </c>
+      <c r="BV77" s="8">
+        <v>6</v>
+      </c>
+      <c r="BW77" s="8">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="CV77" s="8">
         <v>40</v>
       </c>
-      <c r="CM77" s="8">
+      <c r="CW77" s="8">
         <v>43</v>
       </c>
-      <c r="CN77" s="8">
+      <c r="CX77" s="8">
         <v>22</v>
       </c>
-      <c r="CW77" s="8">
+      <c r="DG77" s="8">
         <v>47</v>
       </c>
-      <c r="CX77" s="25" t="s">
-        <v>345</v>
+      <c r="DH77" s="25" t="s">
+        <v>343</v>
       </c>
     </row>
-    <row r="78" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A78" s="23" t="s">
         <v>113</v>
       </c>
@@ -10335,65 +12316,97 @@
       <c r="AC78" s="11">
         <v>2</v>
       </c>
-      <c r="AV78" s="11">
+      <c r="AD78" s="11">
+        <v>2.9</v>
+      </c>
+      <c r="AE78" s="11">
+        <v>7.2</v>
+      </c>
+      <c r="AF78" s="11">
+        <v>5.2</v>
+      </c>
+      <c r="AG78" s="11">
+        <v>5.6</v>
+      </c>
+      <c r="AH78" s="8">
+        <f t="shared" ref="AH78:AH79" si="6">AF78+AG78</f>
+        <v>10.8</v>
+      </c>
+      <c r="BA78" s="11">
         <v>43</v>
       </c>
-      <c r="AW78" s="11">
+      <c r="BB78" s="11">
         <v>53</v>
       </c>
-      <c r="AX78" s="11">
+      <c r="BC78" s="11">
         <v>48</v>
       </c>
-      <c r="AY78" s="11">
+      <c r="BD78" s="11">
         <v>34</v>
       </c>
-      <c r="BL78" s="11">
+      <c r="BE78" s="11">
+        <v>6.7</v>
+      </c>
+      <c r="BF78" s="11">
+        <v>8</v>
+      </c>
+      <c r="BS78" s="11">
         <v>49</v>
       </c>
-      <c r="BM78" s="11">
+      <c r="BT78" s="11">
         <v>41</v>
       </c>
-      <c r="BN78" s="11">
+      <c r="BU78" s="11">
+        <v>7.4</v>
+      </c>
+      <c r="BV78" s="11">
+        <v>2.8</v>
+      </c>
+      <c r="BW78" s="8">
+        <f t="shared" si="4"/>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="BX78" s="11">
         <v>45</v>
       </c>
-      <c r="BO78" s="11">
+      <c r="BY78" s="11">
         <v>34.4</v>
       </c>
-      <c r="BP78" s="11">
+      <c r="BZ78" s="11">
         <v>37.6</v>
       </c>
-      <c r="BQ78" s="11">
+      <c r="CA78" s="11">
         <v>49.7</v>
       </c>
-      <c r="BR78" s="11">
+      <c r="CB78" s="11">
         <v>21.6</v>
       </c>
-      <c r="BS78" s="11">
+      <c r="CC78" s="11">
         <v>13</v>
       </c>
-      <c r="CL78" s="11">
+      <c r="CV78" s="11">
         <v>37.700000000000003</v>
       </c>
-      <c r="CM78" s="11">
+      <c r="CW78" s="11">
         <v>44.1</v>
       </c>
-      <c r="CN78" s="11">
+      <c r="CX78" s="11">
         <v>17</v>
       </c>
-      <c r="CO78" s="11">
+      <c r="CY78" s="11">
         <v>37.1</v>
       </c>
-      <c r="CP78" s="11">
+      <c r="CZ78" s="11">
         <v>40.9</v>
       </c>
-      <c r="CW78" s="11">
+      <c r="DG78" s="11">
         <v>39.1</v>
       </c>
-      <c r="CX78" s="9" t="s">
-        <v>301</v>
+      <c r="DH78" s="9" t="s">
+        <v>299</v>
       </c>
     </row>
-    <row r="79" spans="1:102" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:112" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="29" t="s">
         <v>92</v>
       </c>
@@ -10463,38 +12476,70 @@
       <c r="AC79" s="8">
         <v>5</v>
       </c>
-      <c r="AV79" s="8">
+      <c r="AD79" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE79" s="8">
+        <v>4</v>
+      </c>
+      <c r="AF79" s="8">
+        <v>3</v>
+      </c>
+      <c r="AG79" s="8">
+        <v>7</v>
+      </c>
+      <c r="AH79" s="8">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="BA79" s="8">
         <v>46</v>
       </c>
-      <c r="AW79" s="8">
+      <c r="BB79" s="8">
         <v>52</v>
       </c>
-      <c r="AX79" s="8">
+      <c r="BC79" s="8">
         <v>48</v>
       </c>
-      <c r="AY79" s="8">
+      <c r="BD79" s="8">
         <v>32</v>
       </c>
-      <c r="BL79" s="8">
+      <c r="BE79" s="8">
+        <v>6</v>
+      </c>
+      <c r="BF79" s="8">
+        <v>12</v>
+      </c>
+      <c r="BS79" s="8">
         <v>50</v>
       </c>
-      <c r="BM79" s="8">
+      <c r="BT79" s="8">
         <v>39</v>
       </c>
-      <c r="CO79" s="8">
+      <c r="BU79" s="8">
+        <v>9</v>
+      </c>
+      <c r="BV79" s="8">
+        <v>2</v>
+      </c>
+      <c r="BW79" s="8">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="CY79" s="8">
         <v>49</v>
       </c>
-      <c r="CP79" s="8">
+      <c r="CZ79" s="8">
         <v>52</v>
       </c>
-      <c r="CW79" s="8">
+      <c r="DG79" s="8">
         <v>51</v>
       </c>
-      <c r="CX79" s="25" t="s">
-        <v>279</v>
+      <c r="DH79" s="25" t="s">
+        <v>277</v>
       </c>
     </row>
-    <row r="80" spans="1:102" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:112" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="29" t="s">
         <v>134</v>
       </c>
@@ -10511,7 +12556,7 @@
         <v>2022</v>
       </c>
       <c r="F80" s="29" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G80" s="8">
         <v>1000</v>
@@ -10558,29 +12603,44 @@
       <c r="AC80" s="8">
         <v>8</v>
       </c>
-      <c r="BL80" s="8">
+      <c r="AD80" s="8">
+        <v>2</v>
+      </c>
+      <c r="AE80" s="8">
+        <v>5</v>
+      </c>
+      <c r="AF80" s="8">
+        <v>3</v>
+      </c>
+      <c r="AG80" s="8">
+        <v>2</v>
+      </c>
+      <c r="AH80" s="8">
+        <v>5</v>
+      </c>
+      <c r="BS80" s="8">
         <v>53</v>
       </c>
-      <c r="BM80" s="8">
+      <c r="BT80" s="8">
         <v>35</v>
       </c>
-      <c r="CL80" s="8">
+      <c r="CV80" s="8">
         <v>43</v>
       </c>
-      <c r="CM80" s="8">
+      <c r="CW80" s="8">
         <v>59</v>
       </c>
-      <c r="CN80" s="8">
+      <c r="CX80" s="8">
         <v>41</v>
       </c>
-      <c r="CW80" s="8">
+      <c r="DG80" s="8">
         <v>51</v>
       </c>
-      <c r="CX80" s="25" t="s">
-        <v>317</v>
+      <c r="DH80" s="25" t="s">
+        <v>315</v>
       </c>
     </row>
-    <row r="81" spans="1:102" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:113" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="29" t="s">
         <v>98</v>
       </c>
@@ -10666,145 +12726,177 @@
         <v>8</v>
       </c>
       <c r="AD81" s="8">
+        <v>7</v>
+      </c>
+      <c r="AE81" s="8">
+        <v>8</v>
+      </c>
+      <c r="AF81" s="8">
+        <v>7</v>
+      </c>
+      <c r="AG81" s="8">
+        <v>4</v>
+      </c>
+      <c r="AH81" s="8">
+        <f t="shared" ref="AH81:AH82" si="7">AF81+AG81</f>
+        <v>11</v>
+      </c>
+      <c r="AI81" s="8">
         <v>49</v>
       </c>
-      <c r="AE81" s="8">
+      <c r="AJ81" s="8">
         <v>40</v>
       </c>
-      <c r="AF81" s="8">
+      <c r="AK81" s="8">
         <v>57</v>
       </c>
-      <c r="AJ81" s="8">
+      <c r="AO81" s="8">
         <v>27</v>
       </c>
-      <c r="AK81" s="8">
+      <c r="AP81" s="8">
         <v>32</v>
       </c>
-      <c r="AL81" s="8">
+      <c r="AQ81" s="8">
         <v>23</v>
       </c>
-      <c r="AP81" s="8">
+      <c r="AU81" s="8">
         <v>7</v>
       </c>
-      <c r="AQ81" s="8">
+      <c r="AV81" s="8">
         <v>8</v>
       </c>
-      <c r="AR81" s="8">
+      <c r="AW81" s="8">
         <v>7</v>
       </c>
-      <c r="AV81" s="8">
+      <c r="BA81" s="8">
         <v>55</v>
       </c>
-      <c r="AW81" s="8">
+      <c r="BB81" s="8">
         <v>61</v>
       </c>
-      <c r="AX81" s="8">
+      <c r="BC81" s="8">
         <v>37</v>
       </c>
-      <c r="AY81" s="8">
+      <c r="BD81" s="8">
         <v>29</v>
       </c>
-      <c r="AZ81" s="8">
+      <c r="BE81" s="8">
+        <v>7</v>
+      </c>
+      <c r="BF81" s="8">
+        <v>8</v>
+      </c>
+      <c r="BG81" s="8">
         <v>58</v>
       </c>
-      <c r="BA81" s="8">
+      <c r="BH81" s="8">
         <v>51</v>
       </c>
-      <c r="BB81" s="8">
+      <c r="BI81" s="8">
         <v>68</v>
-      </c>
-      <c r="BF81" s="8">
-        <v>33</v>
-      </c>
-      <c r="BG81" s="8">
-        <v>33</v>
-      </c>
-      <c r="BH81" s="8">
-        <v>38</v>
-      </c>
-      <c r="BL81" s="8">
-        <v>58</v>
       </c>
       <c r="BM81" s="8">
         <v>33</v>
       </c>
       <c r="BN81" s="8">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="BO81" s="8">
-        <v>30</v>
-      </c>
-      <c r="BP81" s="8">
-        <v>51</v>
-      </c>
-      <c r="BQ81" s="8">
-        <v>57</v>
-      </c>
-      <c r="BR81" s="8">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="BS81" s="8">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="BT81" s="8">
         <v>33</v>
       </c>
       <c r="BU81" s="8">
+        <v>8</v>
+      </c>
+      <c r="BV81" s="8">
+        <v>1</v>
+      </c>
+      <c r="BW81" s="8">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="BX81" s="8">
+        <v>37</v>
+      </c>
+      <c r="BY81" s="8">
+        <v>30</v>
+      </c>
+      <c r="BZ81" s="8">
+        <v>51</v>
+      </c>
+      <c r="CA81" s="8">
+        <v>57</v>
+      </c>
+      <c r="CB81" s="8">
+        <v>22</v>
+      </c>
+      <c r="CC81" s="8">
+        <v>17</v>
+      </c>
+      <c r="CD81" s="8">
+        <v>33</v>
+      </c>
+      <c r="CE81" s="8">
         <v>40</v>
       </c>
-      <c r="BV81" s="8">
+      <c r="CF81" s="8">
         <v>24</v>
       </c>
-      <c r="BZ81" s="8">
+      <c r="CJ81" s="8">
         <v>54</v>
       </c>
-      <c r="CA81" s="8">
+      <c r="CK81" s="8">
         <v>50</v>
       </c>
-      <c r="CB81" s="8">
+      <c r="CL81" s="8">
         <v>60</v>
       </c>
-      <c r="CF81" s="8">
+      <c r="CP81" s="8">
         <v>17</v>
       </c>
-      <c r="CG81" s="8">
+      <c r="CQ81" s="8">
         <v>21</v>
       </c>
-      <c r="CH81" s="8">
+      <c r="CR81" s="8">
         <v>19</v>
       </c>
-      <c r="CL81" s="8">
+      <c r="CV81" s="8">
         <v>33</v>
       </c>
-      <c r="CM81" s="8">
+      <c r="CW81" s="8">
         <v>54</v>
       </c>
-      <c r="CN81" s="8">
+      <c r="CX81" s="8">
         <v>19</v>
       </c>
-      <c r="CO81" s="8">
+      <c r="CY81" s="8">
         <v>45</v>
       </c>
-      <c r="CP81" s="8">
+      <c r="CZ81" s="8">
         <v>51</v>
       </c>
-      <c r="CQ81" s="8">
+      <c r="DA81" s="8">
         <v>47</v>
       </c>
-      <c r="CR81" s="8">
+      <c r="DB81" s="8">
         <v>46</v>
       </c>
-      <c r="CS81" s="8">
+      <c r="DC81" s="8">
         <v>53</v>
       </c>
-      <c r="CW81" s="8">
+      <c r="DG81" s="8">
         <v>48</v>
       </c>
-      <c r="CX81" s="25" t="s">
-        <v>280</v>
+      <c r="DH81" s="25" t="s">
+        <v>278</v>
       </c>
     </row>
-    <row r="82" spans="1:102" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:113" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="29" t="s">
         <v>166</v>
       </c>
@@ -10868,35 +12960,61 @@
       <c r="AC82" s="8">
         <v>9</v>
       </c>
-      <c r="BL82" s="8">
+      <c r="AD82" s="8">
+        <v>7</v>
+      </c>
+      <c r="AE82" s="8">
+        <v>8</v>
+      </c>
+      <c r="AF82" s="8">
+        <v>7</v>
+      </c>
+      <c r="AG82" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH82" s="8">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="BS82" s="8">
         <v>54</v>
       </c>
-      <c r="BM82" s="8">
+      <c r="BT82" s="8">
         <v>35</v>
       </c>
-      <c r="CL82" s="8">
+      <c r="BU82" s="8">
+        <v>10</v>
+      </c>
+      <c r="BV82" s="8">
+        <v>1</v>
+      </c>
+      <c r="BW82" s="8">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="CV82" s="8">
         <v>43</v>
       </c>
-      <c r="CM82" s="8">
+      <c r="CW82" s="8">
         <v>59</v>
       </c>
-      <c r="CN82" s="8">
+      <c r="CX82" s="8">
         <v>49</v>
       </c>
-      <c r="CO82" s="8">
+      <c r="CY82" s="8">
         <v>44</v>
       </c>
-      <c r="CP82" s="8">
+      <c r="CZ82" s="8">
         <v>57</v>
       </c>
-      <c r="CW82" s="8">
+      <c r="DG82" s="8">
         <v>50</v>
       </c>
-      <c r="CX82" s="25" t="s">
-        <v>281</v>
+      <c r="DH82" s="25" t="s">
+        <v>279</v>
       </c>
     </row>
-    <row r="83" spans="1:102" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:113" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="29" t="s">
         <v>134</v>
       </c>
@@ -10960,34 +13078,49 @@
       <c r="AC83" s="8">
         <v>9</v>
       </c>
-      <c r="BL83" s="8">
+      <c r="AD83" s="8">
+        <v>4</v>
+      </c>
+      <c r="AE83" s="8">
+        <v>5</v>
+      </c>
+      <c r="AF83" s="8">
+        <v>5</v>
+      </c>
+      <c r="AG83" s="8">
+        <v>2</v>
+      </c>
+      <c r="AH83" s="8">
+        <v>7</v>
+      </c>
+      <c r="BS83" s="8">
         <v>53</v>
       </c>
-      <c r="BM83" s="8">
+      <c r="BT83" s="8">
         <v>35</v>
       </c>
-      <c r="CL83" s="8">
+      <c r="CV83" s="8">
         <v>43</v>
       </c>
-      <c r="CM83" s="8">
+      <c r="CW83" s="8">
         <v>59</v>
       </c>
-      <c r="CN83" s="8">
+      <c r="CX83" s="8">
         <v>40</v>
       </c>
-      <c r="CW83" s="8">
+      <c r="DG83" s="8">
         <v>50</v>
       </c>
-      <c r="CX83" s="25" t="s">
-        <v>282</v>
+      <c r="DH83" s="25" t="s">
+        <v>280</v>
       </c>
     </row>
-    <row r="84" spans="1:102" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:113" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="29" t="s">
         <v>95</v>
       </c>
       <c r="B84" s="32" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C84" s="6">
         <v>44711</v>
@@ -11052,41 +13185,73 @@
       <c r="AC84" s="8">
         <v>7.7</v>
       </c>
-      <c r="AV84" s="8">
+      <c r="AD84" s="8">
+        <v>6</v>
+      </c>
+      <c r="AE84" s="8">
+        <v>7.8</v>
+      </c>
+      <c r="AF84" s="8">
+        <v>6.9</v>
+      </c>
+      <c r="AG84" s="8">
+        <v>3.2</v>
+      </c>
+      <c r="AH84" s="8">
+        <f t="shared" ref="AH84:AH91" si="8">AF84+AG84</f>
+        <v>10.100000000000001</v>
+      </c>
+      <c r="BA84" s="8">
         <v>45.8</v>
       </c>
-      <c r="AW84" s="8">
+      <c r="BB84" s="8">
         <v>48.6</v>
       </c>
-      <c r="AX84" s="8">
+      <c r="BC84" s="8">
         <v>44</v>
       </c>
-      <c r="AY84" s="8">
+      <c r="BD84" s="8">
         <v>34.799999999999997</v>
       </c>
-      <c r="BL84" s="8">
+      <c r="BE84" s="8">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="BF84" s="8">
+        <v>11.7</v>
+      </c>
+      <c r="BS84" s="8">
         <v>47.3</v>
       </c>
-      <c r="BM84" s="8">
+      <c r="BT84" s="8">
         <v>39.200000000000003</v>
       </c>
-      <c r="CL84" s="8">
+      <c r="BU84" s="8">
+        <v>10</v>
+      </c>
+      <c r="BV84" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="BW84" s="8">
+        <f t="shared" si="4"/>
+        <v>13.5</v>
+      </c>
+      <c r="CV84" s="8">
         <v>45.6</v>
       </c>
-      <c r="CM84" s="8">
+      <c r="CW84" s="8">
         <v>50.7</v>
       </c>
-      <c r="CN84" s="8">
+      <c r="CX84" s="8">
         <v>46.8</v>
       </c>
-      <c r="CW84" s="8">
+      <c r="DG84" s="8">
         <v>44.4</v>
       </c>
-      <c r="CX84" s="25" t="s">
-        <v>283</v>
+      <c r="DH84" s="25" t="s">
+        <v>281</v>
       </c>
     </row>
-    <row r="85" spans="1:102" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:113" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="29" t="s">
         <v>108</v>
       </c>
@@ -11169,61 +13334,87 @@
         <v>7</v>
       </c>
       <c r="AD85" s="8">
+        <v>3</v>
+      </c>
+      <c r="AE85" s="8">
+        <v>8</v>
+      </c>
+      <c r="AF85" s="8">
+        <v>7</v>
+      </c>
+      <c r="AG85" s="8">
+        <v>5</v>
+      </c>
+      <c r="AH85" s="8">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="AI85" s="8">
         <v>50</v>
       </c>
-      <c r="AE85" s="8">
+      <c r="AJ85" s="8">
         <v>39</v>
       </c>
-      <c r="AF85" s="8">
+      <c r="AK85" s="8">
         <v>60</v>
       </c>
-      <c r="AI85" s="8">
+      <c r="AN85" s="8">
         <v>42</v>
       </c>
-      <c r="AJ85" s="8">
+      <c r="AO85" s="8">
         <v>28</v>
       </c>
-      <c r="AK85" s="8">
+      <c r="AP85" s="8">
         <v>34</v>
       </c>
-      <c r="AL85" s="8">
+      <c r="AQ85" s="8">
         <v>22</v>
       </c>
-      <c r="AO85" s="8">
+      <c r="AT85" s="8">
         <v>31</v>
       </c>
-      <c r="AP85" s="8">
+      <c r="AU85" s="8">
         <v>6</v>
       </c>
-      <c r="AQ85" s="8">
+      <c r="AV85" s="8">
         <v>7</v>
       </c>
-      <c r="AR85" s="8">
+      <c r="AW85" s="8">
         <v>4</v>
       </c>
-      <c r="AU85" s="8">
+      <c r="AZ85" s="8">
         <v>7</v>
       </c>
-      <c r="BL85" s="8">
+      <c r="BS85" s="8">
         <v>54</v>
       </c>
-      <c r="BM85" s="8">
+      <c r="BT85" s="8">
         <v>32</v>
       </c>
-      <c r="CL85" s="8">
+      <c r="BU85" s="8">
+        <v>9</v>
+      </c>
+      <c r="BV85" s="8">
+        <v>3</v>
+      </c>
+      <c r="BW85" s="8">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="CV85" s="8">
         <v>40</v>
       </c>
-      <c r="CM85" s="8">
+      <c r="CW85" s="8">
         <v>60</v>
       </c>
-      <c r="CN85" s="8">
+      <c r="CX85" s="8">
         <v>62</v>
       </c>
-      <c r="CX85" s="25" t="s">
-        <v>340</v>
+      <c r="DH85" s="25" t="s">
+        <v>338</v>
       </c>
     </row>
-    <row r="86" spans="1:102" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:113" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="29" t="s">
         <v>92</v>
       </c>
@@ -11293,65 +13484,97 @@
       <c r="AC86" s="8">
         <v>6</v>
       </c>
-      <c r="AV86" s="8">
+      <c r="AD86" s="8">
+        <v>2</v>
+      </c>
+      <c r="AE86" s="8">
+        <v>8</v>
+      </c>
+      <c r="AF86" s="8">
+        <v>5</v>
+      </c>
+      <c r="AG86" s="8">
+        <v>5</v>
+      </c>
+      <c r="AH86" s="8">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="BA86" s="8">
         <v>49</v>
       </c>
-      <c r="AW86" s="8">
+      <c r="BB86" s="8">
         <v>51</v>
       </c>
-      <c r="AX86" s="8">
+      <c r="BC86" s="8">
         <v>44</v>
       </c>
-      <c r="AY86" s="8">
+      <c r="BD86" s="8">
         <v>37</v>
       </c>
-      <c r="BL86" s="8">
+      <c r="BE86" s="8">
+        <v>6</v>
+      </c>
+      <c r="BF86" s="8">
+        <v>10</v>
+      </c>
+      <c r="BS86" s="8">
         <v>50</v>
       </c>
-      <c r="BM86" s="8">
+      <c r="BT86" s="8">
         <v>40</v>
       </c>
-      <c r="BN86" s="8">
+      <c r="BU86" s="8">
+        <v>9</v>
+      </c>
+      <c r="BV86" s="8">
+        <v>1</v>
+      </c>
+      <c r="BW86" s="8">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="BX86" s="8">
         <v>41</v>
       </c>
-      <c r="BO86" s="8">
+      <c r="BY86" s="8">
         <v>37</v>
       </c>
-      <c r="BP86" s="8">
+      <c r="BZ86" s="8">
         <v>47</v>
       </c>
-      <c r="BQ86" s="8">
+      <c r="CA86" s="8">
         <v>51</v>
       </c>
-      <c r="BR86" s="8">
+      <c r="CB86" s="8">
         <v>43</v>
       </c>
-      <c r="BS86" s="8">
+      <c r="CC86" s="8">
         <v>48</v>
       </c>
-      <c r="CL86" s="8">
+      <c r="CV86" s="8">
         <v>39</v>
       </c>
-      <c r="CM86" s="8">
+      <c r="CW86" s="8">
         <v>49</v>
       </c>
-      <c r="CN86" s="8">
+      <c r="CX86" s="8">
         <v>45</v>
       </c>
-      <c r="CO86" s="8">
+      <c r="CY86" s="8">
         <v>51</v>
       </c>
-      <c r="CP86" s="8">
+      <c r="CZ86" s="8">
         <v>51</v>
       </c>
-      <c r="CW86" s="8">
+      <c r="DG86" s="8">
         <v>51</v>
       </c>
-      <c r="CX86" s="25" t="s">
-        <v>284</v>
+      <c r="DH86" s="25" t="s">
+        <v>282</v>
       </c>
     </row>
-    <row r="87" spans="1:102" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:113" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="29" t="s">
         <v>166</v>
       </c>
@@ -11415,121 +13638,676 @@
       <c r="AC87" s="8">
         <v>9</v>
       </c>
-      <c r="BL87" s="8">
+      <c r="AD87" s="8">
+        <v>7</v>
+      </c>
+      <c r="AE87" s="8">
+        <v>7</v>
+      </c>
+      <c r="AF87" s="8">
+        <v>7</v>
+      </c>
+      <c r="AG87" s="8">
+        <v>2</v>
+      </c>
+      <c r="AH87" s="8">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="BS87" s="8">
         <v>54</v>
       </c>
-      <c r="BM87" s="8">
+      <c r="BT87" s="8">
         <v>36</v>
       </c>
-      <c r="CL87" s="8">
+      <c r="BU87" s="8">
+        <v>8</v>
+      </c>
+      <c r="BV87" s="8">
+        <v>1</v>
+      </c>
+      <c r="BW87" s="8">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="CV87" s="8">
         <v>44</v>
       </c>
-      <c r="CM87" s="8">
+      <c r="CW87" s="8">
         <v>59</v>
       </c>
-      <c r="CN87" s="8">
+      <c r="CX87" s="8">
         <v>48</v>
       </c>
-      <c r="CO87" s="8">
+      <c r="CY87" s="8">
         <v>46</v>
       </c>
-      <c r="CP87" s="8">
+      <c r="CZ87" s="8">
         <v>52</v>
       </c>
-      <c r="CW87" s="8">
+      <c r="DG87" s="8">
         <v>49</v>
       </c>
-      <c r="CX87" s="25" t="s">
-        <v>285</v>
+      <c r="DH87" s="25" t="s">
+        <v>283</v>
       </c>
     </row>
-    <row r="89" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="C89" s="24"/>
+    <row r="88" spans="1:113" x14ac:dyDescent="0.25">
+      <c r="A88" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="C88" s="6">
+        <v>44731</v>
+      </c>
+      <c r="D88" s="7">
+        <v>44713</v>
+      </c>
+      <c r="E88" s="42">
+        <v>2022</v>
+      </c>
+      <c r="F88" t="s">
+        <v>357</v>
+      </c>
+      <c r="G88" s="8">
+        <v>3000</v>
+      </c>
+      <c r="H88" s="8">
+        <v>2</v>
+      </c>
+      <c r="I88" s="8">
+        <v>95</v>
+      </c>
+      <c r="J88" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="K88" s="8">
+        <v>302</v>
+      </c>
+      <c r="L88" s="8">
+        <v>27</v>
+      </c>
+      <c r="M88" s="11">
+        <v>47</v>
+      </c>
+      <c r="N88" s="11">
+        <v>53</v>
+      </c>
+      <c r="U88" s="11">
+        <v>39</v>
+      </c>
+      <c r="V88" s="11">
+        <v>49</v>
+      </c>
+      <c r="W88" s="11">
+        <v>43</v>
+      </c>
+      <c r="X88" s="11">
+        <v>26</v>
+      </c>
+      <c r="Y88" s="11">
+        <v>9</v>
+      </c>
+      <c r="Z88" s="11">
+        <v>4</v>
+      </c>
+      <c r="AA88" s="11">
+        <v>44</v>
+      </c>
+      <c r="AB88" s="11">
+        <v>34</v>
+      </c>
+      <c r="AC88" s="11">
+        <v>6</v>
+      </c>
+      <c r="AD88" s="11">
+        <v>3</v>
+      </c>
+      <c r="AE88" s="11">
+        <v>4</v>
+      </c>
+      <c r="AF88" s="11">
+        <v>4</v>
+      </c>
+      <c r="AG88" s="11">
+        <v>5</v>
+      </c>
+      <c r="AH88" s="11">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="BA88" s="11">
+        <v>44</v>
+      </c>
+      <c r="BB88" s="11">
+        <v>60</v>
+      </c>
+      <c r="BC88" s="11">
+        <v>45</v>
+      </c>
+      <c r="BD88" s="11">
+        <v>26</v>
+      </c>
+      <c r="BE88" s="11">
+        <v>9</v>
+      </c>
+      <c r="BF88" s="11">
+        <v>7</v>
+      </c>
+      <c r="BS88" s="8">
+        <v>52</v>
+      </c>
+      <c r="BT88" s="8">
+        <v>35</v>
+      </c>
+      <c r="BU88" s="11">
+        <v>8</v>
+      </c>
+      <c r="BV88" s="8">
+        <v>5</v>
+      </c>
+      <c r="BW88" s="8">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="CY88" s="11">
+        <v>46</v>
+      </c>
+      <c r="CZ88" s="11">
+        <v>55</v>
+      </c>
+      <c r="DG88" s="11">
+        <v>51</v>
+      </c>
+      <c r="DH88" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="DI88" s="11" t="s">
+        <v>359</v>
+      </c>
     </row>
-    <row r="99" spans="87:92" x14ac:dyDescent="0.25">
-      <c r="CI99"/>
-      <c r="CJ99"/>
-      <c r="CK99"/>
-      <c r="CL99"/>
-      <c r="CM99"/>
-      <c r="CN99"/>
+    <row r="89" spans="1:113" x14ac:dyDescent="0.25">
+      <c r="A89" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="B89" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="C89" s="6">
+        <v>44734</v>
+      </c>
+      <c r="D89" s="7">
+        <v>44713</v>
+      </c>
+      <c r="E89" s="42">
+        <v>2022</v>
+      </c>
+      <c r="F89" s="42" t="s">
+        <v>361</v>
+      </c>
+      <c r="G89" s="8">
+        <v>1500</v>
+      </c>
+      <c r="H89" s="8">
+        <v>3</v>
+      </c>
+      <c r="I89" s="8">
+        <v>95</v>
+      </c>
+      <c r="J89" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M89" s="11">
+        <v>48</v>
+      </c>
+      <c r="N89" s="11">
+        <v>52</v>
+      </c>
+      <c r="AA89" s="11">
+        <v>45</v>
+      </c>
+      <c r="AB89" s="11">
+        <v>36</v>
+      </c>
+      <c r="AC89" s="11">
+        <v>7</v>
+      </c>
+      <c r="AF89" s="11">
+        <v>3</v>
+      </c>
+      <c r="AG89" s="11">
+        <v>45</v>
+      </c>
+      <c r="AH89" s="11">
+        <f t="shared" si="8"/>
+        <v>48</v>
+      </c>
+      <c r="BS89" s="11">
+        <v>48</v>
+      </c>
+      <c r="BT89" s="11">
+        <v>41</v>
+      </c>
+      <c r="BU89" s="11">
+        <v>7</v>
+      </c>
+      <c r="BV89" s="8">
+        <v>3</v>
+      </c>
+      <c r="BW89" s="8">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="CV89" s="8">
+        <v>42</v>
+      </c>
+      <c r="CW89" s="8">
+        <v>44</v>
+      </c>
+      <c r="CX89" s="8">
+        <v>18</v>
+      </c>
+      <c r="DG89" s="11">
+        <v>44</v>
+      </c>
+      <c r="DH89" s="23" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="90" spans="1:113" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B90" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="C90" s="6">
+        <v>44735</v>
+      </c>
+      <c r="D90" s="7">
+        <v>44713</v>
+      </c>
+      <c r="E90" s="42">
+        <v>2022</v>
+      </c>
+      <c r="F90" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="G90" s="8">
+        <v>2556</v>
+      </c>
+      <c r="H90" s="8">
+        <v>2</v>
+      </c>
+      <c r="I90" s="8">
+        <v>95</v>
+      </c>
+      <c r="J90" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K90" s="8">
+        <v>181</v>
+      </c>
+      <c r="M90" s="8">
+        <v>47</v>
+      </c>
+      <c r="N90" s="8">
+        <v>53</v>
+      </c>
+      <c r="O90" s="8">
+        <v>43</v>
+      </c>
+      <c r="P90" s="8">
+        <v>31</v>
+      </c>
+      <c r="Q90" s="8">
+        <v>15</v>
+      </c>
+      <c r="R90" s="8">
+        <v>3</v>
+      </c>
+      <c r="S90" s="8">
+        <v>2</v>
+      </c>
+      <c r="T90" s="8">
+        <v>5</v>
+      </c>
+      <c r="U90" s="8">
+        <v>44</v>
+      </c>
+      <c r="V90" s="8">
+        <v>49</v>
+      </c>
+      <c r="W90" s="8">
+        <v>36</v>
+      </c>
+      <c r="X90" s="8">
+        <v>21</v>
+      </c>
+      <c r="Y90" s="8">
+        <v>8</v>
+      </c>
+      <c r="Z90" s="8">
+        <v>9</v>
+      </c>
+      <c r="AA90" s="8">
+        <v>47</v>
+      </c>
+      <c r="AB90" s="8">
+        <v>28</v>
+      </c>
+      <c r="AC90" s="8">
+        <v>8</v>
+      </c>
+      <c r="AD90" s="8">
+        <v>5</v>
+      </c>
+      <c r="AE90" s="8">
+        <v>9</v>
+      </c>
+      <c r="AF90" s="8">
+        <v>7</v>
+      </c>
+      <c r="AG90" s="8">
+        <v>4</v>
+      </c>
+      <c r="AH90" s="8">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="AY90"/>
+      <c r="AZ90"/>
+      <c r="BA90">
+        <v>51</v>
+      </c>
+      <c r="BB90" s="8">
+        <v>62</v>
+      </c>
+      <c r="BC90" s="8">
+        <v>41</v>
+      </c>
+      <c r="BD90" s="8">
+        <v>27</v>
+      </c>
+      <c r="BE90" s="8">
+        <v>17</v>
+      </c>
+      <c r="BF90" s="8">
+        <v>12</v>
+      </c>
+      <c r="BS90" s="8">
+        <v>57</v>
+      </c>
+      <c r="BT90" s="8">
+        <v>34</v>
+      </c>
+      <c r="BU90" s="42">
+        <v>8</v>
+      </c>
+      <c r="BV90" s="8">
+        <v>1</v>
+      </c>
+      <c r="BW90" s="8">
+        <f>BU90+BV90</f>
+        <v>9</v>
+      </c>
+      <c r="BX90" s="8">
+        <v>41</v>
+      </c>
+      <c r="BY90" s="8">
+        <v>30</v>
+      </c>
+      <c r="BZ90" s="8">
+        <v>49</v>
+      </c>
+      <c r="CA90" s="8">
+        <v>61</v>
+      </c>
+      <c r="CB90" s="8">
+        <v>28</v>
+      </c>
+      <c r="CC90" s="8">
+        <v>21</v>
+      </c>
+      <c r="CP90"/>
+      <c r="CQ90"/>
+      <c r="CR90"/>
+      <c r="CS90"/>
+      <c r="CU90" s="42"/>
+      <c r="CV90" s="8">
+        <v>35</v>
+      </c>
+      <c r="CW90" s="8">
+        <v>55</v>
+      </c>
+      <c r="CX90" s="8">
+        <v>24</v>
+      </c>
+      <c r="DF90" s="24"/>
+      <c r="DH90" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="DI90" s="8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="91" spans="1:113" x14ac:dyDescent="0.25">
+      <c r="A91" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="B91" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="C91" s="6">
+        <v>44738</v>
+      </c>
+      <c r="D91" s="7">
+        <v>44713</v>
+      </c>
+      <c r="E91" s="42">
+        <v>2022</v>
+      </c>
+      <c r="F91" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="G91" s="8">
+        <v>2000</v>
+      </c>
+      <c r="H91" s="8">
+        <v>2</v>
+      </c>
+      <c r="I91" s="8">
+        <v>95</v>
+      </c>
+      <c r="J91" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M91" s="11">
+        <v>48</v>
+      </c>
+      <c r="N91" s="11">
+        <v>52</v>
+      </c>
+      <c r="U91" s="11">
+        <v>36</v>
+      </c>
+      <c r="V91" s="11">
+        <v>50</v>
+      </c>
+      <c r="W91" s="11">
+        <v>40</v>
+      </c>
+      <c r="X91" s="11">
+        <v>26</v>
+      </c>
+      <c r="Y91" s="11">
+        <v>11</v>
+      </c>
+      <c r="Z91" s="11">
+        <v>6</v>
+      </c>
+      <c r="AA91" s="8">
+        <v>43</v>
+      </c>
+      <c r="AB91" s="8">
+        <v>33</v>
+      </c>
+      <c r="AC91" s="8">
+        <v>8</v>
+      </c>
+      <c r="AD91" s="11">
+        <v>5</v>
+      </c>
+      <c r="AE91" s="11">
+        <v>7</v>
+      </c>
+      <c r="AF91" s="11">
+        <v>6</v>
+      </c>
+      <c r="AG91" s="11">
+        <v>2</v>
+      </c>
+      <c r="AH91" s="11">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="BS91" s="11">
+        <v>52</v>
+      </c>
+      <c r="BT91" s="11">
+        <v>37</v>
+      </c>
+      <c r="BU91" s="11">
+        <v>9</v>
+      </c>
+      <c r="BV91" s="8">
+        <v>1</v>
+      </c>
+      <c r="BW91" s="8">
+        <f>BU91+BV91</f>
+        <v>10</v>
+      </c>
+      <c r="CV91" s="11">
+        <v>44</v>
+      </c>
+      <c r="CW91" s="11">
+        <v>57</v>
+      </c>
+      <c r="CX91" s="11">
+        <v>51</v>
+      </c>
+      <c r="CY91" s="11">
+        <v>45</v>
+      </c>
+      <c r="CZ91" s="11">
+        <v>54</v>
+      </c>
+      <c r="DG91" s="11">
+        <v>50</v>
+      </c>
+      <c r="DH91" s="26" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="92" spans="1:113" x14ac:dyDescent="0.25">
+      <c r="BV92" s="8"/>
+      <c r="BW92" s="8"/>
+    </row>
+    <row r="93" spans="1:113" x14ac:dyDescent="0.25">
+      <c r="BV93" s="8"/>
+      <c r="BW93" s="8"/>
+    </row>
+    <row r="99" spans="97:102" x14ac:dyDescent="0.25">
+      <c r="CS99"/>
+      <c r="CT99"/>
+      <c r="CU99"/>
+      <c r="CV99"/>
+      <c r="CW99"/>
+      <c r="CX99"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:CZ87" xr:uid="{6156B78F-4178-4430-929C-85D622A7BD0A}"/>
   <hyperlinks>
-    <hyperlink ref="CX82" r:id="rId1" xr:uid="{F1115AC3-1322-4633-8F85-68A34C764A1F}"/>
-    <hyperlink ref="CX23" r:id="rId2" xr:uid="{4318982E-D888-4B7B-B5E5-593AF2B059A0}"/>
-    <hyperlink ref="CX63" r:id="rId3" xr:uid="{20E7E49B-4EE1-4C9F-AEFC-A7EECDECFC3E}"/>
-    <hyperlink ref="CX56" r:id="rId4" xr:uid="{5E9255B5-34BF-4FFC-AB64-76E92B7DD69F}"/>
-    <hyperlink ref="CX21" r:id="rId5" xr:uid="{FC193FD5-9871-4165-8B65-CB88F299FE92}"/>
-    <hyperlink ref="CX8" r:id="rId6" xr:uid="{84BF48D2-3507-4A19-B1B2-3E35C7EC85B5}"/>
-    <hyperlink ref="CX73" r:id="rId7" xr:uid="{7E5B9A4A-D355-4CF9-81FC-7F398716282F}"/>
-    <hyperlink ref="CX43" r:id="rId8" xr:uid="{140BC5B3-0829-42F2-8950-3780533057EB}"/>
-    <hyperlink ref="CX32" r:id="rId9" xr:uid="{442FDC6B-C5BB-42C0-9D92-FEFF7A1F5597}"/>
-    <hyperlink ref="CX44" r:id="rId10" xr:uid="{99273BAE-15BB-4CC2-B6E7-6B83425EEC3B}"/>
-    <hyperlink ref="CX40" r:id="rId11" xr:uid="{1D3EC55D-6AB4-494E-AAED-2A6AE0573995}"/>
-    <hyperlink ref="CX83" r:id="rId12" xr:uid="{7E1A8D0C-9019-4DA1-ABEC-7297E18C38E1}"/>
-    <hyperlink ref="CX84" r:id="rId13" xr:uid="{2FE9C225-E2B8-477A-B7D5-7FDE86C55CC8}"/>
-    <hyperlink ref="CX71" r:id="rId14" xr:uid="{0F8C69FF-F754-4D44-A9D1-24998548BEBA}"/>
-    <hyperlink ref="CX64" r:id="rId15" xr:uid="{31CBF7BE-5A21-416E-B629-F7F91EB56B48}"/>
-    <hyperlink ref="CX51" r:id="rId16" xr:uid="{AF1C073A-47B2-4696-91F8-373FB27F3C24}"/>
-    <hyperlink ref="CX42" r:id="rId17" xr:uid="{959345CB-36B7-4026-86BD-F6ED1238FAAE}"/>
-    <hyperlink ref="CX16" r:id="rId18" xr:uid="{D8AF98F5-A8D5-41C6-A516-12ACE96606BB}"/>
-    <hyperlink ref="CX11" r:id="rId19" xr:uid="{C958D25B-AC3E-43AF-AB6D-EB1997D5E7A3}"/>
-    <hyperlink ref="CX6" r:id="rId20" xr:uid="{613752AB-5340-486F-BC61-D6FA323B0FF8}"/>
-    <hyperlink ref="CX74" r:id="rId21" xr:uid="{6189AB33-BD55-4DC4-8A19-EA61DF4BD20B}"/>
-    <hyperlink ref="CX67" r:id="rId22" xr:uid="{2193006B-B6BA-42D2-91B8-F8A82F5F861A}"/>
-    <hyperlink ref="CX60" r:id="rId23" xr:uid="{B07DC0B9-C84C-49DA-B30D-14D1F803A326}"/>
-    <hyperlink ref="CX54" r:id="rId24" xr:uid="{D63E594C-1482-4398-9AD0-D3AC5EBF910E}"/>
-    <hyperlink ref="CX50" r:id="rId25" xr:uid="{C6B43BA2-50EE-4546-A76B-14D098DE7834}"/>
-    <hyperlink ref="CX45" r:id="rId26" xr:uid="{5BF12693-063E-40C7-B906-99D967DCE4BC}"/>
-    <hyperlink ref="CX41" r:id="rId27" xr:uid="{AC15265B-09CE-4F46-A625-F07EBF3CF95B}"/>
-    <hyperlink ref="CX38" r:id="rId28" xr:uid="{4F8D3634-1F6F-4913-8900-35332C537842}"/>
-    <hyperlink ref="CX35" r:id="rId29" xr:uid="{86725C51-EDC8-439B-B342-2F56989126D7}"/>
-    <hyperlink ref="CX30" r:id="rId30" xr:uid="{F3B4A1F2-3B5E-4575-A19D-DE3B91586074}"/>
-    <hyperlink ref="CX26" r:id="rId31" xr:uid="{84A51A9E-9642-41BF-8BAB-BB2A550FB847}"/>
-    <hyperlink ref="CX20" r:id="rId32" xr:uid="{9456F3C9-3951-4928-834C-0BB06BB26D76}"/>
-    <hyperlink ref="CX17" r:id="rId33" xr:uid="{9DCD35BD-108B-47E3-B341-360EADF7F54D}"/>
-    <hyperlink ref="CX10" r:id="rId34" xr:uid="{3024B84D-06AA-45B2-92D2-B9607DAC75E2}"/>
-    <hyperlink ref="CX7" r:id="rId35" xr:uid="{E90A583F-58E6-4CC2-B6C2-839CA19D441E}"/>
-    <hyperlink ref="CX4" r:id="rId36" xr:uid="{93E1A697-C7B7-4673-BD74-FDE0EFE60874}"/>
-    <hyperlink ref="CX33" r:id="rId37" xr:uid="{83424D50-2FB2-42E4-9391-4898671D5806}"/>
-    <hyperlink ref="CX61" r:id="rId38" xr:uid="{E1F40520-2D26-4A21-8F01-B0C0A6389270}"/>
-    <hyperlink ref="CX53" r:id="rId39" xr:uid="{4EB03EEE-EACF-421E-A3C5-0A913506F38B}"/>
-    <hyperlink ref="CX36" r:id="rId40" xr:uid="{E4F9392B-7FFF-4D51-B354-962853AE1456}"/>
-    <hyperlink ref="CX28" r:id="rId41" xr:uid="{154564D2-B9DF-4BF9-806D-B40F2F951876}"/>
-    <hyperlink ref="CX24" r:id="rId42" xr:uid="{28A5FFC0-259B-4726-812A-321C4B6E99C7}"/>
-    <hyperlink ref="CX19" r:id="rId43" xr:uid="{08B3255E-6E23-4199-A9EF-C141F67E8C7A}"/>
-    <hyperlink ref="CX81" r:id="rId44" xr:uid="{3943246B-BC30-454B-9F9C-6623B65FE7E7}"/>
-    <hyperlink ref="CX9" r:id="rId45" xr:uid="{150EBDB1-C512-4D67-8F5E-4B9C32CA21DC}"/>
-    <hyperlink ref="CX68" r:id="rId46" xr:uid="{9DC972E6-A9BC-4F95-AC09-1F2E8515F278}"/>
-    <hyperlink ref="CX18" r:id="rId47" xr:uid="{380B24C7-4DC4-4999-AB74-E38358992983}"/>
-    <hyperlink ref="CX72" r:id="rId48" xr:uid="{8367B9B1-9835-4D5B-A0D7-485045C6AEF0}"/>
-    <hyperlink ref="CX27" r:id="rId49" xr:uid="{0C148FDC-29C8-4A28-BA37-41C780B91C58}"/>
-    <hyperlink ref="CX55" r:id="rId50" xr:uid="{0A15E7BA-F55A-4AA0-A809-0C2E898AF4E0}"/>
-    <hyperlink ref="CX87" r:id="rId51" xr:uid="{A844E98C-6FB0-4511-A83F-0CACF864B1E4}"/>
-    <hyperlink ref="CX78" r:id="rId52" location="176 " xr:uid="{99645509-A7AA-493D-89A9-27E41FB4E46B}"/>
-    <hyperlink ref="CX69" r:id="rId53" location="175 " xr:uid="{6EA4F629-EC46-499F-B621-2F9079FE0EC6}"/>
-    <hyperlink ref="CX39" r:id="rId54" location="170 " xr:uid="{C812B06B-FB4A-4B12-91EB-26501D034E93}"/>
-    <hyperlink ref="CX3" r:id="rId55" xr:uid="{128D7DB5-E64F-4F08-8097-85ED170C2B5D}"/>
-    <hyperlink ref="CX22" r:id="rId56" xr:uid="{2456031C-4687-425A-B0A4-878257470A1F}"/>
-    <hyperlink ref="CX12" r:id="rId57" xr:uid="{1E26FCA6-C9F4-4444-973E-83E5B484C35F}"/>
-    <hyperlink ref="CX80" r:id="rId58" xr:uid="{87C09F95-67E1-4DDC-B14A-F20B03065C6A}"/>
-    <hyperlink ref="CX76" r:id="rId59" xr:uid="{F93169FD-078A-45E6-9F47-E96B99182903}"/>
-    <hyperlink ref="CX75" r:id="rId60" xr:uid="{ED77230A-45CE-4E5C-82E4-0B338F907EA6}"/>
-    <hyperlink ref="CX70" r:id="rId61" xr:uid="{024C737F-11C1-4C8B-83C2-9D88363D20E4}"/>
-    <hyperlink ref="CX65" r:id="rId62" xr:uid="{9BE58AB3-347B-4746-B6B9-2440F2555788}"/>
-    <hyperlink ref="CX62" r:id="rId63" xr:uid="{9B4FE88E-2222-4A9F-8D10-0EA893721DCD}"/>
-    <hyperlink ref="CX52" r:id="rId64" xr:uid="{F05A91F9-75ED-48E6-A1AC-2D3C34404F00}"/>
-    <hyperlink ref="CX37" r:id="rId65" xr:uid="{1DA711B5-9DD0-4894-9DBB-1A3ECBF6D9A2}"/>
-    <hyperlink ref="CX86" r:id="rId66" xr:uid="{1D758828-D345-4395-86C6-D1A867DEB752}"/>
-    <hyperlink ref="CX5" r:id="rId67" xr:uid="{618DA2FD-61F8-4661-A8BC-3F7D98E6F601}"/>
-    <hyperlink ref="CX85" r:id="rId68" xr:uid="{6E43EC95-154D-4AF2-8683-0D6A92F4B6C2}"/>
-    <hyperlink ref="CX2" r:id="rId69" xr:uid="{D8310A7D-E950-49F3-8A1C-4455E93BD063}"/>
-    <hyperlink ref="CX34" r:id="rId70" location="168 " xr:uid="{995551E6-56DC-46EA-84B5-B987677BA1A6}"/>
-    <hyperlink ref="CX77" r:id="rId71" xr:uid="{7AA6D70F-29EB-43F0-9C35-2D6FDF0B7245}"/>
+    <hyperlink ref="DH82" r:id="rId1" xr:uid="{F1115AC3-1322-4633-8F85-68A34C764A1F}"/>
+    <hyperlink ref="DH23" r:id="rId2" xr:uid="{4318982E-D888-4B7B-B5E5-593AF2B059A0}"/>
+    <hyperlink ref="DH63" r:id="rId3" xr:uid="{20E7E49B-4EE1-4C9F-AEFC-A7EECDECFC3E}"/>
+    <hyperlink ref="DH56" r:id="rId4" xr:uid="{5E9255B5-34BF-4FFC-AB64-76E92B7DD69F}"/>
+    <hyperlink ref="DH21" r:id="rId5" xr:uid="{FC193FD5-9871-4165-8B65-CB88F299FE92}"/>
+    <hyperlink ref="DH8" r:id="rId6" xr:uid="{84BF48D2-3507-4A19-B1B2-3E35C7EC85B5}"/>
+    <hyperlink ref="DH73" r:id="rId7" xr:uid="{7E5B9A4A-D355-4CF9-81FC-7F398716282F}"/>
+    <hyperlink ref="DH43" r:id="rId8" xr:uid="{140BC5B3-0829-42F2-8950-3780533057EB}"/>
+    <hyperlink ref="DH32" r:id="rId9" xr:uid="{442FDC6B-C5BB-42C0-9D92-FEFF7A1F5597}"/>
+    <hyperlink ref="DH44" r:id="rId10" xr:uid="{99273BAE-15BB-4CC2-B6E7-6B83425EEC3B}"/>
+    <hyperlink ref="DH40" r:id="rId11" xr:uid="{1D3EC55D-6AB4-494E-AAED-2A6AE0573995}"/>
+    <hyperlink ref="DH83" r:id="rId12" xr:uid="{7E1A8D0C-9019-4DA1-ABEC-7297E18C38E1}"/>
+    <hyperlink ref="DH84" r:id="rId13" xr:uid="{2FE9C225-E2B8-477A-B7D5-7FDE86C55CC8}"/>
+    <hyperlink ref="DH71" r:id="rId14" xr:uid="{0F8C69FF-F754-4D44-A9D1-24998548BEBA}"/>
+    <hyperlink ref="DH64" r:id="rId15" xr:uid="{31CBF7BE-5A21-416E-B629-F7F91EB56B48}"/>
+    <hyperlink ref="DH51" r:id="rId16" xr:uid="{AF1C073A-47B2-4696-91F8-373FB27F3C24}"/>
+    <hyperlink ref="DH42" r:id="rId17" xr:uid="{959345CB-36B7-4026-86BD-F6ED1238FAAE}"/>
+    <hyperlink ref="DH16" r:id="rId18" xr:uid="{D8AF98F5-A8D5-41C6-A516-12ACE96606BB}"/>
+    <hyperlink ref="DH11" r:id="rId19" xr:uid="{C958D25B-AC3E-43AF-AB6D-EB1997D5E7A3}"/>
+    <hyperlink ref="DH6" r:id="rId20" xr:uid="{613752AB-5340-486F-BC61-D6FA323B0FF8}"/>
+    <hyperlink ref="DH74" r:id="rId21" xr:uid="{6189AB33-BD55-4DC4-8A19-EA61DF4BD20B}"/>
+    <hyperlink ref="DH67" r:id="rId22" xr:uid="{2193006B-B6BA-42D2-91B8-F8A82F5F861A}"/>
+    <hyperlink ref="DH60" r:id="rId23" xr:uid="{B07DC0B9-C84C-49DA-B30D-14D1F803A326}"/>
+    <hyperlink ref="DH54" r:id="rId24" xr:uid="{D63E594C-1482-4398-9AD0-D3AC5EBF910E}"/>
+    <hyperlink ref="DH50" r:id="rId25" xr:uid="{C6B43BA2-50EE-4546-A76B-14D098DE7834}"/>
+    <hyperlink ref="DH45" r:id="rId26" xr:uid="{5BF12693-063E-40C7-B906-99D967DCE4BC}"/>
+    <hyperlink ref="DH41" r:id="rId27" xr:uid="{AC15265B-09CE-4F46-A625-F07EBF3CF95B}"/>
+    <hyperlink ref="DH38" r:id="rId28" xr:uid="{4F8D3634-1F6F-4913-8900-35332C537842}"/>
+    <hyperlink ref="DH35" r:id="rId29" xr:uid="{86725C51-EDC8-439B-B342-2F56989126D7}"/>
+    <hyperlink ref="DH30" r:id="rId30" xr:uid="{F3B4A1F2-3B5E-4575-A19D-DE3B91586074}"/>
+    <hyperlink ref="DH26" r:id="rId31" xr:uid="{84A51A9E-9642-41BF-8BAB-BB2A550FB847}"/>
+    <hyperlink ref="DH20" r:id="rId32" xr:uid="{9456F3C9-3951-4928-834C-0BB06BB26D76}"/>
+    <hyperlink ref="DH17" r:id="rId33" xr:uid="{9DCD35BD-108B-47E3-B341-360EADF7F54D}"/>
+    <hyperlink ref="DH10" r:id="rId34" xr:uid="{3024B84D-06AA-45B2-92D2-B9607DAC75E2}"/>
+    <hyperlink ref="DH7" r:id="rId35" xr:uid="{E90A583F-58E6-4CC2-B6C2-839CA19D441E}"/>
+    <hyperlink ref="DH4" r:id="rId36" xr:uid="{93E1A697-C7B7-4673-BD74-FDE0EFE60874}"/>
+    <hyperlink ref="DH33" r:id="rId37" xr:uid="{83424D50-2FB2-42E4-9391-4898671D5806}"/>
+    <hyperlink ref="DH61" r:id="rId38" xr:uid="{E1F40520-2D26-4A21-8F01-B0C0A6389270}"/>
+    <hyperlink ref="DH53" r:id="rId39" xr:uid="{4EB03EEE-EACF-421E-A3C5-0A913506F38B}"/>
+    <hyperlink ref="DH36" r:id="rId40" xr:uid="{E4F9392B-7FFF-4D51-B354-962853AE1456}"/>
+    <hyperlink ref="DH28" r:id="rId41" xr:uid="{154564D2-B9DF-4BF9-806D-B40F2F951876}"/>
+    <hyperlink ref="DH24" r:id="rId42" xr:uid="{28A5FFC0-259B-4726-812A-321C4B6E99C7}"/>
+    <hyperlink ref="DH19" r:id="rId43" xr:uid="{08B3255E-6E23-4199-A9EF-C141F67E8C7A}"/>
+    <hyperlink ref="DH81" r:id="rId44" xr:uid="{3943246B-BC30-454B-9F9C-6623B65FE7E7}"/>
+    <hyperlink ref="DH9" r:id="rId45" xr:uid="{150EBDB1-C512-4D67-8F5E-4B9C32CA21DC}"/>
+    <hyperlink ref="DH68" r:id="rId46" xr:uid="{9DC972E6-A9BC-4F95-AC09-1F2E8515F278}"/>
+    <hyperlink ref="DH18" r:id="rId47" xr:uid="{380B24C7-4DC4-4999-AB74-E38358992983}"/>
+    <hyperlink ref="DH72" r:id="rId48" xr:uid="{8367B9B1-9835-4D5B-A0D7-485045C6AEF0}"/>
+    <hyperlink ref="DH27" r:id="rId49" xr:uid="{0C148FDC-29C8-4A28-BA37-41C780B91C58}"/>
+    <hyperlink ref="DH55" r:id="rId50" xr:uid="{0A15E7BA-F55A-4AA0-A809-0C2E898AF4E0}"/>
+    <hyperlink ref="DH87" r:id="rId51" xr:uid="{A844E98C-6FB0-4511-A83F-0CACF864B1E4}"/>
+    <hyperlink ref="DH78" r:id="rId52" location="176 " xr:uid="{99645509-A7AA-493D-89A9-27E41FB4E46B}"/>
+    <hyperlink ref="DH69" r:id="rId53" location="175 " xr:uid="{6EA4F629-EC46-499F-B621-2F9079FE0EC6}"/>
+    <hyperlink ref="DH39" r:id="rId54" location="170 " xr:uid="{C812B06B-FB4A-4B12-91EB-26501D034E93}"/>
+    <hyperlink ref="DH3" r:id="rId55" xr:uid="{128D7DB5-E64F-4F08-8097-85ED170C2B5D}"/>
+    <hyperlink ref="DH22" r:id="rId56" xr:uid="{2456031C-4687-425A-B0A4-878257470A1F}"/>
+    <hyperlink ref="DH12" r:id="rId57" xr:uid="{1E26FCA6-C9F4-4444-973E-83E5B484C35F}"/>
+    <hyperlink ref="DH80" r:id="rId58" xr:uid="{87C09F95-67E1-4DDC-B14A-F20B03065C6A}"/>
+    <hyperlink ref="DH76" r:id="rId59" xr:uid="{F93169FD-078A-45E6-9F47-E96B99182903}"/>
+    <hyperlink ref="DH75" r:id="rId60" xr:uid="{ED77230A-45CE-4E5C-82E4-0B338F907EA6}"/>
+    <hyperlink ref="DH70" r:id="rId61" xr:uid="{024C737F-11C1-4C8B-83C2-9D88363D20E4}"/>
+    <hyperlink ref="DH65" r:id="rId62" xr:uid="{9BE58AB3-347B-4746-B6B9-2440F2555788}"/>
+    <hyperlink ref="DH62" r:id="rId63" xr:uid="{9B4FE88E-2222-4A9F-8D10-0EA893721DCD}"/>
+    <hyperlink ref="DH52" r:id="rId64" xr:uid="{F05A91F9-75ED-48E6-A1AC-2D3C34404F00}"/>
+    <hyperlink ref="DH37" r:id="rId65" xr:uid="{1DA711B5-9DD0-4894-9DBB-1A3ECBF6D9A2}"/>
+    <hyperlink ref="DH86" r:id="rId66" xr:uid="{1D758828-D345-4395-86C6-D1A867DEB752}"/>
+    <hyperlink ref="DH5" r:id="rId67" xr:uid="{618DA2FD-61F8-4661-A8BC-3F7D98E6F601}"/>
+    <hyperlink ref="DH85" r:id="rId68" xr:uid="{6E43EC95-154D-4AF2-8683-0D6A92F4B6C2}"/>
+    <hyperlink ref="DH2" r:id="rId69" xr:uid="{D8310A7D-E950-49F3-8A1C-4455E93BD063}"/>
+    <hyperlink ref="DH34" r:id="rId70" location="168 " xr:uid="{995551E6-56DC-46EA-84B5-B987677BA1A6}"/>
+    <hyperlink ref="DH77" r:id="rId71" xr:uid="{7AA6D70F-29EB-43F0-9C35-2D6FDF0B7245}"/>
+    <hyperlink ref="DH58" r:id="rId72" xr:uid="{AEB9C60D-197C-455A-9C7D-60FB3298B7E5}"/>
+    <hyperlink ref="DH49" r:id="rId73" xr:uid="{423EB4BE-A10C-488E-98E9-78E23EE2530E}"/>
+    <hyperlink ref="DH25" r:id="rId74" location="165" xr:uid="{33F5B3E4-75BE-4DB4-B0A9-4A186C068E7D}"/>
+    <hyperlink ref="DH66" r:id="rId75" xr:uid="{E6B6D64A-9298-493E-97A8-104CEC23806D}"/>
+    <hyperlink ref="DH57" r:id="rId76" xr:uid="{192617B1-BA36-484C-AD49-0A90C5A91019}"/>
+    <hyperlink ref="DH48" r:id="rId77" xr:uid="{BAA0AC0D-AE6D-455A-B5C5-AF832D97AF7D}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId72"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId78"/>
 </worksheet>
 </file>
--- a/banco_raca_genero_fgv.xlsx
+++ b/banco_raca_genero_fgv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre G\Documents\Pesquisa\Scripts Webscraping\Agregador de pesquisas (Streamlit)\modelo_raca_genero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750D8D58-8F30-4004-B1CB-E07CBB77CDA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD44EDE-623C-41CE-8A32-AEE7FF564C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19125" yWindow="0" windowWidth="19245" windowHeight="8325" xr2:uid="{31563B56-3A1D-4132-8093-857FD13750A5}"/>
   </bookViews>
@@ -1290,7 +1290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1381,9 +1381,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1738,17 +1735,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6156B78F-4178-4430-929C-85D622A7BD0A}">
   <dimension ref="A1:DJ99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="6" topLeftCell="H81" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="33" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="32" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" style="11" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="11"/>
     <col min="6" max="7" width="14.28515625" style="11" customWidth="1"/>
@@ -1785,7 +1779,7 @@
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
@@ -1869,19 +1863,19 @@
       <c r="AC1" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="AD1" s="39" t="s">
+      <c r="AD1" s="38" t="s">
         <v>344</v>
       </c>
-      <c r="AE1" s="39" t="s">
+      <c r="AE1" s="38" t="s">
         <v>345</v>
       </c>
-      <c r="AF1" s="40" t="s">
+      <c r="AF1" s="39" t="s">
         <v>348</v>
       </c>
-      <c r="AG1" s="40" t="s">
+      <c r="AG1" s="39" t="s">
         <v>349</v>
       </c>
-      <c r="AH1" s="40" t="s">
+      <c r="AH1" s="39" t="s">
         <v>353</v>
       </c>
       <c r="AI1" s="2" t="s">
@@ -1950,10 +1944,10 @@
       <c r="BD1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="BE1" s="41" t="s">
+      <c r="BE1" s="40" t="s">
         <v>350</v>
       </c>
-      <c r="BF1" s="41" t="s">
+      <c r="BF1" s="40" t="s">
         <v>351</v>
       </c>
       <c r="BG1" s="4" t="s">
@@ -1998,13 +1992,13 @@
       <c r="BT1" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="BU1" s="38" t="s">
+      <c r="BU1" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="BV1" s="38" t="s">
+      <c r="BV1" s="37" t="s">
         <v>347</v>
       </c>
-      <c r="BW1" s="38" t="s">
+      <c r="BW1" s="37" t="s">
         <v>352</v>
       </c>
       <c r="BX1" s="16" t="s">
@@ -2126,40 +2120,40 @@
       </c>
     </row>
     <row r="2" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>340</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="34">
         <v>44247</v>
       </c>
       <c r="D2" s="7">
         <v>44228</v>
       </c>
-      <c r="E2" s="36">
+      <c r="E2" s="35">
         <v>2021</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="36">
+      <c r="G2" s="35">
         <v>2002</v>
       </c>
-      <c r="H2" s="36">
+      <c r="H2" s="35">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I2" s="36">
+      <c r="I2" s="35">
         <v>95</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="K2" s="36">
+      <c r="K2" s="35">
         <v>137</v>
       </c>
-      <c r="L2" s="36">
+      <c r="L2" s="35">
         <v>25</v>
       </c>
       <c r="M2"/>
@@ -2263,7 +2257,7 @@
       <c r="DG2">
         <v>35.5</v>
       </c>
-      <c r="DH2" s="37" t="s">
+      <c r="DH2" s="36" t="s">
         <v>341</v>
       </c>
       <c r="DI2"/>
@@ -2273,7 +2267,7 @@
       <c r="A3" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="31" t="s">
         <v>90</v>
       </c>
       <c r="C3" s="6">
@@ -2440,7 +2434,7 @@
       <c r="A4" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>93</v>
       </c>
       <c r="C4" s="6">
@@ -2600,7 +2594,7 @@
       <c r="A5" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="31" t="s">
         <v>94</v>
       </c>
       <c r="C5" s="6">
@@ -2790,7 +2784,7 @@
       <c r="A6" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="31" t="s">
         <v>96</v>
       </c>
       <c r="C6" s="6">
@@ -2938,7 +2932,7 @@
       <c r="A7" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="31" t="s">
         <v>97</v>
       </c>
       <c r="C7" s="6">
@@ -3098,7 +3092,7 @@
       <c r="A8" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="31" t="s">
         <v>99</v>
       </c>
       <c r="C8" s="6">
@@ -3363,7 +3357,7 @@
       <c r="A9" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="31" t="s">
         <v>102</v>
       </c>
       <c r="C9" s="6">
@@ -3511,7 +3505,7 @@
       <c r="A10" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="31" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="6">
@@ -3671,7 +3665,7 @@
       <c r="A11" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="31" t="s">
         <v>104</v>
       </c>
       <c r="C11" s="6">
@@ -3819,7 +3813,7 @@
       <c r="A12" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="31" t="s">
         <v>105</v>
       </c>
       <c r="C12" s="6">
@@ -4008,7 +4002,7 @@
       <c r="A13" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="31" t="s">
         <v>107</v>
       </c>
       <c r="C13" s="6">
@@ -4096,7 +4090,7 @@
       <c r="A14" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="31" t="s">
         <v>109</v>
       </c>
       <c r="C14" s="6">
@@ -4202,7 +4196,7 @@
       <c r="A15" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="31" t="s">
         <v>110</v>
       </c>
       <c r="C15" s="6">
@@ -4362,7 +4356,7 @@
       <c r="A16" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="31" t="s">
         <v>111</v>
       </c>
       <c r="C16" s="6">
@@ -4510,7 +4504,7 @@
       <c r="A17" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="31" t="s">
         <v>112</v>
       </c>
       <c r="C17" s="6">
@@ -4670,7 +4664,7 @@
       <c r="A18" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="32" t="s">
         <v>114</v>
       </c>
       <c r="C18" s="20">
@@ -4755,7 +4749,7 @@
       <c r="A19" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="31" t="s">
         <v>115</v>
       </c>
       <c r="C19" s="6">
@@ -4861,7 +4855,7 @@
       <c r="A20" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="31" t="s">
         <v>116</v>
       </c>
       <c r="C20" s="6">
@@ -5021,7 +5015,7 @@
       <c r="A21" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="31" t="s">
         <v>117</v>
       </c>
       <c r="C21" s="6">
@@ -5292,7 +5286,7 @@
       <c r="A22" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="31" t="s">
         <v>118</v>
       </c>
       <c r="C22" s="6">
@@ -5442,7 +5436,7 @@
       <c r="A23" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="31" t="s">
         <v>119</v>
       </c>
       <c r="C23" s="6">
@@ -5602,7 +5596,7 @@
       <c r="A24" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="31" t="s">
         <v>120</v>
       </c>
       <c r="C24" s="6">
@@ -5708,7 +5702,7 @@
       <c r="A25" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="32" t="s">
         <v>121</v>
       </c>
       <c r="C25" s="20">
@@ -5853,7 +5847,7 @@
       <c r="A26" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="31" t="s">
         <v>122</v>
       </c>
       <c r="C26" s="6">
@@ -6013,7 +6007,7 @@
       <c r="A27" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="31" t="s">
         <v>123</v>
       </c>
       <c r="C27" s="6">
@@ -6155,7 +6149,7 @@
       <c r="A28" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="31" t="s">
         <v>124</v>
       </c>
       <c r="C28" s="6">
@@ -6258,7 +6252,7 @@
       <c r="A29" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="32" t="s">
         <v>125</v>
       </c>
       <c r="C29" s="20">
@@ -6345,7 +6339,7 @@
       <c r="A30" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="31" t="s">
         <v>126</v>
       </c>
       <c r="C30" s="6">
@@ -6505,7 +6499,7 @@
       <c r="A31" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="31" t="s">
         <v>127</v>
       </c>
       <c r="C31" s="6">
@@ -6593,7 +6587,7 @@
       <c r="A32" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="31" t="s">
         <v>128</v>
       </c>
       <c r="C32" s="6">
@@ -6696,7 +6690,7 @@
       <c r="A33" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="31" t="s">
         <v>129</v>
       </c>
       <c r="C33" s="6">
@@ -6900,7 +6894,7 @@
       <c r="A34" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="32" t="s">
         <v>130</v>
       </c>
       <c r="C34" s="20">
@@ -7045,7 +7039,7 @@
       <c r="A35" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="31" t="s">
         <v>131</v>
       </c>
       <c r="C35" s="6">
@@ -7205,7 +7199,7 @@
       <c r="A36" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="31" t="s">
         <v>132</v>
       </c>
       <c r="C36" s="6">
@@ -7308,7 +7302,7 @@
       <c r="A37" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="31" t="s">
         <v>135</v>
       </c>
       <c r="C37" s="6">
@@ -7409,7 +7403,7 @@
       <c r="A38" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="31" t="s">
         <v>136</v>
       </c>
       <c r="C38" s="6">
@@ -7569,7 +7563,7 @@
       <c r="A39" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="33" t="s">
+      <c r="B39" s="32" t="s">
         <v>138</v>
       </c>
       <c r="C39" s="20">
@@ -7724,7 +7718,7 @@
       <c r="A40" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="31" t="s">
         <v>140</v>
       </c>
       <c r="C40" s="6">
@@ -7825,7 +7819,7 @@
       <c r="A41" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="32" t="s">
+      <c r="B41" s="31" t="s">
         <v>141</v>
       </c>
       <c r="C41" s="6">
@@ -7958,7 +7952,7 @@
       <c r="A42" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="B42" s="32" t="s">
+      <c r="B42" s="31" t="s">
         <v>143</v>
       </c>
       <c r="C42" s="6">
@@ -8070,7 +8064,7 @@
       <c r="A43" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B43" s="32" t="s">
+      <c r="B43" s="31" t="s">
         <v>145</v>
       </c>
       <c r="C43" s="6">
@@ -8174,7 +8168,7 @@
       <c r="A44" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="B44" s="32" t="s">
+      <c r="B44" s="31" t="s">
         <v>147</v>
       </c>
       <c r="C44" s="6">
@@ -8275,7 +8269,7 @@
       <c r="A45" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="31" t="s">
         <v>148</v>
       </c>
       <c r="C45" s="6">
@@ -8435,7 +8429,7 @@
       <c r="A46" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="B46" s="33" t="s">
+      <c r="B46" s="32" t="s">
         <v>150</v>
       </c>
       <c r="C46" s="20">
@@ -8589,7 +8583,7 @@
       <c r="A47" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B47" s="31" t="s">
         <v>152</v>
       </c>
       <c r="C47" s="6">
@@ -8674,7 +8668,7 @@
       <c r="A48" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="B48" s="32" t="s">
+      <c r="B48" s="31" t="s">
         <v>154</v>
       </c>
       <c r="C48" s="6">
@@ -8752,7 +8746,7 @@
       <c r="A49" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="31" t="s">
         <v>156</v>
       </c>
       <c r="C49" s="6">
@@ -8854,7 +8848,7 @@
       <c r="A50" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="B50" s="32" t="s">
+      <c r="B50" s="31" t="s">
         <v>157</v>
       </c>
       <c r="C50" s="6">
@@ -8987,7 +8981,7 @@
       <c r="A51" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="B51" s="32" t="s">
+      <c r="B51" s="31" t="s">
         <v>159</v>
       </c>
       <c r="C51" s="6">
@@ -9117,7 +9111,7 @@
       <c r="A52" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="B52" s="32" t="s">
+      <c r="B52" s="31" t="s">
         <v>161</v>
       </c>
       <c r="C52" s="6">
@@ -9218,7 +9212,7 @@
       <c r="A53" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B53" s="32" t="s">
+      <c r="B53" s="31" t="s">
         <v>162</v>
       </c>
       <c r="C53" s="6">
@@ -9345,7 +9339,7 @@
       <c r="A54" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="B54" s="32" t="s">
+      <c r="B54" s="31" t="s">
         <v>164</v>
       </c>
       <c r="C54" s="6">
@@ -9505,7 +9499,7 @@
       <c r="A55" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="B55" s="32" t="s">
+      <c r="B55" s="31" t="s">
         <v>167</v>
       </c>
       <c r="C55" s="6">
@@ -9626,7 +9620,7 @@
       <c r="A56" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="B56" s="32" t="s">
+      <c r="B56" s="31" t="s">
         <v>170</v>
       </c>
       <c r="C56" s="6">
@@ -9864,7 +9858,7 @@
       <c r="A57" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="B57" s="32" t="s">
+      <c r="B57" s="31" t="s">
         <v>172</v>
       </c>
       <c r="C57" s="6">
@@ -9942,7 +9936,7 @@
       <c r="A58" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="B58" s="32" t="s">
+      <c r="B58" s="31" t="s">
         <v>174</v>
       </c>
       <c r="C58" s="6">
@@ -10043,7 +10037,7 @@
       <c r="A59" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="B59" s="33" t="s">
+      <c r="B59" s="32" t="s">
         <v>175</v>
       </c>
       <c r="C59" s="20">
@@ -10198,7 +10192,7 @@
       <c r="A60" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="B60" s="32" t="s">
+      <c r="B60" s="31" t="s">
         <v>177</v>
       </c>
       <c r="C60" s="6">
@@ -10331,7 +10325,7 @@
       <c r="A61" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B61" s="32" t="s">
+      <c r="B61" s="31" t="s">
         <v>179</v>
       </c>
       <c r="C61" s="6">
@@ -10458,7 +10452,7 @@
       <c r="A62" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="B62" s="32" t="s">
+      <c r="B62" s="31" t="s">
         <v>181</v>
       </c>
       <c r="C62" s="6">
@@ -10559,7 +10553,7 @@
       <c r="A63" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="B63" s="32" t="s">
+      <c r="B63" s="31" t="s">
         <v>182</v>
       </c>
       <c r="C63" s="6">
@@ -10719,7 +10713,7 @@
       <c r="A64" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="B64" s="32" t="s">
+      <c r="B64" s="31" t="s">
         <v>184</v>
       </c>
       <c r="C64" s="6">
@@ -10849,7 +10843,7 @@
       <c r="A65" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="B65" s="32" t="s">
+      <c r="B65" s="31" t="s">
         <v>186</v>
       </c>
       <c r="C65" s="6">
@@ -10950,7 +10944,7 @@
       <c r="A66" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="B66" s="32" t="s">
+      <c r="B66" s="31" t="s">
         <v>187</v>
       </c>
       <c r="C66" s="6">
@@ -11022,7 +11016,7 @@
       <c r="A67" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="B67" s="32" t="s">
+      <c r="B67" s="31" t="s">
         <v>189</v>
       </c>
       <c r="C67" s="6">
@@ -11155,7 +11149,7 @@
       <c r="A68" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="B68" s="32" t="s">
+      <c r="B68" s="31" t="s">
         <v>191</v>
       </c>
       <c r="C68" s="6">
@@ -11273,7 +11267,7 @@
       <c r="A69" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="B69" s="33" t="s">
+      <c r="B69" s="32" t="s">
         <v>193</v>
       </c>
       <c r="C69" s="20">
@@ -11355,7 +11349,7 @@
       <c r="A70" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="B70" s="32" t="s">
+      <c r="B70" s="31" t="s">
         <v>195</v>
       </c>
       <c r="C70" s="6">
@@ -11456,7 +11450,7 @@
       <c r="A71" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="B71" s="32" t="s">
+      <c r="B71" s="31" t="s">
         <v>196</v>
       </c>
       <c r="C71" s="6">
@@ -11586,7 +11580,7 @@
       <c r="A72" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="B72" s="32" t="s">
+      <c r="B72" s="31" t="s">
         <v>198</v>
       </c>
       <c r="C72" s="6">
@@ -11692,7 +11686,7 @@
       <c r="A73" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B73" s="32" t="s">
+      <c r="B73" s="31" t="s">
         <v>200</v>
       </c>
       <c r="C73" s="6">
@@ -11819,7 +11813,7 @@
       <c r="A74" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="B74" s="32" t="s">
+      <c r="B74" s="31" t="s">
         <v>202</v>
       </c>
       <c r="C74" s="6">
@@ -11979,7 +11973,7 @@
       <c r="A75" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="B75" s="32" t="s">
+      <c r="B75" s="31" t="s">
         <v>204</v>
       </c>
       <c r="C75" s="6">
@@ -12080,7 +12074,7 @@
       <c r="A76" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="B76" s="32" t="s">
+      <c r="B76" s="31" t="s">
         <v>205</v>
       </c>
       <c r="C76" s="6">
@@ -12181,7 +12175,7 @@
       <c r="A77" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="B77" s="32" t="s">
+      <c r="B77" s="31" t="s">
         <v>206</v>
       </c>
       <c r="C77" s="6">
@@ -12253,7 +12247,7 @@
       <c r="A78" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="B78" s="33" t="s">
+      <c r="B78" s="32" t="s">
         <v>208</v>
       </c>
       <c r="C78" s="20">
@@ -12410,7 +12404,7 @@
       <c r="A79" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="B79" s="32" t="s">
+      <c r="B79" s="31" t="s">
         <v>210</v>
       </c>
       <c r="C79" s="6">
@@ -12543,7 +12537,7 @@
       <c r="A80" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="B80" s="32" t="s">
+      <c r="B80" s="31" t="s">
         <v>212</v>
       </c>
       <c r="C80" s="6">
@@ -12644,7 +12638,7 @@
       <c r="A81" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="B81" s="32" t="s">
+      <c r="B81" s="31" t="s">
         <v>213</v>
       </c>
       <c r="C81" s="6">
@@ -12900,7 +12894,7 @@
       <c r="A82" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="B82" s="32" t="s">
+      <c r="B82" s="31" t="s">
         <v>215</v>
       </c>
       <c r="C82" s="6">
@@ -13018,7 +13012,7 @@
       <c r="A83" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="B83" s="32" t="s">
+      <c r="B83" s="31" t="s">
         <v>217</v>
       </c>
       <c r="C83" s="6">
@@ -13119,7 +13113,7 @@
       <c r="A84" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="B84" s="32" t="s">
+      <c r="B84" s="31" t="s">
         <v>310</v>
       </c>
       <c r="C84" s="6">
@@ -13255,7 +13249,7 @@
       <c r="A85" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B85" s="32" t="s">
+      <c r="B85" s="31" t="s">
         <v>219</v>
       </c>
       <c r="C85" s="6">
@@ -13418,7 +13412,7 @@
       <c r="A86" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="B86" s="32" t="s">
+      <c r="B86" s="31" t="s">
         <v>221</v>
       </c>
       <c r="C86" s="6">
@@ -13578,7 +13572,7 @@
       <c r="A87" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="B87" s="32" t="s">
+      <c r="B87" s="31" t="s">
         <v>223</v>
       </c>
       <c r="C87" s="6">
@@ -13705,7 +13699,7 @@
       <c r="D88" s="7">
         <v>44713</v>
       </c>
-      <c r="E88" s="42">
+      <c r="E88" s="41">
         <v>2022</v>
       </c>
       <c r="F88" t="s">
@@ -13841,10 +13835,10 @@
       <c r="D89" s="7">
         <v>44713</v>
       </c>
-      <c r="E89" s="42">
+      <c r="E89" s="41">
         <v>2022</v>
       </c>
-      <c r="F89" s="42" t="s">
+      <c r="F89" s="41" t="s">
         <v>361</v>
       </c>
       <c r="G89" s="8">
@@ -13929,10 +13923,10 @@
       <c r="D90" s="7">
         <v>44713</v>
       </c>
-      <c r="E90" s="42">
+      <c r="E90" s="41">
         <v>2022</v>
       </c>
-      <c r="F90" s="42" t="s">
+      <c r="F90" s="41" t="s">
         <v>364</v>
       </c>
       <c r="G90" s="8">
@@ -14043,7 +14037,7 @@
       <c r="BT90" s="8">
         <v>34</v>
       </c>
-      <c r="BU90" s="42">
+      <c r="BU90" s="41">
         <v>8</v>
       </c>
       <c r="BV90" s="8">
@@ -14075,7 +14069,7 @@
       <c r="CQ90"/>
       <c r="CR90"/>
       <c r="CS90"/>
-      <c r="CU90" s="42"/>
+      <c r="CU90" s="41"/>
       <c r="CV90" s="8">
         <v>35</v>
       </c>
@@ -14106,10 +14100,10 @@
       <c r="D91" s="7">
         <v>44713</v>
       </c>
-      <c r="E91" s="42">
+      <c r="E91" s="41">
         <v>2022</v>
       </c>
-      <c r="F91" s="42" t="s">
+      <c r="F91" s="41" t="s">
         <v>367</v>
       </c>
       <c r="G91" s="8">

--- a/banco_raca_genero_fgv.xlsx
+++ b/banco_raca_genero_fgv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre G\Documents\Pesquisa\Scripts Webscraping\Agregador de pesquisas (Streamlit)\modelo_raca_genero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD44EDE-623C-41CE-8A32-AEE7FF564C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9787CD50-D0FF-4976-AA2C-7D68F0A07D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19125" yWindow="0" windowWidth="19245" windowHeight="8325" xr2:uid="{31563B56-3A1D-4132-8093-857FD13750A5}"/>
+    <workbookView xWindow="19155" yWindow="30" windowWidth="19245" windowHeight="8325" xr2:uid="{31563B56-3A1D-4132-8093-857FD13750A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="373">
   <si>
     <t>nome_instituto</t>
   </si>
@@ -1146,6 +1146,15 @@
   </si>
   <si>
     <t>jun/22_fsb_2</t>
+  </si>
+  <si>
+    <t>jul/22_quaest</t>
+  </si>
+  <si>
+    <t>BR-01763/2022</t>
+  </si>
+  <si>
+    <t>https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/07/05190133/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-julho.pdf</t>
   </si>
 </sst>
 </file>
@@ -1735,9 +1744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6156B78F-4178-4430-929C-85D622A7BD0A}">
   <dimension ref="A1:DJ99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13192,7 +13199,7 @@
         <v>3.2</v>
       </c>
       <c r="AH84" s="8">
-        <f t="shared" ref="AH84:AH91" si="8">AF84+AG84</f>
+        <f t="shared" ref="AH84:AH92" si="8">AF84+AG84</f>
         <v>10.100000000000001</v>
       </c>
       <c r="BA84" s="8">
@@ -14206,8 +14213,110 @@
       </c>
     </row>
     <row r="92" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="BV92" s="8"/>
-      <c r="BW92" s="8"/>
+      <c r="A92" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B92" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="C92" s="6">
+        <v>44744</v>
+      </c>
+      <c r="D92" s="7">
+        <v>44743</v>
+      </c>
+      <c r="E92" s="41">
+        <v>2022</v>
+      </c>
+      <c r="F92" s="41" t="s">
+        <v>371</v>
+      </c>
+      <c r="G92" s="8">
+        <v>2000</v>
+      </c>
+      <c r="H92" s="8">
+        <v>2</v>
+      </c>
+      <c r="I92" s="8">
+        <v>95</v>
+      </c>
+      <c r="J92" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K92" s="8">
+        <v>120</v>
+      </c>
+      <c r="M92" s="11">
+        <v>47</v>
+      </c>
+      <c r="N92" s="11">
+        <v>53</v>
+      </c>
+      <c r="U92" s="11">
+        <v>43</v>
+      </c>
+      <c r="V92" s="11">
+        <v>46</v>
+      </c>
+      <c r="W92" s="11">
+        <v>34</v>
+      </c>
+      <c r="X92" s="11">
+        <v>27</v>
+      </c>
+      <c r="AA92" s="11">
+        <v>45</v>
+      </c>
+      <c r="AB92" s="11">
+        <v>31</v>
+      </c>
+      <c r="AC92" s="11">
+        <v>6</v>
+      </c>
+      <c r="AD92" s="11">
+        <v>11</v>
+      </c>
+      <c r="AE92" s="11">
+        <v>13</v>
+      </c>
+      <c r="AF92" s="11">
+        <v>6</v>
+      </c>
+      <c r="AG92" s="11">
+        <v>6</v>
+      </c>
+      <c r="AH92" s="11">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="BS92" s="11">
+        <v>53</v>
+      </c>
+      <c r="BT92" s="11">
+        <v>34</v>
+      </c>
+      <c r="BU92" s="11">
+        <v>9</v>
+      </c>
+      <c r="BV92" s="8">
+        <v>4</v>
+      </c>
+      <c r="BW92" s="8">
+        <f>BU92+BV92</f>
+        <v>13</v>
+      </c>
+      <c r="CV92" s="8">
+        <v>41</v>
+      </c>
+      <c r="CW92" s="8">
+        <v>59</v>
+      </c>
+      <c r="CX92" s="8">
+        <v>55</v>
+      </c>
+      <c r="DH92" s="23" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="93" spans="1:113" x14ac:dyDescent="0.25">
       <c r="BV93" s="8"/>

--- a/banco_raca_genero_fgv.xlsx
+++ b/banco_raca_genero_fgv.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre G\Documents\Pesquisa\Scripts Webscraping\Agregador de pesquisas (Streamlit)\modelo_raca_genero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9787CD50-D0FF-4976-AA2C-7D68F0A07D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD42B24-967E-4FDA-8D4A-D4016C5A17FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19155" yWindow="30" windowWidth="19245" windowHeight="8325" xr2:uid="{31563B56-3A1D-4132-8093-857FD13750A5}"/>
+    <workbookView xWindow="285" yWindow="1290" windowWidth="24030" windowHeight="10530" xr2:uid="{31563B56-3A1D-4132-8093-857FD13750A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$DJ$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$DJ$100</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="398">
   <si>
     <t>nome_instituto</t>
   </si>
@@ -1155,6 +1156,81 @@
   </si>
   <si>
     <t>https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/07/05190133/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-julho.pdf</t>
+  </si>
+  <si>
+    <t>jul/22_poderdata</t>
+  </si>
+  <si>
+    <t>BR-06550/2022</t>
+  </si>
+  <si>
+    <t>https://static.poder360.com.br/2022/07/PoderData-59-5jul22-2-1.pdf</t>
+  </si>
+  <si>
+    <t>https://ipespe.org.br/wp-content/uploads/2022/07/PESQUISA-IPESPE-AVALIAC%CC%A7A%CC%83O-PRESIDENCIAL-E-ELEIC%CC%A7A%CC%83O-2022_-JUL-2022-VF-1.pdf</t>
+  </si>
+  <si>
+    <t>jul/22_ipespe</t>
+  </si>
+  <si>
+    <t>BR-08220/2022</t>
+  </si>
+  <si>
+    <t>jul/22_futura</t>
+  </si>
+  <si>
+    <t>BR-07639/2022</t>
+  </si>
+  <si>
+    <t>https://www.futurainteligencia.com.br/blog/conteudo/#177</t>
+  </si>
+  <si>
+    <t>jul/22_pr_pesq</t>
+  </si>
+  <si>
+    <t>BR-09408/2022</t>
+  </si>
+  <si>
+    <t>https://www.paranapesquisas.com.br/wp-content/uploads/2022/07/Midia_BR-1.pdf</t>
+  </si>
+  <si>
+    <t>jul/22_datafolha</t>
+  </si>
+  <si>
+    <t>BR-01192/2022</t>
+  </si>
+  <si>
+    <t>https://media.folha.uol.com.br/datafolha/2022/07/29/intencao-de-voto-presidente-jul-22.pdf</t>
+  </si>
+  <si>
+    <t>jul/22_fsb_2</t>
+  </si>
+  <si>
+    <t>BR-05938/2022</t>
+  </si>
+  <si>
+    <t>exame</t>
+  </si>
+  <si>
+    <t>jul/22_exame</t>
+  </si>
+  <si>
+    <t>BR-09608-2022</t>
+  </si>
+  <si>
+    <t>jul/22_fsb</t>
+  </si>
+  <si>
+    <t>BR-09292/2022</t>
+  </si>
+  <si>
+    <t>https://multimidia.gazetadopovo.com.br/media/docs/1657534090_pesquisa-btg-fsb-rodada-6-11jul2022.pdf</t>
+  </si>
+  <si>
+    <t>https://classic.exame.com/wp-content/uploads/2022/07/EXAME-IDEIA_ELEICOES-2022_21-DE-JULHO-editorial.pdf</t>
+  </si>
+  <si>
+    <t>https://static.btgpactual.com/media/pesquisa-btg-fsb-rodada-7-25jul2022.pdf?utm_campaign=pesquisa_25_07</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1375,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1421,6 +1497,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1742,9 +1821,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6156B78F-4178-4430-929C-85D622A7BD0A}">
-  <dimension ref="A1:DJ99"/>
+  <dimension ref="A1:DJ103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="18" topLeftCell="CX83" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomRight" activeCell="A95" sqref="A95:A98"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13199,7 +13283,7 @@
         <v>3.2</v>
       </c>
       <c r="AH84" s="8">
-        <f t="shared" ref="AH84:AH92" si="8">AF84+AG84</f>
+        <f t="shared" ref="AH84:AH93" si="8">AF84+AG84</f>
         <v>10.100000000000001</v>
       </c>
       <c r="BA84" s="8">
@@ -14318,19 +14402,1063 @@
         <v>372</v>
       </c>
     </row>
-    <row r="93" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="BV93" s="8"/>
-      <c r="BW93" s="8"/>
+    <row r="93" spans="1:113" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="C93" s="6">
+        <v>44747</v>
+      </c>
+      <c r="D93" s="7">
+        <v>44743</v>
+      </c>
+      <c r="E93" s="8">
+        <v>2022</v>
+      </c>
+      <c r="F93" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="G93" s="8">
+        <v>2020</v>
+      </c>
+      <c r="H93" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I93" s="8">
+        <v>95</v>
+      </c>
+      <c r="J93" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K93" s="8">
+        <v>162</v>
+      </c>
+      <c r="L93" s="8">
+        <v>27</v>
+      </c>
+      <c r="M93" s="8">
+        <v>47</v>
+      </c>
+      <c r="N93" s="8">
+        <v>53</v>
+      </c>
+      <c r="U93" s="8">
+        <v>39.9</v>
+      </c>
+      <c r="V93" s="8">
+        <v>42.2</v>
+      </c>
+      <c r="W93" s="8">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="X93" s="8">
+        <v>31.3</v>
+      </c>
+      <c r="Y93" s="8">
+        <v>7.7</v>
+      </c>
+      <c r="Z93" s="8">
+        <v>7.2</v>
+      </c>
+      <c r="AA93" s="8">
+        <v>41.1</v>
+      </c>
+      <c r="AB93" s="8">
+        <v>35.1</v>
+      </c>
+      <c r="AC93" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="AD93" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="AE93" s="8">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AF93" s="8">
+        <v>6.6</v>
+      </c>
+      <c r="AG93" s="8">
+        <v>3.7</v>
+      </c>
+      <c r="AH93" s="11">
+        <f t="shared" si="8"/>
+        <v>10.3</v>
+      </c>
+      <c r="AY93"/>
+      <c r="AZ93"/>
+      <c r="BA93">
+        <v>48.8</v>
+      </c>
+      <c r="BB93" s="8">
+        <v>49.9</v>
+      </c>
+      <c r="BC93" s="8">
+        <v>43</v>
+      </c>
+      <c r="BD93" s="8">
+        <v>35.9</v>
+      </c>
+      <c r="BE93" s="8">
+        <v>8.1</v>
+      </c>
+      <c r="BF93" s="8">
+        <v>10</v>
+      </c>
+      <c r="BS93" s="8">
+        <v>48</v>
+      </c>
+      <c r="BT93" s="8">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="BU93" s="8">
+        <v>9.1</v>
+      </c>
+      <c r="BV93" s="8">
+        <v>3.7</v>
+      </c>
+      <c r="BW93" s="8">
+        <f>BU93+BV93</f>
+        <v>12.8</v>
+      </c>
+      <c r="CP93"/>
+      <c r="CQ93"/>
+      <c r="CR93"/>
+      <c r="CS93"/>
+      <c r="CU93" s="41"/>
+      <c r="CV93" s="8">
+        <v>43.3</v>
+      </c>
+      <c r="CW93" s="8">
+        <v>51</v>
+      </c>
+      <c r="CX93" s="8">
+        <v>44.9</v>
+      </c>
+      <c r="DG93" s="8">
+        <v>45</v>
+      </c>
+      <c r="DH93" s="26" t="s">
+        <v>384</v>
+      </c>
     </row>
-    <row r="99" spans="97:102" x14ac:dyDescent="0.25">
-      <c r="CS99"/>
-      <c r="CT99"/>
-      <c r="CU99"/>
-      <c r="CV99"/>
-      <c r="CW99"/>
-      <c r="CX99"/>
+    <row r="94" spans="1:113" x14ac:dyDescent="0.25">
+      <c r="A94" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="C94" s="6">
+        <v>44747</v>
+      </c>
+      <c r="D94" s="7">
+        <v>44743</v>
+      </c>
+      <c r="E94" s="8">
+        <v>2022</v>
+      </c>
+      <c r="F94" s="41" t="s">
+        <v>374</v>
+      </c>
+      <c r="G94" s="8">
+        <v>3000</v>
+      </c>
+      <c r="H94" s="8">
+        <v>2</v>
+      </c>
+      <c r="I94" s="8">
+        <v>95</v>
+      </c>
+      <c r="J94" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="K94" s="8">
+        <v>317</v>
+      </c>
+      <c r="L94" s="8">
+        <v>27</v>
+      </c>
+      <c r="M94" s="11">
+        <v>47</v>
+      </c>
+      <c r="N94" s="11">
+        <v>53</v>
+      </c>
+      <c r="U94" s="11">
+        <v>41</v>
+      </c>
+      <c r="V94" s="11">
+        <v>47</v>
+      </c>
+      <c r="W94" s="11">
+        <v>40</v>
+      </c>
+      <c r="X94" s="11">
+        <v>32</v>
+      </c>
+      <c r="Y94" s="11">
+        <v>7</v>
+      </c>
+      <c r="Z94" s="11">
+        <v>3</v>
+      </c>
+      <c r="AA94" s="8">
+        <v>44</v>
+      </c>
+      <c r="AB94" s="8">
+        <v>36</v>
+      </c>
+      <c r="AC94" s="8">
+        <v>5</v>
+      </c>
+      <c r="AD94" s="11">
+        <v>5</v>
+      </c>
+      <c r="AE94" s="11">
+        <v>5</v>
+      </c>
+      <c r="AF94" s="8">
+        <v>5</v>
+      </c>
+      <c r="AG94" s="8">
+        <v>4</v>
+      </c>
+      <c r="AH94" s="8">
+        <f t="shared" ref="AH94:AH100" si="9">AG94+AF94</f>
+        <v>9</v>
+      </c>
+      <c r="BA94" s="11">
+        <v>51</v>
+      </c>
+      <c r="BB94" s="11">
+        <v>49</v>
+      </c>
+      <c r="BC94" s="11">
+        <v>42</v>
+      </c>
+      <c r="BD94" s="11">
+        <v>35</v>
+      </c>
+      <c r="BE94" s="11">
+        <v>9</v>
+      </c>
+      <c r="BF94" s="11">
+        <v>10</v>
+      </c>
+      <c r="BS94" s="11">
+        <v>50</v>
+      </c>
+      <c r="BT94" s="11">
+        <v>38</v>
+      </c>
+      <c r="BU94" s="41">
+        <v>10</v>
+      </c>
+      <c r="BV94" s="8">
+        <v>2</v>
+      </c>
+      <c r="BW94" s="8">
+        <f>BU94+BV94</f>
+        <v>12</v>
+      </c>
+      <c r="BX94" s="11">
+        <v>40</v>
+      </c>
+      <c r="BY94" s="11">
+        <v>36</v>
+      </c>
+      <c r="BZ94" s="11">
+        <v>49</v>
+      </c>
+      <c r="CA94" s="11">
+        <v>54</v>
+      </c>
+      <c r="CB94" s="11">
+        <v>53</v>
+      </c>
+      <c r="CC94" s="11">
+        <v>48</v>
+      </c>
+      <c r="CV94" s="11">
+        <v>38</v>
+      </c>
+      <c r="CW94" s="11">
+        <v>52</v>
+      </c>
+      <c r="CX94" s="11">
+        <v>50</v>
+      </c>
+      <c r="CY94" s="11">
+        <v>51</v>
+      </c>
+      <c r="CZ94" s="11">
+        <v>56</v>
+      </c>
+      <c r="DG94" s="11">
+        <v>54</v>
+      </c>
+      <c r="DH94" s="23" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="95" spans="1:113" x14ac:dyDescent="0.25">
+      <c r="A95" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="B95" s="31" t="s">
+        <v>393</v>
+      </c>
+      <c r="C95" s="6">
+        <v>44752</v>
+      </c>
+      <c r="D95" s="7">
+        <v>44743</v>
+      </c>
+      <c r="E95" s="8">
+        <v>2022</v>
+      </c>
+      <c r="F95" t="s">
+        <v>394</v>
+      </c>
+      <c r="G95" s="8">
+        <v>2000</v>
+      </c>
+      <c r="H95" s="8">
+        <v>2</v>
+      </c>
+      <c r="I95" s="8">
+        <v>95</v>
+      </c>
+      <c r="J95" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="K95" s="8"/>
+      <c r="L95" s="8"/>
+      <c r="M95" s="11">
+        <v>48</v>
+      </c>
+      <c r="N95" s="11">
+        <v>52</v>
+      </c>
+      <c r="U95" s="11">
+        <v>39</v>
+      </c>
+      <c r="V95" s="11">
+        <v>43</v>
+      </c>
+      <c r="W95" s="11">
+        <v>43</v>
+      </c>
+      <c r="X95" s="11">
+        <v>24</v>
+      </c>
+      <c r="Y95" s="11">
+        <v>8</v>
+      </c>
+      <c r="Z95" s="11">
+        <v>10</v>
+      </c>
+      <c r="AA95" s="8">
+        <v>42</v>
+      </c>
+      <c r="AB95" s="8">
+        <v>32</v>
+      </c>
+      <c r="AC95" s="8">
+        <v>9</v>
+      </c>
+      <c r="AD95" s="11">
+        <v>5</v>
+      </c>
+      <c r="AE95" s="11">
+        <v>7</v>
+      </c>
+      <c r="AF95" s="8">
+        <v>2</v>
+      </c>
+      <c r="AG95" s="8">
+        <v>7</v>
+      </c>
+      <c r="AH95" s="8">
+        <f>AG95+AF95</f>
+        <v>9</v>
+      </c>
+      <c r="BS95" s="8">
+        <v>53</v>
+      </c>
+      <c r="BT95" s="8">
+        <v>37</v>
+      </c>
+      <c r="BU95" s="41">
+        <v>9</v>
+      </c>
+      <c r="BV95" s="8">
+        <v>1</v>
+      </c>
+      <c r="BW95" s="8">
+        <f>BU95+BV95</f>
+        <v>10</v>
+      </c>
+      <c r="CV95" s="8">
+        <v>44</v>
+      </c>
+      <c r="CW95" s="8">
+        <v>58</v>
+      </c>
+      <c r="CX95" s="8">
+        <v>49</v>
+      </c>
+      <c r="CY95" s="11">
+        <v>43</v>
+      </c>
+      <c r="CZ95" s="11">
+        <v>52</v>
+      </c>
+      <c r="DG95" s="11">
+        <v>47</v>
+      </c>
+      <c r="DH95" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="96" spans="1:113" x14ac:dyDescent="0.25">
+      <c r="A96" s="42" t="s">
+        <v>390</v>
+      </c>
+      <c r="B96" s="31" t="s">
+        <v>391</v>
+      </c>
+      <c r="C96" s="6">
+        <v>44763</v>
+      </c>
+      <c r="D96" s="7">
+        <v>44743</v>
+      </c>
+      <c r="E96" s="8">
+        <v>2022</v>
+      </c>
+      <c r="F96" t="s">
+        <v>392</v>
+      </c>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="8"/>
+      <c r="L96" s="8"/>
+      <c r="AA96" s="8">
+        <v>44</v>
+      </c>
+      <c r="AB96" s="8">
+        <v>33</v>
+      </c>
+      <c r="AC96" s="8">
+        <v>8</v>
+      </c>
+      <c r="AF96">
+        <v>4</v>
+      </c>
+      <c r="AG96">
+        <v>3</v>
+      </c>
+      <c r="AH96">
+        <f>AF96+AG96</f>
+        <v>7</v>
+      </c>
+      <c r="BS96" s="8">
+        <v>47</v>
+      </c>
+      <c r="BT96" s="8">
+        <v>37</v>
+      </c>
+      <c r="BU96" s="41">
+        <v>11</v>
+      </c>
+      <c r="BV96" s="8">
+        <v>5</v>
+      </c>
+      <c r="BW96" s="8">
+        <f>BU96+BV96</f>
+        <v>16</v>
+      </c>
+      <c r="CV96" s="11">
+        <v>40</v>
+      </c>
+      <c r="CW96" s="11">
+        <v>46</v>
+      </c>
+      <c r="CX96" s="11">
+        <v>19</v>
+      </c>
+      <c r="DH96" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="97" spans="1:112" x14ac:dyDescent="0.25">
+      <c r="A97" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="B97" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="C97" s="6">
+        <v>44764</v>
+      </c>
+      <c r="D97" s="7">
+        <v>44743</v>
+      </c>
+      <c r="E97" s="8">
+        <v>2022</v>
+      </c>
+      <c r="F97" t="s">
+        <v>378</v>
+      </c>
+      <c r="G97" s="8">
+        <v>2000</v>
+      </c>
+      <c r="H97" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I97" s="8">
+        <v>95</v>
+      </c>
+      <c r="J97" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M97" s="11">
+        <v>47</v>
+      </c>
+      <c r="N97" s="11">
+        <v>53</v>
+      </c>
+      <c r="U97" s="11">
+        <v>39</v>
+      </c>
+      <c r="V97" s="11">
+        <v>48</v>
+      </c>
+      <c r="W97" s="11">
+        <v>41</v>
+      </c>
+      <c r="X97" s="11">
+        <v>30</v>
+      </c>
+      <c r="Y97" s="11">
+        <v>9</v>
+      </c>
+      <c r="Z97" s="11">
+        <v>8</v>
+      </c>
+      <c r="AA97" s="11">
+        <v>44</v>
+      </c>
+      <c r="AB97" s="11">
+        <v>35</v>
+      </c>
+      <c r="AC97" s="11">
+        <v>9</v>
+      </c>
+      <c r="AD97" s="11">
+        <v>3</v>
+      </c>
+      <c r="AE97" s="11">
+        <v>3</v>
+      </c>
+      <c r="AF97" s="11">
+        <v>4</v>
+      </c>
+      <c r="AG97" s="11">
+        <v>2</v>
+      </c>
+      <c r="AH97" s="11">
+        <f>AG97+AF97</f>
+        <v>6</v>
+      </c>
+      <c r="BS97" s="11">
+        <v>53</v>
+      </c>
+      <c r="BT97" s="11">
+        <v>36</v>
+      </c>
+      <c r="BW97" s="11">
+        <v>11</v>
+      </c>
+      <c r="CV97" s="8">
+        <v>43</v>
+      </c>
+      <c r="CW97" s="8">
+        <v>58</v>
+      </c>
+      <c r="CX97" s="8">
+        <v>40</v>
+      </c>
+      <c r="DG97" s="8">
+        <v>49</v>
+      </c>
+      <c r="DH97" s="24" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="98" spans="1:112" x14ac:dyDescent="0.25">
+      <c r="A98" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="B98" s="31" t="s">
+        <v>388</v>
+      </c>
+      <c r="C98" s="6">
+        <v>44766</v>
+      </c>
+      <c r="D98" s="7">
+        <v>44743</v>
+      </c>
+      <c r="E98" s="8">
+        <v>2022</v>
+      </c>
+      <c r="F98" t="s">
+        <v>389</v>
+      </c>
+      <c r="G98" s="11">
+        <v>2000</v>
+      </c>
+      <c r="H98" s="8">
+        <v>2</v>
+      </c>
+      <c r="I98" s="8">
+        <v>95</v>
+      </c>
+      <c r="J98" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M98" s="11">
+        <v>48</v>
+      </c>
+      <c r="N98" s="11">
+        <v>52</v>
+      </c>
+      <c r="U98" s="11">
+        <v>42</v>
+      </c>
+      <c r="V98" s="11">
+        <v>46</v>
+      </c>
+      <c r="W98" s="11">
+        <v>39</v>
+      </c>
+      <c r="X98" s="11">
+        <v>24</v>
+      </c>
+      <c r="Y98" s="11">
+        <v>8</v>
+      </c>
+      <c r="Z98" s="11">
+        <v>9</v>
+      </c>
+      <c r="AA98" s="11">
+        <v>44</v>
+      </c>
+      <c r="AB98" s="11">
+        <v>31</v>
+      </c>
+      <c r="AC98" s="11">
+        <v>9</v>
+      </c>
+      <c r="AD98" s="11">
+        <v>2</v>
+      </c>
+      <c r="AE98" s="11">
+        <v>2</v>
+      </c>
+      <c r="AF98" s="11">
+        <v>7</v>
+      </c>
+      <c r="AG98" s="11">
+        <v>3</v>
+      </c>
+      <c r="AH98" s="11">
+        <v>10</v>
+      </c>
+      <c r="BS98" s="11">
+        <v>54</v>
+      </c>
+      <c r="BT98" s="11">
+        <v>36</v>
+      </c>
+      <c r="BU98" s="11">
+        <v>7</v>
+      </c>
+      <c r="BV98" s="11">
+        <v>2</v>
+      </c>
+      <c r="BW98" s="11">
+        <v>9</v>
+      </c>
+      <c r="CV98" s="8">
+        <v>42</v>
+      </c>
+      <c r="CW98" s="8">
+        <v>58</v>
+      </c>
+      <c r="CX98" s="8">
+        <v>47</v>
+      </c>
+      <c r="CY98" s="11">
+        <v>44</v>
+      </c>
+      <c r="CZ98" s="11">
+        <v>50</v>
+      </c>
+      <c r="DG98" s="11">
+        <v>47</v>
+      </c>
+      <c r="DH98" s="23" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="99" spans="1:112" x14ac:dyDescent="0.25">
+      <c r="A99" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B99" s="31" t="s">
+        <v>379</v>
+      </c>
+      <c r="C99" s="6">
+        <v>44767</v>
+      </c>
+      <c r="D99" s="7">
+        <v>44743</v>
+      </c>
+      <c r="E99" s="8">
+        <v>2022</v>
+      </c>
+      <c r="F99" t="s">
+        <v>380</v>
+      </c>
+      <c r="G99" s="8">
+        <v>2000</v>
+      </c>
+      <c r="H99" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I99" s="8">
+        <v>95</v>
+      </c>
+      <c r="J99" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M99" s="11">
+        <v>47.2</v>
+      </c>
+      <c r="N99" s="11">
+        <v>52.9</v>
+      </c>
+      <c r="AA99" s="11">
+        <v>39.6</v>
+      </c>
+      <c r="AB99" s="11">
+        <v>37.5</v>
+      </c>
+      <c r="AC99" s="11">
+        <v>7.4</v>
+      </c>
+      <c r="AF99" s="11">
+        <v>6.1</v>
+      </c>
+      <c r="AG99" s="11">
+        <v>4.7</v>
+      </c>
+      <c r="AH99" s="11">
+        <f t="shared" si="9"/>
+        <v>10.8</v>
+      </c>
+      <c r="BS99" s="8">
+        <v>46.2</v>
+      </c>
+      <c r="BT99" s="8">
+        <v>41.6</v>
+      </c>
+      <c r="BU99" s="11">
+        <v>9.6</v>
+      </c>
+      <c r="BV99" s="11">
+        <v>2.6</v>
+      </c>
+      <c r="BW99" s="11">
+        <f>BV99+BU99</f>
+        <v>12.2</v>
+      </c>
+      <c r="CV99" s="8">
+        <v>40.4</v>
+      </c>
+      <c r="CW99" s="8">
+        <v>44.4</v>
+      </c>
+      <c r="CX99" s="8">
+        <v>15</v>
+      </c>
+      <c r="DE99" s="24"/>
+      <c r="DG99" s="11">
+        <v>38.5</v>
+      </c>
+      <c r="DH99" s="23" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="100" spans="1:112" x14ac:dyDescent="0.25">
+      <c r="A100" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="C100" s="6">
+        <v>44770</v>
+      </c>
+      <c r="D100" s="7">
+        <v>44743</v>
+      </c>
+      <c r="E100" s="8">
+        <v>2022</v>
+      </c>
+      <c r="F100" t="s">
+        <v>386</v>
+      </c>
+      <c r="G100" s="11">
+        <v>2556</v>
+      </c>
+      <c r="H100" s="11">
+        <v>2</v>
+      </c>
+      <c r="I100" s="11">
+        <v>95</v>
+      </c>
+      <c r="J100" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K100" s="11">
+        <v>183</v>
+      </c>
+      <c r="M100" s="11">
+        <v>48</v>
+      </c>
+      <c r="N100" s="11">
+        <v>52</v>
+      </c>
+      <c r="O100" s="11">
+        <v>41</v>
+      </c>
+      <c r="P100" s="11">
+        <v>32</v>
+      </c>
+      <c r="Q100" s="11">
+        <v>17</v>
+      </c>
+      <c r="R100" s="11">
+        <v>3</v>
+      </c>
+      <c r="S100" s="11">
+        <v>2</v>
+      </c>
+      <c r="T100" s="11">
+        <v>5</v>
+      </c>
+      <c r="U100" s="11">
+        <v>48</v>
+      </c>
+      <c r="V100" s="11">
+        <v>46</v>
+      </c>
+      <c r="W100" s="11">
+        <v>32</v>
+      </c>
+      <c r="X100" s="11">
+        <v>27</v>
+      </c>
+      <c r="Y100" s="11">
+        <v>8</v>
+      </c>
+      <c r="Z100" s="11">
+        <v>8</v>
+      </c>
+      <c r="AA100" s="11">
+        <v>47</v>
+      </c>
+      <c r="AB100" s="11">
+        <v>29</v>
+      </c>
+      <c r="AC100" s="11">
+        <v>8</v>
+      </c>
+      <c r="AD100" s="11">
+        <v>5</v>
+      </c>
+      <c r="AE100" s="11">
+        <v>7</v>
+      </c>
+      <c r="AF100" s="11">
+        <v>6</v>
+      </c>
+      <c r="AG100" s="11">
+        <v>3</v>
+      </c>
+      <c r="AH100" s="11">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="AI100" s="11">
+        <v>45</v>
+      </c>
+      <c r="AJ100" s="11">
+        <v>41</v>
+      </c>
+      <c r="AK100" s="11">
+        <v>58</v>
+      </c>
+      <c r="AO100" s="11">
+        <v>30</v>
+      </c>
+      <c r="AP100" s="11">
+        <v>33</v>
+      </c>
+      <c r="AQ100" s="11">
+        <v>20</v>
+      </c>
+      <c r="AU100" s="11">
+        <v>9</v>
+      </c>
+      <c r="AV100" s="11">
+        <v>9</v>
+      </c>
+      <c r="AW100" s="11">
+        <v>6</v>
+      </c>
+      <c r="BA100" s="11">
+        <v>55</v>
+      </c>
+      <c r="BB100" s="11">
+        <v>56</v>
+      </c>
+      <c r="BC100" s="11">
+        <v>38</v>
+      </c>
+      <c r="BD100" s="11">
+        <v>33</v>
+      </c>
+      <c r="BE100" s="11">
+        <v>15</v>
+      </c>
+      <c r="BF100" s="11">
+        <v>12</v>
+      </c>
+      <c r="BG100" s="11">
+        <v>56</v>
+      </c>
+      <c r="BH100" s="11">
+        <v>48</v>
+      </c>
+      <c r="BI100" s="11">
+        <v>66</v>
+      </c>
+      <c r="BM100" s="11">
+        <v>36</v>
+      </c>
+      <c r="BN100" s="11">
+        <v>40</v>
+      </c>
+      <c r="BO100" s="11">
+        <v>25</v>
+      </c>
+      <c r="BS100" s="11">
+        <v>55</v>
+      </c>
+      <c r="BT100" s="11">
+        <v>35</v>
+      </c>
+      <c r="BU100" s="11">
+        <v>7</v>
+      </c>
+      <c r="BV100" s="11">
+        <v>2</v>
+      </c>
+      <c r="BW100" s="11">
+        <f>BV100+BU100</f>
+        <v>9</v>
+      </c>
+      <c r="BX100" s="11">
+        <v>38</v>
+      </c>
+      <c r="BY100" s="11">
+        <v>33</v>
+      </c>
+      <c r="BZ100" s="11">
+        <v>52</v>
+      </c>
+      <c r="CA100" s="11">
+        <v>54</v>
+      </c>
+      <c r="CB100" s="11">
+        <v>26</v>
+      </c>
+      <c r="CC100" s="11">
+        <v>23</v>
+      </c>
+      <c r="CD100" s="11">
+        <v>35</v>
+      </c>
+      <c r="CE100" s="11">
+        <v>43</v>
+      </c>
+      <c r="CF100" s="11">
+        <v>25</v>
+      </c>
+      <c r="CJ100" s="11">
+        <v>52</v>
+      </c>
+      <c r="CK100" s="11">
+        <v>49</v>
+      </c>
+      <c r="CL100" s="11">
+        <v>64</v>
+      </c>
+      <c r="CP100" s="11">
+        <v>24</v>
+      </c>
+      <c r="CQ100" s="11">
+        <v>25</v>
+      </c>
+      <c r="CR100" s="11">
+        <v>21</v>
+      </c>
+      <c r="CV100" s="8">
+        <v>36</v>
+      </c>
+      <c r="CW100" s="8">
+        <v>53</v>
+      </c>
+      <c r="CX100" s="8">
+        <v>25</v>
+      </c>
+      <c r="DH100" s="23" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="102" spans="1:112" x14ac:dyDescent="0.25">
+      <c r="DG102" s="24"/>
+    </row>
+    <row r="103" spans="1:112" x14ac:dyDescent="0.25">
+      <c r="CS103"/>
+      <c r="CT103"/>
+      <c r="CU103"/>
+      <c r="CV103"/>
+      <c r="CW103"/>
+      <c r="CX103"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:DJ100" xr:uid="{6156B78F-4178-4430-929C-85D622A7BD0A}"/>
   <hyperlinks>
     <hyperlink ref="DH82" r:id="rId1" xr:uid="{F1115AC3-1322-4633-8F85-68A34C764A1F}"/>
     <hyperlink ref="DH23" r:id="rId2" xr:uid="{4318982E-D888-4B7B-B5E5-593AF2B059A0}"/>

--- a/banco_raca_genero_fgv.xlsx
+++ b/banco_raca_genero_fgv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre G\Documents\Pesquisa\Scripts Webscraping\Agregador de pesquisas (Streamlit)\modelo_raca_genero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001B4937-01DC-4202-8D35-20BCFE8A1108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05C1ED7-6BD5-496E-99DE-CA4F73E075BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="24030" windowHeight="10530" xr2:uid="{31563B56-3A1D-4132-8093-857FD13750A5}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="24030" windowHeight="10530" xr2:uid="{31563B56-3A1D-4132-8093-857FD13750A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -1803,8 +1803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6156B78F-4178-4430-929C-85D622A7BD0A}">
   <dimension ref="A1:DJ103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20989,7 +20989,7 @@
         <v>95</v>
       </c>
       <c r="B102" s="23" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="C102" s="17">
         <v>44774</v>

--- a/banco_raca_genero_fgv.xlsx
+++ b/banco_raca_genero_fgv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre G\Documents\Pesquisa\Scripts Webscraping\Agregador de pesquisas (Streamlit)\modelo_raca_genero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05C1ED7-6BD5-496E-99DE-CA4F73E075BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D24D3D-979C-4999-92B6-81AA2D982192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="1860" windowWidth="24030" windowHeight="10530" xr2:uid="{31563B56-3A1D-4132-8093-857FD13750A5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="404">
   <si>
     <t>nome_instituto</t>
   </si>
@@ -1245,13 +1245,16 @@
   </si>
   <si>
     <t>https://www.paranapesquisas.com.br/wp-content/uploads/2022/08/Midia_BR_Ago22.pdf</t>
+  </si>
+  <si>
+    <t>ago/22_pr_pesq</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1283,6 +1286,14 @@
     <font>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1381,7 +1392,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1480,6 +1491,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1801,10 +1815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6156B78F-4178-4430-929C-85D622A7BD0A}">
-  <dimension ref="A1:DJ103"/>
+  <dimension ref="A1:DJ106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20989,7 +21003,7 @@
         <v>95</v>
       </c>
       <c r="B102" s="23" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="C102" s="17">
         <v>44774</v>
@@ -21103,6 +21117,9 @@
       <c r="CV103"/>
       <c r="CW103"/>
       <c r="CX103"/>
+    </row>
+    <row r="106" spans="1:112" x14ac:dyDescent="0.25">
+      <c r="H106" s="35"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:DJ100" xr:uid="{6156B78F-4178-4430-929C-85D622A7BD0A}"/>

--- a/banco_raca_genero_fgv.xlsx
+++ b/banco_raca_genero_fgv.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre G\Documents\Pesquisa\Scripts Webscraping\Agregador de pesquisas (Streamlit)\modelo_raca_genero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D24D3D-979C-4999-92B6-81AA2D982192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436F9E8B-2365-4A39-810F-12E2F187F164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="24030" windowHeight="10530" xr2:uid="{31563B56-3A1D-4132-8093-857FD13750A5}"/>
+    <workbookView xWindow="-7530" yWindow="1635" windowWidth="34320" windowHeight="11580" xr2:uid="{31563B56-3A1D-4132-8093-857FD13750A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$DJ$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$DJ$103</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="420">
   <si>
     <t>nome_instituto</t>
   </si>
@@ -1208,12 +1208,6 @@
     <t>BR-05938/2022</t>
   </si>
   <si>
-    <t>exame</t>
-  </si>
-  <si>
-    <t>jul/22_exame</t>
-  </si>
-  <si>
     <t>BR-09608-2022</t>
   </si>
   <si>
@@ -1248,13 +1242,67 @@
   </si>
   <si>
     <t>ago/22_pr_pesq</t>
+  </si>
+  <si>
+    <t>jul/22_idea</t>
+  </si>
+  <si>
+    <t>jul/22_poderdata_2</t>
+  </si>
+  <si>
+    <t>BR-07122/2022</t>
+  </si>
+  <si>
+    <t>ago/22_poderdata</t>
+  </si>
+  <si>
+    <t>BR-08398/2022</t>
+  </si>
+  <si>
+    <t>ago/22_fsb</t>
+  </si>
+  <si>
+    <t>BR-08028/2022</t>
+  </si>
+  <si>
+    <t>ago/22_quaest</t>
+  </si>
+  <si>
+    <t>BR-01167/2022</t>
+  </si>
+  <si>
+    <t>ago/22_fsb_2</t>
+  </si>
+  <si>
+    <t>BR-00603/2022</t>
+  </si>
+  <si>
+    <t>ago/22_ipec</t>
+  </si>
+  <si>
+    <t>BR‐03980/2022</t>
+  </si>
+  <si>
+    <t>https://static.poder360.com.br/2020/04/Poderdata-61-2ago22.pdf</t>
+  </si>
+  <si>
+    <t>https://static.poder360.com.br/2022/08/pesquisabtg-8ago-2022.pdf</t>
+  </si>
+  <si>
+    <t>https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/08/16180248/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-agosto_20220817.pdf</t>
+  </si>
+  <si>
+    <t>https://static.btgpactual.com/media/pesquisa-btg-fsb-rodada-09-15ago2022.pdf?utm_source=pesquisa_14_08_desk</t>
+  </si>
+  <si>
+    <t>https://www.ipec-inteligencia.com.br/Repository/Files/1070/Job_22_1426-1_Brasil_Relatorio_de_tabelas_Imprensa.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1286,14 +1334,6 @@
     <font>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1392,7 +1432,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1492,8 +1532,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1815,16 +1873,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6156B78F-4178-4430-929C-85D622A7BD0A}">
-  <dimension ref="A1:DJ106"/>
+  <dimension ref="A1:DJ108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="18" topLeftCell="AY103" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomRight" activeCell="AY108" sqref="AY108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="23" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" style="8" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="8"/>
     <col min="6" max="7" width="14.28515625" style="8" customWidth="1"/>
@@ -19484,7 +19545,7 @@
         <v>1</v>
       </c>
       <c r="BW90" s="8">
-        <f t="shared" ref="BW90:BW96" si="9">BU90+BV90</f>
+        <f t="shared" ref="BW90:BW97" si="9">BU90+BV90</f>
         <v>9</v>
       </c>
       <c r="BX90" s="8">
@@ -20062,7 +20123,7 @@
         <v>4</v>
       </c>
       <c r="AH94" s="8">
-        <f t="shared" ref="AH94:AH100" si="10">AG94+AF94</f>
+        <f t="shared" ref="AH94:AH101" si="10">AG94+AF94</f>
         <v>9</v>
       </c>
       <c r="BA94" s="8">
@@ -20144,7 +20205,7 @@
         <v>166</v>
       </c>
       <c r="B95" s="23" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C95" s="17">
         <v>44752</v>
@@ -20156,7 +20217,7 @@
         <v>2022</v>
       </c>
       <c r="F95" s="27" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G95" s="8">
         <v>2000</v>
@@ -20254,85 +20315,148 @@
         <v>47</v>
       </c>
       <c r="DH95" s="20" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="96" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A96" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B96" s="23" t="s">
-        <v>391</v>
-      </c>
-      <c r="C96" s="17">
-        <v>44762</v>
-      </c>
-      <c r="D96" s="18">
+      <c r="A96" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B96" s="36" t="s">
+        <v>403</v>
+      </c>
+      <c r="C96" s="37">
+        <v>44761</v>
+      </c>
+      <c r="D96" s="38">
         <v>44743</v>
       </c>
-      <c r="E96" s="8">
+      <c r="E96" s="6">
         <v>2022</v>
       </c>
-      <c r="F96" s="27" t="s">
-        <v>392</v>
+      <c r="F96" t="s">
+        <v>404</v>
+      </c>
+      <c r="G96" s="6">
+        <v>3000</v>
+      </c>
+      <c r="H96" s="6">
+        <v>2</v>
+      </c>
+      <c r="I96" s="6">
+        <v>95</v>
+      </c>
+      <c r="J96" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="K96" s="6">
+        <v>309</v>
+      </c>
+      <c r="L96" s="6">
+        <v>27</v>
+      </c>
+      <c r="M96" s="8">
+        <v>47</v>
+      </c>
+      <c r="N96" s="8">
+        <v>53</v>
+      </c>
+      <c r="U96" s="8">
+        <v>39</v>
+      </c>
+      <c r="V96" s="8">
+        <v>46</v>
+      </c>
+      <c r="W96" s="8">
+        <v>43</v>
+      </c>
+      <c r="X96" s="8">
+        <v>32</v>
+      </c>
+      <c r="Y96" s="8">
+        <v>8</v>
+      </c>
+      <c r="Z96" s="8">
+        <v>4</v>
       </c>
       <c r="AA96" s="8">
+        <v>43</v>
+      </c>
+      <c r="AB96" s="8">
+        <v>37</v>
+      </c>
+      <c r="AC96" s="8">
+        <v>6</v>
+      </c>
+      <c r="AD96" s="8">
+        <v>4</v>
+      </c>
+      <c r="AE96" s="8">
+        <v>3</v>
+      </c>
+      <c r="AF96" s="6">
+        <v>4</v>
+      </c>
+      <c r="AG96" s="6">
+        <v>4</v>
+      </c>
+      <c r="AH96" s="6">
+        <f>AF96+AG96</f>
+        <v>8</v>
+      </c>
+      <c r="BA96" s="8">
+        <v>45</v>
+      </c>
+      <c r="BB96" s="8">
+        <v>56</v>
+      </c>
+      <c r="BC96" s="8">
         <v>44</v>
       </c>
-      <c r="AB96" s="8">
-        <v>33</v>
-      </c>
-      <c r="AC96" s="8">
+      <c r="BD96" s="8">
+        <v>32</v>
+      </c>
+      <c r="BE96" s="8">
+        <v>10</v>
+      </c>
+      <c r="BF96" s="8">
         <v>8</v>
       </c>
-      <c r="AF96" s="27">
-        <v>4</v>
-      </c>
-      <c r="AG96" s="27">
+      <c r="BS96" s="8">
+        <v>51</v>
+      </c>
+      <c r="BT96" s="8">
+        <v>38</v>
+      </c>
+      <c r="BU96" s="28">
+        <v>9</v>
+      </c>
+      <c r="BV96" s="8">
         <v>3</v>
       </c>
-      <c r="AH96" s="27">
-        <f>AF96+AG96</f>
-        <v>7</v>
-      </c>
-      <c r="BS96" s="8">
-        <v>47</v>
-      </c>
-      <c r="BT96" s="8">
-        <v>37</v>
-      </c>
-      <c r="BU96" s="28">
-        <v>11</v>
-      </c>
-      <c r="BV96" s="8">
-        <v>5</v>
-      </c>
       <c r="BW96" s="8">
-        <f t="shared" si="9"/>
-        <v>16</v>
-      </c>
-      <c r="CV96" s="8">
-        <v>40</v>
-      </c>
-      <c r="CW96" s="8">
+        <f>BU96+BV96</f>
+        <v>12</v>
+      </c>
+      <c r="CY96" s="8">
         <v>46</v>
       </c>
-      <c r="CX96" s="8">
-        <v>19</v>
-      </c>
-      <c r="DH96" s="20" t="s">
-        <v>396</v>
+      <c r="CZ96" s="8">
+        <v>52</v>
+      </c>
+      <c r="DG96" s="8">
+        <v>50</v>
       </c>
     </row>
     <row r="97" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A97" s="26" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="B97" s="23" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
       <c r="C97" s="17">
-        <v>44764</v>
+        <v>44762</v>
       </c>
       <c r="D97" s="18">
         <v>44743</v>
@@ -20341,103 +20465,65 @@
         <v>2022</v>
       </c>
       <c r="F97" s="27" t="s">
-        <v>378</v>
-      </c>
-      <c r="G97" s="8">
-        <v>2000</v>
-      </c>
-      <c r="H97" s="8">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I97" s="8">
-        <v>95</v>
-      </c>
-      <c r="J97" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="M97" s="8">
-        <v>47</v>
-      </c>
-      <c r="N97" s="8">
-        <v>53</v>
-      </c>
-      <c r="U97" s="8">
-        <v>39</v>
-      </c>
-      <c r="V97" s="8">
-        <v>48</v>
-      </c>
-      <c r="W97" s="8">
-        <v>41</v>
-      </c>
-      <c r="X97" s="8">
-        <v>30</v>
-      </c>
-      <c r="Y97" s="8">
-        <v>9</v>
-      </c>
-      <c r="Z97" s="8">
-        <v>8</v>
+        <v>390</v>
       </c>
       <c r="AA97" s="8">
         <v>44</v>
       </c>
       <c r="AB97" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AC97" s="8">
-        <v>9</v>
-      </c>
-      <c r="AD97" s="8">
+        <v>8</v>
+      </c>
+      <c r="AF97" s="27">
+        <v>4</v>
+      </c>
+      <c r="AG97" s="27">
         <v>3</v>
       </c>
-      <c r="AE97" s="8">
-        <v>3</v>
-      </c>
-      <c r="AF97" s="8">
-        <v>4</v>
-      </c>
-      <c r="AG97" s="8">
-        <v>2</v>
-      </c>
-      <c r="AH97" s="8">
-        <f>AG97+AF97</f>
-        <v>6</v>
+      <c r="AH97" s="27">
+        <f>AF97+AG97</f>
+        <v>7</v>
       </c>
       <c r="BS97" s="8">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="BT97" s="8">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="BU97" s="28">
+        <v>11</v>
+      </c>
+      <c r="BV97" s="8">
+        <v>5</v>
       </c>
       <c r="BW97" s="8">
-        <v>11</v>
+        <f t="shared" si="9"/>
+        <v>16</v>
       </c>
       <c r="CV97" s="8">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="CW97" s="8">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="CX97" s="8">
-        <v>40</v>
-      </c>
-      <c r="DG97" s="8">
-        <v>49</v>
-      </c>
-      <c r="DH97" s="8" t="s">
-        <v>376</v>
+        <v>19</v>
+      </c>
+      <c r="DH97" s="20" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="98" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A98" s="26" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="C98" s="17">
-        <v>44766</v>
+        <v>44764</v>
       </c>
       <c r="D98" s="18">
         <v>44743</v>
@@ -20446,13 +20532,13 @@
         <v>2022</v>
       </c>
       <c r="F98" s="27" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="G98" s="8">
         <v>2000</v>
       </c>
       <c r="H98" s="8">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I98" s="8">
         <v>95</v>
@@ -20461,99 +20547,88 @@
         <v>169</v>
       </c>
       <c r="M98" s="8">
+        <v>47</v>
+      </c>
+      <c r="N98" s="8">
+        <v>53</v>
+      </c>
+      <c r="U98" s="8">
+        <v>39</v>
+      </c>
+      <c r="V98" s="8">
         <v>48</v>
       </c>
-      <c r="N98" s="8">
-        <v>52</v>
-      </c>
-      <c r="U98" s="8">
-        <v>42</v>
-      </c>
-      <c r="V98" s="8">
-        <v>46</v>
-      </c>
       <c r="W98" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="X98" s="8">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="Y98" s="8">
+        <v>9</v>
+      </c>
+      <c r="Z98" s="8">
         <v>8</v>
-      </c>
-      <c r="Z98" s="8">
-        <v>9</v>
       </c>
       <c r="AA98" s="8">
         <v>44</v>
       </c>
       <c r="AB98" s="8">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AC98" s="8">
         <v>9</v>
       </c>
       <c r="AD98" s="8">
+        <v>3</v>
+      </c>
+      <c r="AE98" s="8">
+        <v>3</v>
+      </c>
+      <c r="AF98" s="8">
+        <v>4</v>
+      </c>
+      <c r="AG98" s="8">
         <v>2</v>
       </c>
-      <c r="AE98" s="8">
-        <v>2</v>
-      </c>
-      <c r="AF98" s="8">
-        <v>7</v>
-      </c>
-      <c r="AG98" s="8">
-        <v>3</v>
-      </c>
       <c r="AH98" s="8">
-        <v>10</v>
+        <f>AG98+AF98</f>
+        <v>6</v>
       </c>
       <c r="BS98" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="BT98" s="8">
         <v>36</v>
       </c>
-      <c r="BU98" s="8">
-        <v>7</v>
-      </c>
-      <c r="BV98" s="8">
-        <v>2</v>
-      </c>
       <c r="BW98" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="CV98" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="CW98" s="8">
         <v>58</v>
       </c>
       <c r="CX98" s="8">
-        <v>47</v>
-      </c>
-      <c r="CY98" s="8">
-        <v>44</v>
-      </c>
-      <c r="CZ98" s="8">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="DG98" s="8">
-        <v>47</v>
-      </c>
-      <c r="DH98" s="20" t="s">
-        <v>397</v>
+        <v>49</v>
+      </c>
+      <c r="DH98" s="8" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="99" spans="1:112" x14ac:dyDescent="0.25">
-      <c r="A99" s="20" t="s">
-        <v>113</v>
+      <c r="A99" s="26" t="s">
+        <v>166</v>
       </c>
       <c r="B99" s="23" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="C99" s="17">
-        <v>44767</v>
+        <v>44766</v>
       </c>
       <c r="D99" s="18">
         <v>44743</v>
@@ -20562,13 +20637,13 @@
         <v>2022</v>
       </c>
       <c r="F99" s="27" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="G99" s="8">
         <v>2000</v>
       </c>
       <c r="H99" s="8">
-        <v>2.2000000000000002</v>
+        <v>2</v>
       </c>
       <c r="I99" s="8">
         <v>95</v>
@@ -20577,71 +20652,99 @@
         <v>169</v>
       </c>
       <c r="M99" s="8">
-        <v>47.2</v>
+        <v>48</v>
       </c>
       <c r="N99" s="8">
-        <v>52.9</v>
+        <v>52</v>
+      </c>
+      <c r="U99" s="8">
+        <v>42</v>
+      </c>
+      <c r="V99" s="8">
+        <v>46</v>
+      </c>
+      <c r="W99" s="8">
+        <v>39</v>
+      </c>
+      <c r="X99" s="8">
+        <v>24</v>
+      </c>
+      <c r="Y99" s="8">
+        <v>8</v>
+      </c>
+      <c r="Z99" s="8">
+        <v>9</v>
       </c>
       <c r="AA99" s="8">
-        <v>39.6</v>
+        <v>44</v>
       </c>
       <c r="AB99" s="8">
-        <v>37.5</v>
+        <v>31</v>
       </c>
       <c r="AC99" s="8">
-        <v>7.4</v>
+        <v>9</v>
+      </c>
+      <c r="AD99" s="8">
+        <v>2</v>
+      </c>
+      <c r="AE99" s="8">
+        <v>2</v>
       </c>
       <c r="AF99" s="8">
-        <v>6.1</v>
+        <v>7</v>
       </c>
       <c r="AG99" s="8">
-        <v>4.7</v>
+        <v>3</v>
       </c>
       <c r="AH99" s="8">
-        <f t="shared" si="10"/>
-        <v>10.8</v>
+        <v>10</v>
       </c>
       <c r="BS99" s="8">
-        <v>46.2</v>
+        <v>54</v>
       </c>
       <c r="BT99" s="8">
-        <v>41.6</v>
+        <v>36</v>
       </c>
       <c r="BU99" s="8">
-        <v>9.6</v>
+        <v>7</v>
       </c>
       <c r="BV99" s="8">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="BW99" s="8">
-        <f>BV99+BU99</f>
-        <v>12.2</v>
+        <v>9</v>
       </c>
       <c r="CV99" s="8">
-        <v>40.4</v>
+        <v>42</v>
       </c>
       <c r="CW99" s="8">
-        <v>44.4</v>
+        <v>58</v>
       </c>
       <c r="CX99" s="8">
-        <v>15</v>
+        <v>47</v>
+      </c>
+      <c r="CY99" s="8">
+        <v>44</v>
+      </c>
+      <c r="CZ99" s="8">
+        <v>50</v>
       </c>
       <c r="DG99" s="8">
-        <v>38.5</v>
+        <v>47</v>
       </c>
       <c r="DH99" s="20" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
     </row>
     <row r="100" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A100" s="20" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="B100" s="23" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C100" s="17">
-        <v>44770</v>
+        <v>44767</v>
       </c>
       <c r="D100" s="18">
         <v>44743</v>
@@ -20650,236 +20753,86 @@
         <v>2022</v>
       </c>
       <c r="F100" s="27" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="G100" s="8">
-        <v>2556</v>
+        <v>2000</v>
       </c>
       <c r="H100" s="8">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I100" s="8">
         <v>95</v>
       </c>
       <c r="J100" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="K100" s="8">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="M100" s="8">
-        <v>48</v>
+        <v>47.2</v>
       </c>
       <c r="N100" s="8">
-        <v>52</v>
-      </c>
-      <c r="O100" s="8">
-        <v>41</v>
-      </c>
-      <c r="P100" s="8">
-        <v>32</v>
-      </c>
-      <c r="Q100" s="8">
-        <v>17</v>
-      </c>
-      <c r="R100" s="8">
-        <v>3</v>
-      </c>
-      <c r="S100" s="8">
-        <v>2</v>
-      </c>
-      <c r="T100" s="8">
-        <v>5</v>
-      </c>
-      <c r="U100" s="8">
-        <v>48</v>
-      </c>
-      <c r="V100" s="8">
-        <v>46</v>
-      </c>
-      <c r="W100" s="8">
-        <v>32</v>
-      </c>
-      <c r="X100" s="8">
-        <v>27</v>
-      </c>
-      <c r="Y100" s="8">
-        <v>8</v>
-      </c>
-      <c r="Z100" s="8">
-        <v>8</v>
+        <v>52.9</v>
       </c>
       <c r="AA100" s="8">
-        <v>47</v>
+        <v>39.6</v>
       </c>
       <c r="AB100" s="8">
-        <v>29</v>
+        <v>37.5</v>
       </c>
       <c r="AC100" s="8">
-        <v>8</v>
-      </c>
-      <c r="AD100" s="8">
-        <v>5</v>
-      </c>
-      <c r="AE100" s="8">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AF100" s="8">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AG100" s="8">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="AH100" s="8">
         <f t="shared" si="10"/>
-        <v>9</v>
-      </c>
-      <c r="AI100" s="8">
-        <v>45</v>
-      </c>
-      <c r="AJ100" s="8">
-        <v>41</v>
-      </c>
-      <c r="AK100" s="8">
-        <v>58</v>
-      </c>
-      <c r="AO100" s="8">
-        <v>30</v>
-      </c>
-      <c r="AP100" s="8">
-        <v>33</v>
-      </c>
-      <c r="AQ100" s="8">
-        <v>20</v>
-      </c>
-      <c r="AU100" s="8">
-        <v>9</v>
-      </c>
-      <c r="AV100" s="8">
-        <v>9</v>
-      </c>
-      <c r="AW100" s="8">
-        <v>6</v>
-      </c>
-      <c r="BA100" s="8">
-        <v>55</v>
-      </c>
-      <c r="BB100" s="8">
-        <v>56</v>
-      </c>
-      <c r="BC100" s="8">
-        <v>38</v>
-      </c>
-      <c r="BD100" s="8">
-        <v>33</v>
-      </c>
-      <c r="BE100" s="8">
-        <v>15</v>
-      </c>
-      <c r="BF100" s="8">
-        <v>12</v>
-      </c>
-      <c r="BG100" s="8">
-        <v>56</v>
-      </c>
-      <c r="BH100" s="8">
-        <v>48</v>
-      </c>
-      <c r="BI100" s="8">
-        <v>66</v>
-      </c>
-      <c r="BM100" s="8">
-        <v>36</v>
-      </c>
-      <c r="BN100" s="8">
-        <v>40</v>
-      </c>
-      <c r="BO100" s="8">
-        <v>25</v>
+        <v>10.8</v>
       </c>
       <c r="BS100" s="8">
-        <v>55</v>
+        <v>46.2</v>
       </c>
       <c r="BT100" s="8">
-        <v>35</v>
+        <v>41.6</v>
       </c>
       <c r="BU100" s="8">
-        <v>7</v>
+        <v>9.6</v>
       </c>
       <c r="BV100" s="8">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="BW100" s="8">
         <f>BV100+BU100</f>
-        <v>9</v>
-      </c>
-      <c r="BX100" s="8">
-        <v>38</v>
-      </c>
-      <c r="BY100" s="8">
-        <v>33</v>
-      </c>
-      <c r="BZ100" s="8">
-        <v>52</v>
-      </c>
-      <c r="CA100" s="8">
-        <v>54</v>
-      </c>
-      <c r="CB100" s="8">
-        <v>26</v>
-      </c>
-      <c r="CC100" s="8">
-        <v>23</v>
-      </c>
-      <c r="CD100" s="8">
-        <v>35</v>
-      </c>
-      <c r="CE100" s="8">
-        <v>43</v>
-      </c>
-      <c r="CF100" s="8">
-        <v>25</v>
-      </c>
-      <c r="CJ100" s="8">
-        <v>52</v>
-      </c>
-      <c r="CK100" s="8">
-        <v>49</v>
-      </c>
-      <c r="CL100" s="8">
-        <v>64</v>
-      </c>
-      <c r="CP100" s="8">
-        <v>24</v>
-      </c>
-      <c r="CQ100" s="8">
-        <v>25</v>
-      </c>
-      <c r="CR100" s="8">
-        <v>21</v>
+        <v>12.2</v>
       </c>
       <c r="CV100" s="8">
-        <v>36</v>
+        <v>40.4</v>
       </c>
       <c r="CW100" s="8">
-        <v>53</v>
+        <v>44.4</v>
       </c>
       <c r="CX100" s="8">
-        <v>25</v>
+        <v>15</v>
+      </c>
+      <c r="DG100" s="8">
+        <v>38.5</v>
       </c>
       <c r="DH100" s="20" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="101" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A101" s="20" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B101" s="23" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="C101" s="17">
-        <v>44773</v>
+        <v>44770</v>
       </c>
       <c r="D101" s="18">
         <v>44743</v>
@@ -20887,11 +20840,11 @@
       <c r="E101" s="8">
         <v>2022</v>
       </c>
-      <c r="F101" s="8" t="s">
-        <v>399</v>
+      <c r="F101" s="27" t="s">
+        <v>386</v>
       </c>
       <c r="G101" s="8">
-        <v>2000</v>
+        <v>2556</v>
       </c>
       <c r="H101" s="8">
         <v>2</v>
@@ -20903,125 +20856,236 @@
         <v>100</v>
       </c>
       <c r="K101" s="8">
-        <v>120</v>
+        <v>183</v>
       </c>
       <c r="M101" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N101" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O101" s="8">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P101" s="8">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="Q101" s="8">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="R101" s="8">
+        <v>3</v>
+      </c>
+      <c r="S101" s="8">
+        <v>2</v>
       </c>
       <c r="T101" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U101" s="8">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="V101" s="8">
         <v>46</v>
       </c>
       <c r="W101" s="8">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="X101" s="8">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="Y101" s="8">
+        <v>8</v>
+      </c>
+      <c r="Z101" s="8">
+        <v>8</v>
       </c>
       <c r="AA101" s="8">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AB101" s="8">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AC101" s="8">
+        <v>8</v>
+      </c>
+      <c r="AD101" s="8">
         <v>5</v>
       </c>
-      <c r="AD101" s="8">
-        <v>10</v>
-      </c>
       <c r="AE101" s="8">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AF101" s="8">
         <v>6</v>
       </c>
       <c r="AG101" s="8">
+        <v>3</v>
+      </c>
+      <c r="AH101" s="8">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="AI101" s="8">
+        <v>45</v>
+      </c>
+      <c r="AJ101" s="8">
+        <v>41</v>
+      </c>
+      <c r="AK101" s="8">
+        <v>58</v>
+      </c>
+      <c r="AO101" s="8">
+        <v>30</v>
+      </c>
+      <c r="AP101" s="8">
+        <v>33</v>
+      </c>
+      <c r="AQ101" s="8">
+        <v>20</v>
+      </c>
+      <c r="AU101" s="8">
+        <v>9</v>
+      </c>
+      <c r="AV101" s="8">
+        <v>9</v>
+      </c>
+      <c r="AW101" s="8">
         <v>6</v>
       </c>
-      <c r="AH101" s="8">
-        <f>AG101+AF101</f>
+      <c r="BA101" s="8">
+        <v>55</v>
+      </c>
+      <c r="BB101" s="8">
+        <v>56</v>
+      </c>
+      <c r="BC101" s="8">
+        <v>38</v>
+      </c>
+      <c r="BD101" s="8">
+        <v>33</v>
+      </c>
+      <c r="BE101" s="8">
+        <v>15</v>
+      </c>
+      <c r="BF101" s="8">
         <v>12</v>
       </c>
+      <c r="BG101" s="8">
+        <v>56</v>
+      </c>
+      <c r="BH101" s="8">
+        <v>48</v>
+      </c>
+      <c r="BI101" s="8">
+        <v>66</v>
+      </c>
+      <c r="BM101" s="8">
+        <v>36</v>
+      </c>
+      <c r="BN101" s="8">
+        <v>40</v>
+      </c>
+      <c r="BO101" s="8">
+        <v>25</v>
+      </c>
       <c r="BS101" s="8">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="BT101" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BU101" s="8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BV101" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BW101" s="8">
         <f>BV101+BU101</f>
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="BX101" s="8">
+        <v>38</v>
+      </c>
+      <c r="BY101" s="8">
+        <v>33</v>
+      </c>
+      <c r="BZ101" s="8">
+        <v>52</v>
+      </c>
+      <c r="CA101" s="8">
+        <v>54</v>
+      </c>
+      <c r="CB101" s="8">
+        <v>26</v>
+      </c>
+      <c r="CC101" s="8">
+        <v>23</v>
+      </c>
+      <c r="CD101" s="8">
+        <v>35</v>
+      </c>
+      <c r="CE101" s="8">
+        <v>43</v>
+      </c>
+      <c r="CF101" s="8">
+        <v>25</v>
+      </c>
+      <c r="CJ101" s="8">
+        <v>52</v>
+      </c>
+      <c r="CK101" s="8">
+        <v>49</v>
+      </c>
+      <c r="CL101" s="8">
+        <v>64</v>
+      </c>
+      <c r="CP101" s="8">
+        <v>24</v>
+      </c>
+      <c r="CQ101" s="8">
+        <v>25</v>
+      </c>
+      <c r="CR101" s="8">
+        <v>21</v>
       </c>
       <c r="CV101" s="8">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="CW101" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="CX101" s="8">
-        <v>53</v>
-      </c>
-      <c r="CY101" s="8">
-        <v>37</v>
-      </c>
-      <c r="CZ101" s="8">
-        <v>48</v>
-      </c>
-      <c r="DG101" s="8">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="DH101" s="20" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
     </row>
     <row r="102" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A102" s="20" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="B102" s="23" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C102" s="17">
-        <v>44774</v>
+        <v>44773</v>
       </c>
       <c r="D102" s="18">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="E102" s="8">
         <v>2022</v>
       </c>
-      <c r="F102" s="27" t="s">
-        <v>401</v>
+      <c r="F102" s="8" t="s">
+        <v>397</v>
       </c>
       <c r="G102" s="8">
-        <v>2020</v>
+        <v>2000</v>
       </c>
       <c r="H102" s="8">
-        <v>2.2000000000000002</v>
+        <v>2</v>
       </c>
       <c r="I102" s="8">
         <v>95</v>
@@ -21030,99 +21094,895 @@
         <v>100</v>
       </c>
       <c r="K102" s="8">
-        <v>161</v>
-      </c>
-      <c r="L102" s="8">
-        <v>27</v>
+        <v>120</v>
+      </c>
+      <c r="M102" s="8">
+        <v>47</v>
+      </c>
+      <c r="N102" s="8">
+        <v>53</v>
+      </c>
+      <c r="O102" s="8">
+        <v>45</v>
+      </c>
+      <c r="P102" s="8">
+        <v>43</v>
+      </c>
+      <c r="Q102" s="8">
+        <v>11</v>
+      </c>
+      <c r="T102" s="8">
+        <v>1</v>
       </c>
       <c r="U102" s="8">
-        <v>38.200000000000003</v>
+        <v>43</v>
       </c>
       <c r="V102" s="8">
-        <v>43.7</v>
+        <v>46</v>
       </c>
       <c r="W102" s="8">
-        <v>40.700000000000003</v>
+        <v>36</v>
       </c>
       <c r="X102" s="8">
-        <v>31</v>
-      </c>
-      <c r="Y102" s="8">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="Z102" s="8">
-        <v>7.7</v>
+        <v>28</v>
       </c>
       <c r="AA102" s="8">
-        <v>41.1</v>
+        <v>44</v>
       </c>
       <c r="AB102" s="8">
-        <v>35.6</v>
+        <v>32</v>
       </c>
       <c r="AC102" s="8">
-        <v>7.9</v>
+        <v>5</v>
       </c>
       <c r="AD102" s="8">
-        <v>5.3</v>
+        <v>10</v>
       </c>
       <c r="AE102" s="8">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AF102" s="8">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AG102" s="8">
-        <v>4.0999999999999996</v>
+        <v>6</v>
       </c>
       <c r="AH102" s="8">
         <f>AG102+AF102</f>
-        <v>10.3</v>
+        <v>12</v>
       </c>
       <c r="BS102" s="8">
-        <v>48.6</v>
+        <v>51</v>
       </c>
       <c r="BT102" s="8">
-        <v>38.9</v>
-      </c>
-      <c r="BU102" s="28">
-        <v>8.6</v>
+        <v>37</v>
+      </c>
+      <c r="BU102" s="8">
+        <v>9</v>
       </c>
       <c r="BV102" s="8">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="BW102" s="8">
         <f>BV102+BU102</f>
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="CV102" s="8">
-        <v>42.8</v>
+        <v>44</v>
       </c>
       <c r="CW102" s="8">
-        <v>50.1</v>
+        <v>55</v>
       </c>
       <c r="CX102" s="8">
+        <v>53</v>
+      </c>
+      <c r="CY102" s="8">
+        <v>37</v>
+      </c>
+      <c r="CZ102" s="8">
+        <v>48</v>
+      </c>
+      <c r="DG102" s="8">
         <v>43</v>
       </c>
-      <c r="DG102" s="8">
-        <v>44.3</v>
-      </c>
       <c r="DH102" s="20" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="103" spans="1:112" x14ac:dyDescent="0.25">
-      <c r="CS103"/>
-      <c r="CT103"/>
-      <c r="CU103"/>
-      <c r="CV103"/>
-      <c r="CW103"/>
-      <c r="CX103"/>
+      <c r="A103" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B103" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="C103" s="17">
+        <v>44774</v>
+      </c>
+      <c r="D103" s="18">
+        <v>44774</v>
+      </c>
+      <c r="E103" s="8">
+        <v>2022</v>
+      </c>
+      <c r="F103" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="G103" s="8">
+        <v>2020</v>
+      </c>
+      <c r="H103" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I103" s="8">
+        <v>95</v>
+      </c>
+      <c r="J103" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K103" s="8">
+        <v>161</v>
+      </c>
+      <c r="L103" s="8">
+        <v>27</v>
+      </c>
+      <c r="U103" s="8">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="V103" s="8">
+        <v>43.7</v>
+      </c>
+      <c r="W103" s="8">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="X103" s="8">
+        <v>31</v>
+      </c>
+      <c r="Y103" s="8">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="Z103" s="8">
+        <v>7.7</v>
+      </c>
+      <c r="AA103" s="8">
+        <v>41.1</v>
+      </c>
+      <c r="AB103" s="8">
+        <v>35.6</v>
+      </c>
+      <c r="AC103" s="8">
+        <v>7.9</v>
+      </c>
+      <c r="AD103" s="8">
+        <v>5.3</v>
+      </c>
+      <c r="AE103" s="8">
+        <v>7</v>
+      </c>
+      <c r="AF103" s="8">
+        <v>6.2</v>
+      </c>
+      <c r="AG103" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AH103" s="8">
+        <f>AG103+AF103</f>
+        <v>10.3</v>
+      </c>
+      <c r="BS103" s="8">
+        <v>48.6</v>
+      </c>
+      <c r="BT103" s="8">
+        <v>38.9</v>
+      </c>
+      <c r="BU103" s="28">
+        <v>8.6</v>
+      </c>
+      <c r="BV103" s="8">
+        <v>3.9</v>
+      </c>
+      <c r="BW103" s="8">
+        <f>BV103+BU103</f>
+        <v>12.5</v>
+      </c>
+      <c r="CV103" s="8">
+        <v>42.8</v>
+      </c>
+      <c r="CW103" s="8">
+        <v>50.1</v>
+      </c>
+      <c r="CX103" s="8">
+        <v>43</v>
+      </c>
+      <c r="DG103" s="8">
+        <v>44.3</v>
+      </c>
+      <c r="DH103" s="20" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="104" spans="1:112" x14ac:dyDescent="0.25">
+      <c r="A104" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B104" s="39" t="s">
+        <v>405</v>
+      </c>
+      <c r="C104" s="37">
+        <v>44775</v>
+      </c>
+      <c r="D104" s="38">
+        <v>44774</v>
+      </c>
+      <c r="E104" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F104" s="40" t="s">
+        <v>406</v>
+      </c>
+      <c r="G104" s="6">
+        <v>3500</v>
+      </c>
+      <c r="H104" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="I104" s="6">
+        <v>95</v>
+      </c>
+      <c r="J104" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="K104" s="6">
+        <v>322</v>
+      </c>
+      <c r="L104" s="6">
+        <v>27</v>
+      </c>
+      <c r="M104" s="8">
+        <v>47</v>
+      </c>
+      <c r="N104" s="8">
+        <v>53</v>
+      </c>
+      <c r="U104" s="8">
+        <v>41</v>
+      </c>
+      <c r="V104" s="8">
+        <v>44</v>
+      </c>
+      <c r="W104" s="8">
+        <v>40</v>
+      </c>
+      <c r="X104" s="8">
+        <v>30</v>
+      </c>
+      <c r="Y104" s="8">
+        <v>5</v>
+      </c>
+      <c r="Z104" s="8">
+        <v>9</v>
+      </c>
+      <c r="AA104" s="6">
+        <v>43</v>
+      </c>
+      <c r="AB104" s="6">
+        <v>35</v>
+      </c>
+      <c r="AC104" s="6">
+        <v>7</v>
+      </c>
+      <c r="AD104" s="8">
+        <v>3</v>
+      </c>
+      <c r="AE104" s="8">
+        <v>5</v>
+      </c>
+      <c r="AF104" s="8">
+        <v>4</v>
+      </c>
+      <c r="AG104" s="8">
+        <v>2</v>
+      </c>
+      <c r="AH104" s="8">
+        <f>AG104+AF104</f>
+        <v>6</v>
+      </c>
+      <c r="BA104" s="8">
+        <v>47</v>
+      </c>
+      <c r="BB104" s="8">
+        <v>53</v>
+      </c>
+      <c r="BC104" s="8">
+        <v>45</v>
+      </c>
+      <c r="BD104" s="8">
+        <v>37</v>
+      </c>
+      <c r="BE104" s="8">
+        <v>5</v>
+      </c>
+      <c r="BF104" s="8">
+        <v>5</v>
+      </c>
+      <c r="BS104" s="6">
+        <v>50</v>
+      </c>
+      <c r="BT104" s="6">
+        <v>40</v>
+      </c>
+      <c r="BU104" s="8">
+        <v>5</v>
+      </c>
+      <c r="BV104" s="8">
+        <v>4</v>
+      </c>
+      <c r="BW104" s="8">
+        <f>BV104+BU104</f>
+        <v>9</v>
+      </c>
+      <c r="BX104" s="8">
+        <v>40</v>
+      </c>
+      <c r="BY104" s="8">
+        <v>34</v>
+      </c>
+      <c r="BZ104" s="8">
+        <v>46</v>
+      </c>
+      <c r="CA104" s="8">
+        <v>53</v>
+      </c>
+      <c r="CB104" s="8">
+        <v>43</v>
+      </c>
+      <c r="CC104" s="8">
+        <v>44</v>
+      </c>
+      <c r="CS104"/>
+      <c r="CT104"/>
+      <c r="CU104"/>
+      <c r="CV104" s="8">
+        <v>37</v>
+      </c>
+      <c r="CW104" s="8">
+        <v>50</v>
+      </c>
+      <c r="CX104" s="8">
+        <v>43</v>
+      </c>
+      <c r="CY104" s="8">
+        <v>47</v>
+      </c>
+      <c r="CZ104" s="8">
+        <v>51</v>
+      </c>
+      <c r="DG104" s="8">
+        <v>49</v>
+      </c>
+      <c r="DH104" s="35" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="105" spans="1:112" x14ac:dyDescent="0.25">
+      <c r="A105" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="B105" s="39" t="s">
+        <v>407</v>
+      </c>
+      <c r="C105" s="37">
+        <v>44780</v>
+      </c>
+      <c r="D105" s="38">
+        <v>44774</v>
+      </c>
+      <c r="E105" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F105" s="40" t="s">
+        <v>408</v>
+      </c>
+      <c r="G105" s="8">
+        <v>2000</v>
+      </c>
+      <c r="H105" s="8">
+        <v>2</v>
+      </c>
+      <c r="I105" s="8">
+        <v>95</v>
+      </c>
+      <c r="J105" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M105" s="8">
+        <v>48</v>
+      </c>
+      <c r="N105" s="8">
+        <v>52</v>
+      </c>
+      <c r="U105" s="8">
+        <v>39</v>
+      </c>
+      <c r="V105" s="8">
+        <v>44</v>
+      </c>
+      <c r="W105" s="8">
+        <v>42</v>
+      </c>
+      <c r="X105" s="8">
+        <v>26</v>
+      </c>
+      <c r="Y105" s="8">
+        <v>8</v>
+      </c>
+      <c r="Z105" s="8">
+        <v>7</v>
+      </c>
+      <c r="AA105" s="8">
+        <v>41</v>
+      </c>
+      <c r="AB105" s="8">
+        <v>34</v>
+      </c>
+      <c r="AC105" s="8">
+        <v>7</v>
+      </c>
+      <c r="AD105" s="8">
+        <v>5</v>
+      </c>
+      <c r="AE105" s="8">
+        <v>9</v>
+      </c>
+      <c r="AF105" s="8">
+        <v>7</v>
+      </c>
+      <c r="AG105" s="8">
+        <v>3</v>
+      </c>
+      <c r="AH105" s="8">
+        <f>AG105+AF105</f>
+        <v>10</v>
+      </c>
+      <c r="BS105" s="8">
+        <v>51</v>
+      </c>
+      <c r="BT105" s="8">
+        <v>39</v>
+      </c>
+      <c r="BU105" s="8">
+        <v>8</v>
+      </c>
+      <c r="BV105" s="8">
+        <v>2</v>
+      </c>
+      <c r="BW105" s="8">
+        <f>BV105+BU105</f>
+        <v>10</v>
+      </c>
+      <c r="CV105" s="6">
+        <v>45</v>
+      </c>
+      <c r="CW105" s="6">
+        <v>53</v>
+      </c>
+      <c r="CX105" s="6">
+        <v>49</v>
+      </c>
+      <c r="CY105" s="8">
+        <v>42</v>
+      </c>
+      <c r="CZ105" s="8">
+        <v>47</v>
+      </c>
+      <c r="DG105" s="8">
+        <v>44</v>
+      </c>
+      <c r="DH105" s="35" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="106" spans="1:112" x14ac:dyDescent="0.25">
-      <c r="H106" s="35"/>
+      <c r="A106" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B106" s="41" t="s">
+        <v>409</v>
+      </c>
+      <c r="C106" s="37">
+        <v>44787</v>
+      </c>
+      <c r="D106" s="38">
+        <v>44774</v>
+      </c>
+      <c r="E106" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F106" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="G106" s="8">
+        <v>2000</v>
+      </c>
+      <c r="H106" s="8">
+        <v>2</v>
+      </c>
+      <c r="I106" s="8">
+        <v>95</v>
+      </c>
+      <c r="J106" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K106" s="8">
+        <v>120</v>
+      </c>
+      <c r="M106" s="8">
+        <v>47</v>
+      </c>
+      <c r="N106" s="8">
+        <v>53</v>
+      </c>
+      <c r="O106" s="8">
+        <v>45</v>
+      </c>
+      <c r="P106" s="8">
+        <v>43</v>
+      </c>
+      <c r="Q106" s="8">
+        <v>11</v>
+      </c>
+      <c r="T106" s="8">
+        <v>1</v>
+      </c>
+      <c r="U106" s="8">
+        <v>43</v>
+      </c>
+      <c r="V106" s="8">
+        <v>46</v>
+      </c>
+      <c r="W106" s="8">
+        <v>37</v>
+      </c>
+      <c r="X106" s="8">
+        <v>30</v>
+      </c>
+      <c r="AA106" s="6">
+        <v>45</v>
+      </c>
+      <c r="AB106" s="6">
+        <v>33</v>
+      </c>
+      <c r="AC106" s="6">
+        <v>6</v>
+      </c>
+      <c r="AD106" s="8">
+        <v>9</v>
+      </c>
+      <c r="AE106" s="8">
+        <v>14</v>
+      </c>
+      <c r="AF106" s="8">
+        <v>6</v>
+      </c>
+      <c r="AG106" s="8">
+        <v>6</v>
+      </c>
+      <c r="AH106" s="8">
+        <f>AG106+AF106</f>
+        <v>12</v>
+      </c>
+      <c r="BS106" s="6">
+        <v>51</v>
+      </c>
+      <c r="BT106" s="6">
+        <v>38</v>
+      </c>
+      <c r="BU106" s="8">
+        <v>7</v>
+      </c>
+      <c r="BV106" s="8">
+        <v>4</v>
+      </c>
+      <c r="BW106" s="8">
+        <f>BV106+BU106</f>
+        <v>11</v>
+      </c>
+      <c r="CV106" s="6">
+        <v>44</v>
+      </c>
+      <c r="CW106" s="6">
+        <v>55</v>
+      </c>
+      <c r="CX106" s="6">
+        <v>52</v>
+      </c>
+      <c r="DH106" s="35" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="107" spans="1:112" x14ac:dyDescent="0.25">
+      <c r="A107" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="B107" s="41" t="s">
+        <v>411</v>
+      </c>
+      <c r="C107" s="37">
+        <v>44787</v>
+      </c>
+      <c r="D107" s="38">
+        <v>44774</v>
+      </c>
+      <c r="E107" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F107" s="40" t="s">
+        <v>412</v>
+      </c>
+      <c r="G107" s="8">
+        <v>2000</v>
+      </c>
+      <c r="H107" s="8">
+        <v>2</v>
+      </c>
+      <c r="I107" s="8">
+        <v>95</v>
+      </c>
+      <c r="J107" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M107" s="8">
+        <v>48</v>
+      </c>
+      <c r="N107" s="8">
+        <v>52</v>
+      </c>
+      <c r="U107" s="8">
+        <v>41</v>
+      </c>
+      <c r="V107" s="8">
+        <v>49</v>
+      </c>
+      <c r="W107" s="8">
+        <v>39</v>
+      </c>
+      <c r="X107" s="8">
+        <v>28</v>
+      </c>
+      <c r="Y107" s="8">
+        <v>9</v>
+      </c>
+      <c r="Z107" s="8">
+        <v>7</v>
+      </c>
+      <c r="AA107" s="8">
+        <v>45</v>
+      </c>
+      <c r="AB107" s="8">
+        <v>34</v>
+      </c>
+      <c r="AC107" s="8">
+        <v>8</v>
+      </c>
+      <c r="AD107" s="8">
+        <v>6</v>
+      </c>
+      <c r="AE107" s="8">
+        <v>8</v>
+      </c>
+      <c r="AF107" s="8">
+        <v>6</v>
+      </c>
+      <c r="AG107" s="8">
+        <v>2</v>
+      </c>
+      <c r="AH107" s="8">
+        <f>AG107+AF107</f>
+        <v>8</v>
+      </c>
+      <c r="BS107" s="8">
+        <v>53</v>
+      </c>
+      <c r="BT107" s="8">
+        <v>38</v>
+      </c>
+      <c r="BU107" s="8">
+        <v>4</v>
+      </c>
+      <c r="BV107" s="8">
+        <v>6</v>
+      </c>
+      <c r="BW107" s="8">
+        <f>BV107+BU107</f>
+        <v>10</v>
+      </c>
+      <c r="CV107" s="6">
+        <v>44</v>
+      </c>
+      <c r="CW107" s="6">
+        <v>54</v>
+      </c>
+      <c r="CX107" s="6">
+        <v>48</v>
+      </c>
+      <c r="CY107" s="8">
+        <v>41</v>
+      </c>
+      <c r="CZ107" s="8">
+        <v>48</v>
+      </c>
+      <c r="DG107" s="8">
+        <v>44</v>
+      </c>
+      <c r="DH107" s="35" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="108" spans="1:112" x14ac:dyDescent="0.25">
+      <c r="A108" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B108" s="41" t="s">
+        <v>413</v>
+      </c>
+      <c r="C108" s="37">
+        <v>44787</v>
+      </c>
+      <c r="D108" s="38">
+        <v>44774</v>
+      </c>
+      <c r="E108" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F108" s="40" t="s">
+        <v>414</v>
+      </c>
+      <c r="G108" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H108" s="6">
+        <v>2</v>
+      </c>
+      <c r="I108" s="6">
+        <v>95</v>
+      </c>
+      <c r="J108" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K108" s="6">
+        <v>130</v>
+      </c>
+      <c r="M108" s="8">
+        <v>47</v>
+      </c>
+      <c r="N108" s="8">
+        <v>53</v>
+      </c>
+      <c r="P108" s="8">
+        <v>42</v>
+      </c>
+      <c r="T108" s="8">
+        <v>2</v>
+      </c>
+      <c r="U108" s="8">
+        <v>42</v>
+      </c>
+      <c r="V108" s="8">
+        <v>46</v>
+      </c>
+      <c r="W108" s="8">
+        <v>37</v>
+      </c>
+      <c r="X108" s="8">
+        <v>27</v>
+      </c>
+      <c r="Y108" s="8">
+        <v>5</v>
+      </c>
+      <c r="Z108" s="8">
+        <v>5</v>
+      </c>
+      <c r="AA108" s="8">
+        <v>44</v>
+      </c>
+      <c r="AB108" s="8">
+        <v>32</v>
+      </c>
+      <c r="AC108" s="8">
+        <v>6</v>
+      </c>
+      <c r="AD108" s="8">
+        <v>7</v>
+      </c>
+      <c r="AE108" s="8">
+        <v>9</v>
+      </c>
+      <c r="AF108" s="8">
+        <v>8</v>
+      </c>
+      <c r="AG108" s="8">
+        <v>7</v>
+      </c>
+      <c r="AH108" s="8">
+        <f>AG108+AF108</f>
+        <v>15</v>
+      </c>
+      <c r="BA108" s="8">
+        <v>48</v>
+      </c>
+      <c r="BB108" s="8">
+        <v>54</v>
+      </c>
+      <c r="BC108" s="8">
+        <v>40</v>
+      </c>
+      <c r="BD108" s="8">
+        <v>31</v>
+      </c>
+      <c r="BE108" s="8">
+        <v>8</v>
+      </c>
+      <c r="BF108" s="8">
+        <v>10</v>
+      </c>
+      <c r="BS108" s="6">
+        <v>51</v>
+      </c>
+      <c r="BT108" s="6">
+        <v>35</v>
+      </c>
+      <c r="BU108" s="8">
+        <v>9</v>
+      </c>
+      <c r="BV108" s="8">
+        <v>5</v>
+      </c>
+      <c r="BW108" s="8">
+        <f>BV108+BU108</f>
+        <v>14</v>
+      </c>
+      <c r="BX108" s="8">
+        <v>38</v>
+      </c>
+      <c r="BY108" s="8">
+        <v>30</v>
+      </c>
+      <c r="BZ108" s="8">
+        <v>43</v>
+      </c>
+      <c r="CA108" s="8">
+        <v>49</v>
+      </c>
+      <c r="CB108" s="8">
+        <v>20</v>
+      </c>
+      <c r="CC108" s="8">
+        <v>16</v>
+      </c>
+      <c r="CV108" s="8">
+        <v>33</v>
+      </c>
+      <c r="CW108" s="8">
+        <v>46</v>
+      </c>
+      <c r="CX108" s="8">
+        <v>18</v>
+      </c>
+      <c r="CY108" s="8">
+        <v>39</v>
+      </c>
+      <c r="CZ108" s="8">
+        <v>46</v>
+      </c>
+      <c r="DG108" s="8">
+        <v>43</v>
+      </c>
+      <c r="DH108" s="35" t="s">
+        <v>419</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:DJ100" xr:uid="{6156B78F-4178-4430-929C-85D622A7BD0A}"/>
+  <autoFilter ref="A1:DJ103" xr:uid="{6156B78F-4178-4430-929C-85D622A7BD0A}"/>
   <hyperlinks>
     <hyperlink ref="DH82" r:id="rId1" xr:uid="{F1115AC3-1322-4633-8F85-68A34C764A1F}"/>
     <hyperlink ref="DH23" r:id="rId2" xr:uid="{4318982E-D888-4B7B-B5E5-593AF2B059A0}"/>

--- a/banco_raca_genero_fgv.xlsx
+++ b/banco_raca_genero_fgv.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre G\Documents\Pesquisa\Scripts Webscraping\Agregador de pesquisas (Streamlit)\modelo_raca_genero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BC83D4-1046-49DD-A1DB-2D755873110D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AEAD27-8A4C-404C-A77A-CAED6C33DAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19200" yWindow="3630" windowWidth="28800" windowHeight="13695" xr2:uid="{31563B56-3A1D-4132-8093-857FD13750A5}"/>
+    <workbookView xWindow="-8745" yWindow="1170" windowWidth="28800" windowHeight="11385" xr2:uid="{31563B56-3A1D-4132-8093-857FD13750A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$DJ$123</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$DJ$131</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="488">
   <si>
     <t>nome_instituto</t>
   </si>
@@ -1431,6 +1431,75 @@
   </si>
   <si>
     <t>https://www.fsb.com.br/wp-content/uploads/2022/09/PesquisaBTG-FSB_Rodada12_05Set2022.pdf</t>
+  </si>
+  <si>
+    <t>set/22_quaest</t>
+  </si>
+  <si>
+    <t>BR-00807/2022</t>
+  </si>
+  <si>
+    <t>set/22_pr_pesq</t>
+  </si>
+  <si>
+    <t>BR-09446/2022</t>
+  </si>
+  <si>
+    <t>set/22_datafolha_2</t>
+  </si>
+  <si>
+    <t>BR-07422/2022</t>
+  </si>
+  <si>
+    <t>set/22_ipec_2</t>
+  </si>
+  <si>
+    <t>BR‐01390/2022</t>
+  </si>
+  <si>
+    <t>set/22_fsb_2</t>
+  </si>
+  <si>
+    <t>BR-06321/2022</t>
+  </si>
+  <si>
+    <t>set/22_pr_pesq_2</t>
+  </si>
+  <si>
+    <t>BR-05388/2022</t>
+  </si>
+  <si>
+    <t>set/22_quaest_2</t>
+  </si>
+  <si>
+    <t>BR-03420/2022</t>
+  </si>
+  <si>
+    <t>set/22_datafolha_3</t>
+  </si>
+  <si>
+    <t>BR-04099/2022</t>
+  </si>
+  <si>
+    <t>https://especiaisg1.globo/politica/eleicoes/2022/pesquisas-eleitorais/presidente/1-turno/Datafolha/</t>
+  </si>
+  <si>
+    <t>https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/09/14001621/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-setembro-P02.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.fsb.com.br/wp-content/uploads/2022/09/Pesquisa-BTG-FSB-Rodada_13.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ipec-inteligencia.com.br/Repository/Files/1117/Job_22_1426-4_Brasil_Relatorio_de_tabelas_Imprensa.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/09/06164726/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-setembro-P01.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.paranapesquisas.com.br/wp-content/uploads/2022/09/Midia_BR.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.paranapesquisas.com.br/wp-content/uploads/2022/09/Midia-BR-1.pdf </t>
   </si>
 </sst>
 </file>
@@ -1990,10 +2059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6156B78F-4178-4430-929C-85D622A7BD0A}">
-  <dimension ref="A1:DJ123"/>
+  <dimension ref="A1:DJ131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CZ123" sqref="CZ123"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18537,8 +18606,1049 @@
         <v>464</v>
       </c>
     </row>
+    <row r="124" spans="1:112" x14ac:dyDescent="0.25">
+      <c r="A124" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B124" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="C124" s="16">
+        <v>44808</v>
+      </c>
+      <c r="D124" s="17">
+        <v>44805</v>
+      </c>
+      <c r="E124" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F124" s="25" t="s">
+        <v>466</v>
+      </c>
+      <c r="G124" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H124" s="6">
+        <v>2</v>
+      </c>
+      <c r="I124" s="6">
+        <v>95</v>
+      </c>
+      <c r="J124" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K124" s="6">
+        <v>120</v>
+      </c>
+      <c r="M124" s="6">
+        <v>47</v>
+      </c>
+      <c r="N124" s="6">
+        <v>53</v>
+      </c>
+      <c r="O124" s="6">
+        <v>45</v>
+      </c>
+      <c r="P124" s="6">
+        <v>43</v>
+      </c>
+      <c r="Q124" s="6">
+        <v>11</v>
+      </c>
+      <c r="T124" s="6">
+        <v>1</v>
+      </c>
+      <c r="U124" s="6">
+        <v>43</v>
+      </c>
+      <c r="V124" s="6">
+        <v>45</v>
+      </c>
+      <c r="W124" s="6">
+        <v>39</v>
+      </c>
+      <c r="X124" s="6">
+        <v>30</v>
+      </c>
+      <c r="AA124" s="6">
+        <v>44</v>
+      </c>
+      <c r="AB124" s="6">
+        <v>34</v>
+      </c>
+      <c r="AC124" s="6">
+        <v>7</v>
+      </c>
+      <c r="AD124" s="6">
+        <v>8</v>
+      </c>
+      <c r="AE124" s="6">
+        <v>11</v>
+      </c>
+      <c r="AF124" s="6">
+        <v>5</v>
+      </c>
+      <c r="AG124" s="6">
+        <v>4</v>
+      </c>
+      <c r="AH124" s="6">
+        <v>9</v>
+      </c>
+      <c r="BS124" s="6">
+        <v>51</v>
+      </c>
+      <c r="BT124" s="6">
+        <v>39</v>
+      </c>
+      <c r="BU124" s="6">
+        <v>7</v>
+      </c>
+      <c r="BV124" s="6">
+        <v>3</v>
+      </c>
+      <c r="BW124" s="6">
+        <v>10</v>
+      </c>
+      <c r="CV124" s="6">
+        <v>44</v>
+      </c>
+      <c r="CW124" s="6">
+        <v>53</v>
+      </c>
+      <c r="CX124" s="6">
+        <v>50</v>
+      </c>
+      <c r="DH124" s="34" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="125" spans="1:112" x14ac:dyDescent="0.25">
+      <c r="A125" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B125" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="C125" s="16">
+        <v>44809</v>
+      </c>
+      <c r="D125" s="17">
+        <v>44805</v>
+      </c>
+      <c r="E125" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F125" s="25" t="s">
+        <v>468</v>
+      </c>
+      <c r="G125" s="6">
+        <v>2020</v>
+      </c>
+      <c r="H125" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I125" s="6">
+        <v>95</v>
+      </c>
+      <c r="J125" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K125" s="6">
+        <v>164</v>
+      </c>
+      <c r="L125" s="6">
+        <v>27</v>
+      </c>
+      <c r="M125" s="6">
+        <v>47.4</v>
+      </c>
+      <c r="N125" s="6">
+        <v>53.1</v>
+      </c>
+      <c r="U125" s="6">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="V125" s="6">
+        <v>42.9</v>
+      </c>
+      <c r="W125" s="6">
+        <v>43.5</v>
+      </c>
+      <c r="X125" s="6">
+        <v>29.9</v>
+      </c>
+      <c r="Y125" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="Z125" s="6">
+        <v>7.4</v>
+      </c>
+      <c r="AA125" s="6">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="AB125" s="6">
+        <v>36.4</v>
+      </c>
+      <c r="AC125" s="6">
+        <v>7.3</v>
+      </c>
+      <c r="AD125" s="6">
+        <v>4.7</v>
+      </c>
+      <c r="AE125" s="6">
+        <v>6.9</v>
+      </c>
+      <c r="AF125" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="AG125" s="6">
+        <v>5.8</v>
+      </c>
+      <c r="AH125" s="6">
+        <v>10</v>
+      </c>
+      <c r="BA125" s="6">
+        <v>43.9</v>
+      </c>
+      <c r="BB125" s="6">
+        <v>50.4</v>
+      </c>
+      <c r="BC125" s="6">
+        <v>46.6</v>
+      </c>
+      <c r="BD125" s="6">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="BE125" s="6">
+        <v>6.8</v>
+      </c>
+      <c r="BF125" s="6">
+        <v>10.5</v>
+      </c>
+      <c r="BS125" s="6">
+        <v>47.3</v>
+      </c>
+      <c r="BT125" s="6">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="BU125" s="25">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="BV125" s="6">
+        <v>3.7</v>
+      </c>
+      <c r="BW125" s="6">
+        <v>12.4</v>
+      </c>
+      <c r="CV125" s="6">
+        <v>44.3</v>
+      </c>
+      <c r="CW125" s="6">
+        <v>49.5</v>
+      </c>
+      <c r="CX125" s="6">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="DG125" s="6">
+        <v>42.7</v>
+      </c>
+      <c r="DH125" s="34" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="126" spans="1:112" x14ac:dyDescent="0.25">
+      <c r="A126" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B126" s="19" t="s">
+        <v>469</v>
+      </c>
+      <c r="C126" s="16">
+        <v>44813</v>
+      </c>
+      <c r="D126" s="17">
+        <v>44805</v>
+      </c>
+      <c r="E126" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F126" s="25" t="s">
+        <v>470</v>
+      </c>
+      <c r="G126" s="6">
+        <v>2676</v>
+      </c>
+      <c r="H126" s="6">
+        <v>2</v>
+      </c>
+      <c r="I126" s="6">
+        <v>95</v>
+      </c>
+      <c r="J126" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K126" s="6">
+        <v>191</v>
+      </c>
+      <c r="U126" s="6">
+        <v>43</v>
+      </c>
+      <c r="V126" s="6">
+        <v>46</v>
+      </c>
+      <c r="W126" s="6">
+        <v>39</v>
+      </c>
+      <c r="X126" s="6">
+        <v>29</v>
+      </c>
+      <c r="Y126" s="6">
+        <v>7</v>
+      </c>
+      <c r="Z126" s="6">
+        <v>7</v>
+      </c>
+      <c r="AA126" s="6">
+        <v>45</v>
+      </c>
+      <c r="AB126" s="6">
+        <v>34</v>
+      </c>
+      <c r="AC126" s="6">
+        <v>7</v>
+      </c>
+      <c r="AD126" s="6">
+        <v>3</v>
+      </c>
+      <c r="AE126" s="6">
+        <v>4</v>
+      </c>
+      <c r="AF126" s="6">
+        <v>4</v>
+      </c>
+      <c r="AG126" s="6">
+        <v>3</v>
+      </c>
+      <c r="AH126" s="6">
+        <v>7</v>
+      </c>
+      <c r="BA126" s="6">
+        <v>50</v>
+      </c>
+      <c r="BB126" s="6">
+        <v>55</v>
+      </c>
+      <c r="BC126" s="6">
+        <v>42</v>
+      </c>
+      <c r="BD126" s="6">
+        <v>35</v>
+      </c>
+      <c r="BE126" s="6">
+        <v>7</v>
+      </c>
+      <c r="BF126" s="6">
+        <v>2</v>
+      </c>
+      <c r="BS126" s="6">
+        <v>53</v>
+      </c>
+      <c r="BT126" s="6">
+        <v>39</v>
+      </c>
+      <c r="BU126" s="6">
+        <v>7</v>
+      </c>
+      <c r="BV126" s="6">
+        <v>2</v>
+      </c>
+      <c r="BW126" s="6">
+        <v>9</v>
+      </c>
+      <c r="BX126" s="6">
+        <v>42</v>
+      </c>
+      <c r="BY126" s="6">
+        <v>36</v>
+      </c>
+      <c r="BZ126" s="6">
+        <v>47</v>
+      </c>
+      <c r="CA126" s="6">
+        <v>55</v>
+      </c>
+      <c r="CB126" s="6">
+        <v>29</v>
+      </c>
+      <c r="CC126" s="6">
+        <v>20</v>
+      </c>
+      <c r="CV126" s="6">
+        <v>39</v>
+      </c>
+      <c r="CW126" s="6">
+        <v>51</v>
+      </c>
+      <c r="CX126" s="6">
+        <v>24</v>
+      </c>
+      <c r="DH126" s="19" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="127" spans="1:112" x14ac:dyDescent="0.25">
+      <c r="A127" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B127" s="19" t="s">
+        <v>471</v>
+      </c>
+      <c r="C127" s="16">
+        <v>44815</v>
+      </c>
+      <c r="D127" s="17">
+        <v>44805</v>
+      </c>
+      <c r="E127" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F127" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="G127" s="6">
+        <v>2512</v>
+      </c>
+      <c r="H127" s="6">
+        <v>2</v>
+      </c>
+      <c r="I127" s="6">
+        <v>95</v>
+      </c>
+      <c r="J127" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K127" s="6">
+        <v>158</v>
+      </c>
+      <c r="M127" s="6">
+        <v>47</v>
+      </c>
+      <c r="N127" s="6">
+        <v>53</v>
+      </c>
+      <c r="U127" s="6">
+        <v>44</v>
+      </c>
+      <c r="V127" s="6">
+        <v>48</v>
+      </c>
+      <c r="W127" s="6">
+        <v>36</v>
+      </c>
+      <c r="X127" s="6">
+        <v>28</v>
+      </c>
+      <c r="Y127" s="6">
+        <v>7</v>
+      </c>
+      <c r="Z127" s="6">
+        <v>7</v>
+      </c>
+      <c r="AA127" s="6">
+        <v>46</v>
+      </c>
+      <c r="AB127" s="6">
+        <v>31</v>
+      </c>
+      <c r="AC127" s="6">
+        <v>7</v>
+      </c>
+      <c r="AD127" s="6">
+        <v>6</v>
+      </c>
+      <c r="AE127" s="6">
+        <v>6</v>
+      </c>
+      <c r="AF127" s="6">
+        <v>6</v>
+      </c>
+      <c r="AG127" s="6">
+        <v>4</v>
+      </c>
+      <c r="AH127" s="6">
+        <v>10</v>
+      </c>
+      <c r="BA127" s="6">
+        <v>50</v>
+      </c>
+      <c r="BB127" s="6">
+        <v>56</v>
+      </c>
+      <c r="BC127" s="6">
+        <v>40</v>
+      </c>
+      <c r="BD127" s="6">
+        <v>32</v>
+      </c>
+      <c r="BE127" s="6">
+        <v>9</v>
+      </c>
+      <c r="BF127" s="6">
+        <v>7</v>
+      </c>
+      <c r="BS127" s="6">
+        <v>53</v>
+      </c>
+      <c r="BT127" s="6">
+        <v>36</v>
+      </c>
+      <c r="BU127" s="6">
+        <v>8</v>
+      </c>
+      <c r="BV127" s="6">
+        <v>3</v>
+      </c>
+      <c r="BW127" s="6">
+        <v>11</v>
+      </c>
+      <c r="BX127" s="6">
+        <v>39</v>
+      </c>
+      <c r="BY127" s="6">
+        <v>31</v>
+      </c>
+      <c r="BZ127" s="6">
+        <v>46</v>
+      </c>
+      <c r="CA127" s="6">
+        <v>53</v>
+      </c>
+      <c r="CB127" s="6">
+        <v>17</v>
+      </c>
+      <c r="CC127" s="6">
+        <v>16</v>
+      </c>
+      <c r="CV127" s="6">
+        <v>35</v>
+      </c>
+      <c r="CW127" s="6">
+        <v>50</v>
+      </c>
+      <c r="CX127" s="6">
+        <v>17</v>
+      </c>
+      <c r="DH127" s="34" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="128" spans="1:112" x14ac:dyDescent="0.25">
+      <c r="A128" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B128" s="19" t="s">
+        <v>473</v>
+      </c>
+      <c r="C128" s="16">
+        <v>44815</v>
+      </c>
+      <c r="D128" s="17">
+        <v>44805</v>
+      </c>
+      <c r="E128" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F128" s="25" t="s">
+        <v>474</v>
+      </c>
+      <c r="G128" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H128" s="6">
+        <v>2</v>
+      </c>
+      <c r="I128" s="6">
+        <v>95</v>
+      </c>
+      <c r="J128" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="M128" s="6">
+        <v>48</v>
+      </c>
+      <c r="N128" s="6">
+        <v>52</v>
+      </c>
+      <c r="U128" s="6">
+        <v>36</v>
+      </c>
+      <c r="V128" s="6">
+        <v>45</v>
+      </c>
+      <c r="W128" s="6">
+        <v>42</v>
+      </c>
+      <c r="X128" s="6">
+        <v>27</v>
+      </c>
+      <c r="Y128" s="6">
+        <v>8</v>
+      </c>
+      <c r="Z128" s="6">
+        <v>9</v>
+      </c>
+      <c r="AA128" s="6">
+        <v>41</v>
+      </c>
+      <c r="AB128" s="6">
+        <v>35</v>
+      </c>
+      <c r="AC128" s="6">
+        <v>9</v>
+      </c>
+      <c r="AD128" s="6">
+        <v>3</v>
+      </c>
+      <c r="AE128" s="6">
+        <v>7</v>
+      </c>
+      <c r="AF128" s="6">
+        <v>5</v>
+      </c>
+      <c r="AG128" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH128" s="6">
+        <v>9</v>
+      </c>
+      <c r="BS128" s="6">
+        <v>51</v>
+      </c>
+      <c r="BT128" s="6">
+        <v>38</v>
+      </c>
+      <c r="BU128" s="6">
+        <v>10</v>
+      </c>
+      <c r="BV128" s="6">
+        <v>1</v>
+      </c>
+      <c r="BW128" s="6">
+        <v>11</v>
+      </c>
+      <c r="CV128" s="6">
+        <v>47</v>
+      </c>
+      <c r="CW128" s="6">
+        <v>56</v>
+      </c>
+      <c r="CX128" s="6">
+        <v>47</v>
+      </c>
+      <c r="CY128" s="6">
+        <v>39</v>
+      </c>
+      <c r="CZ128" s="6">
+        <v>48</v>
+      </c>
+      <c r="DG128" s="6">
+        <v>44</v>
+      </c>
+      <c r="DH128" s="34" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="129" spans="1:112" x14ac:dyDescent="0.25">
+      <c r="A129" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B129" s="19" t="s">
+        <v>475</v>
+      </c>
+      <c r="C129" s="16">
+        <v>44816</v>
+      </c>
+      <c r="D129" s="17">
+        <v>44805</v>
+      </c>
+      <c r="E129" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F129" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="G129" s="6">
+        <v>2020</v>
+      </c>
+      <c r="H129" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I129" s="6">
+        <v>95</v>
+      </c>
+      <c r="J129" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K129" s="6">
+        <v>162</v>
+      </c>
+      <c r="L129" s="6">
+        <v>27</v>
+      </c>
+      <c r="M129" s="6">
+        <v>46.9</v>
+      </c>
+      <c r="N129" s="6">
+        <v>52.6</v>
+      </c>
+      <c r="U129" s="6">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="V129" s="6">
+        <v>41.2</v>
+      </c>
+      <c r="W129" s="6">
+        <v>41.9</v>
+      </c>
+      <c r="X129" s="6">
+        <v>31.8</v>
+      </c>
+      <c r="Y129" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="Z129" s="6">
+        <v>6.7</v>
+      </c>
+      <c r="AA129" s="6">
+        <v>39.6</v>
+      </c>
+      <c r="AB129" s="6">
+        <v>36.5</v>
+      </c>
+      <c r="AC129" s="6">
+        <v>7.4</v>
+      </c>
+      <c r="AD129" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="AE129" s="6">
+        <v>7.6</v>
+      </c>
+      <c r="AF129" s="6">
+        <v>4</v>
+      </c>
+      <c r="AG129" s="6">
+        <v>6</v>
+      </c>
+      <c r="AH129" s="6">
+        <v>10</v>
+      </c>
+      <c r="BA129" s="6">
+        <v>46.3</v>
+      </c>
+      <c r="BB129" s="6">
+        <v>48.3</v>
+      </c>
+      <c r="BC129" s="6">
+        <v>46.7</v>
+      </c>
+      <c r="BD129" s="6">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="BE129" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="BF129" s="6">
+        <v>10.5</v>
+      </c>
+      <c r="BS129" s="6">
+        <v>47.3</v>
+      </c>
+      <c r="BT129" s="6">
+        <v>41.2</v>
+      </c>
+      <c r="BU129" s="25">
+        <v>7.9</v>
+      </c>
+      <c r="BV129" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="BW129" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="CV129" s="6">
+        <v>45</v>
+      </c>
+      <c r="CW129" s="6">
+        <v>49.7</v>
+      </c>
+      <c r="CX129" s="6">
+        <v>41.2</v>
+      </c>
+      <c r="DG129" s="6">
+        <v>43.2</v>
+      </c>
+      <c r="DH129" s="34" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="130" spans="1:112" x14ac:dyDescent="0.25">
+      <c r="A130" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B130" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="C130" s="16">
+        <v>44818</v>
+      </c>
+      <c r="D130" s="17">
+        <v>44805</v>
+      </c>
+      <c r="E130" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F130" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="G130" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H130" s="6">
+        <v>2</v>
+      </c>
+      <c r="I130" s="6">
+        <v>95</v>
+      </c>
+      <c r="J130" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K130" s="6">
+        <v>120</v>
+      </c>
+      <c r="M130" s="6">
+        <v>47</v>
+      </c>
+      <c r="N130" s="6">
+        <v>53</v>
+      </c>
+      <c r="O130" s="6">
+        <v>45</v>
+      </c>
+      <c r="P130" s="6">
+        <v>43</v>
+      </c>
+      <c r="Q130" s="6">
+        <v>11</v>
+      </c>
+      <c r="T130" s="6">
+        <v>1</v>
+      </c>
+      <c r="U130" s="6">
+        <v>39</v>
+      </c>
+      <c r="V130" s="6">
+        <v>45</v>
+      </c>
+      <c r="W130" s="6">
+        <v>39</v>
+      </c>
+      <c r="X130" s="6">
+        <v>29</v>
+      </c>
+      <c r="AA130" s="6">
+        <v>42</v>
+      </c>
+      <c r="AB130" s="6">
+        <v>34</v>
+      </c>
+      <c r="AC130" s="6">
+        <v>7</v>
+      </c>
+      <c r="AD130" s="6">
+        <v>8</v>
+      </c>
+      <c r="AE130" s="6">
+        <v>12</v>
+      </c>
+      <c r="AF130" s="6">
+        <v>6</v>
+      </c>
+      <c r="AG130" s="6">
+        <v>5</v>
+      </c>
+      <c r="AH130" s="6">
+        <v>11</v>
+      </c>
+      <c r="BS130" s="6">
+        <v>48</v>
+      </c>
+      <c r="BT130" s="6">
+        <v>40</v>
+      </c>
+      <c r="BU130" s="6">
+        <v>8</v>
+      </c>
+      <c r="BV130" s="6">
+        <v>4</v>
+      </c>
+      <c r="BW130" s="6">
+        <v>12</v>
+      </c>
+      <c r="CV130" s="6">
+        <v>47</v>
+      </c>
+      <c r="CW130" s="6">
+        <v>52</v>
+      </c>
+      <c r="CX130" s="6">
+        <v>50</v>
+      </c>
+      <c r="DH130" s="34" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="131" spans="1:112" x14ac:dyDescent="0.25">
+      <c r="A131" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B131" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="C131" s="16">
+        <v>44819</v>
+      </c>
+      <c r="D131" s="17">
+        <v>44805</v>
+      </c>
+      <c r="E131" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F131" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="G131" s="6">
+        <v>5926</v>
+      </c>
+      <c r="H131" s="6">
+        <v>2</v>
+      </c>
+      <c r="I131" s="6">
+        <v>95</v>
+      </c>
+      <c r="J131" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K131" s="6">
+        <v>300</v>
+      </c>
+      <c r="U131" s="6">
+        <v>44</v>
+      </c>
+      <c r="V131" s="6">
+        <v>46</v>
+      </c>
+      <c r="W131" s="6">
+        <v>37</v>
+      </c>
+      <c r="X131" s="6">
+        <v>29</v>
+      </c>
+      <c r="Y131" s="6">
+        <v>8</v>
+      </c>
+      <c r="Z131" s="6">
+        <v>8</v>
+      </c>
+      <c r="AA131" s="6">
+        <v>45</v>
+      </c>
+      <c r="AB131" s="6">
+        <v>35</v>
+      </c>
+      <c r="AC131" s="6">
+        <v>8</v>
+      </c>
+      <c r="AD131" s="6">
+        <v>3</v>
+      </c>
+      <c r="AE131" s="6">
+        <v>3</v>
+      </c>
+      <c r="AF131" s="6">
+        <v>4</v>
+      </c>
+      <c r="AG131" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH131" s="6">
+        <v>6</v>
+      </c>
+      <c r="BA131" s="6">
+        <v>51</v>
+      </c>
+      <c r="BB131" s="6">
+        <v>56</v>
+      </c>
+      <c r="BC131" s="6">
+        <v>41</v>
+      </c>
+      <c r="BD131" s="6">
+        <v>34</v>
+      </c>
+      <c r="BE131" s="6">
+        <v>7</v>
+      </c>
+      <c r="BF131" s="6">
+        <v>1</v>
+      </c>
+      <c r="BS131" s="6">
+        <v>54</v>
+      </c>
+      <c r="BT131" s="6">
+        <v>38</v>
+      </c>
+      <c r="BU131" s="6">
+        <v>7</v>
+      </c>
+      <c r="BV131" s="6">
+        <v>2</v>
+      </c>
+      <c r="BW131" s="6">
+        <v>9</v>
+      </c>
+      <c r="BX131" s="6">
+        <v>42</v>
+      </c>
+      <c r="BY131" s="6">
+        <v>35</v>
+      </c>
+      <c r="BZ131" s="6">
+        <v>50</v>
+      </c>
+      <c r="CA131" s="6">
+        <v>56</v>
+      </c>
+      <c r="CB131" s="6">
+        <v>27</v>
+      </c>
+      <c r="CC131" s="6">
+        <v>21</v>
+      </c>
+      <c r="CV131" s="6">
+        <v>38</v>
+      </c>
+      <c r="CW131" s="6">
+        <v>53</v>
+      </c>
+      <c r="CX131" s="6">
+        <v>24</v>
+      </c>
+      <c r="DH131" s="19" t="s">
+        <v>481</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:DJ123" xr:uid="{6156B78F-4178-4430-929C-85D622A7BD0A}"/>
   <hyperlinks>
     <hyperlink ref="DH82" r:id="rId1" xr:uid="{F1115AC3-1322-4633-8F85-68A34C764A1F}"/>
     <hyperlink ref="DH23" r:id="rId2" xr:uid="{4318982E-D888-4B7B-B5E5-593AF2B059A0}"/>
@@ -18626,8 +19736,14 @@
     <hyperlink ref="DH117" r:id="rId84" xr:uid="{0B064311-074B-44CF-9EE5-9A13A600870F}"/>
     <hyperlink ref="DH121" r:id="rId85" xr:uid="{734D89C9-5C48-4BB0-9D74-3728B541D6B5}"/>
     <hyperlink ref="DH122" r:id="rId86" display="https://especiaisg1.globo/politica/eleicoes/2022/pesquisas-eleitorais/presidente/1-turno/Ipec/" xr:uid="{EE326620-72FD-43B3-B15D-E359A61AB40C}"/>
+    <hyperlink ref="DH130" r:id="rId87" xr:uid="{F5ACB84B-A83D-4688-A20C-FE48B00C849A}"/>
+    <hyperlink ref="DH128" r:id="rId88" xr:uid="{24BE1FAE-8FE4-4218-B6E9-3C35205D80B8}"/>
+    <hyperlink ref="DH127" r:id="rId89" xr:uid="{9E79EDD1-6B3B-4449-A88A-A34CB7D77367}"/>
+    <hyperlink ref="DH124" r:id="rId90" xr:uid="{DDB77CA2-B402-4E97-90AD-FFD36AE53499}"/>
+    <hyperlink ref="DH125" r:id="rId91" xr:uid="{FB87DD9A-CD77-4D22-B319-11909610C3CC}"/>
+    <hyperlink ref="DH129" r:id="rId92" xr:uid="{DB796BC9-1A9B-46EA-B02E-2ADF7DF99DFD}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId87"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId93"/>
 </worksheet>
 </file>
--- a/banco_raca_genero_fgv.xlsx
+++ b/banco_raca_genero_fgv.xlsx
@@ -1,42 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre G\Documents\Pesquisa\Scripts Webscraping\Agregador de pesquisas (Streamlit)\modelo_raca_genero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AEAD27-8A4C-404C-A77A-CAED6C33DAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1725B00A-4C77-4C27-A0D3-2EC49DD1D944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8745" yWindow="1170" windowWidth="28800" windowHeight="11385" xr2:uid="{31563B56-3A1D-4132-8093-857FD13750A5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{31563B56-3A1D-4132-8093-857FD13750A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$DJ$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$DJ$174</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="604">
   <si>
     <t>nome_instituto</t>
   </si>
@@ -1500,13 +1492,361 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.paranapesquisas.com.br/wp-content/uploads/2022/09/Midia-BR-1.pdf </t>
+  </si>
+  <si>
+    <t>set/22_poderdata</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BR-03760/2022</t>
+  </si>
+  <si>
+    <t>https://static.poder360.com.br/2020/04/Poderdata-64-6set22.pdf</t>
+  </si>
+  <si>
+    <t>set/22_poderdata_2</t>
+  </si>
+  <si>
+    <t>BR-02955/2022</t>
+  </si>
+  <si>
+    <t>https://static.poder360.com.br/2022/09/Poderdata-65-13set22.pdf</t>
+  </si>
+  <si>
+    <t>set/22_ipec_3</t>
+  </si>
+  <si>
+    <t>BR‐00073/2022</t>
+  </si>
+  <si>
+    <t>set/22_fsb_3</t>
+  </si>
+  <si>
+    <t>BR-07560/2022</t>
+  </si>
+  <si>
+    <t>set/22_poderdata_3</t>
+  </si>
+  <si>
+    <t>BR-04459/2022</t>
+  </si>
+  <si>
+    <t>set/22_datafolha_4</t>
+  </si>
+  <si>
+    <t>BR-04180/2022</t>
+  </si>
+  <si>
+    <t>https://www.ipec-inteligencia.com.br/Repository/Files/2125/Job_22_1426-5_Brasil_Relatorio_de_tabelas_Imprensa.pdf</t>
+  </si>
+  <si>
+    <t>https://www.fsb.com.br/wp-content/uploads/2022/09/PesquisaBTG-FSB-Rodada14-19Set2022.pdf</t>
+  </si>
+  <si>
+    <t>https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/09/20205006/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-setembro-P03.pdf</t>
+  </si>
+  <si>
+    <t>set/22_fsb_4</t>
+  </si>
+  <si>
+    <t>BR-08123/2022</t>
+  </si>
+  <si>
+    <t>set/22_ipec_4</t>
+  </si>
+  <si>
+    <t>BR‐01640/2022</t>
+  </si>
+  <si>
+    <t>set/22_quaest_4</t>
+  </si>
+  <si>
+    <t>BR-04371/2022</t>
+  </si>
+  <si>
+    <t>set/22_pr_pesq_3</t>
+  </si>
+  <si>
+    <t>BR-03928/2022 </t>
+  </si>
+  <si>
+    <t>BR-09479/2022</t>
+  </si>
+  <si>
+    <t>https://www.fsb.com.br/wp-content/uploads/2022/09/pesquisa-rodada15.pdf</t>
+  </si>
+  <si>
+    <t>https://www.ipec-inteligencia.com.br/Repository/Files/2142/Job_22_1426-6_Brasil_Relatorio_de_tabelas_Imprensa.pdf</t>
+  </si>
+  <si>
+    <t>https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/09/27201454/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-setembro-P04.pdf</t>
+  </si>
+  <si>
+    <t>https://www.paranapesquisas.com.br/wp-content/uploads/2022/09/Midia-BR-1-1.pdf</t>
+  </si>
+  <si>
+    <t>set/22_ipespe</t>
+  </si>
+  <si>
+    <t>BR-08425/2022</t>
+  </si>
+  <si>
+    <t>https://ipespe.org.br/wp-content/uploads/2022/09/PESQUISA-IPESPE-AVALIAC%CC%A7A%CC%83O-PRESIDENCIAL-E-ELEIC%CC%A7A%CC%83O-2022_-SETEMBRO-2022_-2-1.pdf</t>
+  </si>
+  <si>
+    <t>set/22_quaest_3</t>
+  </si>
+  <si>
+    <t>set/22_mda</t>
+  </si>
+  <si>
+    <t>BR 06984/2022</t>
+  </si>
+  <si>
+    <t>https://www.cnt.org.br/</t>
+  </si>
+  <si>
+    <t>https://static.poder360.com.br/2020/04/Poderdata-66-20set22.pdf</t>
+  </si>
+  <si>
+    <t>set/22_datafolha_5</t>
+  </si>
+  <si>
+    <t>out/22_ipec</t>
+  </si>
+  <si>
+    <t>BR-00999/2022</t>
+  </si>
+  <si>
+    <t>out/22_datafolha</t>
+  </si>
+  <si>
+    <t>BR-00245/2022</t>
+  </si>
+  <si>
+    <t>out/22_futura</t>
+  </si>
+  <si>
+    <t>BR-08263/2022</t>
+  </si>
+  <si>
+    <t>out/22_ipec_2</t>
+  </si>
+  <si>
+    <t>BR‐02736/2022</t>
+  </si>
+  <si>
+    <t>out/22_poderdata</t>
+  </si>
+  <si>
+    <t>BR-08253/2022</t>
+  </si>
+  <si>
+    <t>out/22_quaest</t>
+  </si>
+  <si>
+    <t>BR-07940/2022</t>
+  </si>
+  <si>
+    <t>out/22_datafolha_2</t>
+  </si>
+  <si>
+    <t>BR-02012/2022</t>
+  </si>
+  <si>
+    <t>out/22_ipec_3</t>
+  </si>
+  <si>
+    <t>BR‐02853/2022</t>
+  </si>
+  <si>
+    <t>out/22_poderdata_2</t>
+  </si>
+  <si>
+    <t>BR-09241/2022</t>
+  </si>
+  <si>
+    <t>out/22_ipespe</t>
+  </si>
+  <si>
+    <t>BR-07942/2022</t>
+  </si>
+  <si>
+    <t>out/22_pr_pesq</t>
+  </si>
+  <si>
+    <t>BR-08438/2022</t>
+  </si>
+  <si>
+    <t>out/22_futura_2</t>
+  </si>
+  <si>
+    <t>BR-06280/2022</t>
+  </si>
+  <si>
+    <t>out/22_quaest_2</t>
+  </si>
+  <si>
+    <t>BR-07106/2022</t>
+  </si>
+  <si>
+    <t>out/22_datafolha_3</t>
+  </si>
+  <si>
+    <t>BR-01682/2022</t>
+  </si>
+  <si>
+    <t>out/22_mda</t>
+  </si>
+  <si>
+    <t>BR 05514/2022</t>
+  </si>
+  <si>
+    <t>out/22_ipec_4</t>
+  </si>
+  <si>
+    <t>BR‐02707/2022</t>
+  </si>
+  <si>
+    <t>out/22_quaest_3</t>
+  </si>
+  <si>
+    <t>BR-04387/2022</t>
+  </si>
+  <si>
+    <t>out/22_poderdata_3</t>
+  </si>
+  <si>
+    <t>BR-08917/2022</t>
+  </si>
+  <si>
+    <t>out/22_datafolha_4</t>
+  </si>
+  <si>
+    <t>BR-07340/2022</t>
+  </si>
+  <si>
+    <t>out/22_pr_pesq_2</t>
+  </si>
+  <si>
+    <t>BR-00525/2022</t>
+  </si>
+  <si>
+    <t>out/22_ipec_5</t>
+  </si>
+  <si>
+    <t>BR‐06043/2022</t>
+  </si>
+  <si>
+    <t>out/22_poderdata_4</t>
+  </si>
+  <si>
+    <t>BR-01159/2022</t>
+  </si>
+  <si>
+    <t>out/22_quaest_4</t>
+  </si>
+  <si>
+    <t>BR-00470/2022</t>
+  </si>
+  <si>
+    <t>out/22_futura_3</t>
+  </si>
+  <si>
+    <t>BR-07903/2022</t>
+  </si>
+  <si>
+    <t>out/22_datafolha_5</t>
+  </si>
+  <si>
+    <t>BR-04208/2022</t>
+  </si>
+  <si>
+    <t>out/22_mda_2</t>
+  </si>
+  <si>
+    <t>BR-01820/2022</t>
+  </si>
+  <si>
+    <t>out/22_quaest_5</t>
+  </si>
+  <si>
+    <t>BR-05765/2022</t>
+  </si>
+  <si>
+    <t>out/22_ipec_6</t>
+  </si>
+  <si>
+    <t>BR-05256/2022</t>
+  </si>
+  <si>
+    <t>out/22_datafolha_6</t>
+  </si>
+  <si>
+    <t>BR-08297/2022</t>
+  </si>
+  <si>
+    <t>https://futurainteligencia-my.sharepoint.com/personal/silval_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fsilval%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FR%5FElei%C3%A7%C3%B5es2022%5FModalMais%5F202210%5F19%C2%AAEdi%C3%A7%C3%A3o%5FDivulga%C3%A7%C3%A3o%2Epdf&amp;parent=%2Fpersonal%2Fsilval%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1</t>
+  </si>
+  <si>
+    <t>https://www.ipec-inteligencia.com.br/Repository/Files/2175/Job_22_1426-8_Brasil_Relatorio_de_tabelas_Imprensa.pdf</t>
+  </si>
+  <si>
+    <t>https://static.poder360.com.br/2022/10/Poderdata-68-5out22.pdf</t>
+  </si>
+  <si>
+    <t>https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/10/06153954/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-outubro-20221006.pdf</t>
+  </si>
+  <si>
+    <t>https://www.ipec-inteligencia.com.br/Repository/Files/2179/Job_22_1426-9_Brasil_Relatorio_de_tabelas_Imprensa.pdf</t>
+  </si>
+  <si>
+    <t>https://static.poder360.com.br/2020/04/Poderdata-69-11out.pdf</t>
+  </si>
+  <si>
+    <t>https://ipespe.org.br/wp-content/uploads/2022/10/PESQUISA-IPESPE-AVALIAC%CC%A7A%CC%83O-PRESIDENCIAL-E-ELEIC%CC%A7A%CC%83O-2022_-13-OUTUBRO-2022.pdf</t>
+  </si>
+  <si>
+    <t>https://www.paranapesquisas.com.br/wp-content/uploads/2022/10/Midia-BR.pdf</t>
+  </si>
+  <si>
+    <t>https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/10/13120355/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-outubro-20221013.pdf</t>
+  </si>
+  <si>
+    <t>https://www.ipec-inteligencia.com.br/Repository/Files/2183/Job_22_1426-10_Brasil_Relatorio_de_tabelas_Imprensa.pdf</t>
+  </si>
+  <si>
+    <t>https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/10/18185132/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-outubro-20221019.pdf</t>
+  </si>
+  <si>
+    <t>https://static.poder360.com.br/2020/04/Poderdata-70-18out.pdf</t>
+  </si>
+  <si>
+    <t>https://www.paranapesquisas.com.br/wp-content/uploads/2022/10/Midia-BR-2.pdf</t>
+  </si>
+  <si>
+    <t>https://www.ipec-inteligencia.com.br/Repository/Files/2194/Job_22_1426-11_Brasil_Relatorio_de_tabelas_Imprensa.pdf</t>
+  </si>
+  <si>
+    <t>https://static.poder360.com.br/2022/10/Poderdata-71-25out.pdf</t>
+  </si>
+  <si>
+    <t>https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/10/25202522/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-outubro-20221026.pdf</t>
+  </si>
+  <si>
+    <t>https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/10/29174328/GENIALQUAESTNACIONAL29OUT.pdf</t>
+  </si>
+  <si>
+    <t>https://classic.exame.com/wp-content/uploads/2022/10/pesquisa-modalmais-26-10.pdf</t>
+  </si>
+  <si>
+    <t>https://classic.exame.com/wp-content/uploads/2022/10/pesquisamodalmaisfutura-1410.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1538,6 +1878,14 @@
     <font>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1636,7 +1984,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1739,6 +2087,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -2059,10 +2413,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6156B78F-4178-4430-929C-85D622A7BD0A}">
-  <dimension ref="A1:DJ131"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:DJ175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="C130" sqref="C130"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="16" topLeftCell="AZ21" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomRight" activeCell="BA147" sqref="BA147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2445,7 +2803,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>106</v>
       </c>
@@ -2588,7 +2946,7 @@
       <c r="DI2"/>
       <c r="DJ2"/>
     </row>
-    <row r="3" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>89</v>
       </c>
@@ -2650,10 +3008,10 @@
         <v>20</v>
       </c>
       <c r="Y3" s="6">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="Z3" s="6">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="AA3" s="6">
         <v>34</v>
@@ -2664,6 +3022,7 @@
       <c r="AC3" s="6">
         <v>8</v>
       </c>
+      <c r="AH3" s="37"/>
       <c r="AJ3" s="6">
         <v>26</v>
       </c>
@@ -2755,7 +3114,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="4" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>92</v>
       </c>
@@ -2915,7 +3274,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>92</v>
       </c>
@@ -3105,7 +3464,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="6" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>95</v>
       </c>
@@ -3253,7 +3612,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>92</v>
       </c>
@@ -3678,7 +4037,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>101</v>
       </c>
@@ -3791,6 +4150,18 @@
       <c r="AZ9" s="6">
         <v>14</v>
       </c>
+      <c r="BA9" s="6">
+        <v>54</v>
+      </c>
+      <c r="BB9" s="6">
+        <v>56</v>
+      </c>
+      <c r="BC9" s="6">
+        <v>32</v>
+      </c>
+      <c r="BD9" s="6">
+        <v>24</v>
+      </c>
       <c r="BE9" s="6">
         <v>11</v>
       </c>
@@ -3826,7 +4197,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>92</v>
       </c>
@@ -3986,7 +4357,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="11" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>95</v>
       </c>
@@ -4134,7 +4505,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>89</v>
       </c>
@@ -4323,7 +4694,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="13" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>106</v>
       </c>
@@ -4411,7 +4782,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="14" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>108</v>
       </c>
@@ -4517,7 +4888,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="15" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>92</v>
       </c>
@@ -4677,7 +5048,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="16" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>95</v>
       </c>
@@ -4825,7 +5196,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="17" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>92</v>
       </c>
@@ -4985,7 +5356,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="18" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>113</v>
       </c>
@@ -5070,7 +5441,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="19" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>108</v>
       </c>
@@ -5176,7 +5547,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="20" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>92</v>
       </c>
@@ -5607,7 +5978,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="22" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>89</v>
       </c>
@@ -5757,7 +6128,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="23" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>92</v>
       </c>
@@ -5917,7 +6288,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="24" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>108</v>
       </c>
@@ -6023,7 +6394,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="25" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>113</v>
       </c>
@@ -6168,7 +6539,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="26" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>92</v>
       </c>
@@ -6328,7 +6699,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="27" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>101</v>
       </c>
@@ -6470,7 +6841,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="28" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>108</v>
       </c>
@@ -6573,7 +6944,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="29" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
         <v>113</v>
       </c>
@@ -6658,7 +7029,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="30" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
         <v>92</v>
       </c>
@@ -6818,7 +7189,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="31" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>106</v>
       </c>
@@ -6906,7 +7277,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="32" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
         <v>108</v>
       </c>
@@ -7009,7 +7380,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="33" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>89</v>
       </c>
@@ -7213,7 +7584,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="34" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>113</v>
       </c>
@@ -7358,7 +7729,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="35" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>92</v>
       </c>
@@ -7518,7 +7889,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="36" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
         <v>108</v>
       </c>
@@ -7621,7 +7992,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="37" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>134</v>
       </c>
@@ -7722,7 +8093,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="38" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
         <v>92</v>
       </c>
@@ -7882,7 +8253,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="39" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
         <v>113</v>
       </c>
@@ -8037,7 +8408,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="40" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
         <v>134</v>
       </c>
@@ -8138,7 +8509,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="41" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
         <v>92</v>
       </c>
@@ -8271,7 +8642,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="42" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
         <v>95</v>
       </c>
@@ -8383,7 +8754,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="43" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
         <v>108</v>
       </c>
@@ -8486,7 +8857,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="44" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
         <v>134</v>
       </c>
@@ -8587,7 +8958,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="45" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
         <v>92</v>
       </c>
@@ -8747,7 +9118,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="46" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
         <v>113</v>
       </c>
@@ -8901,7 +9272,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="47" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
         <v>106</v>
       </c>
@@ -8986,7 +9357,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="48" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
         <v>153</v>
       </c>
@@ -9064,7 +9435,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="49" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
         <v>134</v>
       </c>
@@ -9165,7 +9536,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="50" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
         <v>92</v>
       </c>
@@ -9298,7 +9669,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="51" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
         <v>95</v>
       </c>
@@ -9428,7 +9799,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="52" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="19" t="s">
         <v>134</v>
       </c>
@@ -9529,7 +9900,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="53" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
         <v>108</v>
       </c>
@@ -9656,7 +10027,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="54" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
         <v>92</v>
       </c>
@@ -9816,7 +10187,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="55" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
         <v>166</v>
       </c>
@@ -10175,7 +10546,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="57" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
         <v>153</v>
       </c>
@@ -10253,7 +10624,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="58" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
         <v>134</v>
       </c>
@@ -10354,7 +10725,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="59" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
         <v>113</v>
       </c>
@@ -10508,7 +10879,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="60" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="19" t="s">
         <v>92</v>
       </c>
@@ -10641,7 +11012,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="61" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="s">
         <v>108</v>
       </c>
@@ -10768,7 +11139,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="62" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="19" t="s">
         <v>134</v>
       </c>
@@ -10869,7 +11240,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="63" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="19" t="s">
         <v>92</v>
       </c>
@@ -11029,7 +11400,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="64" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="19" t="s">
         <v>95</v>
       </c>
@@ -11159,7 +11530,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="65" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="19" t="s">
         <v>134</v>
       </c>
@@ -11260,7 +11631,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="66" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="19" t="s">
         <v>153</v>
       </c>
@@ -11332,7 +11703,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="67" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="19" t="s">
         <v>92</v>
       </c>
@@ -11465,7 +11836,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="68" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="19" t="s">
         <v>166</v>
       </c>
@@ -11583,7 +11954,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="69" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="19" t="s">
         <v>113</v>
       </c>
@@ -11642,6 +12013,12 @@
         <f t="shared" si="3"/>
         <v>9.6999999999999993</v>
       </c>
+      <c r="BS69" s="6">
+        <v>50.2</v>
+      </c>
+      <c r="BT69" s="6">
+        <v>39.700000000000003</v>
+      </c>
       <c r="BU69" s="6">
         <v>8.1</v>
       </c>
@@ -11665,7 +12042,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="70" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="19" t="s">
         <v>134</v>
       </c>
@@ -11766,7 +12143,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="71" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="19" t="s">
         <v>95</v>
       </c>
@@ -11896,7 +12273,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="72" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="19" t="s">
         <v>106</v>
       </c>
@@ -12002,7 +12379,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="73" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="19" t="s">
         <v>108</v>
       </c>
@@ -12129,7 +12506,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="74" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="19" t="s">
         <v>92</v>
       </c>
@@ -12289,7 +12666,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="75" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="19" t="s">
         <v>134</v>
       </c>
@@ -12390,7 +12767,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="76" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="19" t="s">
         <v>134</v>
       </c>
@@ -12491,7 +12868,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="77" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="19" t="s">
         <v>153</v>
       </c>
@@ -12563,7 +12940,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="78" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="19" t="s">
         <v>113</v>
       </c>
@@ -12720,7 +13097,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="79" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="19" t="s">
         <v>92</v>
       </c>
@@ -12853,7 +13230,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="80" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="19" t="s">
         <v>134</v>
       </c>
@@ -13210,7 +13587,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="82" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="19" t="s">
         <v>166</v>
       </c>
@@ -13328,7 +13705,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="83" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="19" t="s">
         <v>134</v>
       </c>
@@ -13429,7 +13806,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="84" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="19" t="s">
         <v>95</v>
       </c>
@@ -13565,7 +13942,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="85" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="19" t="s">
         <v>108</v>
       </c>
@@ -13728,7 +14105,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="86" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="19" t="s">
         <v>92</v>
       </c>
@@ -13888,7 +14265,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="87" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="19" t="s">
         <v>166</v>
       </c>
@@ -14006,7 +14383,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="88" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="19" t="s">
         <v>92</v>
       </c>
@@ -14142,7 +14519,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="89" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="19" t="s">
         <v>153</v>
       </c>
@@ -14192,11 +14569,11 @@
         <v>3</v>
       </c>
       <c r="AG89" s="6">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="AH89" s="6">
         <f t="shared" si="8"/>
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="BS89" s="6">
         <v>48</v>
@@ -14333,7 +14710,7 @@
       </c>
       <c r="AY90"/>
       <c r="AZ90"/>
-      <c r="BA90">
+      <c r="BA90" s="6">
         <v>51</v>
       </c>
       <c r="BB90" s="6">
@@ -14406,7 +14783,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="91" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="19" t="s">
         <v>166</v>
       </c>
@@ -14524,7 +14901,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="92" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="19" t="s">
         <v>108</v>
       </c>
@@ -14630,7 +15007,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="93" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="19" t="s">
         <v>95</v>
       </c>
@@ -14773,7 +15150,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="94" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="19" t="s">
         <v>92</v>
       </c>
@@ -14933,7 +15310,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="95" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="19" t="s">
         <v>166</v>
       </c>
@@ -15051,7 +15428,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="96" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="19" t="s">
         <v>92</v>
       </c>
@@ -15181,7 +15558,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="97" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="19" t="s">
         <v>153</v>
       </c>
@@ -15209,13 +15586,13 @@
       <c r="AC97" s="6">
         <v>8</v>
       </c>
-      <c r="AF97">
+      <c r="AF97" s="6">
         <v>4</v>
       </c>
-      <c r="AG97">
+      <c r="AG97" s="6">
         <v>3</v>
       </c>
-      <c r="AH97">
+      <c r="AH97" s="6">
         <f>AF97+AG97</f>
         <v>7</v>
       </c>
@@ -15248,7 +15625,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="98" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="19" t="s">
         <v>134</v>
       </c>
@@ -15334,6 +15711,12 @@
       <c r="BT98" s="6">
         <v>36</v>
       </c>
+      <c r="BU98" s="6">
+        <v>5</v>
+      </c>
+      <c r="BV98" s="6">
+        <v>5</v>
+      </c>
       <c r="BW98" s="6">
         <v>11</v>
       </c>
@@ -15353,7 +15736,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="99" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="19" t="s">
         <v>166</v>
       </c>
@@ -15469,7 +15852,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="100" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="19" t="s">
         <v>113</v>
       </c>
@@ -15795,7 +16178,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="102" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="19" t="s">
         <v>108</v>
       </c>
@@ -15922,7 +16305,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="103" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="19" t="s">
         <v>95</v>
       </c>
@@ -16034,7 +16417,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="104" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="19" t="s">
         <v>92</v>
       </c>
@@ -16197,7 +16580,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="105" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="19" t="s">
         <v>166</v>
       </c>
@@ -16315,7 +16698,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="106" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="19" t="s">
         <v>108</v>
       </c>
@@ -16433,7 +16816,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="107" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="19" t="s">
         <v>166</v>
       </c>
@@ -16551,7 +16934,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="108" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="19" t="s">
         <v>89</v>
       </c>
@@ -16714,7 +17097,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="109" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="19" t="s">
         <v>92</v>
       </c>
@@ -16921,13 +17304,13 @@
       <c r="AE110" s="6">
         <v>7</v>
       </c>
-      <c r="AF110">
+      <c r="AF110" s="25">
         <v>6</v>
       </c>
-      <c r="AG110">
+      <c r="AG110" s="25">
         <v>2</v>
       </c>
-      <c r="AH110">
+      <c r="AH110" s="25">
         <v>8</v>
       </c>
       <c r="BA110" s="6">
@@ -16994,7 +17377,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="111" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="19" t="s">
         <v>166</v>
       </c>
@@ -17110,7 +17493,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="112" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="19" t="s">
         <v>95</v>
       </c>
@@ -17211,7 +17594,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="113" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="19" t="s">
         <v>153</v>
       </c>
@@ -17297,7 +17680,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="114" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="19" t="s">
         <v>108</v>
       </c>
@@ -17413,7 +17796,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="115" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="19" t="s">
         <v>106</v>
       </c>
@@ -17529,7 +17912,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="116" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="19" t="s">
         <v>166</v>
       </c>
@@ -17645,7 +18028,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="117" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="19" t="s">
         <v>89</v>
       </c>
@@ -17809,7 +18192,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="118" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="19" t="s">
         <v>134</v>
       </c>
@@ -17919,7 +18302,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="119" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="19" t="s">
         <v>92</v>
       </c>
@@ -18006,7 +18389,7 @@
       </c>
       <c r="AY119"/>
       <c r="AZ119"/>
-      <c r="BA119">
+      <c r="BA119" s="6">
         <v>44</v>
       </c>
       <c r="BB119" s="6">
@@ -18085,7 +18468,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="120" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="19" t="s">
         <v>95</v>
       </c>
@@ -18350,7 +18733,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="122" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="19" t="s">
         <v>89</v>
       </c>
@@ -18496,7 +18879,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="123" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="19" t="s">
         <v>166</v>
       </c>
@@ -18606,7 +18989,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="124" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="19" t="s">
         <v>108</v>
       </c>
@@ -18722,7 +19105,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="125" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="19" t="s">
         <v>95</v>
       </c>
@@ -18856,15 +19239,15 @@
         <v>486</v>
       </c>
     </row>
-    <row r="126" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="19" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>469</v>
+        <v>488</v>
       </c>
       <c r="C126" s="16">
-        <v>44813</v>
+        <v>44810</v>
       </c>
       <c r="D126" s="17">
         <v>44805</v>
@@ -18873,138 +19256,22 @@
         <v>2022</v>
       </c>
       <c r="F126" s="25" t="s">
-        <v>470</v>
-      </c>
-      <c r="G126" s="6">
-        <v>2676</v>
-      </c>
-      <c r="H126" s="6">
-        <v>2</v>
-      </c>
-      <c r="I126" s="6">
-        <v>95</v>
-      </c>
-      <c r="J126" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K126" s="6">
-        <v>191</v>
-      </c>
-      <c r="U126" s="6">
-        <v>43</v>
-      </c>
-      <c r="V126" s="6">
-        <v>46</v>
-      </c>
-      <c r="W126" s="6">
-        <v>39</v>
-      </c>
-      <c r="X126" s="6">
-        <v>29</v>
-      </c>
-      <c r="Y126" s="6">
-        <v>7</v>
-      </c>
-      <c r="Z126" s="6">
-        <v>7</v>
-      </c>
-      <c r="AA126" s="6">
-        <v>45</v>
-      </c>
-      <c r="AB126" s="6">
-        <v>34</v>
-      </c>
-      <c r="AC126" s="6">
-        <v>7</v>
-      </c>
-      <c r="AD126" s="6">
-        <v>3</v>
-      </c>
-      <c r="AE126" s="6">
-        <v>4</v>
-      </c>
-      <c r="AF126" s="6">
-        <v>4</v>
-      </c>
-      <c r="AG126" s="6">
-        <v>3</v>
-      </c>
-      <c r="AH126" s="6">
-        <v>7</v>
-      </c>
-      <c r="BA126" s="6">
-        <v>50</v>
-      </c>
-      <c r="BB126" s="6">
-        <v>55</v>
-      </c>
-      <c r="BC126" s="6">
-        <v>42</v>
-      </c>
-      <c r="BD126" s="6">
-        <v>35</v>
-      </c>
-      <c r="BE126" s="6">
-        <v>7</v>
-      </c>
-      <c r="BF126" s="6">
-        <v>2</v>
-      </c>
-      <c r="BS126" s="6">
-        <v>53</v>
-      </c>
-      <c r="BT126" s="6">
-        <v>39</v>
-      </c>
-      <c r="BU126" s="6">
-        <v>7</v>
-      </c>
-      <c r="BV126" s="6">
-        <v>2</v>
-      </c>
-      <c r="BW126" s="6">
-        <v>9</v>
-      </c>
-      <c r="BX126" s="6">
-        <v>42</v>
-      </c>
-      <c r="BY126" s="6">
-        <v>36</v>
-      </c>
-      <c r="BZ126" s="6">
-        <v>47</v>
-      </c>
-      <c r="CA126" s="6">
-        <v>55</v>
-      </c>
-      <c r="CB126" s="6">
-        <v>29</v>
-      </c>
-      <c r="CC126" s="6">
-        <v>20</v>
-      </c>
-      <c r="CV126" s="6">
-        <v>39</v>
-      </c>
-      <c r="CW126" s="6">
-        <v>51</v>
-      </c>
-      <c r="CX126" s="6">
-        <v>24</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="BU126" s="25"/>
       <c r="DH126" s="19" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="127" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A127" s="19" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C127" s="16">
-        <v>44815</v>
+        <v>44813</v>
       </c>
       <c r="D127" s="17">
         <v>44805</v>
@@ -19013,10 +19280,10 @@
         <v>2022</v>
       </c>
       <c r="F127" s="25" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G127" s="6">
-        <v>2512</v>
+        <v>2676</v>
       </c>
       <c r="H127" s="6">
         <v>2</v>
@@ -19028,25 +19295,19 @@
         <v>100</v>
       </c>
       <c r="K127" s="6">
-        <v>158</v>
-      </c>
-      <c r="M127" s="6">
-        <v>47</v>
-      </c>
-      <c r="N127" s="6">
-        <v>53</v>
+        <v>191</v>
       </c>
       <c r="U127" s="6">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V127" s="6">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W127" s="6">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="X127" s="6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y127" s="6">
         <v>7</v>
@@ -19055,99 +19316,99 @@
         <v>7</v>
       </c>
       <c r="AA127" s="6">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB127" s="6">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AC127" s="6">
         <v>7</v>
       </c>
       <c r="AD127" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE127" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AF127" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AG127" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH127" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BA127" s="6">
         <v>50</v>
       </c>
       <c r="BB127" s="6">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BC127" s="6">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="BD127" s="6">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BE127" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BF127" s="6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BS127" s="6">
         <v>53</v>
       </c>
       <c r="BT127" s="6">
+        <v>39</v>
+      </c>
+      <c r="BU127" s="6">
+        <v>7</v>
+      </c>
+      <c r="BV127" s="6">
+        <v>2</v>
+      </c>
+      <c r="BW127" s="6">
+        <v>9</v>
+      </c>
+      <c r="BX127" s="6">
+        <v>42</v>
+      </c>
+      <c r="BY127" s="6">
         <v>36</v>
       </c>
-      <c r="BU127" s="6">
-        <v>8</v>
-      </c>
-      <c r="BV127" s="6">
-        <v>3</v>
-      </c>
-      <c r="BW127" s="6">
-        <v>11</v>
-      </c>
-      <c r="BX127" s="6">
+      <c r="BZ127" s="6">
+        <v>47</v>
+      </c>
+      <c r="CA127" s="6">
+        <v>55</v>
+      </c>
+      <c r="CB127" s="6">
+        <v>29</v>
+      </c>
+      <c r="CC127" s="6">
+        <v>20</v>
+      </c>
+      <c r="CV127" s="6">
         <v>39</v>
       </c>
-      <c r="BY127" s="6">
-        <v>31</v>
-      </c>
-      <c r="BZ127" s="6">
-        <v>46</v>
-      </c>
-      <c r="CA127" s="6">
-        <v>53</v>
-      </c>
-      <c r="CB127" s="6">
-        <v>17</v>
-      </c>
-      <c r="CC127" s="6">
-        <v>16</v>
-      </c>
-      <c r="CV127" s="6">
-        <v>35</v>
-      </c>
       <c r="CW127" s="6">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="CX127" s="6">
-        <v>17</v>
-      </c>
-      <c r="DH127" s="34" t="s">
-        <v>484</v>
+        <v>24</v>
+      </c>
+      <c r="DH127" s="19" t="s">
+        <v>481</v>
       </c>
     </row>
-    <row r="128" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="19" t="s">
-        <v>166</v>
+        <v>89</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C128" s="16">
         <v>44815</v>
@@ -19159,10 +19420,10 @@
         <v>2022</v>
       </c>
       <c r="F128" s="25" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G128" s="6">
-        <v>2000</v>
+        <v>2512</v>
       </c>
       <c r="H128" s="6">
         <v>2</v>
@@ -19171,102 +19432,132 @@
         <v>95</v>
       </c>
       <c r="J128" s="6" t="s">
-        <v>169</v>
+        <v>100</v>
+      </c>
+      <c r="K128" s="6">
+        <v>158</v>
       </c>
       <c r="M128" s="6">
+        <v>47</v>
+      </c>
+      <c r="N128" s="6">
+        <v>53</v>
+      </c>
+      <c r="U128" s="6">
+        <v>44</v>
+      </c>
+      <c r="V128" s="6">
         <v>48</v>
       </c>
-      <c r="N128" s="6">
-        <v>52</v>
-      </c>
-      <c r="U128" s="6">
+      <c r="W128" s="6">
         <v>36</v>
       </c>
-      <c r="V128" s="6">
-        <v>45</v>
-      </c>
-      <c r="W128" s="6">
-        <v>42</v>
-      </c>
       <c r="X128" s="6">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y128" s="6">
+        <v>7</v>
+      </c>
+      <c r="Z128" s="6">
+        <v>7</v>
+      </c>
+      <c r="AA128" s="6">
+        <v>46</v>
+      </c>
+      <c r="AB128" s="6">
+        <v>31</v>
+      </c>
+      <c r="AC128" s="6">
+        <v>7</v>
+      </c>
+      <c r="AD128" s="6">
+        <v>6</v>
+      </c>
+      <c r="AE128" s="6">
+        <v>6</v>
+      </c>
+      <c r="AF128" s="6">
+        <v>6</v>
+      </c>
+      <c r="AG128" s="6">
+        <v>4</v>
+      </c>
+      <c r="AH128" s="6">
+        <v>10</v>
+      </c>
+      <c r="BA128" s="6">
+        <v>50</v>
+      </c>
+      <c r="BB128" s="6">
+        <v>56</v>
+      </c>
+      <c r="BC128" s="6">
+        <v>40</v>
+      </c>
+      <c r="BD128" s="6">
+        <v>32</v>
+      </c>
+      <c r="BE128" s="6">
+        <v>9</v>
+      </c>
+      <c r="BF128" s="6">
+        <v>7</v>
+      </c>
+      <c r="BS128" s="6">
+        <v>53</v>
+      </c>
+      <c r="BT128" s="6">
+        <v>36</v>
+      </c>
+      <c r="BU128" s="6">
         <v>8</v>
       </c>
-      <c r="Z128" s="6">
-        <v>9</v>
-      </c>
-      <c r="AA128" s="6">
-        <v>41</v>
-      </c>
-      <c r="AB128" s="6">
-        <v>35</v>
-      </c>
-      <c r="AC128" s="6">
-        <v>9</v>
-      </c>
-      <c r="AD128" s="6">
+      <c r="BV128" s="6">
         <v>3</v>
-      </c>
-      <c r="AE128" s="6">
-        <v>7</v>
-      </c>
-      <c r="AF128" s="6">
-        <v>5</v>
-      </c>
-      <c r="AG128" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH128" s="6">
-        <v>9</v>
-      </c>
-      <c r="BS128" s="6">
-        <v>51</v>
-      </c>
-      <c r="BT128" s="6">
-        <v>38</v>
-      </c>
-      <c r="BU128" s="6">
-        <v>10</v>
-      </c>
-      <c r="BV128" s="6">
-        <v>1</v>
       </c>
       <c r="BW128" s="6">
         <v>11</v>
       </c>
+      <c r="BX128" s="6">
+        <v>39</v>
+      </c>
+      <c r="BY128" s="6">
+        <v>31</v>
+      </c>
+      <c r="BZ128" s="6">
+        <v>46</v>
+      </c>
+      <c r="CA128" s="6">
+        <v>53</v>
+      </c>
+      <c r="CB128" s="6">
+        <v>17</v>
+      </c>
+      <c r="CC128" s="6">
+        <v>16</v>
+      </c>
       <c r="CV128" s="6">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="CW128" s="6">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="CX128" s="6">
-        <v>47</v>
-      </c>
-      <c r="CY128" s="6">
-        <v>39</v>
-      </c>
-      <c r="CZ128" s="6">
-        <v>48</v>
-      </c>
-      <c r="DG128" s="6">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="DH128" s="34" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
-    <row r="129" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="19" t="s">
-        <v>95</v>
+        <v>166</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C129" s="16">
-        <v>44816</v>
+        <v>44815</v>
       </c>
       <c r="D129" s="17">
         <v>44805</v>
@@ -19275,132 +19566,114 @@
         <v>2022</v>
       </c>
       <c r="F129" s="25" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G129" s="6">
-        <v>2020</v>
+        <v>2000</v>
       </c>
       <c r="H129" s="6">
-        <v>2.2000000000000002</v>
+        <v>2</v>
       </c>
       <c r="I129" s="6">
         <v>95</v>
       </c>
       <c r="J129" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K129" s="6">
-        <v>162</v>
-      </c>
-      <c r="L129" s="6">
+        <v>169</v>
+      </c>
+      <c r="M129" s="6">
+        <v>48</v>
+      </c>
+      <c r="N129" s="6">
+        <v>52</v>
+      </c>
+      <c r="U129" s="6">
+        <v>36</v>
+      </c>
+      <c r="V129" s="6">
+        <v>45</v>
+      </c>
+      <c r="W129" s="6">
+        <v>42</v>
+      </c>
+      <c r="X129" s="6">
         <v>27</v>
       </c>
-      <c r="M129" s="6">
-        <v>46.9</v>
-      </c>
-      <c r="N129" s="6">
-        <v>52.6</v>
-      </c>
-      <c r="U129" s="6">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="V129" s="6">
-        <v>41.2</v>
-      </c>
-      <c r="W129" s="6">
-        <v>41.9</v>
-      </c>
-      <c r="X129" s="6">
-        <v>31.8</v>
-      </c>
       <c r="Y129" s="6">
-        <v>8.1999999999999993</v>
+        <v>8</v>
       </c>
       <c r="Z129" s="6">
-        <v>6.7</v>
+        <v>9</v>
       </c>
       <c r="AA129" s="6">
-        <v>39.6</v>
+        <v>41</v>
       </c>
       <c r="AB129" s="6">
-        <v>36.5</v>
+        <v>35</v>
       </c>
       <c r="AC129" s="6">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="AD129" s="6">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="AE129" s="6">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AF129" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG129" s="6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AH129" s="6">
+        <v>9</v>
+      </c>
+      <c r="BS129" s="6">
+        <v>51</v>
+      </c>
+      <c r="BT129" s="6">
+        <v>38</v>
+      </c>
+      <c r="BU129" s="6">
         <v>10</v>
       </c>
-      <c r="BA129" s="6">
-        <v>46.3</v>
-      </c>
-      <c r="BB129" s="6">
-        <v>48.3</v>
-      </c>
-      <c r="BC129" s="6">
-        <v>46.7</v>
-      </c>
-      <c r="BD129" s="6">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="BE129" s="6">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="BF129" s="6">
-        <v>10.5</v>
-      </c>
-      <c r="BS129" s="6">
-        <v>47.3</v>
-      </c>
-      <c r="BT129" s="6">
-        <v>41.2</v>
-      </c>
-      <c r="BU129" s="25">
-        <v>7.9</v>
-      </c>
       <c r="BV129" s="6">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="BW129" s="6">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="CV129" s="6">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="CW129" s="6">
-        <v>49.7</v>
+        <v>56</v>
       </c>
       <c r="CX129" s="6">
-        <v>41.2</v>
+        <v>47</v>
+      </c>
+      <c r="CY129" s="6">
+        <v>39</v>
+      </c>
+      <c r="CZ129" s="6">
+        <v>48</v>
       </c>
       <c r="DG129" s="6">
-        <v>43.2</v>
+        <v>44</v>
       </c>
       <c r="DH129" s="34" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
-    <row r="130" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="19" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C130" s="16">
-        <v>44818</v>
+        <v>44816</v>
       </c>
       <c r="D130" s="17">
         <v>44805</v>
@@ -19409,13 +19682,13 @@
         <v>2022</v>
       </c>
       <c r="F130" s="25" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G130" s="6">
-        <v>2000</v>
+        <v>2020</v>
       </c>
       <c r="H130" s="6">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I130" s="6">
         <v>95</v>
@@ -19424,99 +19697,117 @@
         <v>100</v>
       </c>
       <c r="K130" s="6">
-        <v>120</v>
+        <v>162</v>
+      </c>
+      <c r="L130" s="6">
+        <v>27</v>
       </c>
       <c r="M130" s="6">
-        <v>47</v>
+        <v>46.9</v>
       </c>
       <c r="N130" s="6">
-        <v>53</v>
-      </c>
-      <c r="O130" s="6">
+        <v>52.6</v>
+      </c>
+      <c r="U130" s="6">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="V130" s="6">
+        <v>41.2</v>
+      </c>
+      <c r="W130" s="6">
+        <v>41.9</v>
+      </c>
+      <c r="X130" s="6">
+        <v>31.8</v>
+      </c>
+      <c r="Y130" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="Z130" s="6">
+        <v>6.7</v>
+      </c>
+      <c r="AA130" s="6">
+        <v>39.6</v>
+      </c>
+      <c r="AB130" s="6">
+        <v>36.5</v>
+      </c>
+      <c r="AC130" s="6">
+        <v>7.4</v>
+      </c>
+      <c r="AD130" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="AE130" s="6">
+        <v>7.6</v>
+      </c>
+      <c r="AF130" s="6">
+        <v>4</v>
+      </c>
+      <c r="AG130" s="6">
+        <v>6</v>
+      </c>
+      <c r="AH130" s="6">
+        <v>10</v>
+      </c>
+      <c r="BA130" s="6">
+        <v>46.3</v>
+      </c>
+      <c r="BB130" s="6">
+        <v>48.3</v>
+      </c>
+      <c r="BC130" s="6">
+        <v>46.7</v>
+      </c>
+      <c r="BD130" s="6">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="BE130" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="BF130" s="6">
+        <v>10.5</v>
+      </c>
+      <c r="BS130" s="6">
+        <v>47.3</v>
+      </c>
+      <c r="BT130" s="6">
+        <v>41.2</v>
+      </c>
+      <c r="BU130" s="25">
+        <v>7.9</v>
+      </c>
+      <c r="BV130" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="BW130" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="CV130" s="6">
         <v>45</v>
       </c>
-      <c r="P130" s="6">
-        <v>43</v>
-      </c>
-      <c r="Q130" s="6">
-        <v>11</v>
-      </c>
-      <c r="T130" s="6">
-        <v>1</v>
-      </c>
-      <c r="U130" s="6">
-        <v>39</v>
-      </c>
-      <c r="V130" s="6">
-        <v>45</v>
-      </c>
-      <c r="W130" s="6">
-        <v>39</v>
-      </c>
-      <c r="X130" s="6">
-        <v>29</v>
-      </c>
-      <c r="AA130" s="6">
-        <v>42</v>
-      </c>
-      <c r="AB130" s="6">
-        <v>34</v>
-      </c>
-      <c r="AC130" s="6">
-        <v>7</v>
-      </c>
-      <c r="AD130" s="6">
-        <v>8</v>
-      </c>
-      <c r="AE130" s="6">
-        <v>12</v>
-      </c>
-      <c r="AF130" s="6">
-        <v>6</v>
-      </c>
-      <c r="AG130" s="6">
-        <v>5</v>
-      </c>
-      <c r="AH130" s="6">
-        <v>11</v>
-      </c>
-      <c r="BS130" s="6">
-        <v>48</v>
-      </c>
-      <c r="BT130" s="6">
-        <v>40</v>
-      </c>
-      <c r="BU130" s="6">
-        <v>8</v>
-      </c>
-      <c r="BV130" s="6">
-        <v>4</v>
-      </c>
-      <c r="BW130" s="6">
-        <v>12</v>
-      </c>
-      <c r="CV130" s="6">
-        <v>47</v>
-      </c>
       <c r="CW130" s="6">
-        <v>52</v>
+        <v>49.7</v>
       </c>
       <c r="CX130" s="6">
-        <v>50</v>
+        <v>41.2</v>
+      </c>
+      <c r="DG130" s="6">
+        <v>43.2</v>
       </c>
       <c r="DH130" s="34" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
     </row>
-    <row r="131" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="19" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="C131" s="16">
-        <v>44819</v>
+        <v>44817</v>
       </c>
       <c r="D131" s="17">
         <v>44805</v>
@@ -19525,130 +19816,3845 @@
         <v>2022</v>
       </c>
       <c r="F131" s="25" t="s">
+        <v>492</v>
+      </c>
+      <c r="BU131" s="25"/>
+      <c r="DH131" s="19" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="132" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B132" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="C132" s="16">
+        <v>44818</v>
+      </c>
+      <c r="D132" s="17">
+        <v>44805</v>
+      </c>
+      <c r="E132" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F132" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="G132" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H132" s="6">
+        <v>2</v>
+      </c>
+      <c r="I132" s="6">
+        <v>95</v>
+      </c>
+      <c r="J132" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K132" s="6">
+        <v>120</v>
+      </c>
+      <c r="M132" s="6">
+        <v>47</v>
+      </c>
+      <c r="N132" s="6">
+        <v>53</v>
+      </c>
+      <c r="O132" s="6">
+        <v>45</v>
+      </c>
+      <c r="P132" s="6">
+        <v>43</v>
+      </c>
+      <c r="Q132" s="6">
+        <v>11</v>
+      </c>
+      <c r="T132" s="6">
+        <v>1</v>
+      </c>
+      <c r="U132" s="6">
+        <v>39</v>
+      </c>
+      <c r="V132" s="6">
+        <v>45</v>
+      </c>
+      <c r="W132" s="6">
+        <v>39</v>
+      </c>
+      <c r="X132" s="6">
+        <v>29</v>
+      </c>
+      <c r="AA132" s="6">
+        <v>42</v>
+      </c>
+      <c r="AB132" s="6">
+        <v>34</v>
+      </c>
+      <c r="AC132" s="6">
+        <v>7</v>
+      </c>
+      <c r="AD132" s="6">
+        <v>8</v>
+      </c>
+      <c r="AE132" s="6">
+        <v>12</v>
+      </c>
+      <c r="AF132" s="6">
+        <v>6</v>
+      </c>
+      <c r="AG132" s="6">
+        <v>5</v>
+      </c>
+      <c r="AH132" s="6">
+        <v>11</v>
+      </c>
+      <c r="BS132" s="6">
+        <v>48</v>
+      </c>
+      <c r="BT132" s="6">
+        <v>40</v>
+      </c>
+      <c r="BU132" s="6">
+        <v>8</v>
+      </c>
+      <c r="BV132" s="6">
+        <v>4</v>
+      </c>
+      <c r="BW132" s="6">
+        <v>12</v>
+      </c>
+      <c r="CV132" s="6">
+        <v>47</v>
+      </c>
+      <c r="CW132" s="6">
+        <v>52</v>
+      </c>
+      <c r="CX132" s="6">
+        <v>50</v>
+      </c>
+      <c r="DH132" s="34" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="133" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B133" s="19" t="s">
+        <v>522</v>
+      </c>
+      <c r="C133" s="16">
+        <v>44818</v>
+      </c>
+      <c r="D133" s="17">
+        <v>44805</v>
+      </c>
+      <c r="E133" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F133" s="25" t="s">
+        <v>523</v>
+      </c>
+      <c r="G133" s="6">
+        <v>2022</v>
+      </c>
+      <c r="H133" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I133" s="6">
+        <v>95</v>
+      </c>
+      <c r="J133" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="M133" s="6">
+        <v>52.6</v>
+      </c>
+      <c r="N133" s="6">
+        <v>47.7</v>
+      </c>
+      <c r="U133" s="6">
+        <v>41</v>
+      </c>
+      <c r="V133" s="6">
+        <v>46</v>
+      </c>
+      <c r="W133" s="6">
+        <v>41</v>
+      </c>
+      <c r="X133" s="6">
+        <v>29</v>
+      </c>
+      <c r="Y133" s="6">
+        <v>6</v>
+      </c>
+      <c r="Z133" s="6">
+        <v>5</v>
+      </c>
+      <c r="AA133" s="6">
+        <v>43.4</v>
+      </c>
+      <c r="AB133" s="6">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="AC133" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="AD133" s="6">
+        <v>7</v>
+      </c>
+      <c r="AE133" s="6">
+        <v>3</v>
+      </c>
+      <c r="AF133" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AG133" s="6">
+        <v>6</v>
+      </c>
+      <c r="AH133" s="6">
+        <v>10.1</v>
+      </c>
+      <c r="BS133" s="6">
+        <v>49.4</v>
+      </c>
+      <c r="BT133" s="6">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="BU133" s="25">
+        <v>8.5</v>
+      </c>
+      <c r="BV133" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="BW133" s="6">
+        <f>BV133+BU133</f>
+        <v>11.3</v>
+      </c>
+      <c r="CV133" s="6">
+        <v>46.3</v>
+      </c>
+      <c r="CW133" s="6">
+        <v>55.4</v>
+      </c>
+      <c r="CX133" s="6">
+        <v>50.1</v>
+      </c>
+      <c r="CY133" s="6">
+        <v>38.9</v>
+      </c>
+      <c r="CZ133" s="6">
+        <v>46.3</v>
+      </c>
+      <c r="DG133" s="6">
+        <v>42.8</v>
+      </c>
+      <c r="DH133" s="19" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="134" spans="1:112" x14ac:dyDescent="0.25">
+      <c r="A134" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B134" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="C134" s="16">
+        <v>44819</v>
+      </c>
+      <c r="D134" s="17">
+        <v>44805</v>
+      </c>
+      <c r="E134" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F134" s="25" t="s">
         <v>480</v>
       </c>
-      <c r="G131" s="6">
+      <c r="G134" s="6">
         <v>5926</v>
       </c>
-      <c r="H131" s="6">
+      <c r="H134" s="6">
         <v>2</v>
       </c>
-      <c r="I131" s="6">
+      <c r="I134" s="6">
         <v>95</v>
       </c>
-      <c r="J131" s="6" t="s">
+      <c r="J134" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="K131" s="6">
+      <c r="K134" s="6">
         <v>300</v>
       </c>
-      <c r="U131" s="6">
+      <c r="U134" s="6">
         <v>44</v>
       </c>
-      <c r="V131" s="6">
+      <c r="V134" s="6">
         <v>46</v>
       </c>
-      <c r="W131" s="6">
+      <c r="W134" s="6">
         <v>37</v>
       </c>
-      <c r="X131" s="6">
+      <c r="X134" s="6">
         <v>29</v>
       </c>
-      <c r="Y131" s="6">
+      <c r="Y134" s="6">
         <v>8</v>
       </c>
-      <c r="Z131" s="6">
+      <c r="Z134" s="6">
         <v>8</v>
       </c>
-      <c r="AA131" s="6">
+      <c r="AA134" s="6">
         <v>45</v>
       </c>
-      <c r="AB131" s="6">
+      <c r="AB134" s="6">
         <v>35</v>
       </c>
-      <c r="AC131" s="6">
+      <c r="AC134" s="6">
         <v>8</v>
       </c>
-      <c r="AD131" s="6">
+      <c r="AD134" s="6">
         <v>3</v>
       </c>
-      <c r="AE131" s="6">
+      <c r="AE134" s="6">
         <v>3</v>
       </c>
-      <c r="AF131" s="6">
+      <c r="AF134" s="6">
         <v>4</v>
       </c>
-      <c r="AG131" s="6">
+      <c r="AG134" s="6">
         <v>2</v>
       </c>
-      <c r="AH131" s="6">
+      <c r="AH134" s="6">
         <v>6</v>
       </c>
-      <c r="BA131" s="6">
+      <c r="BA134" s="6">
         <v>51</v>
       </c>
-      <c r="BB131" s="6">
+      <c r="BB134" s="6">
         <v>56</v>
       </c>
-      <c r="BC131" s="6">
+      <c r="BC134" s="6">
         <v>41</v>
       </c>
-      <c r="BD131" s="6">
+      <c r="BD134" s="6">
         <v>34</v>
       </c>
-      <c r="BE131" s="6">
+      <c r="BE134" s="6">
         <v>7</v>
       </c>
-      <c r="BF131" s="6">
+      <c r="BF134" s="6">
         <v>1</v>
       </c>
-      <c r="BS131" s="6">
+      <c r="BS134" s="6">
         <v>54</v>
       </c>
-      <c r="BT131" s="6">
+      <c r="BT134" s="6">
         <v>38</v>
       </c>
-      <c r="BU131" s="6">
+      <c r="BU134" s="6">
         <v>7</v>
       </c>
-      <c r="BV131" s="6">
+      <c r="BV134" s="6">
         <v>2</v>
       </c>
-      <c r="BW131" s="6">
+      <c r="BW134" s="6">
         <v>9</v>
       </c>
-      <c r="BX131" s="6">
+      <c r="BX134" s="6">
         <v>42</v>
       </c>
-      <c r="BY131" s="6">
+      <c r="BY134" s="6">
         <v>35</v>
       </c>
-      <c r="BZ131" s="6">
+      <c r="BZ134" s="6">
         <v>50</v>
       </c>
-      <c r="CA131" s="6">
+      <c r="CA134" s="6">
         <v>56</v>
       </c>
-      <c r="CB131" s="6">
+      <c r="CB134" s="6">
         <v>27</v>
       </c>
-      <c r="CC131" s="6">
+      <c r="CC134" s="6">
         <v>21</v>
       </c>
-      <c r="CV131" s="6">
+      <c r="CV134" s="6">
         <v>38</v>
       </c>
-      <c r="CW131" s="6">
+      <c r="CW134" s="6">
         <v>53</v>
       </c>
-      <c r="CX131" s="6">
+      <c r="CX134" s="6">
         <v>24</v>
       </c>
-      <c r="DH131" s="19" t="s">
+      <c r="DH134" s="19" t="s">
         <v>481</v>
       </c>
+    </row>
+    <row r="135" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B135" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="C135" s="16">
+        <v>44822</v>
+      </c>
+      <c r="D135" s="17">
+        <v>44805</v>
+      </c>
+      <c r="E135" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F135" s="25" t="s">
+        <v>495</v>
+      </c>
+      <c r="G135" s="6">
+        <v>3008</v>
+      </c>
+      <c r="H135" s="6">
+        <v>2</v>
+      </c>
+      <c r="I135" s="6">
+        <v>95</v>
+      </c>
+      <c r="J135" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K135" s="6">
+        <v>181</v>
+      </c>
+      <c r="U135" s="6">
+        <v>45</v>
+      </c>
+      <c r="V135" s="6">
+        <v>50</v>
+      </c>
+      <c r="W135" s="6">
+        <v>35</v>
+      </c>
+      <c r="X135" s="6">
+        <v>27</v>
+      </c>
+      <c r="Y135" s="6">
+        <v>7</v>
+      </c>
+      <c r="Z135" s="6">
+        <v>6</v>
+      </c>
+      <c r="AA135" s="6">
+        <v>47</v>
+      </c>
+      <c r="AB135" s="6">
+        <v>31</v>
+      </c>
+      <c r="AC135" s="6">
+        <v>7</v>
+      </c>
+      <c r="AD135" s="6">
+        <v>4</v>
+      </c>
+      <c r="AE135" s="6">
+        <v>6</v>
+      </c>
+      <c r="AF135" s="6">
+        <v>5</v>
+      </c>
+      <c r="AG135" s="6">
+        <v>4</v>
+      </c>
+      <c r="AH135" s="6">
+        <v>9</v>
+      </c>
+      <c r="BA135" s="6">
+        <v>50</v>
+      </c>
+      <c r="BB135" s="6">
+        <v>58</v>
+      </c>
+      <c r="BC135" s="6">
+        <v>39</v>
+      </c>
+      <c r="BD135" s="6">
+        <v>31</v>
+      </c>
+      <c r="BE135" s="6">
+        <v>8</v>
+      </c>
+      <c r="BF135" s="6">
+        <v>8</v>
+      </c>
+      <c r="BS135" s="6">
+        <v>54</v>
+      </c>
+      <c r="BT135" s="6">
+        <v>35</v>
+      </c>
+      <c r="BU135" s="25">
+        <v>8</v>
+      </c>
+      <c r="BV135" s="6">
+        <v>3</v>
+      </c>
+      <c r="BW135" s="6">
+        <v>11</v>
+      </c>
+      <c r="BX135" s="6">
+        <v>45</v>
+      </c>
+      <c r="BY135" s="6">
+        <v>30</v>
+      </c>
+      <c r="BZ135" s="6">
+        <v>36</v>
+      </c>
+      <c r="CA135" s="6">
+        <v>54</v>
+      </c>
+      <c r="CB135" s="6">
+        <v>18</v>
+      </c>
+      <c r="CC135" s="6">
+        <v>12</v>
+      </c>
+      <c r="CE135" s="37"/>
+      <c r="CV135" s="6">
+        <v>33</v>
+      </c>
+      <c r="CW135" s="6">
+        <v>50</v>
+      </c>
+      <c r="CX135" s="6">
+        <v>15</v>
+      </c>
+      <c r="DH135" s="34" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="136" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B136" s="19" t="s">
+        <v>496</v>
+      </c>
+      <c r="C136" s="16">
+        <v>44822</v>
+      </c>
+      <c r="D136" s="17">
+        <v>44805</v>
+      </c>
+      <c r="E136" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F136" s="25" t="s">
+        <v>497</v>
+      </c>
+      <c r="G136" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H136" s="6">
+        <v>2</v>
+      </c>
+      <c r="I136" s="6">
+        <v>95</v>
+      </c>
+      <c r="J136" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="M136" s="6">
+        <v>48</v>
+      </c>
+      <c r="N136" s="6">
+        <v>52</v>
+      </c>
+      <c r="U136" s="6">
+        <v>39</v>
+      </c>
+      <c r="V136" s="6">
+        <v>49</v>
+      </c>
+      <c r="W136" s="6">
+        <v>44</v>
+      </c>
+      <c r="X136" s="6">
+        <v>26</v>
+      </c>
+      <c r="Y136" s="6">
+        <v>10</v>
+      </c>
+      <c r="Z136" s="6">
+        <v>5</v>
+      </c>
+      <c r="AA136" s="6">
+        <v>44</v>
+      </c>
+      <c r="AB136" s="6">
+        <v>35</v>
+      </c>
+      <c r="AC136" s="6">
+        <v>7</v>
+      </c>
+      <c r="AD136" s="6">
+        <v>2</v>
+      </c>
+      <c r="AE136" s="6">
+        <v>6</v>
+      </c>
+      <c r="AF136" s="6">
+        <v>4</v>
+      </c>
+      <c r="AG136" s="6">
+        <v>3</v>
+      </c>
+      <c r="AH136" s="6">
+        <v>7</v>
+      </c>
+      <c r="BS136" s="6">
+        <v>52</v>
+      </c>
+      <c r="BT136" s="6">
+        <v>39</v>
+      </c>
+      <c r="BU136" s="6">
+        <v>7</v>
+      </c>
+      <c r="BV136" s="6">
+        <v>2</v>
+      </c>
+      <c r="BW136" s="6">
+        <v>9</v>
+      </c>
+      <c r="CV136" s="6">
+        <v>45</v>
+      </c>
+      <c r="CW136" s="6">
+        <v>55</v>
+      </c>
+      <c r="CX136" s="6">
+        <v>48</v>
+      </c>
+      <c r="CY136" s="6">
+        <v>38</v>
+      </c>
+      <c r="CZ136" s="6">
+        <v>47</v>
+      </c>
+      <c r="DG136" s="6">
+        <v>43</v>
+      </c>
+      <c r="DH136" s="19" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="137" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B137" s="19" t="s">
+        <v>521</v>
+      </c>
+      <c r="C137" s="16">
+        <v>44824</v>
+      </c>
+      <c r="D137" s="17">
+        <v>44805</v>
+      </c>
+      <c r="E137" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F137" s="25" t="s">
+        <v>499</v>
+      </c>
+      <c r="G137" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H137" s="6">
+        <v>2</v>
+      </c>
+      <c r="I137" s="6">
+        <v>95</v>
+      </c>
+      <c r="J137" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K137" s="6">
+        <v>120</v>
+      </c>
+      <c r="M137" s="6">
+        <v>47</v>
+      </c>
+      <c r="N137" s="6">
+        <v>53</v>
+      </c>
+      <c r="U137" s="6">
+        <v>42</v>
+      </c>
+      <c r="V137" s="6">
+        <v>45</v>
+      </c>
+      <c r="W137" s="6">
+        <v>39</v>
+      </c>
+      <c r="X137" s="6">
+        <v>31</v>
+      </c>
+      <c r="Y137" s="6">
+        <v>7</v>
+      </c>
+      <c r="Z137" s="6">
+        <v>12</v>
+      </c>
+      <c r="AA137" s="6">
+        <v>44</v>
+      </c>
+      <c r="AB137" s="6">
+        <v>34</v>
+      </c>
+      <c r="AC137" s="6">
+        <v>6</v>
+      </c>
+      <c r="AD137" s="6">
+        <v>7</v>
+      </c>
+      <c r="AE137" s="6">
+        <v>12</v>
+      </c>
+      <c r="AF137">
+        <v>5</v>
+      </c>
+      <c r="AG137">
+        <v>5</v>
+      </c>
+      <c r="AH137">
+        <v>10</v>
+      </c>
+      <c r="BS137" s="6">
+        <v>50</v>
+      </c>
+      <c r="BT137" s="6">
+        <v>40</v>
+      </c>
+      <c r="BU137" s="25">
+        <v>7</v>
+      </c>
+      <c r="BV137" s="6">
+        <v>3</v>
+      </c>
+      <c r="BW137" s="6">
+        <v>10</v>
+      </c>
+      <c r="CV137" s="6">
+        <v>46</v>
+      </c>
+      <c r="CW137" s="6">
+        <v>54</v>
+      </c>
+      <c r="CX137" s="6">
+        <v>54</v>
+      </c>
+      <c r="DH137" s="34" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="138" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B138" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="C138" s="16">
+        <v>44824</v>
+      </c>
+      <c r="D138" s="17">
+        <v>44805</v>
+      </c>
+      <c r="E138" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F138" s="25" t="s">
+        <v>499</v>
+      </c>
+      <c r="G138" s="6">
+        <v>3500</v>
+      </c>
+      <c r="H138" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="I138" s="6">
+        <v>95</v>
+      </c>
+      <c r="J138" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="K138" s="6">
+        <v>301</v>
+      </c>
+      <c r="L138" s="6">
+        <v>27</v>
+      </c>
+      <c r="M138" s="6">
+        <v>47</v>
+      </c>
+      <c r="N138" s="6">
+        <v>53</v>
+      </c>
+      <c r="U138" s="6">
+        <v>40</v>
+      </c>
+      <c r="V138" s="6">
+        <v>47</v>
+      </c>
+      <c r="W138" s="6">
+        <v>45</v>
+      </c>
+      <c r="X138" s="6">
+        <v>30</v>
+      </c>
+      <c r="Y138" s="6">
+        <v>6</v>
+      </c>
+      <c r="Z138" s="6">
+        <v>8</v>
+      </c>
+      <c r="AA138" s="6">
+        <v>44</v>
+      </c>
+      <c r="AB138" s="6">
+        <v>37</v>
+      </c>
+      <c r="AC138" s="6">
+        <v>7</v>
+      </c>
+      <c r="AD138" s="6">
+        <v>3</v>
+      </c>
+      <c r="AE138" s="6">
+        <v>3</v>
+      </c>
+      <c r="AF138" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG138" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH138" s="6">
+        <v>5</v>
+      </c>
+      <c r="BA138" s="6">
+        <v>45</v>
+      </c>
+      <c r="BB138" s="6">
+        <v>55</v>
+      </c>
+      <c r="BC138" s="6">
+        <v>49</v>
+      </c>
+      <c r="BD138" s="6">
+        <v>35</v>
+      </c>
+      <c r="BE138" s="6">
+        <v>5</v>
+      </c>
+      <c r="BF138" s="6">
+        <v>8</v>
+      </c>
+      <c r="BS138" s="6">
+        <v>50</v>
+      </c>
+      <c r="BT138" s="6">
+        <v>42</v>
+      </c>
+      <c r="BU138" s="6">
+        <v>7</v>
+      </c>
+      <c r="BV138" s="6">
+        <v>1</v>
+      </c>
+      <c r="BW138" s="6">
+        <v>8</v>
+      </c>
+      <c r="CV138" s="6">
+        <v>38</v>
+      </c>
+      <c r="CW138" s="6">
+        <v>51</v>
+      </c>
+      <c r="DH138" s="34" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="139" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B139" s="19" t="s">
+        <v>518</v>
+      </c>
+      <c r="C139" s="16">
+        <v>44825</v>
+      </c>
+      <c r="D139" s="17">
+        <v>44805</v>
+      </c>
+      <c r="E139" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F139" s="25" t="s">
+        <v>519</v>
+      </c>
+      <c r="G139" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H139" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I139" s="6">
+        <v>95</v>
+      </c>
+      <c r="J139" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="M139" s="6">
+        <v>47</v>
+      </c>
+      <c r="N139" s="6">
+        <v>53</v>
+      </c>
+      <c r="U139" s="6">
+        <v>41</v>
+      </c>
+      <c r="V139" s="6">
+        <v>50</v>
+      </c>
+      <c r="W139" s="6">
+        <v>41</v>
+      </c>
+      <c r="X139" s="6">
+        <v>30</v>
+      </c>
+      <c r="Y139" s="6">
+        <v>9</v>
+      </c>
+      <c r="Z139" s="6">
+        <v>5</v>
+      </c>
+      <c r="AA139" s="6">
+        <v>46</v>
+      </c>
+      <c r="AB139" s="6">
+        <v>35</v>
+      </c>
+      <c r="AC139" s="6">
+        <v>7</v>
+      </c>
+      <c r="AD139" s="6">
+        <v>4</v>
+      </c>
+      <c r="AE139" s="6">
+        <v>5</v>
+      </c>
+      <c r="AF139" s="6">
+        <v>5</v>
+      </c>
+      <c r="AG139" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH139" s="6">
+        <v>7</v>
+      </c>
+      <c r="BS139" s="6">
+        <v>54</v>
+      </c>
+      <c r="BT139" s="6">
+        <v>37</v>
+      </c>
+      <c r="BU139" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="BV139" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="BW139" s="6">
+        <v>9</v>
+      </c>
+      <c r="CV139" s="6">
+        <v>42</v>
+      </c>
+      <c r="CW139" s="6">
+        <v>55</v>
+      </c>
+      <c r="CX139" s="6">
+        <v>37</v>
+      </c>
+      <c r="DG139" s="6">
+        <v>45</v>
+      </c>
+      <c r="DH139" s="34" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="140" spans="1:112" x14ac:dyDescent="0.25">
+      <c r="A140" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B140" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="C140" s="16">
+        <v>44826</v>
+      </c>
+      <c r="D140" s="17">
+        <v>44805</v>
+      </c>
+      <c r="E140" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F140" s="25" t="s">
+        <v>501</v>
+      </c>
+      <c r="G140" s="36">
+        <v>6754</v>
+      </c>
+      <c r="H140" s="6">
+        <v>2</v>
+      </c>
+      <c r="I140" s="6">
+        <v>95</v>
+      </c>
+      <c r="J140" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K140" s="6">
+        <v>343</v>
+      </c>
+      <c r="U140" s="6">
+        <v>44</v>
+      </c>
+      <c r="V140" s="6">
+        <v>49</v>
+      </c>
+      <c r="W140" s="6">
+        <v>38</v>
+      </c>
+      <c r="X140" s="6">
+        <v>29</v>
+      </c>
+      <c r="Y140" s="6">
+        <v>7</v>
+      </c>
+      <c r="Z140" s="6">
+        <v>6</v>
+      </c>
+      <c r="AA140" s="6">
+        <v>47</v>
+      </c>
+      <c r="AB140" s="6">
+        <v>33</v>
+      </c>
+      <c r="AC140" s="6">
+        <v>7</v>
+      </c>
+      <c r="AD140" s="6">
+        <v>3</v>
+      </c>
+      <c r="AE140" s="6">
+        <v>3</v>
+      </c>
+      <c r="AF140" s="6">
+        <v>2</v>
+      </c>
+      <c r="AG140" s="6">
+        <v>3</v>
+      </c>
+      <c r="AH140" s="6">
+        <v>5</v>
+      </c>
+      <c r="BA140" s="6">
+        <v>51</v>
+      </c>
+      <c r="BB140" s="6">
+        <v>56</v>
+      </c>
+      <c r="BC140" s="6">
+        <v>42</v>
+      </c>
+      <c r="BD140" s="6">
+        <v>34</v>
+      </c>
+      <c r="BE140" s="6">
+        <v>6</v>
+      </c>
+      <c r="BF140" s="6">
+        <v>7</v>
+      </c>
+      <c r="BS140" s="6">
+        <v>54</v>
+      </c>
+      <c r="BT140" s="6">
+        <v>38</v>
+      </c>
+      <c r="BU140" s="6">
+        <v>7</v>
+      </c>
+      <c r="BV140" s="6">
+        <v>2</v>
+      </c>
+      <c r="BW140" s="6">
+        <v>9</v>
+      </c>
+      <c r="BX140" s="6">
+        <v>43</v>
+      </c>
+      <c r="BY140" s="6">
+        <v>36</v>
+      </c>
+      <c r="BZ140" s="6">
+        <v>49</v>
+      </c>
+      <c r="CA140" s="6">
+        <v>56</v>
+      </c>
+      <c r="CB140" s="6">
+        <v>27</v>
+      </c>
+      <c r="CC140" s="6">
+        <v>22</v>
+      </c>
+      <c r="CV140" s="6">
+        <v>39</v>
+      </c>
+      <c r="CW140" s="6">
+        <v>52</v>
+      </c>
+      <c r="CX140" s="6">
+        <v>24</v>
+      </c>
+      <c r="DH140" s="34" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="141" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B141" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="C141" s="16">
+        <v>44829</v>
+      </c>
+      <c r="D141" s="17">
+        <v>44805</v>
+      </c>
+      <c r="E141" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F141" s="25" t="s">
+        <v>506</v>
+      </c>
+      <c r="G141" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H141" s="6">
+        <v>2</v>
+      </c>
+      <c r="I141" s="6">
+        <v>95</v>
+      </c>
+      <c r="J141" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="M141" s="6">
+        <v>48</v>
+      </c>
+      <c r="N141" s="6">
+        <v>52</v>
+      </c>
+      <c r="U141" s="6">
+        <v>39</v>
+      </c>
+      <c r="V141" s="6">
+        <v>52</v>
+      </c>
+      <c r="W141" s="6">
+        <v>41</v>
+      </c>
+      <c r="X141" s="6">
+        <v>29</v>
+      </c>
+      <c r="Y141" s="6">
+        <v>9</v>
+      </c>
+      <c r="Z141" s="6">
+        <v>6</v>
+      </c>
+      <c r="AA141" s="6">
+        <v>45</v>
+      </c>
+      <c r="AB141" s="6">
+        <v>35</v>
+      </c>
+      <c r="AC141" s="6">
+        <v>7</v>
+      </c>
+      <c r="AD141" s="6">
+        <v>4</v>
+      </c>
+      <c r="AE141" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF141" s="6">
+        <v>4</v>
+      </c>
+      <c r="AG141" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH141" s="6">
+        <v>6</v>
+      </c>
+      <c r="BA141" s="6">
+        <v>45</v>
+      </c>
+      <c r="BB141" s="6">
+        <v>58</v>
+      </c>
+      <c r="BC141" s="6">
+        <v>46</v>
+      </c>
+      <c r="BD141" s="6">
+        <v>34</v>
+      </c>
+      <c r="BE141" s="6">
+        <v>8</v>
+      </c>
+      <c r="BF141" s="6">
+        <v>7</v>
+      </c>
+      <c r="BS141" s="6">
+        <v>52</v>
+      </c>
+      <c r="BT141" s="6">
+        <v>40</v>
+      </c>
+      <c r="BU141" s="6">
+        <v>7</v>
+      </c>
+      <c r="BV141" s="6">
+        <v>1</v>
+      </c>
+      <c r="BW141" s="6">
+        <v>8</v>
+      </c>
+      <c r="BX141" s="6">
+        <v>53</v>
+      </c>
+      <c r="BY141" s="6">
+        <v>40</v>
+      </c>
+      <c r="BZ141" s="6">
+        <v>50</v>
+      </c>
+      <c r="CA141" s="6">
+        <v>62</v>
+      </c>
+      <c r="CV141" s="6">
+        <v>46</v>
+      </c>
+      <c r="CW141" s="6">
+        <v>56</v>
+      </c>
+      <c r="CX141" s="6">
+        <v>52</v>
+      </c>
+      <c r="DG141" s="6">
+        <v>46</v>
+      </c>
+      <c r="DH141" s="34" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="142" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B142" s="19" t="s">
+        <v>507</v>
+      </c>
+      <c r="C142" s="16">
+        <v>44830</v>
+      </c>
+      <c r="D142" s="17">
+        <v>44805</v>
+      </c>
+      <c r="E142" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F142" s="25" t="s">
+        <v>508</v>
+      </c>
+      <c r="G142" s="6">
+        <v>3008</v>
+      </c>
+      <c r="H142" s="6">
+        <v>2</v>
+      </c>
+      <c r="I142" s="6">
+        <v>95</v>
+      </c>
+      <c r="J142" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K142" s="6">
+        <v>183</v>
+      </c>
+      <c r="M142" s="6">
+        <v>47</v>
+      </c>
+      <c r="N142" s="6">
+        <v>53</v>
+      </c>
+      <c r="O142" s="6">
+        <v>43</v>
+      </c>
+      <c r="T142" s="6">
+        <v>2</v>
+      </c>
+      <c r="U142" s="6">
+        <v>45</v>
+      </c>
+      <c r="V142" s="6">
+        <v>51</v>
+      </c>
+      <c r="W142" s="6">
+        <v>37</v>
+      </c>
+      <c r="X142" s="6">
+        <v>26</v>
+      </c>
+      <c r="Y142" s="6">
+        <v>6</v>
+      </c>
+      <c r="Z142" s="6">
+        <v>6</v>
+      </c>
+      <c r="AA142" s="6">
+        <v>48</v>
+      </c>
+      <c r="AB142" s="6">
+        <v>31</v>
+      </c>
+      <c r="AC142" s="6">
+        <v>6</v>
+      </c>
+      <c r="AD142" s="6">
+        <v>6</v>
+      </c>
+      <c r="AE142" s="6">
+        <v>3</v>
+      </c>
+      <c r="AF142" s="6">
+        <v>4</v>
+      </c>
+      <c r="AG142" s="6">
+        <v>4</v>
+      </c>
+      <c r="AH142" s="6">
+        <v>8</v>
+      </c>
+      <c r="BA142" s="6">
+        <v>52</v>
+      </c>
+      <c r="BB142" s="6">
+        <v>57</v>
+      </c>
+      <c r="BC142" s="6">
+        <v>40</v>
+      </c>
+      <c r="BD142" s="6">
+        <v>31</v>
+      </c>
+      <c r="BE142" s="6">
+        <v>8</v>
+      </c>
+      <c r="BF142" s="6">
+        <v>6</v>
+      </c>
+      <c r="BS142" s="6">
+        <v>54</v>
+      </c>
+      <c r="BT142" s="6">
+        <v>35</v>
+      </c>
+      <c r="BU142" s="6">
+        <v>8</v>
+      </c>
+      <c r="BV142" s="6">
+        <v>3</v>
+      </c>
+      <c r="BW142" s="6">
+        <v>11</v>
+      </c>
+      <c r="BX142" s="6">
+        <v>38</v>
+      </c>
+      <c r="BY142" s="6">
+        <v>31</v>
+      </c>
+      <c r="BZ142" s="6">
+        <v>47</v>
+      </c>
+      <c r="CA142" s="6">
+        <v>55</v>
+      </c>
+      <c r="CB142" s="6">
+        <v>17</v>
+      </c>
+      <c r="CC142" s="6">
+        <v>12</v>
+      </c>
+      <c r="CV142" s="6">
+        <v>35</v>
+      </c>
+      <c r="CW142" s="6">
+        <v>51</v>
+      </c>
+      <c r="CX142" s="6">
+        <v>14</v>
+      </c>
+      <c r="DH142" s="34" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="143" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B143" s="19" t="s">
+        <v>509</v>
+      </c>
+      <c r="C143" s="16">
+        <v>44831</v>
+      </c>
+      <c r="D143" s="17">
+        <v>44805</v>
+      </c>
+      <c r="E143" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F143" s="25" t="s">
+        <v>510</v>
+      </c>
+      <c r="G143" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H143" s="6">
+        <v>2</v>
+      </c>
+      <c r="I143" s="6">
+        <v>95</v>
+      </c>
+      <c r="J143" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K143" s="6">
+        <v>120</v>
+      </c>
+      <c r="M143" s="6">
+        <v>47</v>
+      </c>
+      <c r="N143" s="6">
+        <v>53</v>
+      </c>
+      <c r="O143" s="6">
+        <v>44</v>
+      </c>
+      <c r="P143" s="6">
+        <v>43</v>
+      </c>
+      <c r="Q143" s="6">
+        <v>11</v>
+      </c>
+      <c r="T143" s="6">
+        <v>1</v>
+      </c>
+      <c r="U143" s="6">
+        <v>45</v>
+      </c>
+      <c r="V143" s="6">
+        <v>47</v>
+      </c>
+      <c r="W143" s="6">
+        <v>35</v>
+      </c>
+      <c r="X143" s="6">
+        <v>31</v>
+      </c>
+      <c r="AA143" s="6">
+        <v>46</v>
+      </c>
+      <c r="AB143" s="6">
+        <v>33</v>
+      </c>
+      <c r="AC143" s="6">
+        <v>6</v>
+      </c>
+      <c r="AD143" s="6">
+        <v>12</v>
+      </c>
+      <c r="AE143" s="6">
+        <v>13</v>
+      </c>
+      <c r="AF143" s="6">
+        <v>5</v>
+      </c>
+      <c r="AG143" s="6">
+        <v>4</v>
+      </c>
+      <c r="AH143" s="6">
+        <v>9</v>
+      </c>
+      <c r="BS143" s="6">
+        <v>52</v>
+      </c>
+      <c r="BT143" s="6">
+        <v>38</v>
+      </c>
+      <c r="BU143" s="6">
+        <v>6</v>
+      </c>
+      <c r="BV143" s="6">
+        <v>4</v>
+      </c>
+      <c r="BW143" s="6">
+        <v>10</v>
+      </c>
+      <c r="CV143" s="6">
+        <v>44</v>
+      </c>
+      <c r="CW143" s="6">
+        <v>55</v>
+      </c>
+      <c r="CX143" s="6">
+        <v>53</v>
+      </c>
+      <c r="DH143" s="19" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="144" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B144" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="C144" s="16">
+        <v>44831</v>
+      </c>
+      <c r="D144" s="17">
+        <v>44805</v>
+      </c>
+      <c r="E144" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F144" s="25" t="s">
+        <v>512</v>
+      </c>
+      <c r="G144" s="6">
+        <v>2020</v>
+      </c>
+      <c r="H144" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I144" s="6">
+        <v>95</v>
+      </c>
+      <c r="J144" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K144" s="6">
+        <v>160</v>
+      </c>
+      <c r="DH144" s="19" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="145" spans="1:112" x14ac:dyDescent="0.25">
+      <c r="A145" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B145" s="19" t="s">
+        <v>526</v>
+      </c>
+      <c r="C145" s="16">
+        <v>44833</v>
+      </c>
+      <c r="D145" s="17">
+        <v>44805</v>
+      </c>
+      <c r="E145" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F145" s="25" t="s">
+        <v>513</v>
+      </c>
+      <c r="G145" s="6">
+        <v>6800</v>
+      </c>
+      <c r="H145" s="6">
+        <v>2</v>
+      </c>
+      <c r="I145" s="6">
+        <v>95</v>
+      </c>
+      <c r="J145" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="U145" s="6">
+        <v>46</v>
+      </c>
+      <c r="V145" s="6">
+        <v>50</v>
+      </c>
+      <c r="W145" s="6">
+        <v>39</v>
+      </c>
+      <c r="X145" s="6">
+        <v>29</v>
+      </c>
+      <c r="Y145" s="6">
+        <v>6</v>
+      </c>
+      <c r="Z145" s="6">
+        <v>6</v>
+      </c>
+      <c r="AA145" s="6">
+        <v>48</v>
+      </c>
+      <c r="AB145" s="6">
+        <v>34</v>
+      </c>
+      <c r="AC145" s="6">
+        <v>6</v>
+      </c>
+      <c r="AD145" s="6">
+        <v>3</v>
+      </c>
+      <c r="AE145" s="6">
+        <v>3</v>
+      </c>
+      <c r="AF145" s="6">
+        <v>2</v>
+      </c>
+      <c r="AG145" s="6">
+        <v>3</v>
+      </c>
+      <c r="AH145" s="6">
+        <v>5</v>
+      </c>
+      <c r="BA145" s="6">
+        <v>51</v>
+      </c>
+      <c r="BB145" s="6">
+        <v>57</v>
+      </c>
+      <c r="BC145" s="6">
+        <v>43</v>
+      </c>
+      <c r="BD145" s="6">
+        <v>34</v>
+      </c>
+      <c r="BE145" s="6">
+        <v>6</v>
+      </c>
+      <c r="BF145" s="6">
+        <v>7</v>
+      </c>
+      <c r="BS145" s="6">
+        <v>54</v>
+      </c>
+      <c r="BT145" s="6">
+        <v>39</v>
+      </c>
+      <c r="BU145" s="6">
+        <v>6</v>
+      </c>
+      <c r="BV145" s="6">
+        <v>1</v>
+      </c>
+      <c r="BW145" s="6">
+        <v>7</v>
+      </c>
+      <c r="BX145" s="6">
+        <v>42</v>
+      </c>
+      <c r="BY145" s="6">
+        <v>35</v>
+      </c>
+      <c r="BZ145" s="6">
+        <v>48</v>
+      </c>
+      <c r="CA145" s="6">
+        <v>56</v>
+      </c>
+      <c r="CB145" s="6">
+        <v>27</v>
+      </c>
+      <c r="CC145" s="6">
+        <v>21</v>
+      </c>
+      <c r="CV145" s="6">
+        <v>39</v>
+      </c>
+      <c r="CW145" s="6">
+        <v>52</v>
+      </c>
+      <c r="CX145" s="6">
+        <v>24</v>
+      </c>
+      <c r="DH145" s="34" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="146" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B146" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="C146" s="16">
+        <v>44835</v>
+      </c>
+      <c r="D146" s="17">
+        <v>44835</v>
+      </c>
+      <c r="E146" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F146" s="25" t="s">
+        <v>528</v>
+      </c>
+      <c r="G146" s="6">
+        <v>3008</v>
+      </c>
+      <c r="H146" s="6">
+        <v>2</v>
+      </c>
+      <c r="I146" s="6">
+        <v>95</v>
+      </c>
+      <c r="J146" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K146" s="6">
+        <v>183</v>
+      </c>
+      <c r="U146" s="6">
+        <v>46</v>
+      </c>
+      <c r="V146" s="6">
+        <v>48</v>
+      </c>
+      <c r="W146" s="6">
+        <v>39</v>
+      </c>
+      <c r="X146" s="6">
+        <v>31</v>
+      </c>
+      <c r="Y146" s="6">
+        <v>5</v>
+      </c>
+      <c r="Z146" s="6">
+        <v>5</v>
+      </c>
+      <c r="AA146" s="6">
+        <v>47</v>
+      </c>
+      <c r="AB146" s="6">
+        <v>34</v>
+      </c>
+      <c r="AC146" s="6">
+        <v>5</v>
+      </c>
+      <c r="AD146" s="6">
+        <v>4</v>
+      </c>
+      <c r="AE146" s="6">
+        <v>4</v>
+      </c>
+      <c r="AF146" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG146" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH146" s="6">
+        <v>4</v>
+      </c>
+      <c r="BA146" s="6">
+        <v>48</v>
+      </c>
+      <c r="BB146" s="6">
+        <v>47</v>
+      </c>
+      <c r="BC146" s="6">
+        <v>37</v>
+      </c>
+      <c r="BD146" s="6">
+        <v>32</v>
+      </c>
+      <c r="BE146" s="6">
+        <v>3</v>
+      </c>
+      <c r="BF146" s="6">
+        <v>3</v>
+      </c>
+      <c r="BS146" s="6">
+        <v>52</v>
+      </c>
+      <c r="BT146" s="6">
+        <v>37</v>
+      </c>
+      <c r="BU146" s="6">
+        <v>8</v>
+      </c>
+      <c r="BV146" s="6">
+        <v>3</v>
+      </c>
+      <c r="BW146" s="6">
+        <v>11</v>
+      </c>
+      <c r="DH146" s="6"/>
+    </row>
+    <row r="147" spans="1:112" x14ac:dyDescent="0.25">
+      <c r="A147" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B147" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="C147" s="16">
+        <v>44835</v>
+      </c>
+      <c r="D147" s="17">
+        <v>44835</v>
+      </c>
+      <c r="E147" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F147" s="25" t="s">
+        <v>530</v>
+      </c>
+      <c r="G147" s="6">
+        <v>12800</v>
+      </c>
+      <c r="H147" s="6">
+        <v>2</v>
+      </c>
+      <c r="I147" s="6">
+        <v>95</v>
+      </c>
+      <c r="J147" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K147" s="6">
+        <v>310</v>
+      </c>
+      <c r="U147" s="6">
+        <v>48</v>
+      </c>
+      <c r="V147" s="6">
+        <v>47</v>
+      </c>
+      <c r="W147" s="6">
+        <v>37</v>
+      </c>
+      <c r="X147" s="6">
+        <v>32</v>
+      </c>
+      <c r="Y147" s="6">
+        <v>5</v>
+      </c>
+      <c r="Z147" s="6">
+        <v>5</v>
+      </c>
+      <c r="AA147" s="6">
+        <v>50</v>
+      </c>
+      <c r="AB147" s="6">
+        <v>36</v>
+      </c>
+      <c r="AC147" s="6">
+        <v>5</v>
+      </c>
+      <c r="AD147" s="6">
+        <v>3</v>
+      </c>
+      <c r="AE147" s="6">
+        <v>3</v>
+      </c>
+      <c r="AF147" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG147" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH147" s="6">
+        <v>5</v>
+      </c>
+      <c r="BA147" s="6">
+        <v>44</v>
+      </c>
+      <c r="BB147" s="6">
+        <v>43</v>
+      </c>
+      <c r="BC147" s="6">
+        <v>35</v>
+      </c>
+      <c r="BD147" s="6">
+        <v>29</v>
+      </c>
+      <c r="BE147" s="6">
+        <v>3</v>
+      </c>
+      <c r="BF147" s="6">
+        <v>3</v>
+      </c>
+      <c r="BS147" s="6">
+        <v>54</v>
+      </c>
+      <c r="BT147" s="6">
+        <v>38</v>
+      </c>
+      <c r="BU147" s="6">
+        <v>6</v>
+      </c>
+      <c r="BV147" s="6">
+        <v>2</v>
+      </c>
+      <c r="BW147" s="6">
+        <v>8</v>
+      </c>
+      <c r="DH147" s="6"/>
+    </row>
+    <row r="148" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B148" s="19" t="s">
+        <v>531</v>
+      </c>
+      <c r="C148" s="16">
+        <v>44838</v>
+      </c>
+      <c r="D148" s="17">
+        <v>44835</v>
+      </c>
+      <c r="E148" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F148" s="25" t="s">
+        <v>532</v>
+      </c>
+      <c r="G148" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H148" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I148" s="6">
+        <v>95</v>
+      </c>
+      <c r="J148" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="BS148" s="6">
+        <v>49.3</v>
+      </c>
+      <c r="BT148" s="6">
+        <v>46</v>
+      </c>
+      <c r="BU148" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="BV148" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="BW148" s="6">
+        <v>4.7</v>
+      </c>
+      <c r="DH148" s="19" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="149" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B149" s="19" t="s">
+        <v>533</v>
+      </c>
+      <c r="C149" s="16">
+        <v>44839</v>
+      </c>
+      <c r="D149" s="17">
+        <v>44835</v>
+      </c>
+      <c r="E149" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F149" s="25" t="s">
+        <v>534</v>
+      </c>
+      <c r="G149" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H149" s="6">
+        <v>2</v>
+      </c>
+      <c r="I149" s="6">
+        <v>95</v>
+      </c>
+      <c r="J149" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K149" s="6">
+        <v>129</v>
+      </c>
+      <c r="BA149" s="6">
+        <v>49</v>
+      </c>
+      <c r="BB149" s="6">
+        <v>53</v>
+      </c>
+      <c r="BC149" s="6">
+        <v>45</v>
+      </c>
+      <c r="BD149" s="6">
+        <v>40</v>
+      </c>
+      <c r="BE149" s="6">
+        <v>4</v>
+      </c>
+      <c r="BF149" s="6">
+        <v>4</v>
+      </c>
+      <c r="BS149" s="6">
+        <v>51</v>
+      </c>
+      <c r="BT149" s="6">
+        <v>43</v>
+      </c>
+      <c r="BU149" s="6">
+        <v>4</v>
+      </c>
+      <c r="BV149" s="6">
+        <v>2</v>
+      </c>
+      <c r="BW149" s="6">
+        <v>6</v>
+      </c>
+      <c r="DH149" s="19" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="150" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B150" s="19" t="s">
+        <v>535</v>
+      </c>
+      <c r="C150" s="16">
+        <v>44839</v>
+      </c>
+      <c r="D150" s="17">
+        <v>44835</v>
+      </c>
+      <c r="E150" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F150" s="25" t="s">
+        <v>536</v>
+      </c>
+      <c r="G150" s="6">
+        <v>3500</v>
+      </c>
+      <c r="H150" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="I150" s="6">
+        <v>95</v>
+      </c>
+      <c r="J150" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="K150" s="6">
+        <v>301</v>
+      </c>
+      <c r="L150" s="6">
+        <v>27</v>
+      </c>
+      <c r="BA150" s="6">
+        <v>47</v>
+      </c>
+      <c r="BB150" s="6">
+        <v>48</v>
+      </c>
+      <c r="BC150" s="6">
+        <v>47</v>
+      </c>
+      <c r="BD150" s="6">
+        <v>41</v>
+      </c>
+      <c r="BE150" s="6">
+        <v>5</v>
+      </c>
+      <c r="BF150" s="6">
+        <v>6</v>
+      </c>
+      <c r="BS150" s="6">
+        <v>48</v>
+      </c>
+      <c r="BT150" s="6">
+        <v>44</v>
+      </c>
+      <c r="BU150" s="6">
+        <v>6</v>
+      </c>
+      <c r="BV150" s="6">
+        <v>2</v>
+      </c>
+      <c r="BW150" s="6">
+        <v>8</v>
+      </c>
+      <c r="DH150" s="19" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="151" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B151" s="19" t="s">
+        <v>537</v>
+      </c>
+      <c r="C151" s="16">
+        <v>44839</v>
+      </c>
+      <c r="D151" s="17">
+        <v>44835</v>
+      </c>
+      <c r="E151" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F151" s="25" t="s">
+        <v>538</v>
+      </c>
+      <c r="G151" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H151" s="6">
+        <v>2</v>
+      </c>
+      <c r="I151" s="6">
+        <v>95</v>
+      </c>
+      <c r="J151" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K151" s="6">
+        <v>120</v>
+      </c>
+      <c r="BA151" s="6">
+        <v>45</v>
+      </c>
+      <c r="BB151" s="6">
+        <v>52</v>
+      </c>
+      <c r="BC151" s="6">
+        <v>45</v>
+      </c>
+      <c r="BD151" s="6">
+        <v>38</v>
+      </c>
+      <c r="BE151" s="6">
+        <v>4</v>
+      </c>
+      <c r="BF151" s="6">
+        <v>4</v>
+      </c>
+      <c r="BS151" s="6">
+        <v>48</v>
+      </c>
+      <c r="BT151" s="6">
+        <v>41</v>
+      </c>
+      <c r="BU151" s="6">
+        <v>6</v>
+      </c>
+      <c r="BV151" s="6">
+        <v>5</v>
+      </c>
+      <c r="BW151" s="6">
+        <v>11</v>
+      </c>
+      <c r="CV151" s="6">
+        <v>41</v>
+      </c>
+      <c r="CW151" s="6">
+        <v>50</v>
+      </c>
+      <c r="DH151" s="19" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="152" spans="1:112" x14ac:dyDescent="0.25">
+      <c r="A152" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B152" s="19" t="s">
+        <v>539</v>
+      </c>
+      <c r="C152" s="16">
+        <v>44841</v>
+      </c>
+      <c r="D152" s="17">
+        <v>44835</v>
+      </c>
+      <c r="E152" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F152" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="G152" s="6">
+        <v>2884</v>
+      </c>
+      <c r="H152" s="6">
+        <v>2</v>
+      </c>
+      <c r="I152" s="6">
+        <v>95</v>
+      </c>
+      <c r="J152" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K152" s="6">
+        <v>170</v>
+      </c>
+      <c r="BA152" s="6">
+        <v>47</v>
+      </c>
+      <c r="BB152" s="6">
+        <v>50</v>
+      </c>
+      <c r="BC152" s="6">
+        <v>47</v>
+      </c>
+      <c r="BD152" s="6">
+        <v>41</v>
+      </c>
+      <c r="BE152" s="6">
+        <v>5</v>
+      </c>
+      <c r="BF152" s="6">
+        <v>7</v>
+      </c>
+      <c r="BS152" s="6">
+        <v>49</v>
+      </c>
+      <c r="BT152" s="6">
+        <v>44</v>
+      </c>
+      <c r="BU152" s="6">
+        <v>6</v>
+      </c>
+      <c r="BV152" s="6">
+        <v>2</v>
+      </c>
+      <c r="BW152" s="6">
+        <f>BU152+BV152</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B153" s="19" t="s">
+        <v>541</v>
+      </c>
+      <c r="C153" s="16">
+        <v>44844</v>
+      </c>
+      <c r="D153" s="17">
+        <v>44835</v>
+      </c>
+      <c r="E153" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F153" s="25" t="s">
+        <v>542</v>
+      </c>
+      <c r="G153" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H153" s="6">
+        <v>2</v>
+      </c>
+      <c r="I153" s="6">
+        <v>95</v>
+      </c>
+      <c r="J153" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K153" s="6">
+        <v>130</v>
+      </c>
+      <c r="BA153" s="6">
+        <v>49</v>
+      </c>
+      <c r="BB153" s="6">
+        <v>53</v>
+      </c>
+      <c r="BC153" s="6">
+        <v>45</v>
+      </c>
+      <c r="BD153" s="6">
+        <v>40</v>
+      </c>
+      <c r="BE153" s="6">
+        <v>5</v>
+      </c>
+      <c r="BF153" s="6">
+        <v>5</v>
+      </c>
+      <c r="BS153" s="6">
+        <v>51</v>
+      </c>
+      <c r="BT153" s="6">
+        <v>42</v>
+      </c>
+      <c r="BU153" s="6">
+        <v>5</v>
+      </c>
+      <c r="BV153" s="6">
+        <v>2</v>
+      </c>
+      <c r="BW153" s="6">
+        <v>7</v>
+      </c>
+      <c r="DH153" s="19" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="154" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B154" s="19" t="s">
+        <v>543</v>
+      </c>
+      <c r="C154" s="16">
+        <v>44845</v>
+      </c>
+      <c r="D154" s="17">
+        <v>44835</v>
+      </c>
+      <c r="E154" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F154" s="25" t="s">
+        <v>544</v>
+      </c>
+      <c r="G154" s="6">
+        <v>5000</v>
+      </c>
+      <c r="H154" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="I154" s="6">
+        <v>95</v>
+      </c>
+      <c r="J154" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="K154" s="6">
+        <v>347</v>
+      </c>
+      <c r="L154" s="6">
+        <v>27</v>
+      </c>
+      <c r="BA154" s="6">
+        <v>44</v>
+      </c>
+      <c r="BB154" s="6">
+        <v>51</v>
+      </c>
+      <c r="BC154" s="6">
+        <v>49</v>
+      </c>
+      <c r="BD154" s="6">
+        <v>40</v>
+      </c>
+      <c r="BE154" s="6">
+        <v>5</v>
+      </c>
+      <c r="BF154" s="6">
+        <v>6</v>
+      </c>
+      <c r="BS154" s="6">
+        <v>48</v>
+      </c>
+      <c r="BT154" s="6">
+        <v>44</v>
+      </c>
+      <c r="BU154" s="6">
+        <v>6</v>
+      </c>
+      <c r="BV154" s="6">
+        <v>2</v>
+      </c>
+      <c r="BW154" s="6">
+        <v>8</v>
+      </c>
+      <c r="DH154" s="19" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="155" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B155" s="19" t="s">
+        <v>545</v>
+      </c>
+      <c r="C155" s="16">
+        <v>44846</v>
+      </c>
+      <c r="D155" s="17">
+        <v>44835</v>
+      </c>
+      <c r="E155" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F155" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="G155" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H155" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I155" s="6">
+        <v>95</v>
+      </c>
+      <c r="J155" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="BA155" s="6">
+        <v>43</v>
+      </c>
+      <c r="BB155" s="6">
+        <v>54</v>
+      </c>
+      <c r="BC155" s="6">
+        <v>51</v>
+      </c>
+      <c r="BD155" s="6">
+        <v>36</v>
+      </c>
+      <c r="BE155" s="6">
+        <v>4</v>
+      </c>
+      <c r="BF155" s="6">
+        <v>4</v>
+      </c>
+      <c r="BS155" s="6">
+        <v>49</v>
+      </c>
+      <c r="BT155" s="6">
+        <v>43</v>
+      </c>
+      <c r="BU155" s="6">
+        <v>4</v>
+      </c>
+      <c r="BV155" s="6">
+        <v>4</v>
+      </c>
+      <c r="BW155" s="6">
+        <v>8</v>
+      </c>
+      <c r="CV155" s="6">
+        <v>45</v>
+      </c>
+      <c r="CW155" s="6">
+        <v>48</v>
+      </c>
+      <c r="DH155" s="34" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="156" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B156" s="19" t="s">
+        <v>547</v>
+      </c>
+      <c r="C156" s="16">
+        <v>44846</v>
+      </c>
+      <c r="D156" s="17">
+        <v>44835</v>
+      </c>
+      <c r="E156" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F156" s="25" t="s">
+        <v>548</v>
+      </c>
+      <c r="G156" s="6">
+        <v>2020</v>
+      </c>
+      <c r="H156" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I156" s="6">
+        <v>95</v>
+      </c>
+      <c r="J156" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K156" s="6">
+        <v>162</v>
+      </c>
+      <c r="L156" s="6">
+        <v>27</v>
+      </c>
+      <c r="BA156" s="6">
+        <v>46.2</v>
+      </c>
+      <c r="BB156" s="6">
+        <v>48.9</v>
+      </c>
+      <c r="BC156" s="6">
+        <v>47.3</v>
+      </c>
+      <c r="BD156" s="6">
+        <v>41.1</v>
+      </c>
+      <c r="BE156" s="6">
+        <v>4</v>
+      </c>
+      <c r="BF156" s="6">
+        <v>5.4</v>
+      </c>
+      <c r="BS156" s="6">
+        <v>47.6</v>
+      </c>
+      <c r="BT156" s="6">
+        <v>44.1</v>
+      </c>
+      <c r="BU156" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="BV156" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="BW156" s="6">
+        <v>8.4</v>
+      </c>
+      <c r="CV156" s="6">
+        <v>49.3</v>
+      </c>
+      <c r="CW156" s="6">
+        <v>45.4</v>
+      </c>
+      <c r="DH156" s="34" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="157" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B157" s="19" t="s">
+        <v>549</v>
+      </c>
+      <c r="C157" s="16">
+        <v>44846</v>
+      </c>
+      <c r="D157" s="17">
+        <v>44835</v>
+      </c>
+      <c r="E157" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F157" s="25" t="s">
+        <v>550</v>
+      </c>
+      <c r="G157" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H157" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I157" s="6">
+        <v>95</v>
+      </c>
+      <c r="J157" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="BS157" s="6">
+        <v>46.9</v>
+      </c>
+      <c r="BT157" s="6">
+        <v>46.5</v>
+      </c>
+      <c r="BU157" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="BV157" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="BW157" s="6">
+        <v>6.6</v>
+      </c>
+      <c r="DH157" s="34" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="158" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B158" s="19" t="s">
+        <v>551</v>
+      </c>
+      <c r="C158" s="16">
+        <v>44847</v>
+      </c>
+      <c r="D158" s="17">
+        <v>44835</v>
+      </c>
+      <c r="E158" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F158" s="25" t="s">
+        <v>552</v>
+      </c>
+      <c r="G158" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H158" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I158" s="6">
+        <v>95</v>
+      </c>
+      <c r="J158" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K158" s="6">
+        <v>162</v>
+      </c>
+      <c r="L158" s="6">
+        <v>27</v>
+      </c>
+      <c r="BA158" s="6">
+        <v>47</v>
+      </c>
+      <c r="BB158" s="6">
+        <v>50</v>
+      </c>
+      <c r="BC158" s="6">
+        <v>42</v>
+      </c>
+      <c r="BD158" s="6">
+        <v>39</v>
+      </c>
+      <c r="BE158" s="6">
+        <v>6</v>
+      </c>
+      <c r="BF158" s="6">
+        <v>6</v>
+      </c>
+      <c r="BS158" s="6">
+        <v>49</v>
+      </c>
+      <c r="BT158" s="6">
+        <v>41</v>
+      </c>
+      <c r="BU158" s="6">
+        <v>6</v>
+      </c>
+      <c r="BV158" s="6">
+        <v>4</v>
+      </c>
+      <c r="BW158" s="6">
+        <v>10</v>
+      </c>
+      <c r="CV158" s="6">
+        <v>42</v>
+      </c>
+      <c r="CW158" s="6">
+        <v>50</v>
+      </c>
+      <c r="DH158" s="19" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="159" spans="1:112" x14ac:dyDescent="0.25">
+      <c r="A159" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B159" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="C159" s="16">
+        <v>44848</v>
+      </c>
+      <c r="D159" s="17">
+        <v>44835</v>
+      </c>
+      <c r="E159" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F159" s="25" t="s">
+        <v>554</v>
+      </c>
+      <c r="G159" s="6">
+        <v>2898</v>
+      </c>
+      <c r="H159" s="6">
+        <v>2</v>
+      </c>
+      <c r="I159" s="6">
+        <v>95</v>
+      </c>
+      <c r="J159" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K159" s="6">
+        <v>180</v>
+      </c>
+      <c r="BA159" s="6">
+        <v>48</v>
+      </c>
+      <c r="BB159" s="6">
+        <v>51</v>
+      </c>
+      <c r="BC159" s="6">
+        <v>46</v>
+      </c>
+      <c r="BD159" s="6">
+        <v>42</v>
+      </c>
+      <c r="BE159" s="6">
+        <v>5</v>
+      </c>
+      <c r="BF159" s="6">
+        <v>5</v>
+      </c>
+      <c r="BS159" s="6">
+        <v>49</v>
+      </c>
+      <c r="BT159" s="6">
+        <v>44</v>
+      </c>
+      <c r="BU159" s="6">
+        <v>5</v>
+      </c>
+      <c r="BV159" s="6">
+        <v>1</v>
+      </c>
+      <c r="BW159" s="6">
+        <f>BU159+BV159</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B160" s="19" t="s">
+        <v>555</v>
+      </c>
+      <c r="C160" s="16">
+        <v>44850</v>
+      </c>
+      <c r="D160" s="17">
+        <v>44835</v>
+      </c>
+      <c r="E160" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F160" s="25" t="s">
+        <v>556</v>
+      </c>
+      <c r="G160" s="6">
+        <v>2022</v>
+      </c>
+      <c r="H160" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I160" s="6">
+        <v>95</v>
+      </c>
+      <c r="J160" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="BA160" s="6">
+        <v>45</v>
+      </c>
+      <c r="BB160" s="6">
+        <v>51</v>
+      </c>
+      <c r="BC160" s="6">
+        <v>46</v>
+      </c>
+      <c r="BD160" s="6">
+        <v>38</v>
+      </c>
+      <c r="BE160" s="6">
+        <v>7</v>
+      </c>
+      <c r="BF160" s="6">
+        <v>6</v>
+      </c>
+      <c r="BS160" s="6">
+        <v>48.1</v>
+      </c>
+      <c r="BT160" s="6">
+        <v>41.8</v>
+      </c>
+      <c r="BU160" s="6">
+        <v>6</v>
+      </c>
+      <c r="BV160" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="BW160" s="6">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B161" s="19" t="s">
+        <v>557</v>
+      </c>
+      <c r="C161" s="16">
+        <v>44851</v>
+      </c>
+      <c r="D161" s="17">
+        <v>44835</v>
+      </c>
+      <c r="E161" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F161" s="25" t="s">
+        <v>558</v>
+      </c>
+      <c r="G161" s="6">
+        <v>3008</v>
+      </c>
+      <c r="H161" s="6">
+        <v>2</v>
+      </c>
+      <c r="I161" s="6">
+        <v>95</v>
+      </c>
+      <c r="J161" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K161" s="6">
+        <v>184</v>
+      </c>
+      <c r="BA161" s="6">
+        <v>47</v>
+      </c>
+      <c r="BB161" s="6">
+        <v>51</v>
+      </c>
+      <c r="BC161" s="6">
+        <v>46</v>
+      </c>
+      <c r="BD161" s="6">
+        <v>40</v>
+      </c>
+      <c r="BE161" s="6">
+        <v>5</v>
+      </c>
+      <c r="BF161" s="6">
+        <v>5</v>
+      </c>
+      <c r="BS161" s="6">
+        <v>50</v>
+      </c>
+      <c r="BT161" s="6">
+        <v>43</v>
+      </c>
+      <c r="BU161" s="6">
+        <v>5</v>
+      </c>
+      <c r="BV161" s="6">
+        <v>2</v>
+      </c>
+      <c r="BW161" s="6">
+        <v>7</v>
+      </c>
+      <c r="DH161" s="19" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="162" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B162" s="19" t="s">
+        <v>559</v>
+      </c>
+      <c r="C162" s="16">
+        <v>44852</v>
+      </c>
+      <c r="D162" s="17">
+        <v>44835</v>
+      </c>
+      <c r="E162" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F162" s="25" t="s">
+        <v>560</v>
+      </c>
+      <c r="G162" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H162" s="6">
+        <v>2</v>
+      </c>
+      <c r="I162" s="6">
+        <v>95</v>
+      </c>
+      <c r="J162" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K162" s="6">
+        <v>120</v>
+      </c>
+      <c r="BA162" s="6">
+        <v>45</v>
+      </c>
+      <c r="BB162" s="6">
+        <v>48</v>
+      </c>
+      <c r="BC162" s="6">
+        <v>43</v>
+      </c>
+      <c r="BD162" s="6">
+        <v>39</v>
+      </c>
+      <c r="BE162" s="6">
+        <v>6</v>
+      </c>
+      <c r="BF162" s="6">
+        <v>6</v>
+      </c>
+      <c r="BS162" s="6">
+        <v>47</v>
+      </c>
+      <c r="BT162" s="6">
+        <v>42</v>
+      </c>
+      <c r="BU162" s="6">
+        <v>6</v>
+      </c>
+      <c r="BV162" s="6">
+        <v>5</v>
+      </c>
+      <c r="BW162" s="6">
+        <v>11</v>
+      </c>
+      <c r="CV162" s="6">
+        <v>43</v>
+      </c>
+      <c r="CW162" s="6">
+        <v>46</v>
+      </c>
+      <c r="DH162" s="19" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="163" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B163" s="19" t="s">
+        <v>561</v>
+      </c>
+      <c r="C163" s="16">
+        <v>44852</v>
+      </c>
+      <c r="D163" s="17">
+        <v>44835</v>
+      </c>
+      <c r="E163" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F163" s="25" t="s">
+        <v>562</v>
+      </c>
+      <c r="G163" s="6">
+        <v>5000</v>
+      </c>
+      <c r="H163" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="I163" s="6">
+        <v>95</v>
+      </c>
+      <c r="J163" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="K163" s="6">
+        <v>351</v>
+      </c>
+      <c r="L163" s="6">
+        <v>27</v>
+      </c>
+      <c r="BA163" s="6">
+        <v>42</v>
+      </c>
+      <c r="BB163" s="6">
+        <v>54</v>
+      </c>
+      <c r="BC163" s="6">
+        <v>51</v>
+      </c>
+      <c r="BD163" s="6">
+        <v>38</v>
+      </c>
+      <c r="BE163" s="6">
+        <v>6</v>
+      </c>
+      <c r="BF163" s="6">
+        <v>5</v>
+      </c>
+      <c r="BS163" s="6">
+        <v>48</v>
+      </c>
+      <c r="BT163" s="6">
+        <v>44</v>
+      </c>
+      <c r="BU163" s="6">
+        <v>5</v>
+      </c>
+      <c r="BV163" s="6">
+        <v>3</v>
+      </c>
+      <c r="BW163" s="6">
+        <v>8</v>
+      </c>
+      <c r="DH163" s="19" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="164" spans="1:112" x14ac:dyDescent="0.25">
+      <c r="A164" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B164" s="19" t="s">
+        <v>563</v>
+      </c>
+      <c r="C164" s="16">
+        <v>44853</v>
+      </c>
+      <c r="D164" s="17">
+        <v>44835</v>
+      </c>
+      <c r="E164" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F164" s="25" t="s">
+        <v>564</v>
+      </c>
+      <c r="G164" s="6">
+        <v>2912</v>
+      </c>
+      <c r="H164" s="6">
+        <v>2</v>
+      </c>
+      <c r="I164" s="6">
+        <v>95</v>
+      </c>
+      <c r="J164" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K164" s="6">
+        <v>181</v>
+      </c>
+      <c r="BA164" s="6">
+        <v>47</v>
+      </c>
+      <c r="BB164" s="6">
+        <v>51</v>
+      </c>
+      <c r="BC164" s="6">
+        <v>49</v>
+      </c>
+      <c r="BD164" s="6">
+        <v>42</v>
+      </c>
+      <c r="BE164" s="6">
+        <v>4</v>
+      </c>
+      <c r="BF164" s="6">
+        <v>5</v>
+      </c>
+      <c r="BS164" s="6">
+        <v>49</v>
+      </c>
+      <c r="BT164" s="6">
+        <v>45</v>
+      </c>
+      <c r="BU164" s="6">
+        <v>4</v>
+      </c>
+      <c r="BV164" s="6">
+        <v>1</v>
+      </c>
+      <c r="BW164" s="6">
+        <f>BU164+BV164</f>
+        <v>5</v>
+      </c>
+      <c r="DH164" s="6"/>
+    </row>
+    <row r="165" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B165" s="19" t="s">
+        <v>565</v>
+      </c>
+      <c r="C165" s="16">
+        <v>44858</v>
+      </c>
+      <c r="D165" s="17">
+        <v>44835</v>
+      </c>
+      <c r="E165" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F165" s="25" t="s">
+        <v>566</v>
+      </c>
+      <c r="G165" s="6">
+        <v>2020</v>
+      </c>
+      <c r="H165" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I165" s="6">
+        <v>95</v>
+      </c>
+      <c r="J165" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K165" s="6">
+        <v>162</v>
+      </c>
+      <c r="T165" s="37"/>
+      <c r="BA165" s="6">
+        <v>41.9</v>
+      </c>
+      <c r="BB165" s="6">
+        <v>50.2</v>
+      </c>
+      <c r="BC165" s="6">
+        <v>50.5</v>
+      </c>
+      <c r="BD165" s="6">
+        <v>41.9</v>
+      </c>
+      <c r="BE165" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="BF165" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="BS165" s="6">
+        <v>46.3</v>
+      </c>
+      <c r="BT165" s="6">
+        <v>45.9</v>
+      </c>
+      <c r="BU165" s="6">
+        <v>3</v>
+      </c>
+      <c r="BV165" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="BW165" s="6">
+        <v>7.8</v>
+      </c>
+      <c r="CV165" s="6">
+        <v>48.6</v>
+      </c>
+      <c r="CW165" s="6">
+        <v>48.8</v>
+      </c>
+      <c r="DH165" s="19" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="166" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B166" s="19" t="s">
+        <v>567</v>
+      </c>
+      <c r="C166" s="16">
+        <v>44858</v>
+      </c>
+      <c r="D166" s="17">
+        <v>44835</v>
+      </c>
+      <c r="E166" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F166" s="25" t="s">
+        <v>568</v>
+      </c>
+      <c r="G166" s="6">
+        <v>3008</v>
+      </c>
+      <c r="H166" s="6">
+        <v>2</v>
+      </c>
+      <c r="I166" s="6">
+        <v>95</v>
+      </c>
+      <c r="J166" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K166" s="6">
+        <v>183</v>
+      </c>
+      <c r="BA166" s="6">
+        <v>48</v>
+      </c>
+      <c r="BB166" s="6">
+        <v>51</v>
+      </c>
+      <c r="BC166" s="6">
+        <v>47</v>
+      </c>
+      <c r="BD166" s="6">
+        <v>40</v>
+      </c>
+      <c r="BE166" s="6">
+        <v>4</v>
+      </c>
+      <c r="BF166" s="6">
+        <v>6</v>
+      </c>
+      <c r="BS166" s="6">
+        <v>50</v>
+      </c>
+      <c r="BT166" s="6">
+        <v>43</v>
+      </c>
+      <c r="BU166" s="6">
+        <v>5</v>
+      </c>
+      <c r="BV166" s="6">
+        <v>2</v>
+      </c>
+      <c r="BW166" s="6">
+        <v>7</v>
+      </c>
+      <c r="DH166" s="34" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="167" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B167" s="19" t="s">
+        <v>569</v>
+      </c>
+      <c r="C167" s="16">
+        <v>44859</v>
+      </c>
+      <c r="D167" s="17">
+        <v>44835</v>
+      </c>
+      <c r="E167" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F167" s="25" t="s">
+        <v>570</v>
+      </c>
+      <c r="G167" s="6">
+        <v>5000</v>
+      </c>
+      <c r="H167" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="I167" s="6">
+        <v>95</v>
+      </c>
+      <c r="J167" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="K167" s="6">
+        <v>342</v>
+      </c>
+      <c r="L167" s="6">
+        <v>27</v>
+      </c>
+      <c r="BA167" s="6">
+        <v>45</v>
+      </c>
+      <c r="BB167" s="6">
+        <v>52</v>
+      </c>
+      <c r="BC167" s="6">
+        <v>50</v>
+      </c>
+      <c r="BD167" s="6">
+        <v>38</v>
+      </c>
+      <c r="BE167" s="6">
+        <v>4</v>
+      </c>
+      <c r="BF167" s="6">
+        <v>6</v>
+      </c>
+      <c r="BS167" s="6">
+        <v>49</v>
+      </c>
+      <c r="BT167" s="6">
+        <v>44</v>
+      </c>
+      <c r="BU167" s="6">
+        <v>5</v>
+      </c>
+      <c r="BV167" s="6">
+        <v>2</v>
+      </c>
+      <c r="BW167" s="6">
+        <v>7</v>
+      </c>
+      <c r="DH167" s="34" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="168" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B168" s="19" t="s">
+        <v>571</v>
+      </c>
+      <c r="C168" s="16">
+        <v>44859</v>
+      </c>
+      <c r="D168" s="17">
+        <v>44835</v>
+      </c>
+      <c r="E168" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F168" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="G168" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H168" s="6">
+        <v>2</v>
+      </c>
+      <c r="I168" s="6">
+        <v>95</v>
+      </c>
+      <c r="J168" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K168" s="6">
+        <v>120</v>
+      </c>
+      <c r="BA168" s="6">
+        <v>46</v>
+      </c>
+      <c r="BB168" s="6">
+        <v>50</v>
+      </c>
+      <c r="BC168" s="6">
+        <v>45</v>
+      </c>
+      <c r="BD168" s="6">
+        <v>40</v>
+      </c>
+      <c r="BE168" s="6">
+        <v>5</v>
+      </c>
+      <c r="BF168" s="6">
+        <v>6</v>
+      </c>
+      <c r="BS168" s="6">
+        <v>48</v>
+      </c>
+      <c r="BT168" s="6">
+        <v>42</v>
+      </c>
+      <c r="BU168" s="6">
+        <v>5</v>
+      </c>
+      <c r="BV168" s="6">
+        <v>5</v>
+      </c>
+      <c r="BW168" s="6">
+        <v>10</v>
+      </c>
+      <c r="CV168" s="6">
+        <v>43</v>
+      </c>
+      <c r="CW168" s="6">
+        <v>49</v>
+      </c>
+      <c r="DH168" s="34" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="169" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B169" s="19" t="s">
+        <v>573</v>
+      </c>
+      <c r="C169" s="16">
+        <v>44860</v>
+      </c>
+      <c r="D169" s="17">
+        <v>44835</v>
+      </c>
+      <c r="E169" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F169" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="G169" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H169" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I169" s="6">
+        <v>95</v>
+      </c>
+      <c r="J169" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="BS169" s="6">
+        <v>46.6</v>
+      </c>
+      <c r="BT169" s="6">
+        <v>47.2</v>
+      </c>
+      <c r="BU169" s="6">
+        <v>3.7</v>
+      </c>
+      <c r="BV169" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="BW169" s="6">
+        <v>6</v>
+      </c>
+      <c r="DH169" s="34" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="170" spans="1:112" x14ac:dyDescent="0.25">
+      <c r="A170" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B170" s="19" t="s">
+        <v>575</v>
+      </c>
+      <c r="C170" s="16">
+        <v>44861</v>
+      </c>
+      <c r="D170" s="17">
+        <v>44835</v>
+      </c>
+      <c r="E170" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F170" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="G170" s="6">
+        <v>4580</v>
+      </c>
+      <c r="H170" s="6">
+        <v>2</v>
+      </c>
+      <c r="I170" s="6">
+        <v>95</v>
+      </c>
+      <c r="J170" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K170" s="6">
+        <v>252</v>
+      </c>
+      <c r="BA170" s="6">
+        <v>46</v>
+      </c>
+      <c r="BB170" s="6">
+        <v>52</v>
+      </c>
+      <c r="BC170" s="6">
+        <v>48</v>
+      </c>
+      <c r="BD170" s="6">
+        <v>41</v>
+      </c>
+      <c r="BE170" s="6">
+        <v>4</v>
+      </c>
+      <c r="BF170" s="6">
+        <v>5</v>
+      </c>
+      <c r="BS170" s="6">
+        <v>49</v>
+      </c>
+      <c r="BT170" s="6">
+        <v>44</v>
+      </c>
+      <c r="BU170" s="6">
+        <v>5</v>
+      </c>
+      <c r="BV170" s="6">
+        <v>2</v>
+      </c>
+      <c r="BW170" s="6">
+        <f>BU170+BV170</f>
+        <v>7</v>
+      </c>
+      <c r="DH170" s="6"/>
+    </row>
+    <row r="171" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B171" s="19" t="s">
+        <v>577</v>
+      </c>
+      <c r="C171" s="16">
+        <v>44862</v>
+      </c>
+      <c r="D171" s="17">
+        <v>44835</v>
+      </c>
+      <c r="E171" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F171" s="25" t="s">
+        <v>578</v>
+      </c>
+      <c r="G171" s="6">
+        <v>2002</v>
+      </c>
+      <c r="H171" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I171" s="6">
+        <v>95</v>
+      </c>
+      <c r="J171" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="BA171" s="6">
+        <v>43</v>
+      </c>
+      <c r="BB171" s="6">
+        <v>50</v>
+      </c>
+      <c r="BC171" s="6">
+        <v>50</v>
+      </c>
+      <c r="BD171" s="6">
+        <v>41</v>
+      </c>
+      <c r="BE171" s="6">
+        <v>5</v>
+      </c>
+      <c r="BF171" s="6">
+        <v>6</v>
+      </c>
+      <c r="BS171" s="6">
+        <v>46.9</v>
+      </c>
+      <c r="BT171" s="6">
+        <v>44.9</v>
+      </c>
+      <c r="BU171" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="BV171" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="BW171" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="DH171" s="6"/>
+    </row>
+    <row r="172" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B172" s="19" t="s">
+        <v>579</v>
+      </c>
+      <c r="C172" s="16">
+        <v>44863</v>
+      </c>
+      <c r="D172" s="17">
+        <v>44835</v>
+      </c>
+      <c r="E172" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F172" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="G172" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H172" s="6">
+        <v>2</v>
+      </c>
+      <c r="I172" s="6">
+        <v>95</v>
+      </c>
+      <c r="J172" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K172" s="6">
+        <v>120</v>
+      </c>
+      <c r="BA172" s="6">
+        <v>42</v>
+      </c>
+      <c r="BB172" s="6">
+        <v>49</v>
+      </c>
+      <c r="BC172" s="6">
+        <v>48</v>
+      </c>
+      <c r="BD172" s="6">
+        <v>38</v>
+      </c>
+      <c r="BE172" s="6">
+        <v>6</v>
+      </c>
+      <c r="BF172" s="6">
+        <v>7</v>
+      </c>
+      <c r="BS172" s="6">
+        <v>46</v>
+      </c>
+      <c r="BT172" s="6">
+        <v>43</v>
+      </c>
+      <c r="BU172" s="6">
+        <v>6</v>
+      </c>
+      <c r="BV172" s="6">
+        <v>5</v>
+      </c>
+      <c r="BW172" s="6">
+        <v>11</v>
+      </c>
+      <c r="CV172" s="6">
+        <v>44</v>
+      </c>
+      <c r="CW172" s="6">
+        <v>48</v>
+      </c>
+      <c r="DH172" s="19" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="173" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B173" s="19" t="s">
+        <v>581</v>
+      </c>
+      <c r="C173" s="16">
+        <v>44863</v>
+      </c>
+      <c r="D173" s="17">
+        <v>44835</v>
+      </c>
+      <c r="E173" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F173" s="25" t="s">
+        <v>582</v>
+      </c>
+      <c r="G173" s="6">
+        <v>4272</v>
+      </c>
+      <c r="H173" s="6">
+        <v>2</v>
+      </c>
+      <c r="I173" s="6">
+        <v>95</v>
+      </c>
+      <c r="J173" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K173" s="6">
+        <v>236</v>
+      </c>
+      <c r="BA173" s="6">
+        <v>48</v>
+      </c>
+      <c r="BB173" s="6">
+        <v>51</v>
+      </c>
+      <c r="BC173" s="6">
+        <v>46</v>
+      </c>
+      <c r="BD173" s="6">
+        <v>41</v>
+      </c>
+      <c r="BE173" s="6">
+        <v>4</v>
+      </c>
+      <c r="BF173" s="6">
+        <v>5</v>
+      </c>
+      <c r="BS173" s="6">
+        <v>50</v>
+      </c>
+      <c r="BT173" s="6">
+        <v>43</v>
+      </c>
+      <c r="BU173" s="6">
+        <v>5</v>
+      </c>
+      <c r="BV173" s="6">
+        <v>2</v>
+      </c>
+      <c r="BW173" s="6">
+        <v>7</v>
+      </c>
+      <c r="DH173" s="6"/>
+    </row>
+    <row r="174" spans="1:112" x14ac:dyDescent="0.25">
+      <c r="A174" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B174" s="19" t="s">
+        <v>583</v>
+      </c>
+      <c r="C174" s="16">
+        <v>44863</v>
+      </c>
+      <c r="D174" s="17">
+        <v>44835</v>
+      </c>
+      <c r="E174" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F174" s="25" t="s">
+        <v>584</v>
+      </c>
+      <c r="G174" s="6">
+        <v>8308</v>
+      </c>
+      <c r="H174" s="6">
+        <v>2</v>
+      </c>
+      <c r="I174" s="6">
+        <v>95</v>
+      </c>
+      <c r="J174" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K174" s="6">
+        <v>253</v>
+      </c>
+      <c r="BA174" s="6">
+        <v>48</v>
+      </c>
+      <c r="BB174" s="6">
+        <v>51</v>
+      </c>
+      <c r="BC174" s="6">
+        <v>47</v>
+      </c>
+      <c r="BD174" s="6">
+        <v>42</v>
+      </c>
+      <c r="BE174" s="6">
+        <v>4</v>
+      </c>
+      <c r="BF174" s="6">
+        <v>5</v>
+      </c>
+      <c r="BS174" s="6">
+        <v>49</v>
+      </c>
+      <c r="BT174" s="6">
+        <v>45</v>
+      </c>
+      <c r="BU174" s="6">
+        <v>4</v>
+      </c>
+      <c r="BV174" s="6">
+        <v>2</v>
+      </c>
+      <c r="BW174" s="6">
+        <f>BU174+BV174</f>
+        <v>6</v>
+      </c>
+      <c r="DH174" s="6"/>
+    </row>
+    <row r="175" spans="1:112" x14ac:dyDescent="0.25">
+      <c r="CB175" s="37"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:DJ174" xr:uid="{6156B78F-4178-4430-929C-85D622A7BD0A}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="datafolha"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="DH82" r:id="rId1" xr:uid="{F1115AC3-1322-4633-8F85-68A34C764A1F}"/>
     <hyperlink ref="DH23" r:id="rId2" xr:uid="{4318982E-D888-4B7B-B5E5-593AF2B059A0}"/>
@@ -19694,56 +23700,69 @@
     <hyperlink ref="DH24" r:id="rId42" xr:uid="{28A5FFC0-259B-4726-812A-321C4B6E99C7}"/>
     <hyperlink ref="DH19" r:id="rId43" xr:uid="{08B3255E-6E23-4199-A9EF-C141F67E8C7A}"/>
     <hyperlink ref="DH81" r:id="rId44" xr:uid="{3943246B-BC30-454B-9F9C-6623B65FE7E7}"/>
-    <hyperlink ref="DH9" r:id="rId45" xr:uid="{150EBDB1-C512-4D67-8F5E-4B9C32CA21DC}"/>
-    <hyperlink ref="DH68" r:id="rId46" xr:uid="{9DC972E6-A9BC-4F95-AC09-1F2E8515F278}"/>
-    <hyperlink ref="DH18" r:id="rId47" xr:uid="{380B24C7-4DC4-4999-AB74-E38358992983}"/>
-    <hyperlink ref="DH72" r:id="rId48" xr:uid="{8367B9B1-9835-4D5B-A0D7-485045C6AEF0}"/>
-    <hyperlink ref="DH27" r:id="rId49" xr:uid="{0C148FDC-29C8-4A28-BA37-41C780B91C58}"/>
-    <hyperlink ref="DH55" r:id="rId50" xr:uid="{0A15E7BA-F55A-4AA0-A809-0C2E898AF4E0}"/>
-    <hyperlink ref="DH87" r:id="rId51" xr:uid="{A844E98C-6FB0-4511-A83F-0CACF864B1E4}"/>
-    <hyperlink ref="DH78" r:id="rId52" location="176 " xr:uid="{99645509-A7AA-493D-89A9-27E41FB4E46B}"/>
-    <hyperlink ref="DH69" r:id="rId53" location="175 " xr:uid="{6EA4F629-EC46-499F-B621-2F9079FE0EC6}"/>
-    <hyperlink ref="DH39" r:id="rId54" location="170 " xr:uid="{C812B06B-FB4A-4B12-91EB-26501D034E93}"/>
-    <hyperlink ref="DH3" r:id="rId55" xr:uid="{128D7DB5-E64F-4F08-8097-85ED170C2B5D}"/>
-    <hyperlink ref="DH22" r:id="rId56" xr:uid="{2456031C-4687-425A-B0A4-878257470A1F}"/>
-    <hyperlink ref="DH12" r:id="rId57" xr:uid="{1E26FCA6-C9F4-4444-973E-83E5B484C35F}"/>
-    <hyperlink ref="DH80" r:id="rId58" xr:uid="{87C09F95-67E1-4DDC-B14A-F20B03065C6A}"/>
-    <hyperlink ref="DH76" r:id="rId59" xr:uid="{F93169FD-078A-45E6-9F47-E96B99182903}"/>
-    <hyperlink ref="DH75" r:id="rId60" xr:uid="{ED77230A-45CE-4E5C-82E4-0B338F907EA6}"/>
-    <hyperlink ref="DH70" r:id="rId61" xr:uid="{024C737F-11C1-4C8B-83C2-9D88363D20E4}"/>
-    <hyperlink ref="DH65" r:id="rId62" xr:uid="{9BE58AB3-347B-4746-B6B9-2440F2555788}"/>
-    <hyperlink ref="DH62" r:id="rId63" xr:uid="{9B4FE88E-2222-4A9F-8D10-0EA893721DCD}"/>
-    <hyperlink ref="DH52" r:id="rId64" xr:uid="{F05A91F9-75ED-48E6-A1AC-2D3C34404F00}"/>
-    <hyperlink ref="DH37" r:id="rId65" xr:uid="{1DA711B5-9DD0-4894-9DBB-1A3ECBF6D9A2}"/>
-    <hyperlink ref="DH86" r:id="rId66" xr:uid="{1D758828-D345-4395-86C6-D1A867DEB752}"/>
-    <hyperlink ref="DH5" r:id="rId67" xr:uid="{618DA2FD-61F8-4661-A8BC-3F7D98E6F601}"/>
-    <hyperlink ref="DH85" r:id="rId68" xr:uid="{6E43EC95-154D-4AF2-8683-0D6A92F4B6C2}"/>
-    <hyperlink ref="DH2" r:id="rId69" xr:uid="{D8310A7D-E950-49F3-8A1C-4455E93BD063}"/>
-    <hyperlink ref="DH34" r:id="rId70" location="168 " xr:uid="{995551E6-56DC-46EA-84B5-B987677BA1A6}"/>
-    <hyperlink ref="DH77" r:id="rId71" xr:uid="{7AA6D70F-29EB-43F0-9C35-2D6FDF0B7245}"/>
-    <hyperlink ref="DH58" r:id="rId72" xr:uid="{AEB9C60D-197C-455A-9C7D-60FB3298B7E5}"/>
-    <hyperlink ref="DH49" r:id="rId73" xr:uid="{423EB4BE-A10C-488E-98E9-78E23EE2530E}"/>
-    <hyperlink ref="DH25" r:id="rId74" location="165" xr:uid="{33F5B3E4-75BE-4DB4-B0A9-4A186C068E7D}"/>
-    <hyperlink ref="DH66" r:id="rId75" xr:uid="{E6B6D64A-9298-493E-97A8-104CEC23806D}"/>
-    <hyperlink ref="DH57" r:id="rId76" xr:uid="{192617B1-BA36-484C-AD49-0A90C5A91019}"/>
-    <hyperlink ref="DH48" r:id="rId77" xr:uid="{BAA0AC0D-AE6D-455A-B5C5-AF832D97AF7D}"/>
-    <hyperlink ref="DH109" r:id="rId78" xr:uid="{D7C5089D-D3F8-4C39-AF2F-C466E8C330DC}"/>
-    <hyperlink ref="DH111" r:id="rId79" xr:uid="{24FAA9CE-FBDA-431C-B5B9-C5A592406728}"/>
-    <hyperlink ref="DH116" r:id="rId80" xr:uid="{F4128C41-8BDF-4FA6-AE0F-4E7C29A0E7D6}"/>
-    <hyperlink ref="DH113" r:id="rId81" xr:uid="{B71A924E-0FFF-4F1B-817D-96D62FB1A15C}"/>
-    <hyperlink ref="DH118" r:id="rId82" xr:uid="{BC7312BB-F6C2-4287-9CB9-4341495C76AF}"/>
-    <hyperlink ref="DH114" r:id="rId83" xr:uid="{275FF379-A020-4971-ADE5-97F9E347DED5}"/>
-    <hyperlink ref="DH117" r:id="rId84" xr:uid="{0B064311-074B-44CF-9EE5-9A13A600870F}"/>
-    <hyperlink ref="DH121" r:id="rId85" xr:uid="{734D89C9-5C48-4BB0-9D74-3728B541D6B5}"/>
-    <hyperlink ref="DH122" r:id="rId86" display="https://especiaisg1.globo/politica/eleicoes/2022/pesquisas-eleitorais/presidente/1-turno/Ipec/" xr:uid="{EE326620-72FD-43B3-B15D-E359A61AB40C}"/>
-    <hyperlink ref="DH130" r:id="rId87" xr:uid="{F5ACB84B-A83D-4688-A20C-FE48B00C849A}"/>
-    <hyperlink ref="DH128" r:id="rId88" xr:uid="{24BE1FAE-8FE4-4218-B6E9-3C35205D80B8}"/>
-    <hyperlink ref="DH127" r:id="rId89" xr:uid="{9E79EDD1-6B3B-4449-A88A-A34CB7D77367}"/>
-    <hyperlink ref="DH124" r:id="rId90" xr:uid="{DDB77CA2-B402-4E97-90AD-FFD36AE53499}"/>
-    <hyperlink ref="DH125" r:id="rId91" xr:uid="{FB87DD9A-CD77-4D22-B319-11909610C3CC}"/>
-    <hyperlink ref="DH129" r:id="rId92" xr:uid="{DB796BC9-1A9B-46EA-B02E-2ADF7DF99DFD}"/>
+    <hyperlink ref="DH68" r:id="rId45" xr:uid="{9DC972E6-A9BC-4F95-AC09-1F2E8515F278}"/>
+    <hyperlink ref="DH18" r:id="rId46" xr:uid="{380B24C7-4DC4-4999-AB74-E38358992983}"/>
+    <hyperlink ref="DH72" r:id="rId47" xr:uid="{8367B9B1-9835-4D5B-A0D7-485045C6AEF0}"/>
+    <hyperlink ref="DH27" r:id="rId48" xr:uid="{0C148FDC-29C8-4A28-BA37-41C780B91C58}"/>
+    <hyperlink ref="DH55" r:id="rId49" xr:uid="{0A15E7BA-F55A-4AA0-A809-0C2E898AF4E0}"/>
+    <hyperlink ref="DH87" r:id="rId50" xr:uid="{A844E98C-6FB0-4511-A83F-0CACF864B1E4}"/>
+    <hyperlink ref="DH78" r:id="rId51" location="176 " xr:uid="{99645509-A7AA-493D-89A9-27E41FB4E46B}"/>
+    <hyperlink ref="DH39" r:id="rId52" location="170 " xr:uid="{C812B06B-FB4A-4B12-91EB-26501D034E93}"/>
+    <hyperlink ref="DH3" r:id="rId53" xr:uid="{128D7DB5-E64F-4F08-8097-85ED170C2B5D}"/>
+    <hyperlink ref="DH22" r:id="rId54" xr:uid="{2456031C-4687-425A-B0A4-878257470A1F}"/>
+    <hyperlink ref="DH12" r:id="rId55" xr:uid="{1E26FCA6-C9F4-4444-973E-83E5B484C35F}"/>
+    <hyperlink ref="DH80" r:id="rId56" xr:uid="{87C09F95-67E1-4DDC-B14A-F20B03065C6A}"/>
+    <hyperlink ref="DH76" r:id="rId57" xr:uid="{F93169FD-078A-45E6-9F47-E96B99182903}"/>
+    <hyperlink ref="DH75" r:id="rId58" xr:uid="{ED77230A-45CE-4E5C-82E4-0B338F907EA6}"/>
+    <hyperlink ref="DH70" r:id="rId59" xr:uid="{024C737F-11C1-4C8B-83C2-9D88363D20E4}"/>
+    <hyperlink ref="DH65" r:id="rId60" xr:uid="{9BE58AB3-347B-4746-B6B9-2440F2555788}"/>
+    <hyperlink ref="DH62" r:id="rId61" xr:uid="{9B4FE88E-2222-4A9F-8D10-0EA893721DCD}"/>
+    <hyperlink ref="DH52" r:id="rId62" xr:uid="{F05A91F9-75ED-48E6-A1AC-2D3C34404F00}"/>
+    <hyperlink ref="DH37" r:id="rId63" xr:uid="{1DA711B5-9DD0-4894-9DBB-1A3ECBF6D9A2}"/>
+    <hyperlink ref="DH86" r:id="rId64" xr:uid="{1D758828-D345-4395-86C6-D1A867DEB752}"/>
+    <hyperlink ref="DH5" r:id="rId65" xr:uid="{618DA2FD-61F8-4661-A8BC-3F7D98E6F601}"/>
+    <hyperlink ref="DH85" r:id="rId66" xr:uid="{6E43EC95-154D-4AF2-8683-0D6A92F4B6C2}"/>
+    <hyperlink ref="DH2" r:id="rId67" xr:uid="{D8310A7D-E950-49F3-8A1C-4455E93BD063}"/>
+    <hyperlink ref="DH34" r:id="rId68" location="168 " xr:uid="{995551E6-56DC-46EA-84B5-B987677BA1A6}"/>
+    <hyperlink ref="DH77" r:id="rId69" xr:uid="{7AA6D70F-29EB-43F0-9C35-2D6FDF0B7245}"/>
+    <hyperlink ref="DH58" r:id="rId70" xr:uid="{AEB9C60D-197C-455A-9C7D-60FB3298B7E5}"/>
+    <hyperlink ref="DH49" r:id="rId71" xr:uid="{423EB4BE-A10C-488E-98E9-78E23EE2530E}"/>
+    <hyperlink ref="DH25" r:id="rId72" location="165" xr:uid="{33F5B3E4-75BE-4DB4-B0A9-4A186C068E7D}"/>
+    <hyperlink ref="DH66" r:id="rId73" xr:uid="{E6B6D64A-9298-493E-97A8-104CEC23806D}"/>
+    <hyperlink ref="DH57" r:id="rId74" xr:uid="{192617B1-BA36-484C-AD49-0A90C5A91019}"/>
+    <hyperlink ref="DH48" r:id="rId75" xr:uid="{BAA0AC0D-AE6D-455A-B5C5-AF832D97AF7D}"/>
+    <hyperlink ref="DH109" r:id="rId76" xr:uid="{D7C5089D-D3F8-4C39-AF2F-C466E8C330DC}"/>
+    <hyperlink ref="DH111" r:id="rId77" xr:uid="{24FAA9CE-FBDA-431C-B5B9-C5A592406728}"/>
+    <hyperlink ref="DH116" r:id="rId78" xr:uid="{F4128C41-8BDF-4FA6-AE0F-4E7C29A0E7D6}"/>
+    <hyperlink ref="DH113" r:id="rId79" xr:uid="{B71A924E-0FFF-4F1B-817D-96D62FB1A15C}"/>
+    <hyperlink ref="DH118" r:id="rId80" xr:uid="{BC7312BB-F6C2-4287-9CB9-4341495C76AF}"/>
+    <hyperlink ref="DH114" r:id="rId81" xr:uid="{275FF379-A020-4971-ADE5-97F9E347DED5}"/>
+    <hyperlink ref="DH117" r:id="rId82" xr:uid="{0B064311-074B-44CF-9EE5-9A13A600870F}"/>
+    <hyperlink ref="DH121" r:id="rId83" xr:uid="{734D89C9-5C48-4BB0-9D74-3728B541D6B5}"/>
+    <hyperlink ref="DH122" r:id="rId84" display="https://especiaisg1.globo/politica/eleicoes/2022/pesquisas-eleitorais/presidente/1-turno/Ipec/" xr:uid="{EE326620-72FD-43B3-B15D-E359A61AB40C}"/>
+    <hyperlink ref="DH132" r:id="rId85" xr:uid="{F5ACB84B-A83D-4688-A20C-FE48B00C849A}"/>
+    <hyperlink ref="DH129" r:id="rId86" xr:uid="{24BE1FAE-8FE4-4218-B6E9-3C35205D80B8}"/>
+    <hyperlink ref="DH128" r:id="rId87" xr:uid="{9E79EDD1-6B3B-4449-A88A-A34CB7D77367}"/>
+    <hyperlink ref="DH124" r:id="rId88" xr:uid="{DDB77CA2-B402-4E97-90AD-FFD36AE53499}"/>
+    <hyperlink ref="DH125" r:id="rId89" xr:uid="{FB87DD9A-CD77-4D22-B319-11909610C3CC}"/>
+    <hyperlink ref="DH130" r:id="rId90" xr:uid="{DB796BC9-1A9B-46EA-B02E-2ADF7DF99DFD}"/>
+    <hyperlink ref="DH137" r:id="rId91" xr:uid="{1E485513-E786-458F-9F5C-E97E9F6A5EE6}"/>
+    <hyperlink ref="DH138" r:id="rId92" xr:uid="{7CCA0320-060E-4360-B99C-5BC20EE93303}"/>
+    <hyperlink ref="DH140" r:id="rId93" xr:uid="{EE5F136F-5909-43D5-86C6-45875E4255BE}"/>
+    <hyperlink ref="DH145" r:id="rId94" xr:uid="{18FF6EFB-0454-4D5F-B481-6B72497B8F3C}"/>
+    <hyperlink ref="DH141" r:id="rId95" xr:uid="{FEABC997-5827-4FC1-A1A8-8DD65140F646}"/>
+    <hyperlink ref="DH142" r:id="rId96" xr:uid="{6529FB45-8C08-4198-92E8-BE75C8A66FAD}"/>
+    <hyperlink ref="DH155" r:id="rId97" xr:uid="{FF4E8219-2B3C-4FE0-B0EB-6F1CDCDB1A46}"/>
+    <hyperlink ref="DH156" r:id="rId98" xr:uid="{55BF662C-1190-4EFF-A0C1-2AD66F2DB47A}"/>
+    <hyperlink ref="DH168" r:id="rId99" xr:uid="{84362A1E-32D4-48AF-9BE2-2B92B6C80B22}"/>
+    <hyperlink ref="DH167" r:id="rId100" xr:uid="{C881ABC6-A45E-4B9A-AAEA-8658321E53AB}"/>
+    <hyperlink ref="DH166" r:id="rId101" xr:uid="{0CE5E8B7-3DAF-4B30-8E3E-88E0CC61AD47}"/>
+    <hyperlink ref="DH135" r:id="rId102" xr:uid="{E5DCD5FD-D93A-42B9-A92A-B509134C8073}"/>
+    <hyperlink ref="DH139" r:id="rId103" xr:uid="{F6577C81-D29F-4E9C-92FA-00D660032AC3}"/>
+    <hyperlink ref="DH9" r:id="rId104" xr:uid="{150EBDB1-C512-4D67-8F5E-4B9C32CA21DC}"/>
+    <hyperlink ref="DH69" r:id="rId105" location="175 " xr:uid="{6EA4F629-EC46-499F-B621-2F9079FE0EC6}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId93"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId106"/>
 </worksheet>
 </file>
--- a/banco_raca_genero_fgv.xlsx
+++ b/banco_raca_genero_fgv.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre G\Documents\Pesquisa\Scripts Webscraping\Agregador de pesquisas (Streamlit)\modelo_raca_genero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1725B00A-4C77-4C27-A0D3-2EC49DD1D944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03E4FF0-79E5-47DF-B14B-661E9805FA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{31563B56-3A1D-4132-8093-857FD13750A5}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$DJ$174</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$DN$174</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="618">
   <si>
     <t>nome_instituto</t>
   </si>
@@ -1362,9 +1362,6 @@
     <t>BR-00433/2022</t>
   </si>
   <si>
-    <t>https://static.poder360.com.br/2022/09/BRASIL-Datafolha-BR-09404_2022-1.pdf</t>
-  </si>
-  <si>
     <t>https://www.paranapesquisas.com.br/wp-content/uploads/2022/08/Midia_BR_Ago22-1.pdf</t>
   </si>
   <si>
@@ -1473,9 +1470,6 @@
     <t>BR-04099/2022</t>
   </si>
   <si>
-    <t>https://especiaisg1.globo/politica/eleicoes/2022/pesquisas-eleitorais/presidente/1-turno/Datafolha/</t>
-  </si>
-  <si>
     <t>https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/09/14001621/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-setembro-P02.pdf</t>
   </si>
   <si>
@@ -1840,6 +1834,54 @@
   </si>
   <si>
     <t>https://classic.exame.com/wp-content/uploads/2022/10/pesquisamodalmaisfutura-1410.pdf</t>
+  </si>
+  <si>
+    <t>https://media.folha.uol.com.br/datafolha/2022/10/05/Datafolha_Intencao_de_voto_presidente_01_10_22.pdf</t>
+  </si>
+  <si>
+    <t>http://media.folha.uol.com.br/datafolha/2022/10/31/intencao-de-voto-presidente-2-turno.pdf</t>
+  </si>
+  <si>
+    <t>https://media.folha.uol.com.br/datafolha/2022/10/10/Intencao-de-voto-presidente-2-Turno-07-10-22.pdf</t>
+  </si>
+  <si>
+    <t>https://media.folha.uol.com.br/datafolha/2022/10/17/496239vn02890_Avaliacao_do_presidente_Jair_Bolsonaro_2_Turno_14_10_22.pdf</t>
+  </si>
+  <si>
+    <t>https://media.folha.uol.com.br/datafolha/2022/10/20/intencao-de-voto-presidente-2-turno-19-10-22.pdf</t>
+  </si>
+  <si>
+    <t>https://media.folha.uol.com.br/datafolha/2022/10/27/intencao_de_voto_presidente_2_turno-27_10-22.pdf</t>
+  </si>
+  <si>
+    <t>https://media.folha.uol.com.br/datafolha/2022/08/19/avaliacao-br829720uf902n9289y329ago1.pdf</t>
+  </si>
+  <si>
+    <t>https://media.folha.uol.com.br/datafolha/2022/09/10/ivprsdnt-stbro.pdf</t>
+  </si>
+  <si>
+    <t>https://media.folha.uol.com.br/datafolha/2022/09/16/intencao3203yu92y9yf9yv8y39voto.pdf</t>
+  </si>
+  <si>
+    <t>https://media.folha.uol.com.br/datafolha/2022/09/23/472bvaj37yfsfsesvjvw282intencao-de-voto-presidente-22-09-22.pdf</t>
+  </si>
+  <si>
+    <t>https://media.folha.uol.com.br/datafolha/2022/09/30/invprsnecial29setmbro.pdf</t>
+  </si>
+  <si>
+    <t>par_ev</t>
+  </si>
+  <si>
+    <t>bra_ev</t>
+  </si>
+  <si>
+    <t>pre_ev</t>
+  </si>
+  <si>
+    <t>par_And_pre_ev</t>
+  </si>
+  <si>
+    <t>https://www.ipec-inteligencia.com.br/Repository/Files/2210/Job_22_1426-12_Brasil_Relatorio_de_tabelas_Imprensa.pdf</t>
   </si>
 </sst>
 </file>
@@ -1984,7 +2026,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2092,6 +2134,24 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2413,14 +2473,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6156B78F-4178-4430-929C-85D622A7BD0A}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:DJ175"/>
+  <dimension ref="A1:DN175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="16" topLeftCell="AZ21" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="BA147" sqref="BA147"/>
+    <sheetView tabSelected="1" topLeftCell="CX1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="DK3" sqref="DK3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2454,12 +2511,12 @@
     <col min="79" max="81" width="12.85546875" style="6" customWidth="1"/>
     <col min="82" max="99" width="14.140625" style="6" customWidth="1"/>
     <col min="100" max="110" width="9.140625" style="6"/>
-    <col min="111" max="111" width="12.5703125" style="6" customWidth="1"/>
-    <col min="112" max="112" width="8.7109375" style="19" customWidth="1"/>
-    <col min="113" max="16384" width="9.140625" style="6"/>
+    <col min="111" max="115" width="12.5703125" style="6" customWidth="1"/>
+    <col min="116" max="116" width="8.7109375" style="19" customWidth="1"/>
+    <col min="117" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:114" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:118" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -2793,17 +2850,29 @@
       <c r="DG1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="DH1" s="15" t="s">
+      <c r="DH1" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="DI1" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="DJ1" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="DK1" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="DL1" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="DI1" s="8" t="s">
+      <c r="DM1" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="DJ1" s="6" t="s">
+      <c r="DN1" s="6" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>106</v>
       </c>
@@ -2940,13 +3009,17 @@
       <c r="DG2">
         <v>35.5</v>
       </c>
-      <c r="DH2" s="29" t="s">
-        <v>341</v>
-      </c>
+      <c r="DH2"/>
       <c r="DI2"/>
       <c r="DJ2"/>
+      <c r="DK2"/>
+      <c r="DL2" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="DM2"/>
+      <c r="DN2"/>
     </row>
-    <row r="3" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>89</v>
       </c>
@@ -3107,14 +3180,14 @@
       <c r="DG3" s="6">
         <v>39</v>
       </c>
-      <c r="DH3" s="18" t="s">
+      <c r="DL3" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="DJ3" s="19" t="s">
+      <c r="DN3" s="19" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="4" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>92</v>
       </c>
@@ -3270,11 +3343,11 @@
       <c r="DG4" s="6">
         <v>52</v>
       </c>
-      <c r="DH4" s="18" t="s">
+      <c r="DL4" s="18" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>92</v>
       </c>
@@ -3460,11 +3533,11 @@
       <c r="DG5" s="6">
         <v>55</v>
       </c>
-      <c r="DH5" s="18" t="s">
+      <c r="DL5" s="18" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="6" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>95</v>
       </c>
@@ -3608,11 +3681,11 @@
       <c r="DG6" s="6">
         <v>43.1</v>
       </c>
-      <c r="DH6" s="18" t="s">
+      <c r="DL6" s="18" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>92</v>
       </c>
@@ -3768,11 +3841,11 @@
       <c r="DG7" s="6">
         <v>51</v>
       </c>
-      <c r="DH7" s="18" t="s">
+      <c r="DL7" s="18" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>98</v>
       </c>
@@ -4033,11 +4106,11 @@
       <c r="DG8" s="6">
         <v>42</v>
       </c>
-      <c r="DH8" s="18" t="s">
+      <c r="DL8" s="18" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>101</v>
       </c>
@@ -4193,11 +4266,11 @@
       <c r="CX9" s="6">
         <v>49</v>
       </c>
-      <c r="DH9" s="18" t="s">
+      <c r="DL9" s="18" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>92</v>
       </c>
@@ -4353,11 +4426,11 @@
       <c r="DG10" s="6">
         <v>52</v>
       </c>
-      <c r="DH10" s="18" t="s">
+      <c r="DL10" s="18" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="11" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>95</v>
       </c>
@@ -4501,11 +4574,11 @@
       <c r="DG11" s="6">
         <v>45.6</v>
       </c>
-      <c r="DH11" s="18" t="s">
+      <c r="DL11" s="18" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>89</v>
       </c>
@@ -4687,14 +4760,14 @@
       <c r="DG12" s="6">
         <v>49</v>
       </c>
-      <c r="DH12" s="18" t="s">
+      <c r="DL12" s="18" t="s">
         <v>309</v>
       </c>
-      <c r="DJ12" s="19" t="s">
+      <c r="DN12" s="19" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="13" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>106</v>
       </c>
@@ -4778,11 +4851,11 @@
       <c r="DG13" s="6">
         <v>48</v>
       </c>
-      <c r="DH13" s="20" t="s">
+      <c r="DL13" s="20" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="14" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>108</v>
       </c>
@@ -4884,11 +4957,11 @@
       <c r="CX14" s="6">
         <v>58</v>
       </c>
-      <c r="DH14" s="19" t="s">
+      <c r="DL14" s="19" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="15" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>92</v>
       </c>
@@ -5044,11 +5117,11 @@
       <c r="DG15" s="6">
         <v>55</v>
       </c>
-      <c r="DH15" s="18" t="s">
+      <c r="DL15" s="18" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="16" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>95</v>
       </c>
@@ -5192,11 +5265,11 @@
       <c r="DG16" s="6">
         <v>47.5</v>
       </c>
-      <c r="DH16" s="18" t="s">
+      <c r="DL16" s="18" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="17" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>92</v>
       </c>
@@ -5352,11 +5425,11 @@
       <c r="DG17" s="6">
         <v>55</v>
       </c>
-      <c r="DH17" s="18" t="s">
+      <c r="DL17" s="18" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="18" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>113</v>
       </c>
@@ -5437,11 +5510,11 @@
       <c r="CX18" s="6">
         <v>13</v>
       </c>
-      <c r="DH18" s="18" t="s">
+      <c r="DL18" s="18" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="19" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>108</v>
       </c>
@@ -5543,11 +5616,11 @@
       <c r="CX19" s="6">
         <v>53</v>
       </c>
-      <c r="DH19" s="18" t="s">
+      <c r="DL19" s="18" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="20" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>92</v>
       </c>
@@ -5703,11 +5776,11 @@
       <c r="DG20" s="6">
         <v>55</v>
       </c>
-      <c r="DH20" s="18" t="s">
+      <c r="DL20" s="18" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="21" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>98</v>
       </c>
@@ -5974,11 +6047,11 @@
       <c r="CX21" s="6">
         <v>30</v>
       </c>
-      <c r="DH21" s="18" t="s">
+      <c r="DL21" s="18" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>89</v>
       </c>
@@ -6121,14 +6194,14 @@
       <c r="DG22" s="6">
         <v>53</v>
       </c>
-      <c r="DH22" s="18" t="s">
+      <c r="DL22" s="18" t="s">
         <v>308</v>
       </c>
-      <c r="DJ22" s="19" t="s">
+      <c r="DN22" s="19" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="23" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>92</v>
       </c>
@@ -6284,11 +6357,11 @@
       <c r="DG23" s="6">
         <v>58</v>
       </c>
-      <c r="DH23" s="18" t="s">
+      <c r="DL23" s="18" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="24" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>108</v>
       </c>
@@ -6390,11 +6463,11 @@
       <c r="CX24" s="6">
         <v>56</v>
       </c>
-      <c r="DH24" s="18" t="s">
+      <c r="DL24" s="18" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="25" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>113</v>
       </c>
@@ -6535,11 +6608,11 @@
       <c r="CX25" s="6">
         <v>16.600000000000001</v>
       </c>
-      <c r="DH25" s="18" t="s">
+      <c r="DL25" s="18" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="26" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>92</v>
       </c>
@@ -6695,11 +6768,11 @@
       <c r="DG26" s="6">
         <v>56</v>
       </c>
-      <c r="DH26" s="18" t="s">
+      <c r="DL26" s="18" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="27" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>101</v>
       </c>
@@ -6837,11 +6910,11 @@
       <c r="CX27" s="6">
         <v>45</v>
       </c>
-      <c r="DH27" s="18" t="s">
+      <c r="DL27" s="18" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>108</v>
       </c>
@@ -6940,11 +7013,11 @@
       <c r="CX28" s="6">
         <v>53</v>
       </c>
-      <c r="DH28" s="18" t="s">
+      <c r="DL28" s="18" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="29" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
         <v>113</v>
       </c>
@@ -7025,11 +7098,11 @@
       <c r="CX29" s="6">
         <v>17.100000000000001</v>
       </c>
-      <c r="DH29" s="18" t="s">
+      <c r="DL29" s="18" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="30" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
         <v>92</v>
       </c>
@@ -7185,11 +7258,11 @@
       <c r="DG30" s="6">
         <v>57</v>
       </c>
-      <c r="DH30" s="18" t="s">
+      <c r="DL30" s="18" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="31" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>106</v>
       </c>
@@ -7273,11 +7346,11 @@
       <c r="DG31" s="6">
         <v>48</v>
       </c>
-      <c r="DH31" s="20" t="s">
+      <c r="DL31" s="20" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="32" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
         <v>108</v>
       </c>
@@ -7376,11 +7449,11 @@
       <c r="CX32" s="6">
         <v>55</v>
       </c>
-      <c r="DH32" s="18" t="s">
+      <c r="DL32" s="18" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="33" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>89</v>
       </c>
@@ -7548,7 +7621,7 @@
         <v>16</v>
       </c>
       <c r="CU33" s="6">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="CV33" s="6">
         <v>28</v>
@@ -7577,14 +7650,14 @@
       <c r="DG33" s="6">
         <v>51</v>
       </c>
-      <c r="DH33" s="18" t="s">
+      <c r="DL33" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="DJ33" s="19" t="s">
+      <c r="DN33" s="19" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="34" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>113</v>
       </c>
@@ -7725,11 +7798,11 @@
       <c r="CX34" s="6">
         <v>17.899999999999999</v>
       </c>
-      <c r="DH34" s="18" t="s">
+      <c r="DL34" s="18" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="35" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>92</v>
       </c>
@@ -7885,11 +7958,11 @@
       <c r="DG35" s="6">
         <v>57</v>
       </c>
-      <c r="DH35" s="18" t="s">
+      <c r="DL35" s="18" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="36" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
         <v>108</v>
       </c>
@@ -7988,11 +8061,11 @@
       <c r="CX36" s="6">
         <v>58</v>
       </c>
-      <c r="DH36" s="18" t="s">
+      <c r="DL36" s="18" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="37" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>134</v>
       </c>
@@ -8089,11 +8162,11 @@
       <c r="DG37" s="6">
         <v>54</v>
       </c>
-      <c r="DH37" s="18" t="s">
+      <c r="DL37" s="18" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="38" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
         <v>92</v>
       </c>
@@ -8249,11 +8322,11 @@
       <c r="DG38" s="6">
         <v>53</v>
       </c>
-      <c r="DH38" s="18" t="s">
+      <c r="DL38" s="18" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="39" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
         <v>113</v>
       </c>
@@ -8401,14 +8474,14 @@
       <c r="CX39" s="6">
         <v>16.5</v>
       </c>
-      <c r="DH39" s="18" t="s">
+      <c r="DL39" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="DJ39" s="19" t="s">
+      <c r="DN39" s="19" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="40" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
         <v>134</v>
       </c>
@@ -8505,11 +8578,11 @@
       <c r="DG40" s="6">
         <v>55</v>
       </c>
-      <c r="DH40" s="18" t="s">
+      <c r="DL40" s="18" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="41" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
         <v>92</v>
       </c>
@@ -8638,11 +8711,11 @@
       <c r="DG41" s="6">
         <v>53</v>
       </c>
-      <c r="DH41" s="18" t="s">
+      <c r="DL41" s="18" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="42" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
         <v>95</v>
       </c>
@@ -8750,11 +8823,11 @@
       <c r="DG42" s="6">
         <v>50.2</v>
       </c>
-      <c r="DH42" s="18" t="s">
+      <c r="DL42" s="18" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="43" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
         <v>108</v>
       </c>
@@ -8853,11 +8926,11 @@
       <c r="CX43" s="6">
         <v>54</v>
       </c>
-      <c r="DH43" s="18" t="s">
+      <c r="DL43" s="18" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="44" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
         <v>134</v>
       </c>
@@ -8954,11 +9027,11 @@
       <c r="DG44" s="6">
         <v>54</v>
       </c>
-      <c r="DH44" s="18" t="s">
+      <c r="DL44" s="18" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="45" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
         <v>92</v>
       </c>
@@ -9114,11 +9187,11 @@
       <c r="DG45" s="6">
         <v>56</v>
       </c>
-      <c r="DH45" s="18" t="s">
+      <c r="DL45" s="18" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="46" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
         <v>113</v>
       </c>
@@ -9265,14 +9338,14 @@
       <c r="DG46" s="6">
         <v>38</v>
       </c>
-      <c r="DH46" s="18" t="s">
+      <c r="DL46" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="DI46" s="19" t="s">
+      <c r="DM46" s="19" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="47" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
         <v>106</v>
       </c>
@@ -9353,11 +9426,11 @@
       <c r="DG47" s="6">
         <v>43</v>
       </c>
-      <c r="DH47" s="20" t="s">
+      <c r="DL47" s="20" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="48" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
         <v>153</v>
       </c>
@@ -9431,11 +9504,11 @@
       <c r="DG48" s="6">
         <v>40</v>
       </c>
-      <c r="DH48" s="18" t="s">
+      <c r="DL48" s="18" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="49" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
         <v>134</v>
       </c>
@@ -9532,11 +9605,11 @@
       <c r="DG49" s="6">
         <v>53</v>
       </c>
-      <c r="DH49" s="18" t="s">
+      <c r="DL49" s="18" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="50" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
         <v>92</v>
       </c>
@@ -9665,11 +9738,11 @@
       <c r="DG50" s="6">
         <v>52</v>
       </c>
-      <c r="DH50" s="18" t="s">
+      <c r="DL50" s="18" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="51" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
         <v>95</v>
       </c>
@@ -9795,11 +9868,11 @@
       <c r="DG51" s="6">
         <v>47</v>
       </c>
-      <c r="DH51" s="18" t="s">
+      <c r="DL51" s="18" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="52" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A52" s="19" t="s">
         <v>134</v>
       </c>
@@ -9896,11 +9969,11 @@
       <c r="DG52" s="6">
         <v>52</v>
       </c>
-      <c r="DH52" s="18" t="s">
+      <c r="DL52" s="18" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="53" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
         <v>108</v>
       </c>
@@ -10023,11 +10096,11 @@
       <c r="CX53" s="6">
         <v>55</v>
       </c>
-      <c r="DH53" s="18" t="s">
+      <c r="DL53" s="18" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="54" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
         <v>92</v>
       </c>
@@ -10183,11 +10256,11 @@
       <c r="DG54" s="6">
         <v>52</v>
       </c>
-      <c r="DH54" s="18" t="s">
+      <c r="DL54" s="18" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="55" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
         <v>166</v>
       </c>
@@ -10301,14 +10374,14 @@
       <c r="DG55" s="6">
         <v>53</v>
       </c>
-      <c r="DH55" s="18" t="s">
+      <c r="DL55" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="DI55" s="6" t="s">
+      <c r="DM55" s="6" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="56" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
         <v>98</v>
       </c>
@@ -10542,11 +10615,11 @@
       <c r="CX56" s="6">
         <v>23</v>
       </c>
-      <c r="DH56" s="18" t="s">
+      <c r="DL56" s="18" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="57" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
         <v>153</v>
       </c>
@@ -10620,11 +10693,11 @@
       <c r="DG57" s="6">
         <v>45</v>
       </c>
-      <c r="DH57" s="18" t="s">
+      <c r="DL57" s="18" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="58" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
         <v>134</v>
       </c>
@@ -10721,11 +10794,11 @@
       <c r="DG58" s="6">
         <v>54</v>
       </c>
-      <c r="DH58" s="18" t="s">
+      <c r="DL58" s="18" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="59" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
         <v>113</v>
       </c>
@@ -10872,14 +10945,14 @@
       <c r="DG59" s="6">
         <v>39.299999999999997</v>
       </c>
-      <c r="DH59" s="18" t="s">
+      <c r="DL59" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="DI59" s="19" t="s">
+      <c r="DM59" s="19" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="60" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A60" s="19" t="s">
         <v>92</v>
       </c>
@@ -11008,11 +11081,11 @@
       <c r="DG60" s="6">
         <v>50</v>
       </c>
-      <c r="DH60" s="18" t="s">
+      <c r="DL60" s="18" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="61" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="s">
         <v>108</v>
       </c>
@@ -11135,11 +11208,11 @@
       <c r="CX61" s="6">
         <v>58</v>
       </c>
-      <c r="DH61" s="18" t="s">
+      <c r="DL61" s="18" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="62" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A62" s="19" t="s">
         <v>134</v>
       </c>
@@ -11236,11 +11309,11 @@
       <c r="DG62" s="6">
         <v>54</v>
       </c>
-      <c r="DH62" s="18" t="s">
+      <c r="DL62" s="18" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="63" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A63" s="19" t="s">
         <v>92</v>
       </c>
@@ -11396,11 +11469,11 @@
       <c r="DG63" s="6">
         <v>53</v>
       </c>
-      <c r="DH63" s="18" t="s">
+      <c r="DL63" s="18" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="64" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A64" s="19" t="s">
         <v>95</v>
       </c>
@@ -11526,11 +11599,11 @@
       <c r="DG64" s="6">
         <v>45.7</v>
       </c>
-      <c r="DH64" s="18" t="s">
+      <c r="DL64" s="18" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="65" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A65" s="19" t="s">
         <v>134</v>
       </c>
@@ -11627,11 +11700,11 @@
       <c r="DG65" s="6">
         <v>52</v>
       </c>
-      <c r="DH65" s="18" t="s">
+      <c r="DL65" s="18" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="66" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A66" s="19" t="s">
         <v>153</v>
       </c>
@@ -11699,11 +11772,11 @@
       <c r="DG66" s="6">
         <v>44</v>
       </c>
-      <c r="DH66" s="18" t="s">
+      <c r="DL66" s="18" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="67" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A67" s="19" t="s">
         <v>92</v>
       </c>
@@ -11832,11 +11905,11 @@
       <c r="DG67" s="6">
         <v>50</v>
       </c>
-      <c r="DH67" s="18" t="s">
+      <c r="DL67" s="18" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="68" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A68" s="19" t="s">
         <v>166</v>
       </c>
@@ -11950,11 +12023,11 @@
       <c r="DG68" s="6">
         <v>51</v>
       </c>
-      <c r="DH68" s="18" t="s">
+      <c r="DL68" s="18" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="69" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A69" s="19" t="s">
         <v>113</v>
       </c>
@@ -12038,11 +12111,11 @@
       <c r="CX69" s="6">
         <v>19.2</v>
       </c>
-      <c r="DH69" s="30" t="s">
+      <c r="DL69" s="38" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="70" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A70" s="19" t="s">
         <v>134</v>
       </c>
@@ -12139,11 +12212,11 @@
       <c r="DG70" s="6">
         <v>52</v>
       </c>
-      <c r="DH70" s="18" t="s">
+      <c r="DL70" s="18" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="71" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A71" s="19" t="s">
         <v>95</v>
       </c>
@@ -12269,11 +12342,11 @@
       <c r="DG71" s="6">
         <v>45.4</v>
       </c>
-      <c r="DH71" s="18" t="s">
+      <c r="DL71" s="18" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="72" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A72" s="19" t="s">
         <v>106</v>
       </c>
@@ -12375,11 +12448,11 @@
       <c r="DG72" s="6">
         <v>44</v>
       </c>
-      <c r="DH72" s="18" t="s">
+      <c r="DL72" s="18" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="73" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A73" s="19" t="s">
         <v>108</v>
       </c>
@@ -12502,11 +12575,11 @@
       <c r="CX73" s="6">
         <v>55</v>
       </c>
-      <c r="DH73" s="18" t="s">
+      <c r="DL73" s="18" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="74" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A74" s="19" t="s">
         <v>92</v>
       </c>
@@ -12662,11 +12735,11 @@
       <c r="DG74" s="6">
         <v>53</v>
       </c>
-      <c r="DH74" s="18" t="s">
+      <c r="DL74" s="18" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="75" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A75" s="19" t="s">
         <v>134</v>
       </c>
@@ -12763,11 +12836,11 @@
       <c r="DG75" s="6">
         <v>51</v>
       </c>
-      <c r="DH75" s="18" t="s">
+      <c r="DL75" s="18" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="76" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A76" s="19" t="s">
         <v>134</v>
       </c>
@@ -12864,11 +12937,11 @@
       <c r="DG76" s="6">
         <v>52</v>
       </c>
-      <c r="DH76" s="18" t="s">
+      <c r="DL76" s="18" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="77" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A77" s="19" t="s">
         <v>153</v>
       </c>
@@ -12936,11 +13009,11 @@
       <c r="DG77" s="6">
         <v>47</v>
       </c>
-      <c r="DH77" s="18" t="s">
+      <c r="DL77" s="18" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="78" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A78" s="19" t="s">
         <v>113</v>
       </c>
@@ -13093,11 +13166,11 @@
       <c r="DG78" s="6">
         <v>39.1</v>
       </c>
-      <c r="DH78" s="30" t="s">
+      <c r="DL78" s="30" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="79" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A79" s="19" t="s">
         <v>92</v>
       </c>
@@ -13226,11 +13299,11 @@
       <c r="DG79" s="6">
         <v>51</v>
       </c>
-      <c r="DH79" s="18" t="s">
+      <c r="DL79" s="18" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="80" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A80" s="19" t="s">
         <v>134</v>
       </c>
@@ -13327,11 +13400,11 @@
       <c r="DG80" s="6">
         <v>51</v>
       </c>
-      <c r="DH80" s="18" t="s">
+      <c r="DL80" s="18" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="81" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A81" s="19" t="s">
         <v>98</v>
       </c>
@@ -13583,11 +13656,11 @@
       <c r="DG81" s="6">
         <v>48</v>
       </c>
-      <c r="DH81" s="18" t="s">
+      <c r="DL81" s="18" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="82" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A82" s="19" t="s">
         <v>166</v>
       </c>
@@ -13701,11 +13774,11 @@
       <c r="DG82" s="6">
         <v>50</v>
       </c>
-      <c r="DH82" s="18" t="s">
+      <c r="DL82" s="18" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="83" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A83" s="19" t="s">
         <v>134</v>
       </c>
@@ -13802,11 +13875,11 @@
       <c r="DG83" s="6">
         <v>50</v>
       </c>
-      <c r="DH83" s="18" t="s">
+      <c r="DL83" s="18" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="84" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A84" s="19" t="s">
         <v>95</v>
       </c>
@@ -13938,11 +14011,11 @@
       <c r="DG84" s="6">
         <v>44.4</v>
       </c>
-      <c r="DH84" s="18" t="s">
+      <c r="DL84" s="18" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="85" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A85" s="19" t="s">
         <v>108</v>
       </c>
@@ -14101,11 +14174,11 @@
       <c r="CX85" s="6">
         <v>62</v>
       </c>
-      <c r="DH85" s="18" t="s">
+      <c r="DL85" s="18" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="86" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A86" s="19" t="s">
         <v>92</v>
       </c>
@@ -14261,11 +14334,11 @@
       <c r="DG86" s="6">
         <v>51</v>
       </c>
-      <c r="DH86" s="18" t="s">
+      <c r="DL86" s="18" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="87" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A87" s="19" t="s">
         <v>166</v>
       </c>
@@ -14379,11 +14452,11 @@
       <c r="DG87" s="6">
         <v>49</v>
       </c>
-      <c r="DH87" s="18" t="s">
+      <c r="DL87" s="18" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="88" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A88" s="19" t="s">
         <v>92</v>
       </c>
@@ -14512,14 +14585,14 @@
       <c r="DG88" s="6">
         <v>51</v>
       </c>
-      <c r="DH88" s="19" t="s">
+      <c r="DL88" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="DI88" s="6" t="s">
+      <c r="DM88" s="6" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="89" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A89" s="19" t="s">
         <v>153</v>
       </c>
@@ -14603,11 +14676,11 @@
       <c r="DG89" s="6">
         <v>44</v>
       </c>
-      <c r="DH89" s="19" t="s">
+      <c r="DL89" s="19" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="90" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A90" s="19" t="s">
         <v>98</v>
       </c>
@@ -14707,6 +14780,33 @@
       <c r="AH90" s="6">
         <f t="shared" si="8"/>
         <v>11</v>
+      </c>
+      <c r="AI90" s="6">
+        <v>46</v>
+      </c>
+      <c r="AJ90" s="6">
+        <v>41</v>
+      </c>
+      <c r="AK90" s="6">
+        <v>54</v>
+      </c>
+      <c r="AO90" s="6">
+        <v>28</v>
+      </c>
+      <c r="AP90" s="6">
+        <v>34</v>
+      </c>
+      <c r="AQ90" s="6">
+        <v>22</v>
+      </c>
+      <c r="AU90" s="6">
+        <v>9</v>
+      </c>
+      <c r="AV90" s="6">
+        <v>9</v>
+      </c>
+      <c r="AW90" s="6">
+        <v>7</v>
       </c>
       <c r="AY90"/>
       <c r="AZ90"/>
@@ -14728,6 +14828,24 @@
       <c r="BF90" s="6">
         <v>12</v>
       </c>
+      <c r="BG90" s="6">
+        <v>58</v>
+      </c>
+      <c r="BH90" s="6">
+        <v>49</v>
+      </c>
+      <c r="BI90" s="6">
+        <v>63</v>
+      </c>
+      <c r="BM90" s="6">
+        <v>33</v>
+      </c>
+      <c r="BN90" s="6">
+        <v>41</v>
+      </c>
+      <c r="BO90" s="6">
+        <v>28</v>
+      </c>
       <c r="BS90" s="6">
         <v>57</v>
       </c>
@@ -14762,9 +14880,33 @@
       <c r="CC90" s="6">
         <v>21</v>
       </c>
-      <c r="CP90"/>
-      <c r="CQ90"/>
-      <c r="CR90"/>
+      <c r="CD90" s="6">
+        <v>34</v>
+      </c>
+      <c r="CE90" s="6">
+        <v>43</v>
+      </c>
+      <c r="CF90" s="6">
+        <v>27</v>
+      </c>
+      <c r="CJ90" s="6">
+        <v>55</v>
+      </c>
+      <c r="CK90" s="6">
+        <v>51</v>
+      </c>
+      <c r="CL90" s="6">
+        <v>63</v>
+      </c>
+      <c r="CP90" s="6">
+        <v>24</v>
+      </c>
+      <c r="CQ90" s="6">
+        <v>22</v>
+      </c>
+      <c r="CR90" s="6">
+        <v>24</v>
+      </c>
       <c r="CS90"/>
       <c r="CU90" s="25"/>
       <c r="CV90" s="6">
@@ -14776,14 +14918,27 @@
       <c r="CX90" s="6">
         <v>24</v>
       </c>
-      <c r="DH90" s="19" t="s">
+      <c r="DH90" s="6">
+        <v>28</v>
+      </c>
+      <c r="DI90" s="6">
+        <v>20</v>
+      </c>
+      <c r="DJ90" s="6">
+        <v>29</v>
+      </c>
+      <c r="DK90" s="6">
+        <f>DH90+DJ90</f>
+        <v>57</v>
+      </c>
+      <c r="DL90" s="19" t="s">
         <v>365</v>
       </c>
-      <c r="DI90" s="6" t="s">
+      <c r="DM90" s="6" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="91" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A91" s="19" t="s">
         <v>166</v>
       </c>
@@ -14897,11 +15052,11 @@
       <c r="DG91" s="6">
         <v>50</v>
       </c>
-      <c r="DH91" s="19" t="s">
+      <c r="DL91" s="19" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="92" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A92" s="19" t="s">
         <v>108</v>
       </c>
@@ -15003,11 +15158,11 @@
       <c r="CX92" s="6">
         <v>55</v>
       </c>
-      <c r="DH92" s="19" t="s">
+      <c r="DL92" s="19" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="93" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A93" s="19" t="s">
         <v>95</v>
       </c>
@@ -15146,11 +15301,11 @@
       <c r="DG93" s="6">
         <v>45</v>
       </c>
-      <c r="DH93" s="19" t="s">
+      <c r="DL93" s="19" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="94" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A94" s="19" t="s">
         <v>92</v>
       </c>
@@ -15306,11 +15461,11 @@
       <c r="DG94" s="6">
         <v>54</v>
       </c>
-      <c r="DH94" s="19" t="s">
+      <c r="DL94" s="19" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="95" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A95" s="19" t="s">
         <v>166</v>
       </c>
@@ -15424,11 +15579,11 @@
       <c r="DG95" s="6">
         <v>47</v>
       </c>
-      <c r="DH95" s="19" t="s">
+      <c r="DL95" s="34" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="96" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A96" s="19" t="s">
         <v>92</v>
       </c>
@@ -15558,7 +15713,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="97" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A97" s="19" t="s">
         <v>153</v>
       </c>
@@ -15621,11 +15776,11 @@
       <c r="CX97" s="6">
         <v>19</v>
       </c>
-      <c r="DH97" s="19" t="s">
+      <c r="DL97" s="19" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="98" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A98" s="19" t="s">
         <v>134</v>
       </c>
@@ -15732,11 +15887,11 @@
       <c r="DG98" s="6">
         <v>49</v>
       </c>
-      <c r="DH98" s="6" t="s">
+      <c r="DL98" s="6" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="99" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A99" s="19" t="s">
         <v>166</v>
       </c>
@@ -15848,11 +16003,11 @@
       <c r="DG99" s="6">
         <v>47</v>
       </c>
-      <c r="DH99" s="19" t="s">
+      <c r="DL99" s="19" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="100" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A100" s="19" t="s">
         <v>113</v>
       </c>
@@ -15936,11 +16091,11 @@
       <c r="DG100" s="6">
         <v>38.5</v>
       </c>
-      <c r="DH100" s="19" t="s">
+      <c r="DL100" s="19" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="101" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A101" s="19" t="s">
         <v>98</v>
       </c>
@@ -16174,11 +16329,11 @@
       <c r="CX101" s="6">
         <v>25</v>
       </c>
-      <c r="DH101" s="19" t="s">
+      <c r="DL101" s="19" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="102" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A102" s="19" t="s">
         <v>108</v>
       </c>
@@ -16301,11 +16456,11 @@
       <c r="DG102" s="6">
         <v>43</v>
       </c>
-      <c r="DH102" s="19" t="s">
+      <c r="DL102" s="19" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="103" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A103" s="19" t="s">
         <v>95</v>
       </c>
@@ -16413,11 +16568,11 @@
       <c r="DG103" s="6">
         <v>44.3</v>
       </c>
-      <c r="DH103" s="19" t="s">
+      <c r="DL103" s="19" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="104" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A104" s="19" t="s">
         <v>92</v>
       </c>
@@ -16576,11 +16731,11 @@
       <c r="DG104" s="6">
         <v>49</v>
       </c>
-      <c r="DH104" s="19" t="s">
+      <c r="DL104" s="19" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="105" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A105" s="19" t="s">
         <v>166</v>
       </c>
@@ -16694,11 +16849,11 @@
       <c r="DG105" s="6">
         <v>44</v>
       </c>
-      <c r="DH105" s="19" t="s">
+      <c r="DL105" s="19" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="106" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A106" s="19" t="s">
         <v>108</v>
       </c>
@@ -16812,11 +16967,11 @@
       <c r="CX106" s="6">
         <v>52</v>
       </c>
-      <c r="DH106" s="19" t="s">
+      <c r="DL106" s="19" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="107" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A107" s="19" t="s">
         <v>166</v>
       </c>
@@ -16930,11 +17085,11 @@
       <c r="DG107" s="6">
         <v>44</v>
       </c>
-      <c r="DH107" s="19" t="s">
+      <c r="DL107" s="19" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="108" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A108" s="19" t="s">
         <v>89</v>
       </c>
@@ -17075,6 +17230,33 @@
       <c r="CC108" s="6">
         <v>16</v>
       </c>
+      <c r="CE108" s="6">
+        <v>37</v>
+      </c>
+      <c r="CF108" s="6">
+        <v>31</v>
+      </c>
+      <c r="CI108" s="6">
+        <v>24</v>
+      </c>
+      <c r="CK108" s="6">
+        <v>45</v>
+      </c>
+      <c r="CL108" s="6">
+        <v>48</v>
+      </c>
+      <c r="CO108" s="6">
+        <v>47</v>
+      </c>
+      <c r="CQ108" s="6">
+        <v>16</v>
+      </c>
+      <c r="CR108" s="6">
+        <v>18</v>
+      </c>
+      <c r="CU108" s="6">
+        <v>26</v>
+      </c>
       <c r="CV108" s="6">
         <v>33</v>
       </c>
@@ -17093,11 +17275,11 @@
       <c r="DG108" s="6">
         <v>43</v>
       </c>
-      <c r="DH108" s="19" t="s">
+      <c r="DL108" s="19" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="109" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A109" s="19" t="s">
         <v>92</v>
       </c>
@@ -17224,11 +17406,11 @@
       <c r="DG109" s="6">
         <v>51</v>
       </c>
-      <c r="DH109" s="34" t="s">
-        <v>448</v>
+      <c r="DL109" s="34" t="s">
+        <v>447</v>
       </c>
     </row>
-    <row r="110" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A110" s="19" t="s">
         <v>98</v>
       </c>
@@ -17271,6 +17453,24 @@
       <c r="N110" s="6">
         <v>52</v>
       </c>
+      <c r="O110" s="6">
+        <v>41</v>
+      </c>
+      <c r="P110" s="6">
+        <v>35</v>
+      </c>
+      <c r="Q110" s="6">
+        <v>16</v>
+      </c>
+      <c r="R110" s="6">
+        <v>2</v>
+      </c>
+      <c r="S110" s="6">
+        <v>2</v>
+      </c>
+      <c r="T110" s="6">
+        <v>5</v>
+      </c>
       <c r="U110" s="6">
         <v>46</v>
       </c>
@@ -17373,11 +17573,24 @@
       <c r="CX110" s="6">
         <v>25</v>
       </c>
-      <c r="DH110" s="19" t="s">
-        <v>444</v>
+      <c r="DH110" s="6">
+        <v>28</v>
+      </c>
+      <c r="DI110" s="6">
+        <v>20</v>
+      </c>
+      <c r="DJ110" s="6">
+        <v>28</v>
+      </c>
+      <c r="DK110" s="6">
+        <f>DH110+DJ110</f>
+        <v>56</v>
+      </c>
+      <c r="DL110" s="34" t="s">
+        <v>608</v>
       </c>
     </row>
-    <row r="111" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A111" s="19" t="s">
         <v>166</v>
       </c>
@@ -17489,11 +17702,11 @@
       <c r="DG111" s="6">
         <v>46</v>
       </c>
-      <c r="DH111" s="34" t="s">
-        <v>452</v>
+      <c r="DL111" s="34" t="s">
+        <v>451</v>
       </c>
     </row>
-    <row r="112" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A112" s="19" t="s">
         <v>95</v>
       </c>
@@ -17590,11 +17803,11 @@
       <c r="DG112" s="6">
         <v>41.3</v>
       </c>
-      <c r="DH112" s="19" t="s">
-        <v>445</v>
+      <c r="DL112" s="19" t="s">
+        <v>444</v>
       </c>
     </row>
-    <row r="113" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A113" s="19" t="s">
         <v>153</v>
       </c>
@@ -17676,11 +17889,11 @@
       <c r="DG113" s="6">
         <v>46</v>
       </c>
-      <c r="DH113" s="34" t="s">
-        <v>454</v>
+      <c r="DL113" s="34" t="s">
+        <v>453</v>
       </c>
     </row>
-    <row r="114" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A114" s="19" t="s">
         <v>108</v>
       </c>
@@ -17792,11 +18005,11 @@
       <c r="CX114" s="6">
         <v>48</v>
       </c>
-      <c r="DH114" s="34" t="s">
-        <v>456</v>
+      <c r="DL114" s="34" t="s">
+        <v>455</v>
       </c>
     </row>
-    <row r="115" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A115" s="19" t="s">
         <v>106</v>
       </c>
@@ -17908,11 +18121,11 @@
       <c r="DG115" s="6">
         <v>42.1</v>
       </c>
-      <c r="DH115" s="19" t="s">
-        <v>446</v>
+      <c r="DL115" s="19" t="s">
+        <v>445</v>
       </c>
     </row>
-    <row r="116" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A116" s="19" t="s">
         <v>166</v>
       </c>
@@ -18024,11 +18237,11 @@
       <c r="DG116" s="6">
         <v>45</v>
       </c>
-      <c r="DH116" s="34" t="s">
-        <v>453</v>
+      <c r="DL116" s="34" t="s">
+        <v>452</v>
       </c>
     </row>
-    <row r="117" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A117" s="19" t="s">
         <v>89</v>
       </c>
@@ -18170,6 +18383,33 @@
       <c r="CC117" s="6">
         <v>13</v>
       </c>
+      <c r="CE117" s="6">
+        <v>39</v>
+      </c>
+      <c r="CF117" s="6">
+        <v>33</v>
+      </c>
+      <c r="CI117" s="6">
+        <v>36</v>
+      </c>
+      <c r="CK117" s="6">
+        <v>43</v>
+      </c>
+      <c r="CL117" s="6">
+        <v>49</v>
+      </c>
+      <c r="CO117" s="6">
+        <v>52</v>
+      </c>
+      <c r="CQ117" s="6">
+        <v>18</v>
+      </c>
+      <c r="CR117" s="6">
+        <v>15</v>
+      </c>
+      <c r="CU117" s="6">
+        <v>15</v>
+      </c>
       <c r="CV117" s="6">
         <v>36</v>
       </c>
@@ -18188,11 +18428,11 @@
       <c r="DG117" s="6">
         <v>43</v>
       </c>
-      <c r="DH117" s="34" t="s">
-        <v>457</v>
+      <c r="DL117" s="34" t="s">
+        <v>456</v>
       </c>
     </row>
-    <row r="118" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A118" s="19" t="s">
         <v>134</v>
       </c>
@@ -18298,16 +18538,16 @@
       <c r="DG118" s="6">
         <v>45</v>
       </c>
-      <c r="DH118" s="34" t="s">
-        <v>455</v>
+      <c r="DL118" s="34" t="s">
+        <v>454</v>
       </c>
     </row>
-    <row r="119" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A119" s="19" t="s">
         <v>92</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C119" s="16">
         <v>44803</v>
@@ -18319,7 +18559,7 @@
         <v>2022</v>
       </c>
       <c r="F119" s="25" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G119" s="6">
         <v>3500</v>
@@ -18464,11 +18704,11 @@
       <c r="DG119" s="6">
         <v>55</v>
       </c>
-      <c r="DH119" s="6" t="s">
-        <v>451</v>
+      <c r="DL119" s="6" t="s">
+        <v>450</v>
       </c>
     </row>
-    <row r="120" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A120" s="19" t="s">
         <v>95</v>
       </c>
@@ -18589,11 +18829,11 @@
       <c r="DG120" s="6">
         <v>41.8</v>
       </c>
-      <c r="DH120" s="19" t="s">
-        <v>447</v>
+      <c r="DL120" s="19" t="s">
+        <v>446</v>
       </c>
     </row>
-    <row r="121" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A121" s="19" t="s">
         <v>98</v>
       </c>
@@ -18627,6 +18867,30 @@
       <c r="K121" s="6">
         <v>285</v>
       </c>
+      <c r="M121" s="6">
+        <v>48</v>
+      </c>
+      <c r="N121" s="6">
+        <v>52</v>
+      </c>
+      <c r="O121" s="6">
+        <v>43</v>
+      </c>
+      <c r="P121" s="6">
+        <v>33</v>
+      </c>
+      <c r="Q121" s="6">
+        <v>15</v>
+      </c>
+      <c r="R121" s="6">
+        <v>2</v>
+      </c>
+      <c r="S121" s="6">
+        <v>2</v>
+      </c>
+      <c r="T121" s="6">
+        <v>5</v>
+      </c>
       <c r="U121" s="6">
         <v>43</v>
       </c>
@@ -18729,16 +18993,16 @@
       <c r="CX121" s="6">
         <v>24</v>
       </c>
-      <c r="DH121" s="34" t="s">
-        <v>458</v>
+      <c r="DL121" s="34" t="s">
+        <v>457</v>
       </c>
     </row>
-    <row r="122" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A122" s="19" t="s">
         <v>89</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C122" s="16">
         <v>44808</v>
@@ -18750,7 +19014,7 @@
         <v>2022</v>
       </c>
       <c r="F122" s="25" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G122" s="6">
         <v>2512</v>
@@ -18866,6 +19130,33 @@
       <c r="CC122" s="6">
         <v>14</v>
       </c>
+      <c r="CE122" s="6">
+        <v>39</v>
+      </c>
+      <c r="CF122" s="6">
+        <v>34</v>
+      </c>
+      <c r="CI122" s="6">
+        <v>40</v>
+      </c>
+      <c r="CK122" s="6">
+        <v>45</v>
+      </c>
+      <c r="CL122" s="6">
+        <v>52</v>
+      </c>
+      <c r="CO122" s="6">
+        <v>44</v>
+      </c>
+      <c r="CQ122" s="6">
+        <v>15</v>
+      </c>
+      <c r="CR122" s="6">
+        <v>18</v>
+      </c>
+      <c r="CU122" s="6">
+        <v>15</v>
+      </c>
       <c r="CV122" s="6">
         <v>36</v>
       </c>
@@ -18875,16 +19166,16 @@
       <c r="CX122" s="6">
         <v>17</v>
       </c>
-      <c r="DH122" s="35" t="s">
-        <v>461</v>
+      <c r="DL122" s="35" t="s">
+        <v>460</v>
       </c>
     </row>
-    <row r="123" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A123" s="19" t="s">
         <v>166</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C123" s="16">
         <v>44808</v>
@@ -18896,7 +19187,7 @@
         <v>2022</v>
       </c>
       <c r="F123" s="25" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G123" s="6">
         <v>2000</v>
@@ -18985,16 +19276,16 @@
       <c r="DG123" s="6">
         <v>46</v>
       </c>
-      <c r="DH123" s="19" t="s">
-        <v>464</v>
+      <c r="DL123" s="19" t="s">
+        <v>463</v>
       </c>
     </row>
-    <row r="124" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A124" s="19" t="s">
         <v>108</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C124" s="16">
         <v>44808</v>
@@ -19006,7 +19297,7 @@
         <v>2022</v>
       </c>
       <c r="F124" s="25" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G124" s="6">
         <v>2000</v>
@@ -19101,16 +19392,16 @@
       <c r="CX124" s="6">
         <v>50</v>
       </c>
-      <c r="DH124" s="34" t="s">
-        <v>485</v>
+      <c r="DL124" s="34" t="s">
+        <v>483</v>
       </c>
     </row>
-    <row r="125" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A125" s="19" t="s">
         <v>95</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C125" s="16">
         <v>44809</v>
@@ -19122,7 +19413,7 @@
         <v>2022</v>
       </c>
       <c r="F125" s="25" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G125" s="6">
         <v>2020</v>
@@ -19235,16 +19526,16 @@
       <c r="DG125" s="6">
         <v>42.7</v>
       </c>
-      <c r="DH125" s="34" t="s">
-        <v>486</v>
+      <c r="DL125" s="34" t="s">
+        <v>484</v>
       </c>
     </row>
-    <row r="126" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A126" s="19" t="s">
         <v>92</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C126" s="16">
         <v>44810</v>
@@ -19256,19 +19547,19 @@
         <v>2022</v>
       </c>
       <c r="F126" s="25" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="BU126" s="25"/>
-      <c r="DH126" s="19" t="s">
-        <v>490</v>
+      <c r="DL126" s="19" t="s">
+        <v>488</v>
       </c>
     </row>
-    <row r="127" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A127" s="19" t="s">
         <v>98</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C127" s="16">
         <v>44813</v>
@@ -19280,7 +19571,7 @@
         <v>2022</v>
       </c>
       <c r="F127" s="25" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G127" s="6">
         <v>2676</v>
@@ -19297,6 +19588,30 @@
       <c r="K127" s="6">
         <v>191</v>
       </c>
+      <c r="M127" s="6">
+        <v>48</v>
+      </c>
+      <c r="N127" s="6">
+        <v>52</v>
+      </c>
+      <c r="O127" s="6">
+        <v>42</v>
+      </c>
+      <c r="P127" s="6">
+        <v>34</v>
+      </c>
+      <c r="Q127" s="6">
+        <v>15</v>
+      </c>
+      <c r="R127" s="6">
+        <v>3</v>
+      </c>
+      <c r="S127" s="6">
+        <v>2</v>
+      </c>
+      <c r="T127" s="6">
+        <v>5</v>
+      </c>
       <c r="U127" s="6">
         <v>43</v>
       </c>
@@ -19339,6 +19654,33 @@
       <c r="AH127" s="6">
         <v>7</v>
       </c>
+      <c r="AI127" s="6">
+        <v>43</v>
+      </c>
+      <c r="AJ127" s="6">
+        <v>40</v>
+      </c>
+      <c r="AK127" s="6">
+        <v>54</v>
+      </c>
+      <c r="AO127" s="6">
+        <v>35</v>
+      </c>
+      <c r="AP127" s="6">
+        <v>38</v>
+      </c>
+      <c r="AQ127" s="6">
+        <v>25</v>
+      </c>
+      <c r="AU127" s="6">
+        <v>8</v>
+      </c>
+      <c r="AV127" s="6">
+        <v>7</v>
+      </c>
+      <c r="AW127" s="6">
+        <v>6</v>
+      </c>
       <c r="BA127" s="6">
         <v>50</v>
       </c>
@@ -19357,6 +19699,24 @@
       <c r="BF127" s="6">
         <v>2</v>
       </c>
+      <c r="BG127" s="6">
+        <v>52</v>
+      </c>
+      <c r="BH127" s="6">
+        <v>48</v>
+      </c>
+      <c r="BI127" s="6">
+        <v>29</v>
+      </c>
+      <c r="BM127" s="6">
+        <v>40</v>
+      </c>
+      <c r="BN127" s="6">
+        <v>43</v>
+      </c>
+      <c r="BO127" s="6">
+        <v>29</v>
+      </c>
       <c r="BS127" s="6">
         <v>53</v>
       </c>
@@ -19390,6 +19750,33 @@
       <c r="CC127" s="6">
         <v>20</v>
       </c>
+      <c r="CD127" s="6">
+        <v>40</v>
+      </c>
+      <c r="CE127" s="6">
+        <v>45</v>
+      </c>
+      <c r="CF127" s="6">
+        <v>28</v>
+      </c>
+      <c r="CJ127" s="6">
+        <v>49</v>
+      </c>
+      <c r="CK127" s="6">
+        <v>49</v>
+      </c>
+      <c r="CL127" s="6">
+        <v>61</v>
+      </c>
+      <c r="CP127" s="6">
+        <v>24</v>
+      </c>
+      <c r="CQ127" s="6">
+        <v>23</v>
+      </c>
+      <c r="CR127" s="6">
+        <v>25</v>
+      </c>
       <c r="CV127" s="6">
         <v>39</v>
       </c>
@@ -19399,16 +19786,29 @@
       <c r="CX127" s="6">
         <v>24</v>
       </c>
-      <c r="DH127" s="19" t="s">
-        <v>481</v>
+      <c r="DH127" s="6">
+        <v>31</v>
+      </c>
+      <c r="DI127" s="6">
+        <v>22</v>
+      </c>
+      <c r="DJ127" s="6">
+        <v>28</v>
+      </c>
+      <c r="DK127" s="6">
+        <f>DH127+DJ127</f>
+        <v>59</v>
+      </c>
+      <c r="DL127" s="19" t="s">
+        <v>609</v>
       </c>
     </row>
-    <row r="128" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A128" s="19" t="s">
         <v>89</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C128" s="16">
         <v>44815</v>
@@ -19420,7 +19820,7 @@
         <v>2022</v>
       </c>
       <c r="F128" s="25" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G128" s="6">
         <v>2512</v>
@@ -19536,6 +19936,33 @@
       <c r="CC128" s="6">
         <v>16</v>
       </c>
+      <c r="CE128" s="6">
+        <v>40</v>
+      </c>
+      <c r="CF128" s="6">
+        <v>31</v>
+      </c>
+      <c r="CI128" s="6">
+        <v>40</v>
+      </c>
+      <c r="CK128" s="6">
+        <v>46</v>
+      </c>
+      <c r="CL128" s="6">
+        <v>52</v>
+      </c>
+      <c r="CO128" s="6">
+        <v>53</v>
+      </c>
+      <c r="CQ128" s="6">
+        <v>17</v>
+      </c>
+      <c r="CR128" s="6">
+        <v>16</v>
+      </c>
+      <c r="CU128" s="6">
+        <v>13</v>
+      </c>
       <c r="CV128" s="6">
         <v>35</v>
       </c>
@@ -19545,16 +19972,16 @@
       <c r="CX128" s="6">
         <v>17</v>
       </c>
-      <c r="DH128" s="34" t="s">
-        <v>484</v>
+      <c r="DL128" s="34" t="s">
+        <v>482</v>
       </c>
     </row>
-    <row r="129" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A129" s="19" t="s">
         <v>166</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C129" s="16">
         <v>44815</v>
@@ -19566,7 +19993,7 @@
         <v>2022</v>
       </c>
       <c r="F129" s="25" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G129" s="6">
         <v>2000</v>
@@ -19661,16 +20088,16 @@
       <c r="DG129" s="6">
         <v>44</v>
       </c>
-      <c r="DH129" s="34" t="s">
-        <v>483</v>
+      <c r="DL129" s="34" t="s">
+        <v>481</v>
       </c>
     </row>
-    <row r="130" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A130" s="19" t="s">
         <v>95</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C130" s="16">
         <v>44816</v>
@@ -19682,7 +20109,7 @@
         <v>2022</v>
       </c>
       <c r="F130" s="25" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G130" s="6">
         <v>2020</v>
@@ -19795,16 +20222,16 @@
       <c r="DG130" s="6">
         <v>43.2</v>
       </c>
-      <c r="DH130" s="34" t="s">
-        <v>487</v>
+      <c r="DL130" s="34" t="s">
+        <v>485</v>
       </c>
     </row>
-    <row r="131" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A131" s="19" t="s">
         <v>92</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C131" s="16">
         <v>44817</v>
@@ -19816,19 +20243,19 @@
         <v>2022</v>
       </c>
       <c r="F131" s="25" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="BU131" s="25"/>
-      <c r="DH131" s="19" t="s">
-        <v>493</v>
+      <c r="DL131" s="19" t="s">
+        <v>491</v>
       </c>
     </row>
-    <row r="132" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A132" s="19" t="s">
         <v>108</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C132" s="16">
         <v>44818</v>
@@ -19840,7 +20267,7 @@
         <v>2022</v>
       </c>
       <c r="F132" s="25" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G132" s="6">
         <v>2000</v>
@@ -19935,16 +20362,16 @@
       <c r="CX132" s="6">
         <v>50</v>
       </c>
-      <c r="DH132" s="34" t="s">
-        <v>482</v>
+      <c r="DL132" s="34" t="s">
+        <v>480</v>
       </c>
     </row>
-    <row r="133" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A133" s="19" t="s">
         <v>106</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C133" s="16">
         <v>44818</v>
@@ -19956,7 +20383,7 @@
         <v>2022</v>
       </c>
       <c r="F133" s="25" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="G133" s="6">
         <v>2022</v>
@@ -20052,16 +20479,16 @@
       <c r="DG133" s="6">
         <v>42.8</v>
       </c>
-      <c r="DH133" s="19" t="s">
-        <v>524</v>
+      <c r="DL133" s="19" t="s">
+        <v>522</v>
       </c>
     </row>
-    <row r="134" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A134" s="19" t="s">
         <v>98</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C134" s="16">
         <v>44819</v>
@@ -20073,7 +20500,7 @@
         <v>2022</v>
       </c>
       <c r="F134" s="25" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G134" s="6">
         <v>5926</v>
@@ -20090,6 +20517,30 @@
       <c r="K134" s="6">
         <v>300</v>
       </c>
+      <c r="M134" s="6">
+        <v>48</v>
+      </c>
+      <c r="N134" s="6">
+        <v>52</v>
+      </c>
+      <c r="O134" s="6">
+        <v>42</v>
+      </c>
+      <c r="P134" s="6">
+        <v>34</v>
+      </c>
+      <c r="Q134" s="6">
+        <v>15</v>
+      </c>
+      <c r="R134" s="6">
+        <v>3</v>
+      </c>
+      <c r="S134" s="6">
+        <v>2</v>
+      </c>
+      <c r="T134" s="6">
+        <v>5</v>
+      </c>
       <c r="U134" s="6">
         <v>44</v>
       </c>
@@ -20132,6 +20583,33 @@
       <c r="AH134" s="6">
         <v>6</v>
       </c>
+      <c r="AI134" s="6">
+        <v>45</v>
+      </c>
+      <c r="AJ134" s="6">
+        <v>38</v>
+      </c>
+      <c r="AK134" s="6">
+        <v>57</v>
+      </c>
+      <c r="AO134" s="6">
+        <v>33</v>
+      </c>
+      <c r="AP134" s="6">
+        <v>39</v>
+      </c>
+      <c r="AQ134" s="6">
+        <v>23</v>
+      </c>
+      <c r="AU134" s="6">
+        <v>9</v>
+      </c>
+      <c r="AV134" s="6">
+        <v>7</v>
+      </c>
+      <c r="AW134" s="6">
+        <v>6</v>
+      </c>
       <c r="BA134" s="6">
         <v>51</v>
       </c>
@@ -20150,6 +20628,24 @@
       <c r="BF134" s="6">
         <v>1</v>
       </c>
+      <c r="BG134" s="6">
+        <v>53</v>
+      </c>
+      <c r="BH134" s="6">
+        <v>46</v>
+      </c>
+      <c r="BI134" s="6">
+        <v>65</v>
+      </c>
+      <c r="BM134" s="6">
+        <v>38</v>
+      </c>
+      <c r="BN134" s="6">
+        <v>44</v>
+      </c>
+      <c r="BO134" s="6">
+        <v>28</v>
+      </c>
       <c r="BS134" s="6">
         <v>54</v>
       </c>
@@ -20183,6 +20679,33 @@
       <c r="CC134" s="6">
         <v>21</v>
       </c>
+      <c r="CD134" s="6">
+        <v>38</v>
+      </c>
+      <c r="CE134" s="6">
+        <v>46</v>
+      </c>
+      <c r="CF134" s="6">
+        <v>27</v>
+      </c>
+      <c r="CJ134" s="6">
+        <v>53</v>
+      </c>
+      <c r="CK134" s="6">
+        <v>48</v>
+      </c>
+      <c r="CL134" s="6">
+        <v>65</v>
+      </c>
+      <c r="CP134" s="6">
+        <v>25</v>
+      </c>
+      <c r="CQ134" s="6">
+        <v>55</v>
+      </c>
+      <c r="CR134" s="6">
+        <v>23</v>
+      </c>
       <c r="CV134" s="6">
         <v>38</v>
       </c>
@@ -20192,16 +20715,29 @@
       <c r="CX134" s="6">
         <v>24</v>
       </c>
-      <c r="DH134" s="19" t="s">
-        <v>481</v>
+      <c r="DH134" s="6">
+        <v>29</v>
+      </c>
+      <c r="DI134" s="6">
+        <v>23</v>
+      </c>
+      <c r="DJ134" s="6">
+        <v>27</v>
+      </c>
+      <c r="DK134" s="6">
+        <f>DH134+DJ134</f>
+        <v>56</v>
+      </c>
+      <c r="DL134" s="19" t="s">
+        <v>610</v>
       </c>
     </row>
-    <row r="135" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A135" s="19" t="s">
         <v>89</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C135" s="16">
         <v>44822</v>
@@ -20213,7 +20749,7 @@
         <v>2022</v>
       </c>
       <c r="F135" s="25" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G135" s="6">
         <v>3008</v>
@@ -20323,7 +20859,33 @@
       <c r="CC135" s="6">
         <v>12</v>
       </c>
-      <c r="CE135" s="37"/>
+      <c r="CE135" s="6">
+        <v>37</v>
+      </c>
+      <c r="CF135" s="6">
+        <v>29</v>
+      </c>
+      <c r="CI135" s="6">
+        <v>32</v>
+      </c>
+      <c r="CK135" s="6">
+        <v>47</v>
+      </c>
+      <c r="CL135" s="6">
+        <v>53</v>
+      </c>
+      <c r="CO135" s="6">
+        <v>41</v>
+      </c>
+      <c r="CQ135" s="6">
+        <v>15</v>
+      </c>
+      <c r="CR135" s="6">
+        <v>15</v>
+      </c>
+      <c r="CU135" s="6">
+        <v>18</v>
+      </c>
       <c r="CV135" s="6">
         <v>33</v>
       </c>
@@ -20333,16 +20895,16 @@
       <c r="CX135" s="6">
         <v>15</v>
       </c>
-      <c r="DH135" s="34" t="s">
-        <v>502</v>
+      <c r="DL135" s="34" t="s">
+        <v>500</v>
       </c>
     </row>
-    <row r="136" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A136" s="19" t="s">
         <v>166</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C136" s="16">
         <v>44822</v>
@@ -20354,7 +20916,7 @@
         <v>2022</v>
       </c>
       <c r="F136" s="25" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G136" s="6">
         <v>2000</v>
@@ -20449,16 +21011,16 @@
       <c r="DG136" s="6">
         <v>43</v>
       </c>
-      <c r="DH136" s="19" t="s">
-        <v>503</v>
+      <c r="DL136" s="19" t="s">
+        <v>501</v>
       </c>
     </row>
-    <row r="137" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A137" s="19" t="s">
         <v>108</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C137" s="16">
         <v>44824</v>
@@ -20470,7 +21032,7 @@
         <v>2022</v>
       </c>
       <c r="F137" s="25" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G137" s="6">
         <v>2000</v>
@@ -20559,16 +21121,16 @@
       <c r="CX137" s="6">
         <v>54</v>
       </c>
-      <c r="DH137" s="34" t="s">
-        <v>504</v>
+      <c r="DL137" s="34" t="s">
+        <v>502</v>
       </c>
     </row>
-    <row r="138" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A138" s="19" t="s">
         <v>92</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C138" s="16">
         <v>44824</v>
@@ -20580,7 +21142,7 @@
         <v>2022</v>
       </c>
       <c r="F138" s="25" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G138" s="6">
         <v>3500</v>
@@ -20687,16 +21249,16 @@
       <c r="CW138" s="6">
         <v>51</v>
       </c>
-      <c r="DH138" s="34" t="s">
-        <v>525</v>
+      <c r="DL138" s="34" t="s">
+        <v>523</v>
       </c>
     </row>
-    <row r="139" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A139" s="19" t="s">
         <v>134</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C139" s="16">
         <v>44825</v>
@@ -20708,7 +21270,7 @@
         <v>2022</v>
       </c>
       <c r="F139" s="25" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="G139" s="6">
         <v>2000</v>
@@ -20797,16 +21359,16 @@
       <c r="DG139" s="6">
         <v>45</v>
       </c>
-      <c r="DH139" s="34" t="s">
-        <v>520</v>
+      <c r="DL139" s="34" t="s">
+        <v>518</v>
       </c>
     </row>
-    <row r="140" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A140" s="19" t="s">
         <v>98</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C140" s="16">
         <v>44826</v>
@@ -20818,7 +21380,7 @@
         <v>2022</v>
       </c>
       <c r="F140" s="25" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G140" s="36">
         <v>6754</v>
@@ -20835,6 +21397,24 @@
       <c r="K140" s="6">
         <v>343</v>
       </c>
+      <c r="O140" s="6">
+        <v>40</v>
+      </c>
+      <c r="P140" s="6">
+        <v>36</v>
+      </c>
+      <c r="Q140" s="6">
+        <v>15</v>
+      </c>
+      <c r="R140" s="6">
+        <v>3</v>
+      </c>
+      <c r="S140" s="6">
+        <v>2</v>
+      </c>
+      <c r="T140" s="6">
+        <v>5</v>
+      </c>
       <c r="U140" s="6">
         <v>44</v>
       </c>
@@ -20877,6 +21457,33 @@
       <c r="AH140" s="6">
         <v>5</v>
       </c>
+      <c r="AI140" s="6">
+        <v>48</v>
+      </c>
+      <c r="AJ140" s="6">
+        <v>40</v>
+      </c>
+      <c r="AK140" s="6">
+        <v>55</v>
+      </c>
+      <c r="AO140" s="6">
+        <v>32</v>
+      </c>
+      <c r="AP140" s="6">
+        <v>39</v>
+      </c>
+      <c r="AQ140" s="6">
+        <v>25</v>
+      </c>
+      <c r="AU140" s="6">
+        <v>7</v>
+      </c>
+      <c r="AV140" s="6">
+        <v>7</v>
+      </c>
+      <c r="AW140" s="6">
+        <v>7</v>
+      </c>
       <c r="BA140" s="6">
         <v>51</v>
       </c>
@@ -20895,6 +21502,24 @@
       <c r="BF140" s="6">
         <v>7</v>
       </c>
+      <c r="BG140" s="6">
+        <v>55</v>
+      </c>
+      <c r="BH140" s="6">
+        <v>47</v>
+      </c>
+      <c r="BI140" s="6">
+        <v>61</v>
+      </c>
+      <c r="BM140" s="6">
+        <v>37</v>
+      </c>
+      <c r="BN140" s="6">
+        <v>44</v>
+      </c>
+      <c r="BO140" s="6">
+        <v>30</v>
+      </c>
       <c r="BS140" s="6">
         <v>54</v>
       </c>
@@ -20928,6 +21553,33 @@
       <c r="CC140" s="6">
         <v>22</v>
       </c>
+      <c r="CD140" s="6">
+        <v>37</v>
+      </c>
+      <c r="CE140" s="6">
+        <v>56</v>
+      </c>
+      <c r="CF140" s="6">
+        <v>32</v>
+      </c>
+      <c r="CJ140" s="6">
+        <v>53</v>
+      </c>
+      <c r="CK140" s="6">
+        <v>48</v>
+      </c>
+      <c r="CL140" s="6">
+        <v>59</v>
+      </c>
+      <c r="CP140" s="6">
+        <v>24</v>
+      </c>
+      <c r="CQ140" s="6">
+        <v>23</v>
+      </c>
+      <c r="CR140" s="6">
+        <v>27</v>
+      </c>
       <c r="CV140" s="6">
         <v>39</v>
       </c>
@@ -20937,16 +21589,29 @@
       <c r="CX140" s="6">
         <v>24</v>
       </c>
-      <c r="DH140" s="34" t="s">
-        <v>458</v>
+      <c r="DH140" s="6">
+        <v>28</v>
+      </c>
+      <c r="DI140" s="6">
+        <v>21</v>
+      </c>
+      <c r="DJ140" s="6">
+        <v>30</v>
+      </c>
+      <c r="DK140" s="6">
+        <f>DH140+DJ140</f>
+        <v>58</v>
+      </c>
+      <c r="DL140" s="34" t="s">
+        <v>611</v>
       </c>
     </row>
-    <row r="141" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A141" s="19" t="s">
         <v>166</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C141" s="16">
         <v>44829</v>
@@ -20958,7 +21623,7 @@
         <v>2022</v>
       </c>
       <c r="F141" s="25" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G141" s="6">
         <v>2000</v>
@@ -21077,16 +21742,16 @@
       <c r="DG141" s="6">
         <v>46</v>
       </c>
-      <c r="DH141" s="34" t="s">
-        <v>514</v>
+      <c r="DL141" s="34" t="s">
+        <v>512</v>
       </c>
     </row>
-    <row r="142" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A142" s="19" t="s">
         <v>89</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C142" s="16">
         <v>44830</v>
@@ -21098,7 +21763,7 @@
         <v>2022</v>
       </c>
       <c r="F142" s="25" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G142" s="6">
         <v>3008</v>
@@ -21220,6 +21885,33 @@
       <c r="CC142" s="6">
         <v>12</v>
       </c>
+      <c r="CE142" s="6">
+        <v>40</v>
+      </c>
+      <c r="CF142" s="6">
+        <v>30</v>
+      </c>
+      <c r="CI142" s="6">
+        <v>35</v>
+      </c>
+      <c r="CK142" s="6">
+        <v>47</v>
+      </c>
+      <c r="CL142" s="6">
+        <v>54</v>
+      </c>
+      <c r="CO142" s="6">
+        <v>65</v>
+      </c>
+      <c r="CQ142" s="6">
+        <v>14</v>
+      </c>
+      <c r="CR142" s="6">
+        <v>14</v>
+      </c>
+      <c r="CU142" s="6">
+        <v>17</v>
+      </c>
       <c r="CV142" s="6">
         <v>35</v>
       </c>
@@ -21229,16 +21921,16 @@
       <c r="CX142" s="6">
         <v>14</v>
       </c>
-      <c r="DH142" s="34" t="s">
-        <v>515</v>
+      <c r="DL142" s="34" t="s">
+        <v>513</v>
       </c>
     </row>
-    <row r="143" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A143" s="19" t="s">
         <v>108</v>
       </c>
       <c r="B143" s="19" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C143" s="16">
         <v>44831</v>
@@ -21250,7 +21942,7 @@
         <v>2022</v>
       </c>
       <c r="F143" s="25" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G143" s="6">
         <v>2000</v>
@@ -21345,16 +22037,16 @@
       <c r="CX143" s="6">
         <v>53</v>
       </c>
-      <c r="DH143" s="19" t="s">
-        <v>516</v>
+      <c r="DL143" s="19" t="s">
+        <v>514</v>
       </c>
     </row>
-    <row r="144" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A144" s="19" t="s">
         <v>95</v>
       </c>
       <c r="B144" s="19" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C144" s="16">
         <v>44831</v>
@@ -21366,7 +22058,7 @@
         <v>2022</v>
       </c>
       <c r="F144" s="25" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G144" s="6">
         <v>2020</v>
@@ -21383,16 +22075,16 @@
       <c r="K144" s="6">
         <v>160</v>
       </c>
-      <c r="DH144" s="19" t="s">
-        <v>517</v>
+      <c r="DL144" s="19" t="s">
+        <v>515</v>
       </c>
     </row>
-    <row r="145" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A145" s="19" t="s">
         <v>98</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C145" s="16">
         <v>44833</v>
@@ -21404,7 +22096,7 @@
         <v>2022</v>
       </c>
       <c r="F145" s="25" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G145" s="6">
         <v>6800</v>
@@ -21418,6 +22110,33 @@
       <c r="J145" s="6" t="s">
         <v>100</v>
       </c>
+      <c r="K145" s="6">
+        <v>332</v>
+      </c>
+      <c r="M145" s="6">
+        <v>48</v>
+      </c>
+      <c r="N145" s="6">
+        <v>52</v>
+      </c>
+      <c r="O145" s="6">
+        <v>42</v>
+      </c>
+      <c r="P145" s="6">
+        <v>35</v>
+      </c>
+      <c r="Q145" s="6">
+        <v>15</v>
+      </c>
+      <c r="R145" s="6">
+        <v>2</v>
+      </c>
+      <c r="S145" s="6">
+        <v>1</v>
+      </c>
+      <c r="T145" s="6">
+        <v>4</v>
+      </c>
       <c r="U145" s="6">
         <v>46</v>
       </c>
@@ -21460,6 +22179,33 @@
       <c r="AH145" s="6">
         <v>5</v>
       </c>
+      <c r="AI145" s="6">
+        <v>49</v>
+      </c>
+      <c r="AJ145" s="6">
+        <v>41</v>
+      </c>
+      <c r="AK145" s="6">
+        <v>57</v>
+      </c>
+      <c r="AO145" s="6">
+        <v>32</v>
+      </c>
+      <c r="AP145" s="6">
+        <v>41</v>
+      </c>
+      <c r="AQ145" s="6">
+        <v>26</v>
+      </c>
+      <c r="AU145" s="6">
+        <v>7</v>
+      </c>
+      <c r="AV145" s="6">
+        <v>6</v>
+      </c>
+      <c r="AW145" s="6">
+        <v>5</v>
+      </c>
       <c r="BA145" s="6">
         <v>51</v>
       </c>
@@ -21478,6 +22224,24 @@
       <c r="BF145" s="6">
         <v>7</v>
       </c>
+      <c r="BG145" s="6">
+        <v>55</v>
+      </c>
+      <c r="BH145" s="6">
+        <v>47</v>
+      </c>
+      <c r="BI145" s="6">
+        <v>63</v>
+      </c>
+      <c r="BM145" s="6">
+        <v>37</v>
+      </c>
+      <c r="BN145" s="6">
+        <v>45</v>
+      </c>
+      <c r="BO145" s="6">
+        <v>30</v>
+      </c>
       <c r="BS145" s="6">
         <v>54</v>
       </c>
@@ -21511,6 +22275,33 @@
       <c r="CC145" s="6">
         <v>21</v>
       </c>
+      <c r="CD145" s="6">
+        <v>37</v>
+      </c>
+      <c r="CE145" s="6">
+        <v>46</v>
+      </c>
+      <c r="CF145" s="6">
+        <v>30</v>
+      </c>
+      <c r="CJ145" s="6">
+        <v>54</v>
+      </c>
+      <c r="CK145" s="6">
+        <v>48</v>
+      </c>
+      <c r="CL145" s="6">
+        <v>60</v>
+      </c>
+      <c r="CP145" s="6">
+        <v>24</v>
+      </c>
+      <c r="CQ145" s="6">
+        <v>23</v>
+      </c>
+      <c r="CR145" s="6">
+        <v>25</v>
+      </c>
       <c r="CV145" s="6">
         <v>39</v>
       </c>
@@ -21520,16 +22311,29 @@
       <c r="CX145" s="6">
         <v>24</v>
       </c>
-      <c r="DH145" s="34" t="s">
-        <v>458</v>
+      <c r="DH145" s="6">
+        <v>30</v>
+      </c>
+      <c r="DI145" s="6">
+        <v>21</v>
+      </c>
+      <c r="DJ145" s="6">
+        <v>30</v>
+      </c>
+      <c r="DK145" s="6">
+        <f>DH145+DJ145</f>
+        <v>60</v>
+      </c>
+      <c r="DL145" s="34" t="s">
+        <v>612</v>
       </c>
     </row>
-    <row r="146" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A146" s="19" t="s">
         <v>89</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C146" s="16">
         <v>44835</v>
@@ -21541,7 +22345,7 @@
         <v>2022</v>
       </c>
       <c r="F146" s="25" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G146" s="6">
         <v>3008</v>
@@ -21633,125 +22437,214 @@
       <c r="BW146" s="6">
         <v>11</v>
       </c>
-      <c r="DH146" s="6"/>
+      <c r="BX146" s="6">
+        <v>40</v>
+      </c>
+      <c r="BY146" s="6">
+        <v>36</v>
+      </c>
+      <c r="BZ146" s="6">
+        <v>42</v>
+      </c>
+      <c r="CA146" s="6">
+        <v>50</v>
+      </c>
+      <c r="CB146" s="6">
+        <v>16</v>
+      </c>
+      <c r="CC146" s="6">
+        <v>13</v>
+      </c>
+      <c r="CE146" s="6">
+        <v>41</v>
+      </c>
+      <c r="CF146" s="6">
+        <v>34</v>
+      </c>
+      <c r="CI146" s="6">
+        <v>41</v>
+      </c>
+      <c r="CK146" s="6">
+        <v>42</v>
+      </c>
+      <c r="CL146" s="6">
+        <v>50</v>
+      </c>
+      <c r="CO146" s="6">
+        <v>42</v>
+      </c>
+      <c r="CQ146" s="6">
+        <v>12</v>
+      </c>
+      <c r="CR146" s="6">
+        <v>16</v>
+      </c>
+      <c r="CU146" s="6">
+        <v>14</v>
+      </c>
+      <c r="CV146" s="6">
+        <v>38</v>
+      </c>
+      <c r="CW146" s="6">
+        <v>46</v>
+      </c>
+      <c r="CX146" s="6">
+        <v>14</v>
+      </c>
+      <c r="DL146" s="6"/>
     </row>
-    <row r="147" spans="1:112" x14ac:dyDescent="0.25">
-      <c r="A147" s="19" t="s">
+    <row r="147" spans="1:116" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="B147" s="19" t="s">
-        <v>529</v>
-      </c>
-      <c r="C147" s="16">
+      <c r="B147" s="39" t="s">
+        <v>527</v>
+      </c>
+      <c r="C147" s="40">
         <v>44835</v>
       </c>
-      <c r="D147" s="17">
+      <c r="D147" s="41">
         <v>44835</v>
       </c>
-      <c r="E147" s="6">
+      <c r="E147" s="42">
         <v>2022</v>
       </c>
-      <c r="F147" s="25" t="s">
-        <v>530</v>
-      </c>
-      <c r="G147" s="6">
+      <c r="F147" s="43" t="s">
+        <v>528</v>
+      </c>
+      <c r="G147" s="42">
         <v>12800</v>
       </c>
-      <c r="H147" s="6">
+      <c r="H147" s="42">
         <v>2</v>
       </c>
-      <c r="I147" s="6">
+      <c r="I147" s="42">
         <v>95</v>
       </c>
-      <c r="J147" s="6" t="s">
+      <c r="J147" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="K147" s="6">
+      <c r="K147" s="42">
         <v>310</v>
       </c>
-      <c r="U147" s="6">
+      <c r="M147" s="42">
         <v>48</v>
       </c>
-      <c r="V147" s="6">
+      <c r="N147" s="42">
+        <v>52</v>
+      </c>
+      <c r="U147" s="42">
+        <v>48</v>
+      </c>
+      <c r="V147" s="42">
         <v>47</v>
       </c>
-      <c r="W147" s="6">
+      <c r="W147" s="42">
         <v>37</v>
       </c>
-      <c r="X147" s="6">
+      <c r="X147" s="42">
         <v>32</v>
       </c>
-      <c r="Y147" s="6">
+      <c r="Y147" s="42">
         <v>5</v>
       </c>
-      <c r="Z147" s="6">
+      <c r="Z147" s="42">
         <v>5</v>
       </c>
-      <c r="AA147" s="6">
+      <c r="AA147" s="42">
         <v>50</v>
       </c>
-      <c r="AB147" s="6">
+      <c r="AB147" s="42">
         <v>36</v>
       </c>
-      <c r="AC147" s="6">
+      <c r="AC147" s="42">
         <v>5</v>
       </c>
-      <c r="AD147" s="6">
+      <c r="AD147" s="42">
         <v>3</v>
       </c>
-      <c r="AE147" s="6">
+      <c r="AE147" s="42">
         <v>3</v>
       </c>
-      <c r="AF147" s="6">
+      <c r="AF147" s="42">
         <v>3</v>
       </c>
-      <c r="AG147" s="6">
+      <c r="AG147" s="42">
         <v>2</v>
       </c>
-      <c r="AH147" s="6">
+      <c r="AH147" s="42">
         <v>5</v>
       </c>
-      <c r="BA147" s="6">
-        <v>44</v>
-      </c>
-      <c r="BB147" s="6">
-        <v>43</v>
-      </c>
-      <c r="BC147" s="6">
-        <v>35</v>
-      </c>
-      <c r="BD147" s="6">
-        <v>29</v>
-      </c>
-      <c r="BE147" s="6">
+      <c r="BA147" s="42">
+        <v>48</v>
+      </c>
+      <c r="BB147" s="42">
+        <v>47</v>
+      </c>
+      <c r="BC147" s="42">
+        <v>37</v>
+      </c>
+      <c r="BD147" s="42">
+        <v>32</v>
+      </c>
+      <c r="BE147" s="42">
         <v>3</v>
       </c>
-      <c r="BF147" s="6">
+      <c r="BF147" s="42">
         <v>3</v>
       </c>
-      <c r="BS147" s="6">
+      <c r="BS147" s="42">
         <v>54</v>
       </c>
-      <c r="BT147" s="6">
+      <c r="BT147" s="42">
         <v>38</v>
       </c>
-      <c r="BU147" s="6">
+      <c r="BU147" s="42">
         <v>6</v>
       </c>
-      <c r="BV147" s="6">
+      <c r="BV147" s="42">
         <v>2</v>
       </c>
-      <c r="BW147" s="6">
+      <c r="BW147" s="42">
         <v>8</v>
       </c>
-      <c r="DH147" s="6"/>
+      <c r="BX147" s="42">
+        <v>41</v>
+      </c>
+      <c r="BY147" s="42">
+        <v>38</v>
+      </c>
+      <c r="BZ147" s="42">
+        <v>50</v>
+      </c>
+      <c r="CA147" s="42">
+        <v>54</v>
+      </c>
+      <c r="CB147" s="42">
+        <v>24</v>
+      </c>
+      <c r="CC147" s="42">
+        <v>20</v>
+      </c>
+      <c r="CV147" s="42">
+        <v>40</v>
+      </c>
+      <c r="CW147" s="42">
+        <v>52</v>
+      </c>
+      <c r="CX147" s="42">
+        <v>22</v>
+      </c>
+      <c r="DL147" s="39" t="s">
+        <v>602</v>
+      </c>
     </row>
-    <row r="148" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A148" s="19" t="s">
         <v>113</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C148" s="16">
         <v>44838</v>
@@ -21763,7 +22656,7 @@
         <v>2022</v>
       </c>
       <c r="F148" s="25" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G148" s="6">
         <v>2000</v>
@@ -21777,6 +22670,21 @@
       <c r="J148" s="6" t="s">
         <v>169</v>
       </c>
+      <c r="AA148" s="6">
+        <v>49.3</v>
+      </c>
+      <c r="AB148" s="6">
+        <v>46</v>
+      </c>
+      <c r="AF148" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="AG148" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="AH148" s="6">
+        <v>4.7</v>
+      </c>
       <c r="BS148" s="6">
         <v>49.3</v>
       </c>
@@ -21792,16 +22700,16 @@
       <c r="BW148" s="6">
         <v>4.7</v>
       </c>
-      <c r="DH148" s="19" t="s">
-        <v>585</v>
+      <c r="DL148" s="19" t="s">
+        <v>583</v>
       </c>
     </row>
-    <row r="149" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A149" s="19" t="s">
         <v>89</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C149" s="16">
         <v>44839</v>
@@ -21813,7 +22721,7 @@
         <v>2022</v>
       </c>
       <c r="F149" s="25" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G149" s="6">
         <v>2000</v>
@@ -21830,6 +22738,39 @@
       <c r="K149" s="6">
         <v>129</v>
       </c>
+      <c r="U149" s="6">
+        <v>49</v>
+      </c>
+      <c r="V149" s="6">
+        <v>53</v>
+      </c>
+      <c r="W149" s="6">
+        <v>45</v>
+      </c>
+      <c r="X149" s="6">
+        <v>40</v>
+      </c>
+      <c r="AA149" s="6">
+        <v>51</v>
+      </c>
+      <c r="AB149" s="6">
+        <v>43</v>
+      </c>
+      <c r="AD149" s="6">
+        <v>4</v>
+      </c>
+      <c r="AE149" s="6">
+        <v>4</v>
+      </c>
+      <c r="AF149" s="6">
+        <v>4</v>
+      </c>
+      <c r="AG149" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH149" s="6">
+        <v>6</v>
+      </c>
       <c r="BA149" s="6">
         <v>49</v>
       </c>
@@ -21863,16 +22804,52 @@
       <c r="BW149" s="6">
         <v>6</v>
       </c>
-      <c r="DH149" s="19" t="s">
-        <v>586</v>
+      <c r="BX149" s="6">
+        <v>42</v>
+      </c>
+      <c r="BY149" s="6">
+        <v>38</v>
+      </c>
+      <c r="BZ149" s="6">
+        <v>46</v>
+      </c>
+      <c r="CA149" s="6">
+        <v>54</v>
+      </c>
+      <c r="CE149" s="6">
+        <v>46</v>
+      </c>
+      <c r="CF149" s="6">
+        <v>35</v>
+      </c>
+      <c r="CI149" s="6">
+        <v>35</v>
+      </c>
+      <c r="CK149" s="6">
+        <v>45</v>
+      </c>
+      <c r="CL149" s="6">
+        <v>54</v>
+      </c>
+      <c r="CO149" s="6">
+        <v>62</v>
+      </c>
+      <c r="CV149" s="6">
+        <v>40</v>
+      </c>
+      <c r="CW149" s="6">
+        <v>50</v>
+      </c>
+      <c r="DL149" s="34" t="s">
+        <v>584</v>
       </c>
     </row>
-    <row r="150" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A150" s="19" t="s">
         <v>92</v>
       </c>
       <c r="B150" s="19" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C150" s="16">
         <v>44839</v>
@@ -21884,7 +22861,7 @@
         <v>2022</v>
       </c>
       <c r="F150" s="25" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G150" s="6">
         <v>3500</v>
@@ -21904,6 +22881,39 @@
       <c r="L150" s="6">
         <v>27</v>
       </c>
+      <c r="U150" s="6">
+        <v>47</v>
+      </c>
+      <c r="V150" s="6">
+        <v>48</v>
+      </c>
+      <c r="W150" s="6">
+        <v>47</v>
+      </c>
+      <c r="X150" s="6">
+        <v>41</v>
+      </c>
+      <c r="AA150" s="6">
+        <v>48</v>
+      </c>
+      <c r="AB150" s="6">
+        <v>44</v>
+      </c>
+      <c r="AD150" s="6">
+        <v>5</v>
+      </c>
+      <c r="AE150" s="6">
+        <v>6</v>
+      </c>
+      <c r="AF150" s="6">
+        <v>6</v>
+      </c>
+      <c r="AG150" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH150" s="6">
+        <v>8</v>
+      </c>
       <c r="BA150" s="6">
         <v>47</v>
       </c>
@@ -21937,16 +22947,16 @@
       <c r="BW150" s="6">
         <v>8</v>
       </c>
-      <c r="DH150" s="19" t="s">
-        <v>587</v>
+      <c r="DL150" s="19" t="s">
+        <v>585</v>
       </c>
     </row>
-    <row r="151" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A151" s="19" t="s">
         <v>108</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C151" s="16">
         <v>44839</v>
@@ -21958,7 +22968,7 @@
         <v>2022</v>
       </c>
       <c r="F151" s="25" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G151" s="6">
         <v>2000</v>
@@ -21975,6 +22985,39 @@
       <c r="K151" s="6">
         <v>120</v>
       </c>
+      <c r="U151" s="6">
+        <v>45</v>
+      </c>
+      <c r="V151" s="6">
+        <v>52</v>
+      </c>
+      <c r="W151" s="6">
+        <v>45</v>
+      </c>
+      <c r="X151" s="6">
+        <v>38</v>
+      </c>
+      <c r="AA151" s="6">
+        <v>48</v>
+      </c>
+      <c r="AB151" s="6">
+        <v>41</v>
+      </c>
+      <c r="AD151" s="6">
+        <v>4</v>
+      </c>
+      <c r="AE151" s="6">
+        <v>4</v>
+      </c>
+      <c r="AF151" s="6">
+        <v>6</v>
+      </c>
+      <c r="AG151" s="6">
+        <v>5</v>
+      </c>
+      <c r="AH151" s="6">
+        <v>11</v>
+      </c>
       <c r="BA151" s="6">
         <v>45</v>
       </c>
@@ -22014,16 +23057,16 @@
       <c r="CW151" s="6">
         <v>50</v>
       </c>
-      <c r="DH151" s="19" t="s">
-        <v>588</v>
+      <c r="DL151" s="19" t="s">
+        <v>586</v>
       </c>
     </row>
-    <row r="152" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A152" s="19" t="s">
         <v>98</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C152" s="16">
         <v>44841</v>
@@ -22035,7 +23078,7 @@
         <v>2022</v>
       </c>
       <c r="F152" s="25" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G152" s="6">
         <v>2884</v>
@@ -22052,6 +23095,82 @@
       <c r="K152" s="6">
         <v>170</v>
       </c>
+      <c r="M152" s="6">
+        <v>48</v>
+      </c>
+      <c r="N152" s="6">
+        <v>52</v>
+      </c>
+      <c r="O152" s="6">
+        <v>40</v>
+      </c>
+      <c r="P152" s="6">
+        <v>35</v>
+      </c>
+      <c r="Q152" s="6">
+        <v>16</v>
+      </c>
+      <c r="R152" s="6">
+        <v>3</v>
+      </c>
+      <c r="S152" s="6">
+        <v>1</v>
+      </c>
+      <c r="T152" s="6">
+        <v>2</v>
+      </c>
+      <c r="U152" s="6">
+        <v>47</v>
+      </c>
+      <c r="V152" s="6">
+        <v>50</v>
+      </c>
+      <c r="W152" s="6">
+        <v>47</v>
+      </c>
+      <c r="X152" s="6">
+        <v>41</v>
+      </c>
+      <c r="AA152" s="6">
+        <v>49</v>
+      </c>
+      <c r="AB152" s="6">
+        <v>44</v>
+      </c>
+      <c r="AD152" s="6">
+        <v>5</v>
+      </c>
+      <c r="AE152" s="6">
+        <v>7</v>
+      </c>
+      <c r="AF152" s="6">
+        <v>6</v>
+      </c>
+      <c r="AG152" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH152" s="6">
+        <f>AF152+AG152</f>
+        <v>8</v>
+      </c>
+      <c r="AI152" s="6">
+        <v>49</v>
+      </c>
+      <c r="AJ152" s="6">
+        <v>43</v>
+      </c>
+      <c r="AK152" s="6">
+        <v>57</v>
+      </c>
+      <c r="AO152" s="6">
+        <v>43</v>
+      </c>
+      <c r="AP152" s="6">
+        <v>50</v>
+      </c>
+      <c r="AQ152" s="6">
+        <v>35</v>
+      </c>
       <c r="BA152" s="6">
         <v>47</v>
       </c>
@@ -22069,6 +23188,24 @@
       </c>
       <c r="BF152" s="6">
         <v>7</v>
+      </c>
+      <c r="BG152" s="6">
+        <v>49</v>
+      </c>
+      <c r="BH152" s="6">
+        <v>43</v>
+      </c>
+      <c r="BI152" s="6">
+        <v>57</v>
+      </c>
+      <c r="BM152" s="6">
+        <v>43</v>
+      </c>
+      <c r="BN152" s="6">
+        <v>50</v>
+      </c>
+      <c r="BO152" s="6">
+        <v>35</v>
       </c>
       <c r="BS152" s="6">
         <v>49</v>
@@ -22086,13 +23223,65 @@
         <f>BU152+BV152</f>
         <v>8</v>
       </c>
+      <c r="BX152" s="6">
+        <v>47</v>
+      </c>
+      <c r="BY152" s="6">
+        <v>44</v>
+      </c>
+      <c r="BZ152" s="6">
+        <v>50</v>
+      </c>
+      <c r="CA152" s="6">
+        <v>53</v>
+      </c>
+      <c r="CD152" s="6">
+        <v>44</v>
+      </c>
+      <c r="CE152" s="6">
+        <v>54</v>
+      </c>
+      <c r="CF152" s="6">
+        <v>36</v>
+      </c>
+      <c r="CJ152" s="6">
+        <v>51</v>
+      </c>
+      <c r="CK152" s="6">
+        <v>46</v>
+      </c>
+      <c r="CL152" s="6">
+        <v>60</v>
+      </c>
+      <c r="CV152" s="6">
+        <v>46</v>
+      </c>
+      <c r="CW152" s="6">
+        <v>51</v>
+      </c>
+      <c r="DH152" s="6">
+        <v>32</v>
+      </c>
+      <c r="DI152" s="6">
+        <v>23</v>
+      </c>
+      <c r="DJ152" s="6">
+        <v>27</v>
+      </c>
+      <c r="DK152" s="6">
+        <f>DH152+DJ152</f>
+        <v>59</v>
+      </c>
+      <c r="DL152" s="34" t="s">
+        <v>604</v>
+      </c>
     </row>
-    <row r="153" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A153" s="19" t="s">
         <v>89</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C153" s="16">
         <v>44844</v>
@@ -22104,7 +23293,7 @@
         <v>2022</v>
       </c>
       <c r="F153" s="25" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G153" s="6">
         <v>2000</v>
@@ -22121,6 +23310,45 @@
       <c r="K153" s="6">
         <v>130</v>
       </c>
+      <c r="M153" s="6">
+        <v>47</v>
+      </c>
+      <c r="N153" s="6">
+        <v>53</v>
+      </c>
+      <c r="U153" s="6">
+        <v>49</v>
+      </c>
+      <c r="V153" s="6">
+        <v>53</v>
+      </c>
+      <c r="W153" s="6">
+        <v>45</v>
+      </c>
+      <c r="X153" s="6">
+        <v>40</v>
+      </c>
+      <c r="AA153" s="6">
+        <v>51</v>
+      </c>
+      <c r="AB153" s="6">
+        <v>42</v>
+      </c>
+      <c r="AD153" s="6">
+        <v>5</v>
+      </c>
+      <c r="AE153" s="6">
+        <v>5</v>
+      </c>
+      <c r="AF153" s="6">
+        <v>5</v>
+      </c>
+      <c r="AG153" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH153" s="6">
+        <v>7</v>
+      </c>
       <c r="BA153" s="6">
         <v>49</v>
       </c>
@@ -22154,16 +23382,52 @@
       <c r="BW153" s="6">
         <v>7</v>
       </c>
-      <c r="DH153" s="19" t="s">
-        <v>589</v>
+      <c r="BX153" s="6">
+        <v>42</v>
+      </c>
+      <c r="BY153" s="6">
+        <v>38</v>
+      </c>
+      <c r="BZ153" s="6">
+        <v>46</v>
+      </c>
+      <c r="CA153" s="6">
+        <v>54</v>
+      </c>
+      <c r="CE153" s="6">
+        <v>49</v>
+      </c>
+      <c r="CF153" s="6">
+        <v>35</v>
+      </c>
+      <c r="CI153" s="6">
+        <v>37</v>
+      </c>
+      <c r="CK153" s="6">
+        <v>42</v>
+      </c>
+      <c r="CL153" s="6">
+        <v>52</v>
+      </c>
+      <c r="CO153" s="6">
+        <v>51</v>
+      </c>
+      <c r="CV153" s="6">
+        <v>40</v>
+      </c>
+      <c r="CW153" s="6">
+        <v>50</v>
+      </c>
+      <c r="DL153" s="19" t="s">
+        <v>587</v>
       </c>
     </row>
-    <row r="154" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A154" s="19" t="s">
         <v>92</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C154" s="16">
         <v>44845</v>
@@ -22175,7 +23439,7 @@
         <v>2022</v>
       </c>
       <c r="F154" s="25" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G154" s="6">
         <v>5000</v>
@@ -22195,6 +23459,39 @@
       <c r="L154" s="6">
         <v>27</v>
       </c>
+      <c r="U154" s="6">
+        <v>44</v>
+      </c>
+      <c r="V154" s="6">
+        <v>51</v>
+      </c>
+      <c r="W154" s="6">
+        <v>49</v>
+      </c>
+      <c r="X154" s="6">
+        <v>40</v>
+      </c>
+      <c r="AA154" s="6">
+        <v>48</v>
+      </c>
+      <c r="AB154" s="6">
+        <v>44</v>
+      </c>
+      <c r="AD154" s="6">
+        <v>5</v>
+      </c>
+      <c r="AE154" s="6">
+        <v>6</v>
+      </c>
+      <c r="AF154" s="6">
+        <v>6</v>
+      </c>
+      <c r="AG154" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH154" s="6">
+        <v>8</v>
+      </c>
       <c r="BA154" s="6">
         <v>44</v>
       </c>
@@ -22228,16 +23525,16 @@
       <c r="BW154" s="6">
         <v>8</v>
       </c>
-      <c r="DH154" s="19" t="s">
-        <v>590</v>
+      <c r="DL154" s="19" t="s">
+        <v>588</v>
       </c>
     </row>
-    <row r="155" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A155" s="19" t="s">
         <v>134</v>
       </c>
       <c r="B155" s="19" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C155" s="16">
         <v>44846</v>
@@ -22249,7 +23546,7 @@
         <v>2022</v>
       </c>
       <c r="F155" s="25" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G155" s="6">
         <v>2000</v>
@@ -22263,6 +23560,39 @@
       <c r="J155" s="6" t="s">
         <v>169</v>
       </c>
+      <c r="U155" s="6">
+        <v>43</v>
+      </c>
+      <c r="V155" s="6">
+        <v>54</v>
+      </c>
+      <c r="W155" s="6">
+        <v>51</v>
+      </c>
+      <c r="X155" s="6">
+        <v>36</v>
+      </c>
+      <c r="AA155" s="6">
+        <v>49</v>
+      </c>
+      <c r="AB155" s="6">
+        <v>43</v>
+      </c>
+      <c r="AD155" s="6">
+        <v>4</v>
+      </c>
+      <c r="AE155" s="6">
+        <v>4</v>
+      </c>
+      <c r="AF155" s="6">
+        <v>4</v>
+      </c>
+      <c r="AG155" s="6">
+        <v>4</v>
+      </c>
+      <c r="AH155" s="6">
+        <v>8</v>
+      </c>
       <c r="BA155" s="6">
         <v>43</v>
       </c>
@@ -22302,16 +23632,16 @@
       <c r="CW155" s="6">
         <v>48</v>
       </c>
-      <c r="DH155" s="34" t="s">
-        <v>591</v>
+      <c r="DL155" s="34" t="s">
+        <v>589</v>
       </c>
     </row>
-    <row r="156" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A156" s="19" t="s">
         <v>95</v>
       </c>
       <c r="B156" s="19" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C156" s="16">
         <v>44846</v>
@@ -22323,7 +23653,7 @@
         <v>2022</v>
       </c>
       <c r="F156" s="25" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G156" s="6">
         <v>2020</v>
@@ -22343,6 +23673,39 @@
       <c r="L156" s="6">
         <v>27</v>
       </c>
+      <c r="U156" s="6">
+        <v>46.2</v>
+      </c>
+      <c r="V156" s="6">
+        <v>48.9</v>
+      </c>
+      <c r="W156" s="6">
+        <v>47.3</v>
+      </c>
+      <c r="X156" s="6">
+        <v>41.1</v>
+      </c>
+      <c r="AA156" s="6">
+        <v>47.6</v>
+      </c>
+      <c r="AB156" s="6">
+        <v>44.1</v>
+      </c>
+      <c r="AD156" s="6">
+        <v>4</v>
+      </c>
+      <c r="AE156" s="6">
+        <v>5.4</v>
+      </c>
+      <c r="AF156" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="AG156" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="AH156" s="6">
+        <v>8.4</v>
+      </c>
       <c r="BA156" s="6">
         <v>46.2</v>
       </c>
@@ -22382,16 +23745,16 @@
       <c r="CW156" s="6">
         <v>45.4</v>
       </c>
-      <c r="DH156" s="34" t="s">
-        <v>592</v>
+      <c r="DL156" s="34" t="s">
+        <v>590</v>
       </c>
     </row>
-    <row r="157" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A157" s="19" t="s">
         <v>113</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C157" s="16">
         <v>44846</v>
@@ -22403,7 +23766,7 @@
         <v>2022</v>
       </c>
       <c r="F157" s="25" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G157" s="6">
         <v>2000</v>
@@ -22417,6 +23780,21 @@
       <c r="J157" s="6" t="s">
         <v>169</v>
       </c>
+      <c r="AA157" s="6">
+        <v>46.9</v>
+      </c>
+      <c r="AB157" s="6">
+        <v>46.5</v>
+      </c>
+      <c r="AF157" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="AG157" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AH157" s="6">
+        <v>6.6</v>
+      </c>
       <c r="BS157" s="6">
         <v>46.9</v>
       </c>
@@ -22432,16 +23810,16 @@
       <c r="BW157" s="6">
         <v>6.6</v>
       </c>
-      <c r="DH157" s="34" t="s">
-        <v>603</v>
+      <c r="DL157" s="34" t="s">
+        <v>601</v>
       </c>
     </row>
-    <row r="158" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A158" s="19" t="s">
         <v>108</v>
       </c>
       <c r="B158" s="19" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C158" s="16">
         <v>44847</v>
@@ -22453,7 +23831,7 @@
         <v>2022</v>
       </c>
       <c r="F158" s="25" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G158" s="6">
         <v>2000</v>
@@ -22473,6 +23851,39 @@
       <c r="L158" s="6">
         <v>27</v>
       </c>
+      <c r="U158" s="6">
+        <v>47</v>
+      </c>
+      <c r="V158" s="6">
+        <v>50</v>
+      </c>
+      <c r="W158" s="6">
+        <v>42</v>
+      </c>
+      <c r="X158" s="6">
+        <v>39</v>
+      </c>
+      <c r="AA158" s="6">
+        <v>49</v>
+      </c>
+      <c r="AB158" s="6">
+        <v>41</v>
+      </c>
+      <c r="AD158" s="6">
+        <v>6</v>
+      </c>
+      <c r="AE158" s="6">
+        <v>6</v>
+      </c>
+      <c r="AF158" s="6">
+        <v>6</v>
+      </c>
+      <c r="AG158" s="6">
+        <v>4</v>
+      </c>
+      <c r="AH158" s="6">
+        <v>10</v>
+      </c>
       <c r="BA158" s="6">
         <v>47</v>
       </c>
@@ -22512,16 +23923,16 @@
       <c r="CW158" s="6">
         <v>50</v>
       </c>
-      <c r="DH158" s="19" t="s">
-        <v>593</v>
+      <c r="DL158" s="19" t="s">
+        <v>591</v>
       </c>
     </row>
-    <row r="159" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A159" s="19" t="s">
         <v>98</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C159" s="16">
         <v>44848</v>
@@ -22533,7 +23944,7 @@
         <v>2022</v>
       </c>
       <c r="F159" s="25" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G159" s="6">
         <v>2898</v>
@@ -22549,6 +23960,64 @@
       </c>
       <c r="K159" s="6">
         <v>180</v>
+      </c>
+      <c r="M159" s="6">
+        <v>48</v>
+      </c>
+      <c r="N159" s="6">
+        <v>52</v>
+      </c>
+      <c r="O159" s="6">
+        <v>42</v>
+      </c>
+      <c r="P159" s="6">
+        <v>35</v>
+      </c>
+      <c r="Q159" s="6">
+        <v>14</v>
+      </c>
+      <c r="R159" s="6">
+        <v>3</v>
+      </c>
+      <c r="S159" s="6">
+        <v>1</v>
+      </c>
+      <c r="T159" s="6">
+        <v>4</v>
+      </c>
+      <c r="U159" s="6">
+        <v>48</v>
+      </c>
+      <c r="V159" s="6">
+        <v>51</v>
+      </c>
+      <c r="W159" s="6">
+        <v>46</v>
+      </c>
+      <c r="X159" s="6">
+        <v>42</v>
+      </c>
+      <c r="AA159" s="6">
+        <v>49</v>
+      </c>
+      <c r="AB159" s="6">
+        <v>44</v>
+      </c>
+      <c r="AD159" s="6">
+        <v>5</v>
+      </c>
+      <c r="AE159" s="6">
+        <v>5</v>
+      </c>
+      <c r="AF159" s="6">
+        <v>5</v>
+      </c>
+      <c r="AG159" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH159" s="6">
+        <f>AF159+AG159</f>
+        <v>6</v>
       </c>
       <c r="BA159" s="6">
         <v>48</v>
@@ -22584,13 +24053,35 @@
         <f>BU159+BV159</f>
         <v>6</v>
       </c>
+      <c r="CV159" s="6">
+        <v>48</v>
+      </c>
+      <c r="CW159" s="6">
+        <v>51</v>
+      </c>
+      <c r="DH159" s="6">
+        <v>31</v>
+      </c>
+      <c r="DI159" s="6">
+        <v>22</v>
+      </c>
+      <c r="DJ159" s="6">
+        <v>30</v>
+      </c>
+      <c r="DK159" s="6">
+        <f>DH159+DJ159</f>
+        <v>61</v>
+      </c>
+      <c r="DL159" s="19" t="s">
+        <v>605</v>
+      </c>
     </row>
-    <row r="160" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A160" s="19" t="s">
         <v>106</v>
       </c>
       <c r="B160" s="19" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C160" s="16">
         <v>44850</v>
@@ -22602,7 +24093,7 @@
         <v>2022</v>
       </c>
       <c r="F160" s="25" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G160" s="6">
         <v>2022</v>
@@ -22616,6 +24107,39 @@
       <c r="J160" s="6" t="s">
         <v>100</v>
       </c>
+      <c r="U160" s="6">
+        <v>45</v>
+      </c>
+      <c r="V160" s="6">
+        <v>51</v>
+      </c>
+      <c r="W160" s="6">
+        <v>46</v>
+      </c>
+      <c r="X160" s="6">
+        <v>38</v>
+      </c>
+      <c r="AA160" s="6">
+        <v>48.1</v>
+      </c>
+      <c r="AB160" s="6">
+        <v>41.8</v>
+      </c>
+      <c r="AD160" s="6">
+        <v>7</v>
+      </c>
+      <c r="AE160" s="6">
+        <v>6</v>
+      </c>
+      <c r="AF160" s="6">
+        <v>6</v>
+      </c>
+      <c r="AG160" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AH160" s="6">
+        <v>9.1</v>
+      </c>
       <c r="BA160" s="6">
         <v>45</v>
       </c>
@@ -22650,12 +24174,12 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="161" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A161" s="19" t="s">
         <v>89</v>
       </c>
       <c r="B161" s="19" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C161" s="16">
         <v>44851</v>
@@ -22667,7 +24191,7 @@
         <v>2022</v>
       </c>
       <c r="F161" s="25" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G161" s="6">
         <v>3008</v>
@@ -22684,6 +24208,39 @@
       <c r="K161" s="6">
         <v>184</v>
       </c>
+      <c r="U161" s="6">
+        <v>47</v>
+      </c>
+      <c r="V161" s="6">
+        <v>51</v>
+      </c>
+      <c r="W161" s="6">
+        <v>46</v>
+      </c>
+      <c r="X161" s="6">
+        <v>40</v>
+      </c>
+      <c r="AA161" s="6">
+        <v>50</v>
+      </c>
+      <c r="AB161" s="6">
+        <v>43</v>
+      </c>
+      <c r="AD161" s="6">
+        <v>5</v>
+      </c>
+      <c r="AE161" s="6">
+        <v>5</v>
+      </c>
+      <c r="AF161" s="6">
+        <v>5</v>
+      </c>
+      <c r="AG161" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH161" s="6">
+        <v>7</v>
+      </c>
       <c r="BA161" s="6">
         <v>47</v>
       </c>
@@ -22717,16 +24274,52 @@
       <c r="BW161" s="6">
         <v>7</v>
       </c>
-      <c r="DH161" s="19" t="s">
-        <v>594</v>
+      <c r="BX161" s="6">
+        <v>45</v>
+      </c>
+      <c r="BY161" s="6">
+        <v>38</v>
+      </c>
+      <c r="BZ161" s="6">
+        <v>43</v>
+      </c>
+      <c r="CA161" s="6">
+        <v>49</v>
+      </c>
+      <c r="CE161" s="6">
+        <v>49</v>
+      </c>
+      <c r="CF161" s="6">
+        <v>36</v>
+      </c>
+      <c r="CI161" s="6">
+        <v>30</v>
+      </c>
+      <c r="CK161" s="6">
+        <v>42</v>
+      </c>
+      <c r="CL161" s="6">
+        <v>50</v>
+      </c>
+      <c r="CO161" s="6">
+        <v>45</v>
+      </c>
+      <c r="CV161" s="6">
+        <v>41</v>
+      </c>
+      <c r="CW161" s="6">
+        <v>46</v>
+      </c>
+      <c r="DL161" s="19" t="s">
+        <v>592</v>
       </c>
     </row>
-    <row r="162" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A162" s="19" t="s">
         <v>108</v>
       </c>
       <c r="B162" s="19" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C162" s="16">
         <v>44852</v>
@@ -22738,7 +24331,7 @@
         <v>2022</v>
       </c>
       <c r="F162" s="25" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G162" s="6">
         <v>2000</v>
@@ -22755,6 +24348,39 @@
       <c r="K162" s="6">
         <v>120</v>
       </c>
+      <c r="U162" s="6">
+        <v>45</v>
+      </c>
+      <c r="V162" s="6">
+        <v>48</v>
+      </c>
+      <c r="W162" s="6">
+        <v>43</v>
+      </c>
+      <c r="X162" s="6">
+        <v>39</v>
+      </c>
+      <c r="AA162" s="6">
+        <v>47</v>
+      </c>
+      <c r="AB162" s="6">
+        <v>42</v>
+      </c>
+      <c r="AD162" s="6">
+        <v>6</v>
+      </c>
+      <c r="AE162" s="6">
+        <v>6</v>
+      </c>
+      <c r="AF162" s="6">
+        <v>6</v>
+      </c>
+      <c r="AG162" s="6">
+        <v>5</v>
+      </c>
+      <c r="AH162" s="6">
+        <v>11</v>
+      </c>
       <c r="BA162" s="6">
         <v>45</v>
       </c>
@@ -22794,16 +24420,16 @@
       <c r="CW162" s="6">
         <v>46</v>
       </c>
-      <c r="DH162" s="19" t="s">
-        <v>595</v>
+      <c r="DL162" s="19" t="s">
+        <v>593</v>
       </c>
     </row>
-    <row r="163" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A163" s="19" t="s">
         <v>92</v>
       </c>
       <c r="B163" s="19" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C163" s="16">
         <v>44852</v>
@@ -22815,7 +24441,7 @@
         <v>2022</v>
       </c>
       <c r="F163" s="25" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G163" s="6">
         <v>5000</v>
@@ -22835,6 +24461,39 @@
       <c r="L163" s="6">
         <v>27</v>
       </c>
+      <c r="U163" s="6">
+        <v>42</v>
+      </c>
+      <c r="V163" s="6">
+        <v>54</v>
+      </c>
+      <c r="W163" s="6">
+        <v>51</v>
+      </c>
+      <c r="X163" s="6">
+        <v>38</v>
+      </c>
+      <c r="AA163" s="6">
+        <v>48</v>
+      </c>
+      <c r="AB163" s="6">
+        <v>44</v>
+      </c>
+      <c r="AD163" s="6">
+        <v>6</v>
+      </c>
+      <c r="AE163" s="6">
+        <v>5</v>
+      </c>
+      <c r="AF163" s="6">
+        <v>5</v>
+      </c>
+      <c r="AG163" s="6">
+        <v>3</v>
+      </c>
+      <c r="AH163" s="6">
+        <v>8</v>
+      </c>
       <c r="BA163" s="6">
         <v>42</v>
       </c>
@@ -22868,16 +24527,16 @@
       <c r="BW163" s="6">
         <v>8</v>
       </c>
-      <c r="DH163" s="19" t="s">
-        <v>596</v>
+      <c r="DL163" s="19" t="s">
+        <v>594</v>
       </c>
     </row>
-    <row r="164" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A164" s="19" t="s">
         <v>98</v>
       </c>
       <c r="B164" s="19" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C164" s="16">
         <v>44853</v>
@@ -22889,7 +24548,7 @@
         <v>2022</v>
       </c>
       <c r="F164" s="25" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G164" s="6">
         <v>2912</v>
@@ -22906,6 +24565,82 @@
       <c r="K164" s="6">
         <v>181</v>
       </c>
+      <c r="M164" s="6">
+        <v>48</v>
+      </c>
+      <c r="N164" s="6">
+        <v>52</v>
+      </c>
+      <c r="O164" s="6">
+        <v>41</v>
+      </c>
+      <c r="P164" s="6">
+        <v>35</v>
+      </c>
+      <c r="Q164" s="6">
+        <v>15</v>
+      </c>
+      <c r="R164" s="6">
+        <v>3</v>
+      </c>
+      <c r="S164" s="6">
+        <v>1</v>
+      </c>
+      <c r="T164" s="6">
+        <v>5</v>
+      </c>
+      <c r="U164" s="6">
+        <v>47</v>
+      </c>
+      <c r="V164" s="6">
+        <v>51</v>
+      </c>
+      <c r="W164" s="6">
+        <v>49</v>
+      </c>
+      <c r="X164" s="6">
+        <v>42</v>
+      </c>
+      <c r="AA164" s="6">
+        <v>49</v>
+      </c>
+      <c r="AB164" s="6">
+        <v>45</v>
+      </c>
+      <c r="AD164" s="6">
+        <v>4</v>
+      </c>
+      <c r="AE164" s="6">
+        <v>5</v>
+      </c>
+      <c r="AF164" s="6">
+        <v>4</v>
+      </c>
+      <c r="AG164" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH164" s="6">
+        <f>AF164+AG164</f>
+        <v>5</v>
+      </c>
+      <c r="AI164" s="6">
+        <v>48</v>
+      </c>
+      <c r="AJ164" s="6">
+        <v>44</v>
+      </c>
+      <c r="AK164" s="6">
+        <v>58</v>
+      </c>
+      <c r="AO164" s="6">
+        <v>46</v>
+      </c>
+      <c r="AP164" s="6">
+        <v>50</v>
+      </c>
+      <c r="AQ164" s="6">
+        <v>38</v>
+      </c>
       <c r="BA164" s="6">
         <v>47</v>
       </c>
@@ -22923,6 +24658,24 @@
       </c>
       <c r="BF164" s="6">
         <v>5</v>
+      </c>
+      <c r="BG164" s="6">
+        <v>48</v>
+      </c>
+      <c r="BH164" s="6">
+        <v>44</v>
+      </c>
+      <c r="BI164" s="6">
+        <v>58</v>
+      </c>
+      <c r="BM164" s="6">
+        <v>46</v>
+      </c>
+      <c r="BN164" s="6">
+        <v>50</v>
+      </c>
+      <c r="BO164" s="6">
+        <v>38</v>
       </c>
       <c r="BS164" s="6">
         <v>49</v>
@@ -22940,14 +24693,65 @@
         <f>BU164+BV164</f>
         <v>5</v>
       </c>
-      <c r="DH164" s="6"/>
+      <c r="BX164" s="6">
+        <v>49</v>
+      </c>
+      <c r="BY164" s="6">
+        <v>43</v>
+      </c>
+      <c r="BZ164" s="6">
+        <v>48</v>
+      </c>
+      <c r="CA164" s="6">
+        <v>53</v>
+      </c>
+      <c r="CD164" s="6">
+        <v>46</v>
+      </c>
+      <c r="CE164" s="6">
+        <v>52</v>
+      </c>
+      <c r="CF164" s="6">
+        <v>38</v>
+      </c>
+      <c r="CJ164" s="6">
+        <v>50</v>
+      </c>
+      <c r="CK164" s="6">
+        <v>45</v>
+      </c>
+      <c r="CL164" s="6">
+        <v>59</v>
+      </c>
+      <c r="CV164" s="6">
+        <v>47</v>
+      </c>
+      <c r="CW164" s="6">
+        <v>50</v>
+      </c>
+      <c r="DH164" s="6">
+        <v>30</v>
+      </c>
+      <c r="DI164" s="6">
+        <v>22</v>
+      </c>
+      <c r="DJ164" s="6">
+        <v>29</v>
+      </c>
+      <c r="DK164" s="6">
+        <f>DH164+DJ164</f>
+        <v>59</v>
+      </c>
+      <c r="DL164" s="19" t="s">
+        <v>606</v>
+      </c>
     </row>
-    <row r="165" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A165" s="19" t="s">
         <v>95</v>
       </c>
       <c r="B165" s="19" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C165" s="16">
         <v>44858</v>
@@ -22959,7 +24763,7 @@
         <v>2022</v>
       </c>
       <c r="F165" s="25" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G165" s="6">
         <v>2020</v>
@@ -22977,6 +24781,39 @@
         <v>162</v>
       </c>
       <c r="T165" s="37"/>
+      <c r="U165" s="6">
+        <v>41.9</v>
+      </c>
+      <c r="V165" s="6">
+        <v>50.2</v>
+      </c>
+      <c r="W165" s="6">
+        <v>50.5</v>
+      </c>
+      <c r="X165" s="6">
+        <v>41.9</v>
+      </c>
+      <c r="AA165" s="6">
+        <v>46.3</v>
+      </c>
+      <c r="AB165" s="6">
+        <v>45.9</v>
+      </c>
+      <c r="AD165" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AE165" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="AF165" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG165" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="AH165" s="6">
+        <v>7.8</v>
+      </c>
       <c r="BA165" s="6">
         <v>41.9</v>
       </c>
@@ -23016,16 +24853,16 @@
       <c r="CW165" s="6">
         <v>48.8</v>
       </c>
-      <c r="DH165" s="19" t="s">
-        <v>597</v>
+      <c r="DL165" s="19" t="s">
+        <v>595</v>
       </c>
     </row>
-    <row r="166" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A166" s="19" t="s">
         <v>89</v>
       </c>
       <c r="B166" s="19" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C166" s="16">
         <v>44858</v>
@@ -23037,7 +24874,7 @@
         <v>2022</v>
       </c>
       <c r="F166" s="25" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G166" s="6">
         <v>3008</v>
@@ -23054,6 +24891,39 @@
       <c r="K166" s="6">
         <v>183</v>
       </c>
+      <c r="U166" s="6">
+        <v>48</v>
+      </c>
+      <c r="V166" s="6">
+        <v>51</v>
+      </c>
+      <c r="W166" s="6">
+        <v>47</v>
+      </c>
+      <c r="X166" s="6">
+        <v>40</v>
+      </c>
+      <c r="AA166" s="6">
+        <v>50</v>
+      </c>
+      <c r="AB166" s="6">
+        <v>43</v>
+      </c>
+      <c r="AD166" s="6">
+        <v>4</v>
+      </c>
+      <c r="AE166" s="6">
+        <v>6</v>
+      </c>
+      <c r="AF166" s="6">
+        <v>5</v>
+      </c>
+      <c r="AG166" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH166" s="6">
+        <v>7</v>
+      </c>
       <c r="BA166" s="6">
         <v>48</v>
       </c>
@@ -23087,16 +24957,52 @@
       <c r="BW166" s="6">
         <v>7</v>
       </c>
-      <c r="DH166" s="34" t="s">
-        <v>598</v>
+      <c r="BX166" s="6">
+        <v>45</v>
+      </c>
+      <c r="BY166" s="6">
+        <v>38</v>
+      </c>
+      <c r="BZ166" s="6">
+        <v>44</v>
+      </c>
+      <c r="CA166" s="6">
+        <v>49</v>
+      </c>
+      <c r="CE166" s="6">
+        <v>47</v>
+      </c>
+      <c r="CF166" s="6">
+        <v>36</v>
+      </c>
+      <c r="CI166" s="6">
+        <v>43</v>
+      </c>
+      <c r="CK166" s="6">
+        <v>41</v>
+      </c>
+      <c r="CL166" s="6">
+        <v>52</v>
+      </c>
+      <c r="CO166" s="6">
+        <v>36</v>
+      </c>
+      <c r="CV166" s="6">
+        <v>41</v>
+      </c>
+      <c r="CW166" s="6">
+        <v>47</v>
+      </c>
+      <c r="DL166" s="34" t="s">
+        <v>596</v>
       </c>
     </row>
-    <row r="167" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A167" s="19" t="s">
         <v>92</v>
       </c>
       <c r="B167" s="19" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C167" s="16">
         <v>44859</v>
@@ -23108,7 +25014,7 @@
         <v>2022</v>
       </c>
       <c r="F167" s="25" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G167" s="6">
         <v>5000</v>
@@ -23128,6 +25034,39 @@
       <c r="L167" s="6">
         <v>27</v>
       </c>
+      <c r="U167" s="6">
+        <v>45</v>
+      </c>
+      <c r="V167" s="6">
+        <v>52</v>
+      </c>
+      <c r="W167" s="6">
+        <v>50</v>
+      </c>
+      <c r="X167" s="6">
+        <v>38</v>
+      </c>
+      <c r="AA167" s="6">
+        <v>49</v>
+      </c>
+      <c r="AB167" s="6">
+        <v>44</v>
+      </c>
+      <c r="AD167" s="6">
+        <v>4</v>
+      </c>
+      <c r="AE167" s="6">
+        <v>6</v>
+      </c>
+      <c r="AF167" s="6">
+        <v>5</v>
+      </c>
+      <c r="AG167" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH167" s="6">
+        <v>7</v>
+      </c>
       <c r="BA167" s="6">
         <v>45</v>
       </c>
@@ -23161,16 +25100,16 @@
       <c r="BW167" s="6">
         <v>7</v>
       </c>
-      <c r="DH167" s="34" t="s">
-        <v>599</v>
+      <c r="DL167" s="34" t="s">
+        <v>597</v>
       </c>
     </row>
-    <row r="168" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A168" s="19" t="s">
         <v>108</v>
       </c>
       <c r="B168" s="19" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C168" s="16">
         <v>44859</v>
@@ -23182,7 +25121,7 @@
         <v>2022</v>
       </c>
       <c r="F168" s="25" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G168" s="6">
         <v>2000</v>
@@ -23199,6 +25138,39 @@
       <c r="K168" s="6">
         <v>120</v>
       </c>
+      <c r="U168" s="6">
+        <v>46</v>
+      </c>
+      <c r="V168" s="6">
+        <v>50</v>
+      </c>
+      <c r="W168" s="6">
+        <v>45</v>
+      </c>
+      <c r="X168" s="6">
+        <v>40</v>
+      </c>
+      <c r="AA168" s="6">
+        <v>48</v>
+      </c>
+      <c r="AB168" s="6">
+        <v>42</v>
+      </c>
+      <c r="AD168" s="6">
+        <v>5</v>
+      </c>
+      <c r="AE168" s="6">
+        <v>6</v>
+      </c>
+      <c r="AF168" s="6">
+        <v>5</v>
+      </c>
+      <c r="AG168" s="6">
+        <v>5</v>
+      </c>
+      <c r="AH168" s="6">
+        <v>10</v>
+      </c>
       <c r="BA168" s="6">
         <v>46</v>
       </c>
@@ -23238,16 +25210,16 @@
       <c r="CW168" s="6">
         <v>49</v>
       </c>
-      <c r="DH168" s="34" t="s">
-        <v>600</v>
+      <c r="DL168" s="34" t="s">
+        <v>598</v>
       </c>
     </row>
-    <row r="169" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A169" s="19" t="s">
         <v>113</v>
       </c>
       <c r="B169" s="19" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C169" s="16">
         <v>44860</v>
@@ -23259,7 +25231,7 @@
         <v>2022</v>
       </c>
       <c r="F169" s="25" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G169" s="6">
         <v>2000</v>
@@ -23273,6 +25245,21 @@
       <c r="J169" s="6" t="s">
         <v>169</v>
       </c>
+      <c r="AA169" s="6">
+        <v>46.6</v>
+      </c>
+      <c r="AB169" s="6">
+        <v>47.2</v>
+      </c>
+      <c r="AF169" s="6">
+        <v>3.7</v>
+      </c>
+      <c r="AG169" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="AH169" s="6">
+        <v>6</v>
+      </c>
       <c r="BS169" s="6">
         <v>46.6</v>
       </c>
@@ -23288,16 +25275,16 @@
       <c r="BW169" s="6">
         <v>6</v>
       </c>
-      <c r="DH169" s="34" t="s">
-        <v>602</v>
+      <c r="DL169" s="34" t="s">
+        <v>600</v>
       </c>
     </row>
-    <row r="170" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A170" s="19" t="s">
         <v>98</v>
       </c>
       <c r="B170" s="19" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C170" s="16">
         <v>44861</v>
@@ -23309,7 +25296,7 @@
         <v>2022</v>
       </c>
       <c r="F170" s="25" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G170" s="6">
         <v>4580</v>
@@ -23326,6 +25313,82 @@
       <c r="K170" s="6">
         <v>252</v>
       </c>
+      <c r="M170" s="6">
+        <v>48</v>
+      </c>
+      <c r="N170" s="6">
+        <v>52</v>
+      </c>
+      <c r="O170" s="6">
+        <v>41</v>
+      </c>
+      <c r="P170" s="6">
+        <v>35</v>
+      </c>
+      <c r="Q170" s="6">
+        <v>15</v>
+      </c>
+      <c r="R170" s="6">
+        <v>2</v>
+      </c>
+      <c r="S170" s="6">
+        <v>1</v>
+      </c>
+      <c r="T170" s="6">
+        <v>5</v>
+      </c>
+      <c r="U170" s="6">
+        <v>46</v>
+      </c>
+      <c r="V170" s="6">
+        <v>52</v>
+      </c>
+      <c r="W170" s="6">
+        <v>48</v>
+      </c>
+      <c r="X170" s="6">
+        <v>41</v>
+      </c>
+      <c r="AA170" s="6">
+        <v>49</v>
+      </c>
+      <c r="AB170" s="6">
+        <v>44</v>
+      </c>
+      <c r="AD170" s="6">
+        <v>4</v>
+      </c>
+      <c r="AE170" s="6">
+        <v>5</v>
+      </c>
+      <c r="AF170" s="6">
+        <v>5</v>
+      </c>
+      <c r="AG170" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH170" s="6">
+        <f>AF170+AG170</f>
+        <v>7</v>
+      </c>
+      <c r="AI170" s="6">
+        <v>51</v>
+      </c>
+      <c r="AJ170" s="6">
+        <v>40</v>
+      </c>
+      <c r="AK170" s="6">
+        <v>60</v>
+      </c>
+      <c r="AO170" s="6">
+        <v>42</v>
+      </c>
+      <c r="AP170" s="6">
+        <v>54</v>
+      </c>
+      <c r="AQ170" s="6">
+        <v>34</v>
+      </c>
       <c r="BA170" s="6">
         <v>46</v>
       </c>
@@ -23343,6 +25406,24 @@
       </c>
       <c r="BF170" s="6">
         <v>5</v>
+      </c>
+      <c r="BG170" s="6">
+        <v>51</v>
+      </c>
+      <c r="BH170" s="6">
+        <v>40</v>
+      </c>
+      <c r="BI170" s="6">
+        <v>60</v>
+      </c>
+      <c r="BM170" s="6">
+        <v>42</v>
+      </c>
+      <c r="BN170" s="6">
+        <v>54</v>
+      </c>
+      <c r="BO170" s="6">
+        <v>34</v>
       </c>
       <c r="BS170" s="6">
         <v>49</v>
@@ -23360,14 +25441,65 @@
         <f>BU170+BV170</f>
         <v>7</v>
       </c>
-      <c r="DH170" s="6"/>
+      <c r="BX170" s="6">
+        <v>49</v>
+      </c>
+      <c r="BY170" s="6">
+        <v>42</v>
+      </c>
+      <c r="BZ170" s="6">
+        <v>47</v>
+      </c>
+      <c r="CA170" s="6">
+        <v>52</v>
+      </c>
+      <c r="CD170" s="6">
+        <v>44</v>
+      </c>
+      <c r="CE170" s="6">
+        <v>56</v>
+      </c>
+      <c r="CF170" s="6">
+        <v>34</v>
+      </c>
+      <c r="CJ170" s="6">
+        <v>51</v>
+      </c>
+      <c r="CK170" s="6">
+        <v>42</v>
+      </c>
+      <c r="CL170" s="6">
+        <v>59</v>
+      </c>
+      <c r="CV170" s="6">
+        <v>47</v>
+      </c>
+      <c r="CW170" s="6">
+        <v>50</v>
+      </c>
+      <c r="DH170" s="6">
+        <v>28</v>
+      </c>
+      <c r="DI170" s="6">
+        <v>23</v>
+      </c>
+      <c r="DJ170" s="6">
+        <v>28</v>
+      </c>
+      <c r="DK170" s="6">
+        <f>DH170+DJ170</f>
+        <v>56</v>
+      </c>
+      <c r="DL170" s="34" t="s">
+        <v>607</v>
+      </c>
     </row>
-    <row r="171" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A171" s="19" t="s">
         <v>106</v>
       </c>
       <c r="B171" s="19" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C171" s="16">
         <v>44862</v>
@@ -23379,7 +25511,7 @@
         <v>2022</v>
       </c>
       <c r="F171" s="25" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G171" s="6">
         <v>2002</v>
@@ -23393,6 +25525,39 @@
       <c r="J171" s="6" t="s">
         <v>100</v>
       </c>
+      <c r="U171" s="6">
+        <v>43</v>
+      </c>
+      <c r="V171" s="6">
+        <v>50</v>
+      </c>
+      <c r="W171" s="6">
+        <v>50</v>
+      </c>
+      <c r="X171" s="6">
+        <v>41</v>
+      </c>
+      <c r="AA171" s="6">
+        <v>46.9</v>
+      </c>
+      <c r="AB171" s="6">
+        <v>44.9</v>
+      </c>
+      <c r="AD171" s="6">
+        <v>5</v>
+      </c>
+      <c r="AE171" s="6">
+        <v>6</v>
+      </c>
+      <c r="AF171" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="AG171" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="AH171" s="6">
+        <v>8.1999999999999993</v>
+      </c>
       <c r="BA171" s="6">
         <v>43</v>
       </c>
@@ -23426,14 +25591,14 @@
       <c r="BW171" s="6">
         <v>8.1999999999999993</v>
       </c>
-      <c r="DH171" s="6"/>
+      <c r="DL171" s="6"/>
     </row>
-    <row r="172" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A172" s="19" t="s">
         <v>108</v>
       </c>
       <c r="B172" s="19" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C172" s="16">
         <v>44863</v>
@@ -23445,7 +25610,7 @@
         <v>2022</v>
       </c>
       <c r="F172" s="25" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G172" s="6">
         <v>2000</v>
@@ -23462,6 +25627,39 @@
       <c r="K172" s="6">
         <v>120</v>
       </c>
+      <c r="U172" s="6">
+        <v>42</v>
+      </c>
+      <c r="V172" s="6">
+        <v>49</v>
+      </c>
+      <c r="W172" s="6">
+        <v>48</v>
+      </c>
+      <c r="X172" s="6">
+        <v>38</v>
+      </c>
+      <c r="AA172" s="6">
+        <v>46</v>
+      </c>
+      <c r="AB172" s="6">
+        <v>43</v>
+      </c>
+      <c r="AD172" s="6">
+        <v>6</v>
+      </c>
+      <c r="AE172" s="6">
+        <v>7</v>
+      </c>
+      <c r="AF172" s="6">
+        <v>6</v>
+      </c>
+      <c r="AG172" s="6">
+        <v>5</v>
+      </c>
+      <c r="AH172" s="6">
+        <v>11</v>
+      </c>
       <c r="BA172" s="6">
         <v>42</v>
       </c>
@@ -23501,16 +25699,16 @@
       <c r="CW172" s="6">
         <v>48</v>
       </c>
-      <c r="DH172" s="19" t="s">
-        <v>601</v>
+      <c r="DL172" s="19" t="s">
+        <v>599</v>
       </c>
     </row>
-    <row r="173" spans="1:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A173" s="19" t="s">
         <v>89</v>
       </c>
       <c r="B173" s="19" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C173" s="16">
         <v>44863</v>
@@ -23522,7 +25720,7 @@
         <v>2022</v>
       </c>
       <c r="F173" s="25" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G173" s="6">
         <v>4272</v>
@@ -23539,6 +25737,39 @@
       <c r="K173" s="6">
         <v>236</v>
       </c>
+      <c r="U173" s="6">
+        <v>48</v>
+      </c>
+      <c r="V173" s="6">
+        <v>51</v>
+      </c>
+      <c r="W173" s="6">
+        <v>46</v>
+      </c>
+      <c r="X173" s="6">
+        <v>41</v>
+      </c>
+      <c r="AA173" s="6">
+        <v>50</v>
+      </c>
+      <c r="AB173" s="6">
+        <v>43</v>
+      </c>
+      <c r="AD173" s="6">
+        <v>4</v>
+      </c>
+      <c r="AE173" s="6">
+        <v>5</v>
+      </c>
+      <c r="AF173" s="6">
+        <v>5</v>
+      </c>
+      <c r="AG173" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH173" s="6">
+        <v>7</v>
+      </c>
       <c r="BA173" s="6">
         <v>48</v>
       </c>
@@ -23572,14 +25803,52 @@
       <c r="BW173" s="6">
         <v>7</v>
       </c>
-      <c r="DH173" s="6"/>
+      <c r="BX173" s="6">
+        <v>44</v>
+      </c>
+      <c r="BY173" s="6">
+        <v>39</v>
+      </c>
+      <c r="BZ173" s="6">
+        <v>45</v>
+      </c>
+      <c r="CA173" s="6">
+        <v>49</v>
+      </c>
+      <c r="CE173" s="6">
+        <v>47</v>
+      </c>
+      <c r="CF173" s="6">
+        <v>37</v>
+      </c>
+      <c r="CI173" s="6">
+        <v>47</v>
+      </c>
+      <c r="CK173" s="6">
+        <v>42</v>
+      </c>
+      <c r="CL173" s="6">
+        <v>51</v>
+      </c>
+      <c r="CO173" s="6">
+        <v>42</v>
+      </c>
+      <c r="CV173" s="6">
+        <v>41</v>
+      </c>
+      <c r="CW173" s="6">
+        <v>47</v>
+      </c>
+      <c r="DL173" s="19" t="s">
+        <v>617</v>
+      </c>
     </row>
-    <row r="174" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A174" s="19" t="s">
         <v>98</v>
       </c>
       <c r="B174" s="19" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C174" s="16">
         <v>44863</v>
@@ -23591,7 +25860,7 @@
         <v>2022</v>
       </c>
       <c r="F174" s="25" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G174" s="6">
         <v>8308</v>
@@ -23607,6 +25876,40 @@
       </c>
       <c r="K174" s="6">
         <v>253</v>
+      </c>
+      <c r="U174" s="6">
+        <v>48</v>
+      </c>
+      <c r="V174" s="6">
+        <v>51</v>
+      </c>
+      <c r="W174" s="6">
+        <v>47</v>
+      </c>
+      <c r="X174" s="6">
+        <v>42</v>
+      </c>
+      <c r="AA174" s="6">
+        <v>49</v>
+      </c>
+      <c r="AB174" s="6">
+        <v>45</v>
+      </c>
+      <c r="AD174" s="6">
+        <v>4</v>
+      </c>
+      <c r="AE174" s="6">
+        <v>5</v>
+      </c>
+      <c r="AF174" s="6">
+        <v>4</v>
+      </c>
+      <c r="AG174" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH174" s="6">
+        <f>AF174+AG174</f>
+        <v>6</v>
       </c>
       <c r="BA174" s="6">
         <v>48</v>
@@ -23642,127 +25945,145 @@
         <f>BU174+BV174</f>
         <v>6</v>
       </c>
-      <c r="DH174" s="6"/>
+      <c r="BX174" s="6">
+        <v>48</v>
+      </c>
+      <c r="BY174" s="6">
+        <v>44</v>
+      </c>
+      <c r="BZ174" s="6">
+        <v>48</v>
+      </c>
+      <c r="CA174" s="6">
+        <v>52</v>
+      </c>
+      <c r="CV174" s="6">
+        <v>48</v>
+      </c>
+      <c r="CW174" s="6">
+        <v>50</v>
+      </c>
+      <c r="DL174" s="19" t="s">
+        <v>603</v>
+      </c>
     </row>
-    <row r="175" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:116" x14ac:dyDescent="0.25">
       <c r="CB175" s="37"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:DJ174" xr:uid="{6156B78F-4178-4430-929C-85D622A7BD0A}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="datafolha"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:DN174" xr:uid="{6156B78F-4178-4430-929C-85D622A7BD0A}"/>
   <hyperlinks>
-    <hyperlink ref="DH82" r:id="rId1" xr:uid="{F1115AC3-1322-4633-8F85-68A34C764A1F}"/>
-    <hyperlink ref="DH23" r:id="rId2" xr:uid="{4318982E-D888-4B7B-B5E5-593AF2B059A0}"/>
-    <hyperlink ref="DH63" r:id="rId3" xr:uid="{20E7E49B-4EE1-4C9F-AEFC-A7EECDECFC3E}"/>
-    <hyperlink ref="DH56" r:id="rId4" xr:uid="{5E9255B5-34BF-4FFC-AB64-76E92B7DD69F}"/>
-    <hyperlink ref="DH21" r:id="rId5" xr:uid="{FC193FD5-9871-4165-8B65-CB88F299FE92}"/>
-    <hyperlink ref="DH8" r:id="rId6" xr:uid="{84BF48D2-3507-4A19-B1B2-3E35C7EC85B5}"/>
-    <hyperlink ref="DH73" r:id="rId7" xr:uid="{7E5B9A4A-D355-4CF9-81FC-7F398716282F}"/>
-    <hyperlink ref="DH43" r:id="rId8" xr:uid="{140BC5B3-0829-42F2-8950-3780533057EB}"/>
-    <hyperlink ref="DH32" r:id="rId9" xr:uid="{442FDC6B-C5BB-42C0-9D92-FEFF7A1F5597}"/>
-    <hyperlink ref="DH44" r:id="rId10" xr:uid="{99273BAE-15BB-4CC2-B6E7-6B83425EEC3B}"/>
-    <hyperlink ref="DH40" r:id="rId11" xr:uid="{1D3EC55D-6AB4-494E-AAED-2A6AE0573995}"/>
-    <hyperlink ref="DH83" r:id="rId12" xr:uid="{7E1A8D0C-9019-4DA1-ABEC-7297E18C38E1}"/>
-    <hyperlink ref="DH84" r:id="rId13" xr:uid="{2FE9C225-E2B8-477A-B7D5-7FDE86C55CC8}"/>
-    <hyperlink ref="DH71" r:id="rId14" xr:uid="{0F8C69FF-F754-4D44-A9D1-24998548BEBA}"/>
-    <hyperlink ref="DH64" r:id="rId15" xr:uid="{31CBF7BE-5A21-416E-B629-F7F91EB56B48}"/>
-    <hyperlink ref="DH51" r:id="rId16" xr:uid="{AF1C073A-47B2-4696-91F8-373FB27F3C24}"/>
-    <hyperlink ref="DH42" r:id="rId17" xr:uid="{959345CB-36B7-4026-86BD-F6ED1238FAAE}"/>
-    <hyperlink ref="DH16" r:id="rId18" xr:uid="{D8AF98F5-A8D5-41C6-A516-12ACE96606BB}"/>
-    <hyperlink ref="DH11" r:id="rId19" xr:uid="{C958D25B-AC3E-43AF-AB6D-EB1997D5E7A3}"/>
-    <hyperlink ref="DH6" r:id="rId20" xr:uid="{613752AB-5340-486F-BC61-D6FA323B0FF8}"/>
-    <hyperlink ref="DH74" r:id="rId21" xr:uid="{6189AB33-BD55-4DC4-8A19-EA61DF4BD20B}"/>
-    <hyperlink ref="DH67" r:id="rId22" xr:uid="{2193006B-B6BA-42D2-91B8-F8A82F5F861A}"/>
-    <hyperlink ref="DH60" r:id="rId23" xr:uid="{B07DC0B9-C84C-49DA-B30D-14D1F803A326}"/>
-    <hyperlink ref="DH54" r:id="rId24" xr:uid="{D63E594C-1482-4398-9AD0-D3AC5EBF910E}"/>
-    <hyperlink ref="DH50" r:id="rId25" xr:uid="{C6B43BA2-50EE-4546-A76B-14D098DE7834}"/>
-    <hyperlink ref="DH45" r:id="rId26" xr:uid="{5BF12693-063E-40C7-B906-99D967DCE4BC}"/>
-    <hyperlink ref="DH41" r:id="rId27" xr:uid="{AC15265B-09CE-4F46-A625-F07EBF3CF95B}"/>
-    <hyperlink ref="DH38" r:id="rId28" xr:uid="{4F8D3634-1F6F-4913-8900-35332C537842}"/>
-    <hyperlink ref="DH35" r:id="rId29" xr:uid="{86725C51-EDC8-439B-B342-2F56989126D7}"/>
-    <hyperlink ref="DH30" r:id="rId30" xr:uid="{F3B4A1F2-3B5E-4575-A19D-DE3B91586074}"/>
-    <hyperlink ref="DH26" r:id="rId31" xr:uid="{84A51A9E-9642-41BF-8BAB-BB2A550FB847}"/>
-    <hyperlink ref="DH20" r:id="rId32" xr:uid="{9456F3C9-3951-4928-834C-0BB06BB26D76}"/>
-    <hyperlink ref="DH17" r:id="rId33" xr:uid="{9DCD35BD-108B-47E3-B341-360EADF7F54D}"/>
-    <hyperlink ref="DH10" r:id="rId34" xr:uid="{3024B84D-06AA-45B2-92D2-B9607DAC75E2}"/>
-    <hyperlink ref="DH7" r:id="rId35" xr:uid="{E90A583F-58E6-4CC2-B6C2-839CA19D441E}"/>
-    <hyperlink ref="DH4" r:id="rId36" xr:uid="{93E1A697-C7B7-4673-BD74-FDE0EFE60874}"/>
-    <hyperlink ref="DH33" r:id="rId37" xr:uid="{83424D50-2FB2-42E4-9391-4898671D5806}"/>
-    <hyperlink ref="DH61" r:id="rId38" xr:uid="{E1F40520-2D26-4A21-8F01-B0C0A6389270}"/>
-    <hyperlink ref="DH53" r:id="rId39" xr:uid="{4EB03EEE-EACF-421E-A3C5-0A913506F38B}"/>
-    <hyperlink ref="DH36" r:id="rId40" xr:uid="{E4F9392B-7FFF-4D51-B354-962853AE1456}"/>
-    <hyperlink ref="DH28" r:id="rId41" xr:uid="{154564D2-B9DF-4BF9-806D-B40F2F951876}"/>
-    <hyperlink ref="DH24" r:id="rId42" xr:uid="{28A5FFC0-259B-4726-812A-321C4B6E99C7}"/>
-    <hyperlink ref="DH19" r:id="rId43" xr:uid="{08B3255E-6E23-4199-A9EF-C141F67E8C7A}"/>
-    <hyperlink ref="DH81" r:id="rId44" xr:uid="{3943246B-BC30-454B-9F9C-6623B65FE7E7}"/>
-    <hyperlink ref="DH68" r:id="rId45" xr:uid="{9DC972E6-A9BC-4F95-AC09-1F2E8515F278}"/>
-    <hyperlink ref="DH18" r:id="rId46" xr:uid="{380B24C7-4DC4-4999-AB74-E38358992983}"/>
-    <hyperlink ref="DH72" r:id="rId47" xr:uid="{8367B9B1-9835-4D5B-A0D7-485045C6AEF0}"/>
-    <hyperlink ref="DH27" r:id="rId48" xr:uid="{0C148FDC-29C8-4A28-BA37-41C780B91C58}"/>
-    <hyperlink ref="DH55" r:id="rId49" xr:uid="{0A15E7BA-F55A-4AA0-A809-0C2E898AF4E0}"/>
-    <hyperlink ref="DH87" r:id="rId50" xr:uid="{A844E98C-6FB0-4511-A83F-0CACF864B1E4}"/>
-    <hyperlink ref="DH78" r:id="rId51" location="176 " xr:uid="{99645509-A7AA-493D-89A9-27E41FB4E46B}"/>
-    <hyperlink ref="DH39" r:id="rId52" location="170 " xr:uid="{C812B06B-FB4A-4B12-91EB-26501D034E93}"/>
-    <hyperlink ref="DH3" r:id="rId53" xr:uid="{128D7DB5-E64F-4F08-8097-85ED170C2B5D}"/>
-    <hyperlink ref="DH22" r:id="rId54" xr:uid="{2456031C-4687-425A-B0A4-878257470A1F}"/>
-    <hyperlink ref="DH12" r:id="rId55" xr:uid="{1E26FCA6-C9F4-4444-973E-83E5B484C35F}"/>
-    <hyperlink ref="DH80" r:id="rId56" xr:uid="{87C09F95-67E1-4DDC-B14A-F20B03065C6A}"/>
-    <hyperlink ref="DH76" r:id="rId57" xr:uid="{F93169FD-078A-45E6-9F47-E96B99182903}"/>
-    <hyperlink ref="DH75" r:id="rId58" xr:uid="{ED77230A-45CE-4E5C-82E4-0B338F907EA6}"/>
-    <hyperlink ref="DH70" r:id="rId59" xr:uid="{024C737F-11C1-4C8B-83C2-9D88363D20E4}"/>
-    <hyperlink ref="DH65" r:id="rId60" xr:uid="{9BE58AB3-347B-4746-B6B9-2440F2555788}"/>
-    <hyperlink ref="DH62" r:id="rId61" xr:uid="{9B4FE88E-2222-4A9F-8D10-0EA893721DCD}"/>
-    <hyperlink ref="DH52" r:id="rId62" xr:uid="{F05A91F9-75ED-48E6-A1AC-2D3C34404F00}"/>
-    <hyperlink ref="DH37" r:id="rId63" xr:uid="{1DA711B5-9DD0-4894-9DBB-1A3ECBF6D9A2}"/>
-    <hyperlink ref="DH86" r:id="rId64" xr:uid="{1D758828-D345-4395-86C6-D1A867DEB752}"/>
-    <hyperlink ref="DH5" r:id="rId65" xr:uid="{618DA2FD-61F8-4661-A8BC-3F7D98E6F601}"/>
-    <hyperlink ref="DH85" r:id="rId66" xr:uid="{6E43EC95-154D-4AF2-8683-0D6A92F4B6C2}"/>
-    <hyperlink ref="DH2" r:id="rId67" xr:uid="{D8310A7D-E950-49F3-8A1C-4455E93BD063}"/>
-    <hyperlink ref="DH34" r:id="rId68" location="168 " xr:uid="{995551E6-56DC-46EA-84B5-B987677BA1A6}"/>
-    <hyperlink ref="DH77" r:id="rId69" xr:uid="{7AA6D70F-29EB-43F0-9C35-2D6FDF0B7245}"/>
-    <hyperlink ref="DH58" r:id="rId70" xr:uid="{AEB9C60D-197C-455A-9C7D-60FB3298B7E5}"/>
-    <hyperlink ref="DH49" r:id="rId71" xr:uid="{423EB4BE-A10C-488E-98E9-78E23EE2530E}"/>
-    <hyperlink ref="DH25" r:id="rId72" location="165" xr:uid="{33F5B3E4-75BE-4DB4-B0A9-4A186C068E7D}"/>
-    <hyperlink ref="DH66" r:id="rId73" xr:uid="{E6B6D64A-9298-493E-97A8-104CEC23806D}"/>
-    <hyperlink ref="DH57" r:id="rId74" xr:uid="{192617B1-BA36-484C-AD49-0A90C5A91019}"/>
-    <hyperlink ref="DH48" r:id="rId75" xr:uid="{BAA0AC0D-AE6D-455A-B5C5-AF832D97AF7D}"/>
-    <hyperlink ref="DH109" r:id="rId76" xr:uid="{D7C5089D-D3F8-4C39-AF2F-C466E8C330DC}"/>
-    <hyperlink ref="DH111" r:id="rId77" xr:uid="{24FAA9CE-FBDA-431C-B5B9-C5A592406728}"/>
-    <hyperlink ref="DH116" r:id="rId78" xr:uid="{F4128C41-8BDF-4FA6-AE0F-4E7C29A0E7D6}"/>
-    <hyperlink ref="DH113" r:id="rId79" xr:uid="{B71A924E-0FFF-4F1B-817D-96D62FB1A15C}"/>
-    <hyperlink ref="DH118" r:id="rId80" xr:uid="{BC7312BB-F6C2-4287-9CB9-4341495C76AF}"/>
-    <hyperlink ref="DH114" r:id="rId81" xr:uid="{275FF379-A020-4971-ADE5-97F9E347DED5}"/>
-    <hyperlink ref="DH117" r:id="rId82" xr:uid="{0B064311-074B-44CF-9EE5-9A13A600870F}"/>
-    <hyperlink ref="DH121" r:id="rId83" xr:uid="{734D89C9-5C48-4BB0-9D74-3728B541D6B5}"/>
-    <hyperlink ref="DH122" r:id="rId84" display="https://especiaisg1.globo/politica/eleicoes/2022/pesquisas-eleitorais/presidente/1-turno/Ipec/" xr:uid="{EE326620-72FD-43B3-B15D-E359A61AB40C}"/>
-    <hyperlink ref="DH132" r:id="rId85" xr:uid="{F5ACB84B-A83D-4688-A20C-FE48B00C849A}"/>
-    <hyperlink ref="DH129" r:id="rId86" xr:uid="{24BE1FAE-8FE4-4218-B6E9-3C35205D80B8}"/>
-    <hyperlink ref="DH128" r:id="rId87" xr:uid="{9E79EDD1-6B3B-4449-A88A-A34CB7D77367}"/>
-    <hyperlink ref="DH124" r:id="rId88" xr:uid="{DDB77CA2-B402-4E97-90AD-FFD36AE53499}"/>
-    <hyperlink ref="DH125" r:id="rId89" xr:uid="{FB87DD9A-CD77-4D22-B319-11909610C3CC}"/>
-    <hyperlink ref="DH130" r:id="rId90" xr:uid="{DB796BC9-1A9B-46EA-B02E-2ADF7DF99DFD}"/>
-    <hyperlink ref="DH137" r:id="rId91" xr:uid="{1E485513-E786-458F-9F5C-E97E9F6A5EE6}"/>
-    <hyperlink ref="DH138" r:id="rId92" xr:uid="{7CCA0320-060E-4360-B99C-5BC20EE93303}"/>
-    <hyperlink ref="DH140" r:id="rId93" xr:uid="{EE5F136F-5909-43D5-86C6-45875E4255BE}"/>
-    <hyperlink ref="DH145" r:id="rId94" xr:uid="{18FF6EFB-0454-4D5F-B481-6B72497B8F3C}"/>
-    <hyperlink ref="DH141" r:id="rId95" xr:uid="{FEABC997-5827-4FC1-A1A8-8DD65140F646}"/>
-    <hyperlink ref="DH142" r:id="rId96" xr:uid="{6529FB45-8C08-4198-92E8-BE75C8A66FAD}"/>
-    <hyperlink ref="DH155" r:id="rId97" xr:uid="{FF4E8219-2B3C-4FE0-B0EB-6F1CDCDB1A46}"/>
-    <hyperlink ref="DH156" r:id="rId98" xr:uid="{55BF662C-1190-4EFF-A0C1-2AD66F2DB47A}"/>
-    <hyperlink ref="DH168" r:id="rId99" xr:uid="{84362A1E-32D4-48AF-9BE2-2B92B6C80B22}"/>
-    <hyperlink ref="DH167" r:id="rId100" xr:uid="{C881ABC6-A45E-4B9A-AAEA-8658321E53AB}"/>
-    <hyperlink ref="DH166" r:id="rId101" xr:uid="{0CE5E8B7-3DAF-4B30-8E3E-88E0CC61AD47}"/>
-    <hyperlink ref="DH135" r:id="rId102" xr:uid="{E5DCD5FD-D93A-42B9-A92A-B509134C8073}"/>
-    <hyperlink ref="DH139" r:id="rId103" xr:uid="{F6577C81-D29F-4E9C-92FA-00D660032AC3}"/>
-    <hyperlink ref="DH9" r:id="rId104" xr:uid="{150EBDB1-C512-4D67-8F5E-4B9C32CA21DC}"/>
-    <hyperlink ref="DH69" r:id="rId105" location="175 " xr:uid="{6EA4F629-EC46-499F-B621-2F9079FE0EC6}"/>
+    <hyperlink ref="DL82" r:id="rId1" xr:uid="{F1115AC3-1322-4633-8F85-68A34C764A1F}"/>
+    <hyperlink ref="DL23" r:id="rId2" xr:uid="{4318982E-D888-4B7B-B5E5-593AF2B059A0}"/>
+    <hyperlink ref="DL63" r:id="rId3" xr:uid="{20E7E49B-4EE1-4C9F-AEFC-A7EECDECFC3E}"/>
+    <hyperlink ref="DL56" r:id="rId4" xr:uid="{5E9255B5-34BF-4FFC-AB64-76E92B7DD69F}"/>
+    <hyperlink ref="DL21" r:id="rId5" xr:uid="{FC193FD5-9871-4165-8B65-CB88F299FE92}"/>
+    <hyperlink ref="DL8" r:id="rId6" xr:uid="{84BF48D2-3507-4A19-B1B2-3E35C7EC85B5}"/>
+    <hyperlink ref="DL73" r:id="rId7" xr:uid="{7E5B9A4A-D355-4CF9-81FC-7F398716282F}"/>
+    <hyperlink ref="DL43" r:id="rId8" xr:uid="{140BC5B3-0829-42F2-8950-3780533057EB}"/>
+    <hyperlink ref="DL32" r:id="rId9" xr:uid="{442FDC6B-C5BB-42C0-9D92-FEFF7A1F5597}"/>
+    <hyperlink ref="DL44" r:id="rId10" xr:uid="{99273BAE-15BB-4CC2-B6E7-6B83425EEC3B}"/>
+    <hyperlink ref="DL40" r:id="rId11" xr:uid="{1D3EC55D-6AB4-494E-AAED-2A6AE0573995}"/>
+    <hyperlink ref="DL83" r:id="rId12" xr:uid="{7E1A8D0C-9019-4DA1-ABEC-7297E18C38E1}"/>
+    <hyperlink ref="DL84" r:id="rId13" xr:uid="{2FE9C225-E2B8-477A-B7D5-7FDE86C55CC8}"/>
+    <hyperlink ref="DL71" r:id="rId14" xr:uid="{0F8C69FF-F754-4D44-A9D1-24998548BEBA}"/>
+    <hyperlink ref="DL64" r:id="rId15" xr:uid="{31CBF7BE-5A21-416E-B629-F7F91EB56B48}"/>
+    <hyperlink ref="DL51" r:id="rId16" xr:uid="{AF1C073A-47B2-4696-91F8-373FB27F3C24}"/>
+    <hyperlink ref="DL42" r:id="rId17" xr:uid="{959345CB-36B7-4026-86BD-F6ED1238FAAE}"/>
+    <hyperlink ref="DL16" r:id="rId18" xr:uid="{D8AF98F5-A8D5-41C6-A516-12ACE96606BB}"/>
+    <hyperlink ref="DL11" r:id="rId19" xr:uid="{C958D25B-AC3E-43AF-AB6D-EB1997D5E7A3}"/>
+    <hyperlink ref="DL6" r:id="rId20" xr:uid="{613752AB-5340-486F-BC61-D6FA323B0FF8}"/>
+    <hyperlink ref="DL74" r:id="rId21" xr:uid="{6189AB33-BD55-4DC4-8A19-EA61DF4BD20B}"/>
+    <hyperlink ref="DL67" r:id="rId22" xr:uid="{2193006B-B6BA-42D2-91B8-F8A82F5F861A}"/>
+    <hyperlink ref="DL60" r:id="rId23" xr:uid="{B07DC0B9-C84C-49DA-B30D-14D1F803A326}"/>
+    <hyperlink ref="DL54" r:id="rId24" xr:uid="{D63E594C-1482-4398-9AD0-D3AC5EBF910E}"/>
+    <hyperlink ref="DL50" r:id="rId25" xr:uid="{C6B43BA2-50EE-4546-A76B-14D098DE7834}"/>
+    <hyperlink ref="DL45" r:id="rId26" xr:uid="{5BF12693-063E-40C7-B906-99D967DCE4BC}"/>
+    <hyperlink ref="DL41" r:id="rId27" xr:uid="{AC15265B-09CE-4F46-A625-F07EBF3CF95B}"/>
+    <hyperlink ref="DL38" r:id="rId28" xr:uid="{4F8D3634-1F6F-4913-8900-35332C537842}"/>
+    <hyperlink ref="DL35" r:id="rId29" xr:uid="{86725C51-EDC8-439B-B342-2F56989126D7}"/>
+    <hyperlink ref="DL30" r:id="rId30" xr:uid="{F3B4A1F2-3B5E-4575-A19D-DE3B91586074}"/>
+    <hyperlink ref="DL26" r:id="rId31" xr:uid="{84A51A9E-9642-41BF-8BAB-BB2A550FB847}"/>
+    <hyperlink ref="DL20" r:id="rId32" xr:uid="{9456F3C9-3951-4928-834C-0BB06BB26D76}"/>
+    <hyperlink ref="DL17" r:id="rId33" xr:uid="{9DCD35BD-108B-47E3-B341-360EADF7F54D}"/>
+    <hyperlink ref="DL10" r:id="rId34" xr:uid="{3024B84D-06AA-45B2-92D2-B9607DAC75E2}"/>
+    <hyperlink ref="DL7" r:id="rId35" xr:uid="{E90A583F-58E6-4CC2-B6C2-839CA19D441E}"/>
+    <hyperlink ref="DL4" r:id="rId36" xr:uid="{93E1A697-C7B7-4673-BD74-FDE0EFE60874}"/>
+    <hyperlink ref="DL33" r:id="rId37" xr:uid="{83424D50-2FB2-42E4-9391-4898671D5806}"/>
+    <hyperlink ref="DL61" r:id="rId38" xr:uid="{E1F40520-2D26-4A21-8F01-B0C0A6389270}"/>
+    <hyperlink ref="DL53" r:id="rId39" xr:uid="{4EB03EEE-EACF-421E-A3C5-0A913506F38B}"/>
+    <hyperlink ref="DL36" r:id="rId40" xr:uid="{E4F9392B-7FFF-4D51-B354-962853AE1456}"/>
+    <hyperlink ref="DL28" r:id="rId41" xr:uid="{154564D2-B9DF-4BF9-806D-B40F2F951876}"/>
+    <hyperlink ref="DL24" r:id="rId42" xr:uid="{28A5FFC0-259B-4726-812A-321C4B6E99C7}"/>
+    <hyperlink ref="DL19" r:id="rId43" xr:uid="{08B3255E-6E23-4199-A9EF-C141F67E8C7A}"/>
+    <hyperlink ref="DL81" r:id="rId44" xr:uid="{3943246B-BC30-454B-9F9C-6623B65FE7E7}"/>
+    <hyperlink ref="DL68" r:id="rId45" xr:uid="{9DC972E6-A9BC-4F95-AC09-1F2E8515F278}"/>
+    <hyperlink ref="DL18" r:id="rId46" xr:uid="{380B24C7-4DC4-4999-AB74-E38358992983}"/>
+    <hyperlink ref="DL72" r:id="rId47" xr:uid="{8367B9B1-9835-4D5B-A0D7-485045C6AEF0}"/>
+    <hyperlink ref="DL27" r:id="rId48" xr:uid="{0C148FDC-29C8-4A28-BA37-41C780B91C58}"/>
+    <hyperlink ref="DL55" r:id="rId49" xr:uid="{0A15E7BA-F55A-4AA0-A809-0C2E898AF4E0}"/>
+    <hyperlink ref="DL87" r:id="rId50" xr:uid="{A844E98C-6FB0-4511-A83F-0CACF864B1E4}"/>
+    <hyperlink ref="DL78" r:id="rId51" location="176 " xr:uid="{99645509-A7AA-493D-89A9-27E41FB4E46B}"/>
+    <hyperlink ref="DL39" r:id="rId52" location="170 " xr:uid="{C812B06B-FB4A-4B12-91EB-26501D034E93}"/>
+    <hyperlink ref="DL3" r:id="rId53" xr:uid="{128D7DB5-E64F-4F08-8097-85ED170C2B5D}"/>
+    <hyperlink ref="DL22" r:id="rId54" xr:uid="{2456031C-4687-425A-B0A4-878257470A1F}"/>
+    <hyperlink ref="DL12" r:id="rId55" xr:uid="{1E26FCA6-C9F4-4444-973E-83E5B484C35F}"/>
+    <hyperlink ref="DL80" r:id="rId56" xr:uid="{87C09F95-67E1-4DDC-B14A-F20B03065C6A}"/>
+    <hyperlink ref="DL76" r:id="rId57" xr:uid="{F93169FD-078A-45E6-9F47-E96B99182903}"/>
+    <hyperlink ref="DL75" r:id="rId58" xr:uid="{ED77230A-45CE-4E5C-82E4-0B338F907EA6}"/>
+    <hyperlink ref="DL70" r:id="rId59" xr:uid="{024C737F-11C1-4C8B-83C2-9D88363D20E4}"/>
+    <hyperlink ref="DL65" r:id="rId60" xr:uid="{9BE58AB3-347B-4746-B6B9-2440F2555788}"/>
+    <hyperlink ref="DL62" r:id="rId61" xr:uid="{9B4FE88E-2222-4A9F-8D10-0EA893721DCD}"/>
+    <hyperlink ref="DL52" r:id="rId62" xr:uid="{F05A91F9-75ED-48E6-A1AC-2D3C34404F00}"/>
+    <hyperlink ref="DL37" r:id="rId63" xr:uid="{1DA711B5-9DD0-4894-9DBB-1A3ECBF6D9A2}"/>
+    <hyperlink ref="DL86" r:id="rId64" xr:uid="{1D758828-D345-4395-86C6-D1A867DEB752}"/>
+    <hyperlink ref="DL5" r:id="rId65" xr:uid="{618DA2FD-61F8-4661-A8BC-3F7D98E6F601}"/>
+    <hyperlink ref="DL85" r:id="rId66" xr:uid="{6E43EC95-154D-4AF2-8683-0D6A92F4B6C2}"/>
+    <hyperlink ref="DL2" r:id="rId67" xr:uid="{D8310A7D-E950-49F3-8A1C-4455E93BD063}"/>
+    <hyperlink ref="DL34" r:id="rId68" location="168 " xr:uid="{995551E6-56DC-46EA-84B5-B987677BA1A6}"/>
+    <hyperlink ref="DL77" r:id="rId69" xr:uid="{7AA6D70F-29EB-43F0-9C35-2D6FDF0B7245}"/>
+    <hyperlink ref="DL58" r:id="rId70" xr:uid="{AEB9C60D-197C-455A-9C7D-60FB3298B7E5}"/>
+    <hyperlink ref="DL49" r:id="rId71" xr:uid="{423EB4BE-A10C-488E-98E9-78E23EE2530E}"/>
+    <hyperlink ref="DL25" r:id="rId72" location="165" xr:uid="{33F5B3E4-75BE-4DB4-B0A9-4A186C068E7D}"/>
+    <hyperlink ref="DL66" r:id="rId73" xr:uid="{E6B6D64A-9298-493E-97A8-104CEC23806D}"/>
+    <hyperlink ref="DL57" r:id="rId74" xr:uid="{192617B1-BA36-484C-AD49-0A90C5A91019}"/>
+    <hyperlink ref="DL48" r:id="rId75" xr:uid="{BAA0AC0D-AE6D-455A-B5C5-AF832D97AF7D}"/>
+    <hyperlink ref="DL109" r:id="rId76" xr:uid="{D7C5089D-D3F8-4C39-AF2F-C466E8C330DC}"/>
+    <hyperlink ref="DL111" r:id="rId77" xr:uid="{24FAA9CE-FBDA-431C-B5B9-C5A592406728}"/>
+    <hyperlink ref="DL116" r:id="rId78" xr:uid="{F4128C41-8BDF-4FA6-AE0F-4E7C29A0E7D6}"/>
+    <hyperlink ref="DL113" r:id="rId79" xr:uid="{B71A924E-0FFF-4F1B-817D-96D62FB1A15C}"/>
+    <hyperlink ref="DL118" r:id="rId80" xr:uid="{BC7312BB-F6C2-4287-9CB9-4341495C76AF}"/>
+    <hyperlink ref="DL114" r:id="rId81" xr:uid="{275FF379-A020-4971-ADE5-97F9E347DED5}"/>
+    <hyperlink ref="DL117" r:id="rId82" xr:uid="{0B064311-074B-44CF-9EE5-9A13A600870F}"/>
+    <hyperlink ref="DL121" r:id="rId83" xr:uid="{734D89C9-5C48-4BB0-9D74-3728B541D6B5}"/>
+    <hyperlink ref="DL122" r:id="rId84" display="https://especiaisg1.globo/politica/eleicoes/2022/pesquisas-eleitorais/presidente/1-turno/Ipec/" xr:uid="{EE326620-72FD-43B3-B15D-E359A61AB40C}"/>
+    <hyperlink ref="DL132" r:id="rId85" xr:uid="{F5ACB84B-A83D-4688-A20C-FE48B00C849A}"/>
+    <hyperlink ref="DL129" r:id="rId86" xr:uid="{24BE1FAE-8FE4-4218-B6E9-3C35205D80B8}"/>
+    <hyperlink ref="DL128" r:id="rId87" xr:uid="{9E79EDD1-6B3B-4449-A88A-A34CB7D77367}"/>
+    <hyperlink ref="DL124" r:id="rId88" xr:uid="{DDB77CA2-B402-4E97-90AD-FFD36AE53499}"/>
+    <hyperlink ref="DL125" r:id="rId89" xr:uid="{FB87DD9A-CD77-4D22-B319-11909610C3CC}"/>
+    <hyperlink ref="DL130" r:id="rId90" xr:uid="{DB796BC9-1A9B-46EA-B02E-2ADF7DF99DFD}"/>
+    <hyperlink ref="DL137" r:id="rId91" xr:uid="{1E485513-E786-458F-9F5C-E97E9F6A5EE6}"/>
+    <hyperlink ref="DL138" r:id="rId92" xr:uid="{7CCA0320-060E-4360-B99C-5BC20EE93303}"/>
+    <hyperlink ref="DL141" r:id="rId93" xr:uid="{FEABC997-5827-4FC1-A1A8-8DD65140F646}"/>
+    <hyperlink ref="DL142" r:id="rId94" xr:uid="{6529FB45-8C08-4198-92E8-BE75C8A66FAD}"/>
+    <hyperlink ref="DL155" r:id="rId95" xr:uid="{FF4E8219-2B3C-4FE0-B0EB-6F1CDCDB1A46}"/>
+    <hyperlink ref="DL156" r:id="rId96" xr:uid="{55BF662C-1190-4EFF-A0C1-2AD66F2DB47A}"/>
+    <hyperlink ref="DL168" r:id="rId97" xr:uid="{84362A1E-32D4-48AF-9BE2-2B92B6C80B22}"/>
+    <hyperlink ref="DL167" r:id="rId98" xr:uid="{C881ABC6-A45E-4B9A-AAEA-8658321E53AB}"/>
+    <hyperlink ref="DL166" r:id="rId99" xr:uid="{0CE5E8B7-3DAF-4B30-8E3E-88E0CC61AD47}"/>
+    <hyperlink ref="DL135" r:id="rId100" xr:uid="{E5DCD5FD-D93A-42B9-A92A-B509134C8073}"/>
+    <hyperlink ref="DL139" r:id="rId101" xr:uid="{F6577C81-D29F-4E9C-92FA-00D660032AC3}"/>
+    <hyperlink ref="DL9" r:id="rId102" xr:uid="{150EBDB1-C512-4D67-8F5E-4B9C32CA21DC}"/>
+    <hyperlink ref="DL69" r:id="rId103" location="175 " xr:uid="{6EA4F629-EC46-499F-B621-2F9079FE0EC6}"/>
+    <hyperlink ref="DL95" r:id="rId104" xr:uid="{53516206-EC5C-43F4-AEFC-A602B4A5B4A0}"/>
+    <hyperlink ref="DL152" r:id="rId105" xr:uid="{D6119053-309F-45DE-9E55-535B663A5E3E}"/>
+    <hyperlink ref="DL140" r:id="rId106" xr:uid="{EBAF3AFC-4F25-473C-B8D2-79ABF80A724D}"/>
+    <hyperlink ref="DL110" r:id="rId107" xr:uid="{54E4E150-9420-4F31-8375-A520795CF813}"/>
+    <hyperlink ref="DL170" r:id="rId108" xr:uid="{3A41F4D2-0777-4C3C-8D22-28D92E2473A8}"/>
+    <hyperlink ref="DL149" r:id="rId109" xr:uid="{3CE3BC7F-8846-44DA-88F9-287560D7A5C9}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId106"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId110"/>
 </worksheet>
 </file>